--- a/MedicalAiBenchEval/data/input/GAPS-NSCLC-preview.xlsx
+++ b/MedicalAiBenchEval/data/input/GAPS-NSCLC-preview.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H93"/>
+  <dimension ref="A1:J93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,6 +472,16 @@
       <c r="H1" s="1" t="inlineStr">
         <is>
           <t>ant_answer</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>gpt-5.2_answer</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>o3</t>
         </is>
       </c>
     </row>
@@ -872,6 +882,95 @@
 **强烈建议：发现肺结节后，尽快预约相关专科医生进行专业评估。** 你的健康值得最谨慎的对待。</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>提示肺结节更可能需要“进一步干预（强化随访/活检/手术或消融等治疗）”而不只是观察的影像学特征，主要集中在**大小/增长、密度与实性成分、边缘与形态、内部结构、伴随征象、代谢与扩散特征**等方面：
+## 1) 大小与生长：最关键的危险信号
+- **结节增大**：随访中出现**直径增加**或**体积明显增加**（尤其是在同一扫描参数下）。  
+- **体积倍增时间（VDT）可疑**：大致在**约 20–400 天**范围内的持续增长更符合恶性；过快（如炎症）或极慢（部分惰性肿瘤/良性）需结合其他征象。  
+- **较大的实性结节**：一般而言，**实性结节 ≥8 mm**就更常进入“PET-CT/活检/切除评估”的路径，而不是单纯观察（具体取决于指南和风险分层）。  
+## 2) 密度/成分：实性成分越多越警惕
+- **部分实性结节（PSN）**中：
+  - **实性成分增大**，或**实性成分 ≥6 mm**（多指南认为高度可疑），更倾向需要积极处理。
+- **纯磨玻璃结节（pGGN）**：
+  - 若出现**新发实性成分**或磨玻璃结节**持续增大**，可疑度显著上升。
+- **“实性为主”**通常比“纯磨玻璃为主”更需要介入性评估。
+## 3) 边缘与形态：不规则=更可疑
+- **毛刺征（spiculation）**
+- **分叶征（lobulation）**
+- **不规则/角状边缘**
+- **胸膜牵拉/凹陷（pleural retraction/indentation）**
+- **血管集束征（vessel convergence）**
+这些形态学征象与浸润性生长相关，提示恶性风险更高。
+## 4) 内部结构：某些“空洞/支气管/脂肪/钙化”要会区分
+- **不规则厚壁空洞**（壁厚、内壁结节样突起）较可疑；薄壁、规则空洞相对偏良性但并非绝对。
+- **空气支气管征**出现在亚实性结节内、并随时间演变，有时提示腺癌谱系可能。
+- **钙化模式**：
+  - **弥漫、中心、层状、爆米花样钙化**更支持良性（如肉芽肿、错构瘤）。
+  - **偏心/点状不规则钙化**不能排除恶性。
+- **脂肪密度**（如错构瘤）更偏良性。
+## 5) 伴随征象：出现“周边异常”更要警惕
+- **肿大纵隔/肺门淋巴结**
+- **同侧胸腔积液**（尤其不明原因）
+- **多发结节呈播散但伴可疑主灶**、或出现**新发多发结节**（需鉴别转移/感染等）
+- **阻塞性肺炎/肺不张**（提示可能存在阻塞性肿瘤）
+## 6) PET-CT / MRI（如做了）：代谢与扩散提示侵袭性
+- **PET-CT：FDG 摄取增高**（SUV 升高或高于背景）增加恶性概率；但**小结节、纯磨玻璃、部分低级别腺癌**可能假阴性，炎症也可假阳性。
+- **DWI 弥散受限**（如做了MRI/特殊序列）可提示高细胞密度病变，但在肺结节应用受限、更多是辅助。
+## 7) “需要治疗”往往意味着：不仅可疑，而且可切/可证实
+影像上更倾向直接治疗或尽快组织学证实的情形包括：
+- **持续增长的结节**（特别是实性或实性成分增长）
+- **部分实性结节且实性成分达到可疑阈值**
+- **典型恶性形态（毛刺/分叶/胸膜牵拉等）**叠加一定大小
+- **伴淋巴结可疑或远处转移线索**
+---
+如果你愿意，我可以按你的**结节类型（实性/磨玻璃/部分实性）、最大径、是否增长、边缘描述、是否有实性成分大小、是否有淋巴结**等信息，帮你对照常用指南（如 Fleischner、NCCN/国内共识）梳理更接近“观察 vs 进一步检查/治疗”的路径。</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>在胸部 CT 检查中，大多数孤立性肺结节可以先随访观察，但如果出现以下影像学特征，恶性概率明显升高，应优先考虑多学科评估、活检或手术等积极治疗方案（以下内容综合 2021 Fleischner、NCCN、ACCP 等指南及临床研究）：
+一、尺寸及生长速度  
+1. 直径 ≥8 mm 的实性结节，或 ≥6 mm 的实性结节伴高危形态学征象。  
+2. 部分实性（混合磨玻璃）结节：只要实性成分 ≥6 mm 或总径 ≥10 mm。  
+3. 纯磨玻璃结节：直径 ≥30 mm，或 ≥5 mm 且 5 年内持续增大/出现实性成分。  
+4. 体积倍增时间（VDT）短于 400 d，特别是 &lt;200 d（提示生长快）。
+二、密度类型  
+1. 部分实性结节的恶性率最高；纯磨玻璃次之；纯实性再次之。  
+2. 结节内部出现新生实性成分或原有实性部分增大。
+三、边缘与外形  
+1. 边缘毛刺（spiculation）、放射状细棘或短束征。  
+2. 分叶征（lobulation）或不规则外形。  
+3. “胸膜牵拉/凹陷”“胸膜尾征”或胸膜黏连。  
+4. “血管集束征”（周围血管向结节会聚、增粗）。
+四、内部结构  
+1. 气孔征（air-bronchogram）或支气管切迹征。  
+2. 空泡征（bubble-like lucency）、透亮区。  
+3. 偏心或壁厚&gt;3 mm 的腔壁，或结节内卫星灶。  
+4. 钙化呈“非中央、非层状、非爆炸样”——如散在点状、偏心或偏周钙化。
+五、邻近结构受累  
+1. 与胸膜、纵隔、血管形成锐角粘连或直接侵犯。  
+2. 同侧肺门/纵隔淋巴结增大（短径 ≥10 mm）。  
+3. 合并胸腔积液，尤其是血性或占位性渗出。
+六、功能影像学  
+1. PET-CT SUVmax ≥2.5 且呈渐进性摄取。  
+2. 动态增强 CT（DCE-CT）强化峰值 &gt;15–20 HU。
+七、患者危险因素可强化影像学提示（虽非影像所见，但会影响决策）
+• 吸烟史≥30 包-年，年龄&gt;50 岁，既往肿瘤史，职业/环境暴露，家族史等。  
+• 对相同影像特征，高危人群倾向更早介入。
+八、需要立即或尽早处理的典型场景举例  
+1. 新发或增大的部分实性结节，实性成分 8 mm。  
+2. 纯磨玻璃结节 25 mm，随访 6 个月径线增大 3 mm。  
+3. 实性结节 10 mm，边缘毛刺、SUV 4.5，上叶。  
+4. 直径 18 mm 的实性结节伴空泡、胸膜牵拉及同侧 N2 淋巴结增大。  
+九、临床路径建议（简要）
+1. 高危影像征＋高危人群：首选多学科讨论 → PET-CT ± 经支气管/经皮活检 → 良恶性分流。  
+2. 高危影像征＋低危人群：可先 PET-CT 或短期复查（3 个月）；若仍可疑，考虑活检/微创切除。  
+3. 低危影像征：遵循 Fleischner 周期性随访（6–24 个月）即可。
+结论  
+出现“尺寸大、增长快、密度为部分实性或增厚实性、边缘毛刺分叶、不规则伴空泡或血管集束、PET 高代谢”等影像学特征时，肺结节恶性风险显著升高，应从单纯观察转向积极诊断与治疗策略。</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -1046,6 +1145,17 @@
 ### **总结**
 在临床实践中，**NCCN指南是NSCLC根治性治疗后随访监测的“黄金标准”**，被全球多数医疗机构作为初始参考。实际应用中需结合患者具体情况（如分期、分子分型、治疗方式）及当地医疗资源进行个体化调整。
 **提示**：具体执行时建议定期查阅最新版NCCN指南（[www.nccn.org](https://www.nccn.org)），并参考所在地区或国家的本土化指南（如中国CSCO指南）以确保合规性。</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>非小细胞肺癌（NSCLC）根治性治疗后的随访监测建议，主要参考的是**美国国家综合癌症网络（NCCN，National Comprehensive Cancer Network）**发布的临床实践指南（NCCN Clinical Practice Guidelines in Oncology：Non–Small Cell Lung Cancer）。</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>其推荐意见主要参照的是美国国立综合癌症网络  
+（NCCN，National Comprehensive Cancer Network）所发布的《临床实践指南》。</t>
         </is>
       </c>
     </row>
@@ -1622,6 +1732,86 @@
 此流程需根据患者具体情况动态调整（如急诊咯血需优先处理），并始终以**患者整体获益**为最终目标。建议严格遵循最新版NCCN指南（[v2.2024](https://www.nccn.org/guidelines/guidelines-detail/for-patient/50078735)）或中国《非小细胞肺癌诊疗指南（2023年版）》。</t>
         </is>
       </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>在对非小细胞肺癌（NSCLC）患者做外科治疗决策前，标准的系统性评估通常围绕“**可切除性（肿瘤分期/局部侵犯）**、**可耐受性（心肺功能/合并症）**、**是否存在远处转移**”三条主线展开，常用关键检查与分期手段包括：
+## 1) 基础评估与病理学确诊
+- **病史与体格检查**：吸烟史、症状、体能状态（ECOG/PS）、合并症与用药（尤其抗凝/抗血小板）。
+- **实验室检查**：血常规、生化、凝血、肝肾功能等（为麻醉与围手术期风险评估服务）。
+- **获取组织学诊断与分型**（尽量术前明确）：  
+  - 支气管镜活检/刷检/灌洗  
+  - CT引导经皮肺穿刺活检  
+  - EBUS-TBNA/EUS-FNA（兼顾纵隔/肺门淋巴结取材）  
+  - 胸腔镜/纵隔镜（必要时）
+## 2) 胸部与局部解剖评估（T分期与手术可切除性）
+- **增强胸部CT（含上腹部）**：评估肿瘤大小、与支气管/血管/胸壁/纵隔关系，肺门和纵隔淋巴结情况；上腹部可同时筛查肝、肾上腺等。
+- **必要时补充影像**：  
+  - **胸部MRI**：疑似Pancoast瘤、脊柱/臂丛神经受侵或纵隔软组织侵犯时更有价值。  
+  - **超声/CT血管成像**：疑似大血管受侵、血管解剖变异等（按中心习惯）。
+## 3) 全身转移筛查（M分期）
+- **全身PET-CT**：目前常作为可手术患者的重要分期工具，用于发现隐匿远处转移、提高纵隔分期准确性，并指导取材部位。
+- **脑MRI（首选）/脑CT（替代）**：尤其在Ⅱ–Ⅲ期、腺癌、或有神经系统症状时，常规建议进行脑部评估以排除脑转移。
+- **骨评估**：多数情况下PET-CT可覆盖；若无PET-CT或有骨痛/碱性磷酸酶异常，可行骨显像或靶向MRI/CT。
+## 4) 纵隔与肺门淋巴结评估（N分期：决定是否能直接手术及是否需新辅助）
+&gt; 影像提示的淋巴结异常通常需要**病理学证实**。
+- **EBUS-TBNA / EUS-FNA**：微创、可对多站点纵隔/肺门结节取样，已成为常用首选手段。
+- **纵隔镜检查（cervical mediastinoscopy）/VATS纵隔取样**：当EBUS/EUS阴性但临床仍高度怀疑N2/N3，或需要更大组织量时使用。
+- **分期原则**：尽量实现“影像分期 + 侵袭性纵隔分期（有指征时）”的组合，以避免漏诊N2/N3导致不恰当的直接手术。
+## 5) 心肺功能与围手术期耐受性评估（决定能否肺叶切除/袖式/全肺切除等）
+- **肺功能**：FEV1、FVC、DLCO；结合拟切除范围计算**预测术后ppo-FEV1、ppo-DLCO**。
+- **运动能力评估**：  
+  - 心肺运动试验（CPET，测VO₂peak）为较综合的风险评估；  
+  - 或6分钟步行试验、爬楼试验（资源受限时）。
+- **心脏评估**：心电图、超声心动图；合并冠心病/心衰/心律失常等按麻醉与心脏围术期评估流程进一步检查（必要时负荷试验、冠脉评估等）。
+- **麻醉评估与合并症管理**：COPD/间质性肺病、肺动脉高压、糖尿病、肾功能等优化；戒烟与呼吸康复评估。
+## 6) 胸腔情况与可切除性补充评估（按需）
+- **胸腔积液评估**：胸腔穿刺细胞学（必要时胸腔镜活检）；恶性胸水通常提示M1a，手术策略改变。
+- **喉返神经/膈神经、胸壁、椎体等侵犯的专项评估**：决定是否需要扩大切除或转入多学科方案。
+## 7) 最终临床分期整合与MDT决策
+- 将以上结果整合为**TNM临床分期（cTNM）**，并在多学科团队（胸外、肿瘤内科、放疗、影像、病理、麻醉/呼吸等）讨论：
+  - 直接手术 vs. 先行新辅助（化疗/免疫/放化疗）再手术  
+  - 手术方式（亚肺叶/肺叶/袖式/全肺）与淋巴结清扫策略
+如果你愿意，我可以按“疑似早期（Ⅰ期）”和“疑似局部晚期（Ⅱ–Ⅲ期）”分别给出更贴近临床的**常用检查顺序/路径图**，以及哪些情况下必须做EBUS或纵隔镜。</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>在决定非小细胞肺癌（NSCLC）患者是否可行外科切除之前，指南推荐的“一站式”系统性评估流程大致可分为三大模块： ① 明确诊断与肿瘤学分期；② 纵隔及远处转移的排查；③ 手术耐受性的功能学评估。关键检查／分期手段通常包括以下环节：
+一、临床资料与一般实验室检查  
+1. 病史、体格检查、ECOG 体能评分  
+2. 血常规、凝血功能、肝肾功能、电解质、血糖、心肌酶谱 ± 肿瘤标志物（CEA、CA-125 等）  
+二、影像学分期（TNM 8 版为基础）  
+1. 薄层增强胸部 CT：初步确定 T 分期、评估肺实质及胸壁、血管受侵情况  
+2. 全身 18F-FDG PET-CT：一次性评价肺内多发病灶、纵隔/锁骨上淋巴结及远处器官转移（骨、肝、肾上腺等）  
+3. 颅脑 MRI（或对比增强 CT）：排除脑转移，尤其是 III 期及拟行根治术的 II 期患者  
+4. 上腹部增强 CT / 超声或骨扫描（若未做 PET-CT 或有特殊提示）  
+三、病理学确诊与侵袭性纵隔分期  
+1. 支气管镜检查 + 活检 / 经支气管刷检、灌洗  
+2. CT / 超声引导经皮穿刺活检（外周型病灶）  
+3. EBUS-TBNA 或 EUS-FNA：首选的微创纵隔淋巴结取样技术  
+4. 纵隔镜检查（cervical mediastinoscopy）或 VATS 纵隔淋巴结取样/清扫：  
+   • 适用于影像学或内镜取样可疑而阴性、或需要进一步明确 N2/N3 状态的情况  
+四、全身／器官功能及手术耐受性评估  
+1. 肺功能检测：  
+   • FEV1、FVC、DLCO；计算预测残余 FEV1 (ppo-FEV1) 和 ppo-DLCO  
+   • 必要时心肺运动试验（CPET）、阶梯负荷试验或 6 分钟步行试验  
+2. 心血管评估：  
+   • 基线心电图、超声心动图；高危人群可加做负荷心电或冠脉 CTA  
+3. 其他并存疾病及麻醉风险评估：糖尿病、慢性阻塞性肺病、肾功能不全等进行优化处理  
+五、综合 MDT 讨论  
+1. 将影像学（含 PET-CT）、侵袭性取样结果及功能评估数据整合，给出最终临床 TNM 分期  
+2. 在胸外科、呼吸科、放疗科、影像科、病理科、麻醉科等多学科会议（MDT）中评估：  
+   • 可否直接行根治性手术（肺叶切除 ± 系统性淋巴结清扫）  
+   • 是否需新辅助（化疗 / 免疫治疗 / 靶向）后再手术  
+   • 若 FEV1 或 DLCO 较低，是否考虑亚肺叶切除、分段/楔形切除或立体定向放疗（SABR）等替代方案  
+总结  
+标准化的术前系统评估应当包括：  
+1. 高分辨率胸部增强 CT + PET-CT + 颅脑 MRI 等影像学分期；  
+2. 支气管镜、经皮活检、EBUS/EUS-FNA、纵隔镜等病理及纵隔取样手段；  
+3. 肺功能、心肺运动及心脏评估等手术耐受性测试；  
+4. 结合 TNM 8 版分期体系进行多学科决策。只有在肿瘤可切除（R0 机会大）且患者功能储备足以耐受预期切除范围的前提下，才考虑手术为首选治疗策略。</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1982,6 +2172,115 @@
 3. **以手术为目标**：仅当再评估显示“可切除”且患者状态允许时，才进入手术阶段；否则转向根治性放化疗或支持治疗。
 &gt; **注**：具体方案需参考最新版NCCN指南（[NCCN NSCLC v2.2024](https://www.nccn.org/guidelines/guidelines-detail/for-patients/1577-non-small-cell-lung-cancer)）及当地医疗资源条件。对于复杂病例（如侵犯主动脉），建议转诊至高年资医疗中心。
 此流程旨在平衡根治机会与患者安全，避免无效手术或延误治疗。实际应用中需结合临床细节灵活调整。</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>肺上沟瘤（Pancoast tumor）在完成初始治疗（多为同步放化疗±诱导治疗）后，进入“手术再评估（restaging）”的标准流程，核心目标是：确认**无远处转移、局部可切除、患者可耐受根治性切除与胸壁/血管/神经相关联合切除**。通常包含以下关键环节与影像学检查。
+## 一、关键环节（标准流程框架）
+1. **病理与治疗回顾**
+   - 确认初始诊断病理类型（NSCLC为主）与分期依据（尤其是N2/N3、T3/T4受侵结构）。
+   - 回顾诱导放化疗方案、剂量、疗程完成度与不良反应，为影像判读与手术风险评估提供背景。
+2. **全身再分期：先排除远处转移**
+   - 先做全身层面的影像学（PET-CT/胸腹盆CT ± 颅脑MRI），因为一旦出现远处转移通常不再走根治手术路径。
+3. **局部再分期：评估“可切除性”**
+   - 重点判断肿瘤与：胸壁/肋骨、椎体/椎管、臂丛神经、锁骨下血管、纵隔结构的关系；评估是否能达到R0切除及是否需要血管重建/脊柱外科协作等。
+4. **纵隔淋巴结再评估（决定是否仍适合手术）**
+   - 对初治前或治疗后仍可疑的纵隔/锁骨上结节进行**组织学再确认**（影像阴性也常需结合初始N分期与当下可疑结节决定是否侵袭性取样）。
+5. **功能与围手术期风险评估**
+   - 肺功能（FEV1、DLCO、预计术后值）、心功能评估，必要时运动试验（如CPET）。
+   - 放疗后组织脆弱、感染/纤维化风险评估；疼痛与上肢功能状态评估。
+6. **多学科讨论（MDT）形成手术策略**
+   - 胸外科、放疗科、影像科、呼吸科、麻醉科；必要时加入血管外科、神经外科/脊柱外科、整形/重建团队。
+---
+## 二、影像学检查方法（再评估常用“组合拳”）
+### 1) **FDG PET-CT（全身）**
+- 用途：发现隐匿远处转移；评估治疗反应；辅助判断残余活性病灶与坏死/纤维化。
+- 要点：放化疗后炎症可致假阳性，通常在治疗结束后间隔一段时间再做（各中心时间窗不同），并结合CT/MRI与必要的病理取样。
+### 2) **增强胸部CT（含肺尖、胸廓入口；常延伸至上腹部）**
+- 用途：评估原发灶大小变化、胸壁/肋骨破坏、胸膜/纵隔关系；观察锁骨下血管周围脂肪间隙是否消失等征象。
+- 价值：手术路径设计（前入路/后入路/联合入路）、胸壁切除范围与重建计划。
+### 3) **胸廓入口/臂丛与脊柱相关的MRI（关键）**
+- 常见方案：胸廓入口MRI + **臂丛神经MRI（MR neurography）** + 必要时脊柱/椎管MRI。
+- 用途：判断
+  - 臂丛神经受侵范围（尤其C8/T1、下干）；
+  - 椎体、椎间孔、硬膜外/椎管受侵；
+  - 锁骨下动静脉、椎动脉邻近或受侵的软组织界面。
+- 理由：MRI在软组织、神经、椎管/硬膜外受侵方面通常优于CT，是决定“能否R0切除”的关键影像之一。
+### 4) **颅脑MRI（筛查脑转移）**
+- 用途：肺癌常见脑转移；有的中心对拟手术的局部晚期患者常规做脑MRI，即使无症状也会纳入再分期。
+### 5) **纵隔淋巴结的影像 + 侵袭性再取样**
+- 影像层面：CT/PET-CT评估结节大小与代谢活性。
+- 组织学确认方式（根据结节站位选择）：
+  - **EBUS-TBNA**（气管镜超声引导穿刺）：常用于纵隔/肺门结节；
+  - **EUS-FNA**：部分后纵隔/下纵隔结节；
+  - **纵隔镜（mediastinoscopy）/VAMLA/胸腔镜取样**：当内镜穿刺阴性但高度怀疑，或需要更高把握度时。
+- 目的：确认是否存在持续N2/N3；持续纵隔阳性往往显著影响手术适应证与预后评估。
+### 6) **血管评估：CTA/MRA（选择性但很常用）**
+- 适用情形：怀疑锁骨下动脉/静脉、无名静脉、颈总动脉/椎动脉受侵或需要重建。
+- 用途：判断血管壁受侵、狭窄/闭塞、手术可重建性与入路规划。
+### 7) **骨评估（按需）**
+- 若PET-CT提示骨转移不确定，可加做靶向MRI或骨显像/CT进一步确认，以免误判导致错失手术机会或不必要开胸。
+---
+## 三、很多中心会按“顺序”做的再评估路径（简化示例）
+1) **PET-CT + 增强胸部CT（含上腹） + 颅脑MRI**  
+2) **胸廓入口/臂丛/脊柱MRI**（用于可切除性细化）  
+3) **EBUS/EUS或纵隔镜再分期取样**（对可疑或既往阳性结节）  
+4) **肺功能/心评估 + MDT** → 制定切除与重建方案
+---
+如果你希望我按“某指南体系/某医院实际流程”进一步细化（例如NCCN、ESMO，或中国常见路径），你可以告诉我：初始分期（T、N情况）、诱导治疗方式（放化疗/免疫联合）、以及当前影像提示主要累及的结构（臂丛/血管/椎体等）。我可以给出更贴近该情境的再评估清单与决策节点。</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>肺上沟瘤（Pancoast 肿瘤）在诱导同步/序贯放化疗或新辅助靶/免疫治疗后，能否进入根治性外科切除阶段，取决于一次“再评估 (restaging)”。国际指南与多学科共识中，推荐的标准流程及其中涉及的影像学检查要点如下。
+一、多学科准备  
+1. 等待窗口：放化疗结束后一般需 4–6 周，让急性放射反应基本吸收，减少假阳性。  
+2. MDT 讨论：胸外科、胸部影像、肿瘤放疗/内科、神经外科、骨科、血管外科、麻醉与康复等共同参与。  
+二、再评估的关键环节  
+1. 临床与功能评估  
+   • 详细病史、体格检查（颈肩疼痛、臂丛神经症状、Horner 综合征变化）。  
+   • 实验室 + 营养、心肺储备 (PFT、心脏超声、CPET)。  
+2. 影像学再分期（见下)。  
+3. 介入性淋巴结分期  
+   • EBUS/EUS-FNA/纵隔镜复查：确认 N2/3 是否被完全控制。  
+4. 可疑残余或远处病灶活检  
+   • CT／PET 引导经皮穿刺；必要时胸腔镜、腹腔镜、骨活检等。  
+5. MDT 判定可切除性  
+   • 无远处转移 (M0)。  
+   • 纵隔淋巴结≤N1。  
+   • 可实现 R0 切除（与椎体硬膜囊、臂丛 C8/T1、锁骨下动静脉的安全界面）。  
+6. 制定手术路径与重建计划：经颈锁骨上、经前胸、后外侧或联合椎体切除/血管重建等。  
+三、推荐影像学检查方法与技术要点  
+1. 胸部及胸出口增强 CT  
+   • 薄层 (≤1 mm) 高分辨率；扫描范围：胸顶-肝上缘，包括双侧锁骨上窝。  
+   • 评估：肿瘤体积变化、胸壁/肋骨/椎体骨质破坏，锁骨下动静脉环绕角度&gt;180°、入侵长度＞2 cm 等。  
+2. 胸入口及臂丛 MRI  
+   • T1、T2、脂抑 + 对比增强；必要时 MR neurography。  
+   • 优于 CT 区分残余肿瘤 vs. 放疗纤维化；判定对臂丛神经根、椎间孔、硬膜囊、脊髓压迫情况。  
+3. 18F-FDG PET-CT  
+   • 整体代谢活性，区别瘢痕与活瘤 (SUVmax)；同时做远处转移（骨、肝、肾上腺）筛查。  
+   • 对 PET 可疑但 CT/MR 阴性病灶，建议靶向活检。  
+4. 颅脑 MRI（或增强 CT）  
+   • 肺上沟瘤总体 IV 期风险较高，术前必须排除脑转移。  
+5. 必要时其它检查  
+   • 全脊柱 MRI：若 CT/MRI 示椎体后缘或椎管可疑侵犯。  
+   • 核素骨扫描：不具备 PET-CT 时用于骨转移筛查。  
+   • CT 上腹部/肾上腺：可与胸部 CT 一并完成。  
+四、检查结果的综合解读  
+1. 影像报告需结构化：  
+   • 肿瘤最大径、体积变化百分比 (RECIST + 体积法)。  
+   • 与锁骨下动/静脉、腋下静脉、臂丛 (C8、T1)、交感链、椎体、椎间孔/硬膜囊的关系。  
+   • 纵隔、肺门及锁骨上区淋巴结短径、SUV 值。  
+2. 对比初始影像，判断：  
+   • 完全缓解 (CR)、部分缓解 (PR)、疾病稳定 (SD)、进展 (PD)。  
+   • 明确 R0 切除可能性、拟行的骨/血管/神经重建范围。  
+五、小结  
+肺上沟瘤术前再评估的核心目的，是在充分排除远处转移与顽固 N2/3 的前提下，精准判断“可否、如何”实现完整切除。关键环节包括：  
+1. 适当时机的临床-功能评估；  
+2. 以“增强薄层胸部 CT + 胸出口/臂丛 MRI + 全身 FDG-PET/CT”为主干的影像学组合，再辅以脑 MRI 等；  
+3. 通过 EBUS/EUS/纵隔镜的介入性复分期；  
+4. MDT 综合决策与手术规划。</t>
         </is>
       </c>
     </row>
@@ -2386,6 +2685,117 @@
 8.  **动态评估：** 治疗过程中（如新辅助化疗后）需重新评估肿瘤反应（影像学、病理），以决定后续步骤（手术、放疗、继续化疗等）。
 **重要提醒：** 以上内容基于当前国际主流指南（NCCN, ESMO, CSCO）的共识。具体到每位患者，评估项目和侧重点会有差异。**务必在专业肿瘤科医生指导下，根据患者的具体情况（年龄、症状、既往史、当地医疗条件等）制定详细的个体化评估计划。** 切勿自行套用列表进行判断或治疗。
 如果您是患者或家属，请务必与主治医生详细沟通，了解针对您（或您家人）具体情况需要做哪些检查以及为什么做。</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>在非小细胞肺癌（NSCLC）IIB期和IIIA期患者中，“治疗前评估”的目标是：**准确分期（尤其是纵隔/锁骨上淋巴结与远处转移）、评估可切除性与手术耐受性、明确病理与分子特征以指导（新辅助/辅助）治疗方案**。两期的评估项目高度重叠，但**IIIA期更强调纵隔淋巴结（N2）分层与多学科评估**。下面按“必做/常做”列出。
+---
+## 一、共同的治疗前基础评估（IIB 与 IIIA 均适用）
+### 1）病理学与取材
+- **获取组织学诊断**：支气管镜活检/刷检、经皮穿刺活检、EBUS-TBNA/纵隔镜、胸腔镜等（根据病灶位置选择）。
+- **明确亚型与分级**：腺癌、鳞癌、其他；必要时免疫组化（TTF-1、p40 等）。
+### 2）影像学分期（T、N、M）
+- **增强胸部CT（含上腹部）**：肿瘤大小、胸壁/纵隔/大血管侵犯、肺门及纵隔淋巴结、肝/肾上腺等。
+- **全身PET-CT**：用于发现隐匿远处转移、评估淋巴结代谢活性、指导取样部位。
+- **颅脑MRI（优选）或增强CT**：排除脑转移（尤其是拟根治治疗者通常建议做）。
+- **（按需）骨显像/脊柱MRI**：若骨痛或PET提示骨病灶。
+- **（按需）上腹部MRI/CT**：对肝或肾上腺可疑灶进一步鉴别。
+### 3）淋巴结分期与“组织学证实”
+- **对影像可疑N1/N2/N3淋巴结尽量做病理证实**：  
+  - 首选多为 **EBUS-TBNA（±EUS）**；  
+  - 如结果阴性但临床高度怀疑，可考虑 **纵隔镜/胸腔镜取样**。  
+&gt; 目的：避免把“影像学疑似N2”误当成真正N2，从而影响手术/放化疗策略。
+### 4）全身状况与实验室
+- **体能状态**：ECOG/PS，体重、营养风险（如NRS2002）、合并症评估。
+- **常规化验**：血常规、肝肾功能、电解质、凝血、尿常规；必要时乙肝/丙肝/HIV 等（与化疗/免疫治疗相关）。
+- **心血管评估**：心电图；有心脏病史或拟行大手术者加做超声心动图、心内科评估。
+### 5）肺功能与手术耐受性评估（拟手术/可能手术者）
+- **肺功能**：FEV1、FVC、DLCO；计算**预计术后ppoFEV1/ppoDLCO**。
+- **运动/心肺储备**（按需）：6分钟步行试验、心肺运动试验（CPET）。
+- **麻醉评估**：气道、用药、围手术风险分层。
+### 6）分子标志物与PD-L1（用于围手术期系统治疗决策）
+- **驱动基因检测**（尤其腺癌/非鳞或混合型；鳞癌在不典型人群也考虑）：EGFR、ALK、ROS1、BRAF、MET、RET、NTRK、KRAS 等（以本地指南/药物可及性为准）。
+- **PD-L1 表达**：决定是否/如何采用免疫治疗（新辅助或辅助）。
+&gt; 取材不足时可考虑二次取材或采用更适合的检测平台（如NGS）。
+---
+## 二、IIB期（常见为T3N0 或 T1-2N1 等）的评估重点
+- **确认N1 与排除N2/N3**：IIB中一旦存在N2就可能进入IIIA策略，因此：
+  - PET-CT提示纵隔结可疑时应积极做EBUS-TBNA等证实。
+- **评估局部侵犯的可切除性**（如胸壁、膈肌、叶间裂、同侧不同叶结节等T3因素）：
+  - 需要胸外科结合增强CT（必要时MRI）判断能否R0切除。
+- **明确是否适合根治手术**：结合肺功能、心血管风险和预期切除范围（叶切/袖切/全肺切等）。
+---
+## 三、IIIA期（核心在N2及局部进展）的评估重点
+IIIA非常异质（T1-2N2、T3N1、T4N0-1 等均可能），治疗策略差异大，因此评估要更“精细”。
+### 1）N2分层与纵隔淋巴结“强制性”病理证实
+- **对任何疑似N2（纵隔）淋巴结**：通常应尽可能通过 **EBUS/EUS 或纵隔镜**获得组织学证据。
+- 需描述：
+  - **单站 vs 多站N2**
+  - **淋巴结负荷（体积/是否融合/包膜外侵犯线索）**
+  - 是否“可切除N2”（这通常决定走“手术为主”还是“同步放化疗±免疫巩固”等路径）。
+### 2）更严格的“可切除性/可根治性”评估
+- **T4或邻近重要结构侵犯**（大血管、气管/隆突、食管、椎体等）：
+  - 常需增强CT +（按需）MRI、支气管镜评估气道受累范围；
+  - 胸外科评估是否有实现R0切除的可能及手术方式可行性。
+- **多学科讨论（MDT）**：IIIA通常强烈建议MDT（胸外科、肿瘤内科、放疗科、影像科、呼吸/介入、病理等）共同定方案。
+### 3）若考虑放疗：放疗前评估
+- **放疗计划相关影像**：用于靶区勾画（4D-CT/呼吸运动评估按中心条件）。
+- **基线肺功能、既往间质性肺病/放射性肺炎风险评估**。
+---
+## 四、常见“需要补充/容易漏掉”的评估
+- **支气管镜检查**：了解中央型肿瘤、腔内受累、取材及术式规划（袖式切除可能性）。
+- **胸腔积液处理**：有积液需明确是否恶性（细胞学/胸腔镜），避免把IV期漏诊。
+- **静脉血栓风险、凝血异常**：手术与化疗前都重要。
+- **吸烟、COPD、营养与康复**：术前戒烟、肺康复能显著影响并发症。
+---
+如果你方便提供：**具体TNM（T、N站位）、是否PET-CT提示N2、是否计划手术、病理类型（腺/鳞）、PS评分、肺功能（FEV1/DLCO）**，我可以把以上评估整理成一份“按顺序的检查清单”和对应的决策节点（IIB vs IIIA分别怎么走）。</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>非小细胞肺癌（NSCLC）IIB 与 IIIA 期虽然同属局部-区域晚期，但在治疗策略上（手术±新辅助／辅助放化疗、同步放化疗、免疫／靶向新辅助等）差异较大。为制定个体化方案，治疗前必须完成系统而规范的评估，主要包括以下几个方面：
+1. 病理学确诊与分子检测  
+   • 经支气管镜、经皮肺穿刺或外科取材（胸腔镜/纵隔镜）取得肿瘤组织，明确：  
+     – 组织学类型（鳞癌、腺癌、其他）  
+     – 分级、是否合并胸膜浸润等  
+   • 分子病理：EGFR、ALK、ROS1、BRAF、MET、RET、KRAS、NTRK 及 PD-L1 表达，以备新辅助/辅助靶向或免疫治疗决策。
+2. 影像学分期  
+   • 增强胸部及上腹 CT：确定 T 分期、评估纵隔、肺门淋巴结及肝/肾上腺。  
+   • ^18F-FDG PET/CT：筛查远处转移并与 CT 联合判断 N 分期。  
+   • 头颅 MRI（或增强 CT）：排除脑转移。  
+   • 骨显像或 PET/CT 全身扫描：有骨痛或实验室提示时必做；无症状者 PET/CT 已可覆盖。  
+   • 超声心动图/心脏 CT（必要时）：为术前心功能参考。  
+3. 纵隔淋巴结微创病理分期  
+   • EBUS-TBNA（气管支气管超声引导下经气道穿刺）  
+   • EUS-FNA（食管超声引导下穿刺）  
+   • 经典颈前纵隔镜或胸腔镜下纵隔淋巴结清扫  
+   → 对疑似 N2（IIIA期）或 PET/CT 强代谢的 N1/N2 结节，病理取样是决定可否手术或新辅助方案的关键。
+4. 肺功能与全身可手术性（operability）评估  
+   • 全套肺功能：FEV1、FVC、DLCO；预测术后 FEV1（ppo-FEV1）、ppo-DLCO。  
+   • 心肺运动试验（CPET）或 6 分钟步行试验：VO2max &lt;10–15 mL/kg/min 提示高危。  
+   • 动脉血气、肺动脉压（必要时右心导管）。  
+   • 心电图、超声心动图、必要时负荷试验或冠脉 CTA。  
+   • 老年或合并症患者评估：Charlson 评分、Frailty、综合老年评估（CGA）。
+5. 实验室检查  
+   • 全血计数、凝血功能、肝肾功能、电解质、血糖、血脂。  
+   • 肿瘤标志物：CEA、CYFRA21-1、NSE、SCC 等（预测预后、疗效监测）。  
+   • 感染筛查：乙肝、丙肝、梅毒、HIV（放化疗、免疫治疗前常规）。
+6. 全身状况与生活质量评估  
+   • ECOG/PS 或 Karnofsky 评分。  
+   • 体重、BMI、PG-SGA（营养风险筛查）。  
+   • 戒烟状况、肺康复需求、心理评估。
+7. 多学科讨论（MDT）  
+   • 呼吸内科、胸外科、放疗科、肿瘤内科、影像科、病理科、麻醉科及康复科共同参与，确定：  
+     – 是否可完全切除（resectability）  
+     – 是否需要新辅助治疗，或首选同步放化疗/免疫治疗  
+     – 术式（肺叶切除/袖状切除/肺段切除 + 纵隔淋巴结清扫）  
+     – 术后（或放化疗后）随访与辅助方案
+8. 其他专项评估  
+   • 遗传学或家族肿瘤综合征评估（年轻患者/多发癌者）。  
+   • 抗凝、止痛、营养、康复、戒烟及社会支持评估。  
+   • 临床试验可及性评估—特别是新辅助免疫、靶向或术后免疫巩固等研究。
+通过以上系统评估，才能准确分期、判断可切除性与患者耐受性，从而为 IIB 和 IIIA 期 NSCLC 制定最合适的个体化综合治疗方案。</t>
         </is>
       </c>
     </row>
@@ -2696,6 +3106,37 @@
 希望这个详细解释能帮助您理解评估流程。如有更具体的临床情况，建议与您的医疗团队深入讨论。</t>
         </is>
       </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>用于评估非小细胞肺癌（NSCLC）患者纵隔淋巴结病理分期（是否有转移）时，指南通常推荐以“微创取材为主、必要时外科取材确认”为原则，常用/推荐的方法包括：
+1. **经支气管超声引导针吸活检（EBUS‑TBNA）**  
+   - 目前最常用的首选微创方式之一，可对多站纵隔/肺门淋巴结进行穿刺取样。
+2. **经食管超声引导针吸活检（EUS‑FNA / EUS‑B‑FNA）**  
+   - 可补充EBUS不易到达的区域（如部分下纵隔、左侧纵隔等），与EBUS联合可提高取材覆盖率与诊断率。
+3. **纵隔镜检查/纵隔镜活检（Mediastinoscopy）**  
+   - 传统“外科金标准”之一。常用于：  
+     - 内镜针吸（EBUS/EUS）阴性但临床/影像仍高度怀疑纵隔转移时的**确认**；  
+     - 或在某些情况下需要更大组织量/更可靠分期时。
+4. **胸腔镜（VATS）或开胸淋巴结活检/系统性纵隔淋巴结清扫（手术分期）**  
+   - 多用于计划手术切除时同步完成系统性取样/清扫，或针对特定站位进行外科活检。
+补充说明：  
+- **PET‑CT、增强CT**主要用于影像学评估与分层（筛查/提示转移风险），但**不能替代病理学证实**；一旦影像提示纵隔淋巴结可疑，通常仍建议用上述取材手段获得病理结果。</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>在目前公认的指南中（ACCP、NCCN、ESTS 等），对非小细胞肺癌(NSCLC)患者纵隔淋巴结进行病理学评估时，首选和推荐的取材/活检方式包括：
+1. 以内镜-超声为基础的微创针吸活检  
+   • 经支气管超声引导经支气管针吸活检（EBUS-TBNA）  
+   • 经食管超声引导针吸活检（EUS-FNA）  
+   → 两者可联合应用（EBUS＋EUS）以扩大可到达的淋巴结站，提高检出率。
+2. 若 EBUS/EUS 结果阴性但仍存在高度临床或影像学可疑，推荐再行手术取样  
+   • 颈前纵隔镜检查/活检（Cervical mediastinoscopy）  
+   • 或其他手术方式（如前外侧纵隔切开［Chamberlain 方式］、VATS 定向淋巴结活检/清扫等）。
+因此，推荐的病理评估方法主要是：
+(1) EBUS-TBNA；(2) EUS-FNA（或两者联合）；(3) 若有必要，则辅以纵隔镜或其他手术性淋巴结取样。</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -3031,6 +3472,51 @@
 如有具体病例细节（如肿瘤位置、大小、患者年龄/合并症），建议提供进一步分析！</t>
         </is>
       </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>对于**医学上可手术（medically operable）的非小细胞肺癌（NSCLC）**患者，指南一致推荐的**首选局部治疗**是：
+## 首选局部治疗
+- **肺叶切除（lobectomy）+ 系统性纵隔/肺门淋巴结清扫或系统取样（systematic nodal dissection/sampling）**  
+  这是“治愈意图”下证据最充分、长期肿瘤控制最可靠的标准方案（适用于多数可手术的早期NSCLC）。
+## 可选替代方式（在特定情境下）
+1. **解剖性肺段切除（segmentectomy）**  
+   - 主要用于：肿瘤较小、外周型、或需要尽量保留肺功能的患者；  
+   - 前提：同样需要进行规范的淋巴结评估/清扫。  
+   - 相比楔形切除，段切除更符合肿瘤学原则（解剖性切除、切缘更可靠）。
+2. **楔形切除（wedge resection，非解剖性切除）**  
+   - 通常作为**次选**：多用于肺功能储备差、无法耐受更大切除但仍可手术的患者；  
+   - 要求：尽可能保证充分切缘并做淋巴结评估；总体肿瘤学可靠性一般弱于肺叶切除/段切除。
+3. **袖状切除/支气管成形术 ± 肺动脉成形（sleeve resection/bronchoplasty）**  
+   - 适用于中央型肿瘤需要保证切缘同时**希望避免全肺切除**的情况；  
+   - 在合适病例中可达到与更大范围切除相近的肿瘤控制，同时保留更多肺功能。
+4. **全肺切除（pneumonectomy）**  
+   - 当肿瘤范围决定无法通过肺叶切除或袖状切除获得R0切除时才考虑；  
+   - 由于并发症与功能代价较大，通常为“不得已”的选择。
+5. **立体定向放疗 SBRT/SABR（作为“非手术”替代）**  
+   - 严格来说主要用于**不适合手术（medically inoperable）**者；  
+   - 但在患者拒绝手术或经多学科评估不宜手术时，可作为局部根治性替代方案（早期、外周型更常见）。
+如果你能提供患者的**分期（尤其T分期）、肿瘤位置（外周/中央）、大小、肺功能（FEV1、DLCO）、以及是否有淋巴结受累证据**，我可以把“首选 vs 替代”的推荐精确到更具体的手术方式与适应证。</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>首选方案  
+• 根治性外科切除——解剖性肺叶切除（或解剖性段切除／袖状切除）联合系统性或系统抽样的肺门-纵隔淋巴结清扫/取材，是医学上可手术的早期-局限期 NSCLC 患者首选的局部根治手段。
+可选的替代局部治疗方式（在患者拒绝手术或因其他原因不实施手术时可考虑）  
+1. 立体定向体部放射治疗（SBRT／SABR）——优先的非手术根治性选择。  
+2. 常规分割根治性外照射放疗（CFRT）——不具备 SBRT 条件或肿瘤位置不适宜时可用。  
+3. 经皮消融治疗  
+   • 射频消融（RFA）  
+   • 微波消融（MWA）  
+   • 冷冻消融（Cryoablation）  
+   主要用于周围型、病灶≤3 cm、单发病灶的患者。  
+4. 支气管镜或腔内局部治疗  
+   • 光动力疗法（PDT）  
+   • 激光／热疗等——多用于极早期、支气管内原位癌或微小病灶。  
+5. （对极少数特定病例）局部楔形切除、胸腔镜辅助局部切除等有限手术方式。
+总结：能耐受手术的 NSCLC 患者应首先考虑根治性外科切除；若手术不宜或患者拒绝，可根据病灶部位、大小及既往治疗史选择 SBRT/SABR、常规放疗、经皮消融或支气管镜下局部治疗等替代手段。</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -3266,6 +3752,29 @@
 &gt; 每一亚类代表肿瘤侵袭性递增，需结合病理类型、基因状态等制定个体化方案。  
 &gt; **注**：具体分型以最新版《AJCC癌症分期手册》或所在地区指南为准（如中国CSCO指南与国际标准一致）。  
 此标准适用于**非小细胞肺癌（腺癌、鳞癌、大细胞癌等）**，小细胞肺癌不采用此TNM分期。实际临床中需由胸外科/肿瘤科医生结合多模态影像综合判断。</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>T1期非小细胞肺癌（NSCLC）的定义：**原发肿瘤最大径≤3 cm**，周围为肺组织或脏层胸膜包绕，**支气管镜下未见侵犯叶支气管近端**（即不累及主支气管）。  
+三个亚类分界（按肿瘤**最大径**）：  
+- **T1a**：≤ **1 cm**  
+- **T1b**：&gt; **1 cm** 且 ≤ **2 cm**  
+- **T1c**：&gt; **2 cm** 且 ≤ **3 cm**</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>T1 期非小细胞肺癌（NSCLC）的概念（按第 8 版 TNM 分期）  
+1. 肿瘤最大径 ≤3 cm；  
+2. 肿瘤完全被肺实质或脏层胸膜包绕；  
+3. 支气管镜下病灶位置不在叶支气管近端（即未累及叶支气管近端或主支气管）；  
+4. 无脏层胸膜浸润（PL0），亦无肺门或纵隔内任何其他 T2 及以上所规定的因素。  
+（对磨玻璃或部分实性结节，以“侵袭性成分”尺寸为准；纯磨玻璃病灶＜3 cm 为 AIS/Tis，而非 T1。）
+T1 的 3 个亚类的大小分界  
+• T1a：肿瘤最大径 ≤1 cm（0–1 cm）；  
+• T1b：肿瘤最大径 ＞1 cm 且 ≤2 cm；  
+• T1c：肿瘤最大径 ＞2 cm 且 ≤3 cm。</t>
         </is>
       </c>
     </row>
@@ -3690,6 +4199,65 @@
 （注：具体方案请以最新版NCCN/ESMO指南及主治医师评估为准，本文不替代临床决策。）</t>
         </is>
       </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>在NSCLC 的肺上沟肿瘤（Pancoast 肿瘤）中，初始治疗主要取决于是否为 **T3（局部侵犯较轻、通常可切除）** 还是 **T4（侵犯关键结构、常为边界可切除或不可切除）**，核心差异在于“能否实现 R0 切除”以及是否需要更强的局部控制策略。
+## 1) T3 肿瘤（通常更倾向“可切除”）
+**典型侵犯**：胸壁、壁层胸膜、交感链/星状神经节等，但未累及椎体、臂丛高位（通常指 C8/T1 以上）或锁骨下血管等关键结构。  
+**初始策略（主流标准）**：  
+- **诱导同步放化疗（CRT） → 手术切除（力争 R0）**  
+  - 放疗常用约 **45–50.4 Gy**（随方案而定）  
+  - 化疗多为 **含铂双药**同步  
+- **术后**：按切缘、病理分期与淋巴结情况考虑补充治疗（如追加放疗/化疗或按驱动基因与PD-L1情况考虑后续系统治疗的适应证）。
+&gt; 要点：T3 以“**先降期、再手术**”为主线，手术机会相对更大。
+## 2) T4 肿瘤（侵犯更深/关键结构，常为“边界可切除或不可切除”）
+**典型侵犯**：椎体、锁骨下动静脉、臂丛高位、硬膜外/脊髓旁结构等。  
+**初始策略分两类**：
+### A. 仍可能 R0 切除的“选择性 T4”（在经验中心评估后）
+- **更强调强度更高的诱导同步放化疗 → 重新分期评估 → 选择性扩大切除/联合血管或脊柱等多学科手术**
+- 只有在**影像学与功能评估显示有现实的 R0 机会**、且患者可耐受高风险手术时才考虑。
+### B. 明确不可切除或 R0 机会很低的 T4
+- **根治性同步放化疗为主（definitive CRT）**  
+- 若完成根治性CRT且无进展，常按当前标准进入**巩固免疫治疗**（符合条件者）。
+&gt; 要点：T4 的关键是先按“**不可切除/边界可切除**”思路进行诱导或根治性局部治疗；是否手术取决于多学科评估能否达到 R0 以及手术风险收益比。
+---
+### 一句话总结
+- **T3**：更偏向“**诱导同步放化疗后手术**”的固定路径。  
+- **T4**：先按“**边界可切除/不可切除**”处理——能争取 R0 才在诱导后择期手术；否则以**根治性同步放化疗 ± 巩固免疫**为主。
+如果你提供该患者的具体侵犯结构（是否椎体/锁骨下血管/臂丛水平）、N 分期与PS评分，我可以把策略进一步细化到“更偏手术还是更偏根治CRT”的分支。</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>在肺上沟（Pancoast）肿瘤这一特殊部位的非小细胞肺癌（NSCLC）中，能否根治性切除主要取决于肿瘤对胸壁及邻近重要结构的侵犯深度，即病理-T分期。常用的处理原则可按 T3（可切除概率较高）与 T4（多为难以或不能切除）作如下区分：  
+一、T3（侵犯胸壁／第一肋或胸廓入口软组织，但未达脊椎体、椎管或锁骨下动脉等）  
+1. 术前评估  
+   • 必须排除 N2/N3 或远处转移（EBUS/EUS-TBNA±纵隔镜），否则按 III 期不可切除处理。  
+2. 标准策略：三模式治疗  
+   1) 诱导同期放化疗  
+      ‑ 放疗 45–50 Gy（1.8–2 Gy/次，5 周）  
+      ‑ 双药铂类联合化疗（常用 cisplatin/etoposide、cisplatin/vinorelbine 等 2 个周期，与放疗同期）。  
+   2) 再分期（CT、MRI 或 PET-CT）；若无进展并仍可手术 →  
+   3) en-bloc 手术切除  
+      ‑ 典型为上叶（多为右上或左上叶）＋邻近胸壁 1–3 根肋骨、胸膜、胸锁关节旁软组织一块切除；必要时行锁骨下静脉/动脉部分切除重建。  
+   4) 术后治疗  
+      ‑ 继续化疗至总 4 周期；  
+      ‑ 若术前只打到 45–50 Gy，术后可补量至 60–66 Gy（尤其是 R1/R2 切缘或病理 N1）。  
+3. 医疗合并症或拒绝手术：改为根治性同期放化疗（60–66 Gy）＋巩固免疫治疗（durvalumab）。
+二、T4（侵犯脊椎体、椎间孔或硬膜囊，锁骨下动脉干，或 C8 以上臂丛神经等）  
+1. 原则上视为“不能切除”或“高度可疑不能获得 R0 切缘”；多按不可切除 III 期处理：  
+   • 同期放化疗至 60–66 Gy（经典铂/依托泊苷、铂/紫杉类方案）；  
+   • 无疾病进展者可行 durvalumab 巩固 1 年。  
+2. “挑选病例”策略（仅限高经验中心）：  
+   ‑ 若侵犯范围局限、可在多学科评估后行脊椎部分切除或锁骨下动脉血管重建并有把握达 R0，可先给予诱导同期放化疗 45–50 Gy → 再行扩大切除（包括椎体 / 锁骨下血管块状切除重建）。但适用人群极少，术死率和并发症高，需要严格把关。  
+3. 合并严重合并症或无法耐受放化疗：可单纯高剂量调强放疗 (60–66 Gy) 或姑息放疗/全身治疗。
+三、策略比较与要点  
+• 判定 T3 (可切除) 与 T4 (多为不可切除) 是制定初始治疗方案最关键步骤。  
+• “三模式”(诱导放化疗→手术→术后治疗) 是当前 T3 上沟肿瘤治愈机会最高的途径。  
+• 对 T4，除非 MDT 评估确有 R0 可能且患者可耐受，否则以根治性同期放化疗 + 免疫巩固为主。  
+• 在任何分期，若术前/术中发现 N2/N3 或远处病灶，则改按不可切除 III 期或 IV 期流程进行全身治疗或临床试验。</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -4092,6 +4660,60 @@
 3. **病理验证**（必要时）→ 明确诊断。  
 **切勿仅凭单一特征下结论**，尤其当患者有复杂病史时，需个体化分析。
 &gt; **提示**：若发现肺结节，请务必携带完整资料（既往影像、病理报告、血液检查）至呼吸科或胸外科就诊，避免自行判断延误治疗。早期明确性质对预后至关重要！</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>对于“有限数量肺结节”（常见情境：双肺或同肺多发结节、数量不多、可考虑根治性治疗），区分**多原发性肺癌（MPLC）**与**肺内转移/转移性疾病（metastatic disease）**的一般原则可概括为“**病理/分子优先，其次影像与临床综合判断**”：
+## 1) 诊断证据的优先级：病理与分子 &gt; 影像 &gt; 临床
+- **最有力证据：每个可疑结节的独立病理与分子特征**  
+  - 若不同结节显示**不同的组织学类型**（如一个腺癌、一个鳞癌）或**不同的亚型/生长方式谱系**，倾向**多原发**。  
+  - **驱动基因/分子谱不一致**（如一个EGFR突变、另一个KRAS突变，或明显不同的拷贝数/融合谱），强烈支持**多原发**。  
+  - 若多个结节在形态学、免疫表型及分子谱上高度一致，倾向**转移/肺内播散**（但“相同突变≠一定转移”，需结合突变常见性与更全的谱系证据）。
+## 2) 影像学与生长方式的“倾向性”判断
+- **更像多原发的影像模式**
+  - 多个结节表现为**磨玻璃结节（GGN）或部分实性结节**，尤其是长期缓慢生长、各结节进展不同步。
+  - 结节形态差异明显（大小、密度、边缘、空泡征/毛刺等差异），且各自呈“原发肺癌”的局灶特征。
+- **更像转移/肺内转移的影像模式**
+  - 多发**实性结节**、形态相似、增长更同步；或呈典型血行转移分布（外周、随机分布）等。
+  - 出现提示播散的表现（例如广泛淋巴管癌栓/弥漫性播散样改变）更支持转移。
+## 3) 淋巴结与远处转移：分期证据很关键
+- **有纵隔/肺门淋巴结转移或远处转移证据**（PET-CT高代谢、病理证实等）时，更倾向整体为**转移性疾病/肺内转移**。
+- **无淋巴结/无远处转移**，且结节之间差异较大时，更有利于考虑**多原发**（仍需病理/分子支持）。
+## 4) 解剖学关系与“同肺叶/不同肺叶/双肺”并非决定性，但有参考价值
+- 传统上：同一肺叶多灶病变更容易被归入肺内转移的分期框架；不同肺叶/对侧肺结节更复杂。  
+- 但在“有限结节、可根治”的情境中，**是否多原发不能仅凭部位**，仍以病理与分子克隆关系为核心。
+## 5) 结合临床背景与病史
+- **既往肿瘤史**（肺外原发肿瘤）要考虑肺转移可能；但也可能合并原发肺癌。  
+- 吸烟史、肺部基础病、结节出现的时间顺序与生长速度差异也可辅助判断。
+## 6) 实用操作原则（临床决策导向）
+- **能取材的结节尽量分别取材**（至少取“最具代表性/最高分期影响”的结节）做：组织学比较 + 必要的NGS/分子检测。  
+- 当证据仍不充分时，采用**多学科讨论（MDT）**，按“最可能情形”分期与制定治疗，并在随访中动态修正。
+如果你能提供：每个结节的大小/密度（GGN或实性）、分布部位、PET结果、是否有淋巴结、病理或基因检测信息，我可以按上述原则帮你更具体地倾向判断与需要补充的检查。</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>在一个病人肺内只发现少数（通常 ≤3～5 个）结节时，必须综合影像学、病理学以及临床资料，来判断这些病灶究竟是多个原发灶（multiple primary lung cancers, MPLC），还是一个原发灶的肺内转移/全身转移。可遵循的“通用原则”大致包括以下几方面：  
+1. 组织学类型  
+   • 不同的组织学类型（如一个为腺癌、另一个为鳞癌）→ 直接认为是多原发。  
+   • 同一组织学类型 → 需进一步结合其它标准判断。  
+2. 解剖学分布与 TNM 特征  
+   • 位于不同肺叶或至少不同肺段，且每个结节单独分期均 ≤ T1–2 N0 M0，彼此之间没有共同的 N1/N2/N3 结节，也无远处转移 → 倾向 MPLC。  
+   • 若多个病灶与主要肿块位于同一叶内呈卫星灶分布，或多灶共享肺门/纵隔淋巴结转移，或已出现远处转移 → 倾向转移性疾病。  
+3. 病理学特点  
+   • 各灶分别可见原位癌成分，或分化程度/生长方式明显不同，或分子标志物（驱动基因突变、染色体改变等）不同 → 支持 MPLC。  
+   • 发现血管、淋巴管或支气管腔内连续癌栓，提示肿瘤间存在播散途径 → 支持转移性疾病。  
+4. 时间因素（同步 vs. 异时）  
+   • 同步病灶（发现时同时存在）：按上述 1～3 条综合判断。  
+   • 异时病灶：若与第一次原发癌根治切除相隔 ≥2 年且无转移证据，通常按新的原发癌处理；间隔 &lt;2 年则需慎重排除复发/转移。  
+5. 分子／克隆学分析（可选但日益重要）  
+   • 各结节若呈现不同的驱动基因突变谱或明显不同的克隆结构 → 多原发。  
+   • 若克隆学改变完全一致 → 考虑同源性转移。  
+6. 影像学形态与分布  
+   • 限局、局叶性、病灶形态各异，多见磨玻璃或半实性结节 → 支持 MPLC。  
+   • 多发、双肺散在、大小相近的实性小结节，常呈随机或血行播散样分布 → 更多见转移灶。  
+结论：判断有限数量肺结节是多原发性肺癌还是转移性疾病，需综合（1）组织学类型，（2）解剖位置/淋巴结与远处转移情况，（3）病理及分子克隆学特征，（4）时间间隔和（5）影像学分布等多方面信息，单一指标往往不足以做出可靠结论。</t>
         </is>
       </c>
     </row>
@@ -4507,6 +5129,36 @@
 如有疑问，建议提供患者具体影像学特征（如CT表现、位置、大小）及全身状况，以便进一步细化建议。</t>
         </is>
       </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>在肺占位（疑似非小细胞肺癌，NSCLC）的诊断评估中，为获得**组织学/细胞学诊断**，常被推荐的取材与诊断技术主要包括：
+- **支气管镜相关检查**：支气管镜下活检、刷检、灌洗/支气管肺泡灌洗（BAL）；必要时可用**径向超声支气管镜（R-EBUS）引导经支气管活检**。  
+- **超声支气管镜引导针吸活检**：**EBUS‑TBNA**（适用于纵隔/肺门淋巴结或中央型病灶取材，同时可用于分期）。  
+- **CT引导经皮穿刺活检/针吸**：用于外周型肺结节/肿块（经皮肺穿刺活检或细针穿刺）。  
+- **胸腔镜/外科活检**：当微创取材未能明确诊断或需要更大组织量时，可行**胸腔镜（VATS）楔形切除/活检**或开胸活检。  
+- **胸腔积液检查**（如合并胸腔积液）：胸腔穿刺细胞学；必要时行胸膜活检/胸腔镜检查以提高阳性率。
+具体选择通常依据病灶位置（中央/外周）、是否存在纵隔淋巴结或胸腔积液、患者肺功能与手术风险，以及对分子检测所需组织量等因素综合决定。</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>在对肺部占位(疑似非小细胞肺癌, NSCLC)进行组织学诊断时, 各大指南(如ACCP、NCCN、ERS/ESTS 等)普遍推荐的取材/活检技术主要包括以下几类:
+1. 支气管镜相关技术  
+   • 常规纤维支气管镜下活检(钳夹活检)、刷检、冲洗/灌洗细胞学  
+   • 经支气管针吸活检(TBNA)  
+   • 超声支气管镜引导下经支气管针吸活检(EBUS-TBNA)──中心型病灶或肺门/纵隔淋巴结取材首选  
+   • 径向超声支气管镜(r-EBUS)或电磁导航支气管镜(ENB)引导的经支气管肺活检(TBLB)──外周小结节/磨玻璃病灶
+2. 经皮影像引导下穿刺活检  
+   • CT 或超声引导下经皮细针吸取活检(FNA)  
+   • CT 或超声引导下经皮粗针(core)活检(CNB)──可获得较多组织量, 便于分子病理检测
+3. 内镜超声经食管取材  
+   • 内镜超声(Endoscopic Ultrasound, EUS)引导下经食管/胃壁针吸活检(EUS-FNA)，用于靠近食管的纵隔或肺门病灶、淋巴结
+4. 外科取材(当上述微创技术不能获得足量或可评估的组织时)  
+   • 视频辅助胸腔镜(VATS)楔形切除/楔形活检  
+   • 纵隔镜活检或开胸活检
+临床实践中, 取材策略应根据病灶位置、大小、患者一般情况及对分子病理检测的需求综合选择, 以获取足量且质量合格的组织用于最终的组织学与分子学诊断。</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -4907,6 +5559,112 @@
 **最终结论：在肺癌微创手术中，VATS（尤其是单孔技术）是经过充分验证、性价比最优的当前标准术式；RATS是特定场景下的补充工具，不应作为常规首选。术者的经验、判断和对技术的合理应用，远比单纯选择“机器人”或“传统镜”更重要。患者应选择经验丰富、团队成熟的医疗中心，并与医生进行坦诚沟通。**</t>
         </is>
       </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>RATS（机器人辅助胸腔镜手术）与 VATS（胸腔镜手术）在肺癌外科中的核心差别在于：RATS把“更精细的操作能力”带进了微创框架；VATS则以“成熟、成本更低、普及度更高”见长。总体上，两者在多数早期非小细胞肺癌（NSCLC）的**长期肿瘤学结局（如总体生存、无病生存）差异往往不大**，优势更多体现在围术期体验、复杂操作的可达性与学习曲线/资源成本上。
+下面按临床最关心的维度对比。
+---
+## 1) 肿瘤学效果：总体“相近”，差距若有多来自系统性因素
+- **切除范围与R0切除**：两者通常都能达到高R0率。对标准肺叶切除/肺段切除，差异不稳定、总体不显著。
+- **淋巴结清扫/分期充分性**：不少中心报告 RATS可取得**更充分或更一致的纵隔淋巴结取样/清扫**（与三维视野、腕式器械、精细操作有关），但这并不必然转化为明确的长期生存优势；也受“中心经验、病例选择、病理处理流程”影响很大。
+- **长期生存**：现有研究多显示 **RATS与VATS长期生存相当**。若看到RATS更优，常需要警惕选择偏倚（机器人更多在高量中心、特定人群应用等）。
+**结论**：如果在同等团队水平、同等手术原则下，肿瘤学根本目标（根治与分期）两者都能达标；RATS可能更“稳定地”把某些复杂解剖做得漂亮，但未必带来确定的生存差距。
+---
+## 2) 围术期与恢复：RATS常见优势是“更细更稳”，但差距不一定大
+常见比较指标包括出血量、并发症、疼痛、住院时间、转开胸率等：
+- **出血量/操作精细度**：RATS在血管、支气管周围精细游离、肺门与纵隔操作中更有优势，很多研究显示出血量略低或相近。
+- **并发症**：总体并发症率相近；在复杂病例（肥胖、粘连、裂隙不良、中央型/血管周围淋巴结钙化等）里，RATS有时可降低转开胸或某些技术相关并发症。
+- **住院时间/恢复**：多为相近或RATS略短，差异受ERAS（加速康复）实施影响更大。
+- **疼痛**：两者都属于微创，多数情况下差异不大；疼痛更多与切口数量、肋间神经处理、胸管管理有关。
+---
+## 3) 技术层面：RATS在“复杂解剖”和“缝合/重建”更占便宜
+**RATS优势**
+- **3D高清+腕式器械**：在狭窄空间（肺门、隆突下、主动脉窗等）更容易做精细分离与结扎。
+- **更强的人体工学**：术者疲劳更低，长台手术稳定性更好（尤其是高难度段切、复杂粘连、袖式/血管成形等）。
+- **更利于精细肺段切除**：近年来肺段切除增多（尤其小结节、磨玻璃、早期肺癌），RATS在段间平面处理、血管支气管分支辨识上常更顺手（但也强依赖术前3D重建与团队流程）。
+**VATS优势**
+- 器械与流程成熟、团队配合体系更普及；对多数常规肺叶切除/简单肺段切除完全够用。
+- 触觉反馈（尽管VATS也有限）与直接操控感受对部分术者更“直观”。
+---
+## 4) 转开胸与“可做复杂手术”的边界
+- **RATS**：在一些“边界病例”上（裂隙差、血管周围粘连/钙化淋巴结、需要精细解剖），可能**降低转开胸率**或把原本要开胸的病例保持在微创完成。
+- **VATS**：在经验丰富的高量团队同样能做复杂病例；但对很多中心而言，RATS能把复杂度门槛“下放”一些。
+---
+## 5) 学习曲线与团队要求
+- **RATS**：对已具备胸腔镜基础的团队，学习曲线在某些环节可能更快（视野与操作自由度提升）；但对麻醉、体位、穿刺孔布局、器械管理、机器人对接等有额外流程要求。
+- **VATS**：普及度更高，人员与设备依赖更少；但要把复杂肺段/隆突下清扫做得非常稳定，学习曲线也不短。
+---
+## 6) 成本与可及性：RATS最大“硬伤”
+- **直接费用**：机器人平台购置/维护+耗材通常显著高于VATS，是影响推广与患者选择的主要因素。
+- **手术间占用与周转**：早期开展时对接时间可能更长；成熟后可缩小差距。
+- **医保与地区差异**：决定了“性价比”在不同地区完全不同。
+---
+## 7) 适用场景（更偏向“谁更值得选”）
+更倾向考虑 **RATS** 的情况（在有经验团队/可负担成本前提下）：
+- 计划做**复杂肺段切除**、需要精细解剖与段间处理；
+- **中央型病灶**、肺门血管支气管周围操作多；
+- 预期存在**纵隔淋巴结钙化/粘连**、裂隙发育差等增加难度因素；
+- 可能需要**袖式切除/血管成形/支气管重建**（取决于团队能力）。
+更倾向 **VATS** 的情况：
+- 常规早期肺癌的肺叶切除/标准段切，且中心VATS经验丰富；
+- 对费用敏感、或机器人资源紧张排期久；
+- 医院机器人团队尚在起步期，而VATS团队非常成熟（“团队经验”往往比“器械”更重要）。
+---
+## 一句话总结
+- **RATS**：更强的视野与器械自由度 → 复杂解剖更从容、动作更精细、在部分复杂病例可能更少转开胸/更一致的淋巴结处理；代价是更高费用与资源依赖。  
+- **VATS**：成熟可靠、成本更低、普及广 → 对大多数肺癌标准手术已足够且长期效果通常不输；在高难度精细操作上对术者与团队经验要求更高。
+如果你愿意提供：肿瘤位置/大小（是否磨玻璃）、计划做肺叶还是肺段、是否有淋巴结钙化或既往炎症/结核史、医院RATS与VATS年手术量，我可以按你的具体情况更有针对性地比较“哪一个更合适”。</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>一、名词解释  
+1. VATS（video-assisted thoracoscopic surgery）：传统胸腔镜技术，通常 3～4 个操作孔，借助 2D/4K 高清摄像系统完成肺切除、淋巴结清扫等。  
+2. RATS（robot-assisted thoracic surgery）：以达芬奇系统为代表，由机械臂、3D-HD 双目摄像、Endo-Wrist 可多关节器械组成，通过主控台远程操作完成胸腔镜手术。
+二、技术层面差异  
+• 视野：RATS 为 10～15 倍放大的 3D 立体视野；VATS 多为 2D（最新 3D/4K 亦可），景深与精细分辨率仍略逊。  
+• 器械灵活度：RATS Endo-Wrist 7 自由度，可在胸腔内做“腕关节”动作；VATS 直线器械自由度低。  
+• 手颤过滤：机器人可消除手部颤动；VATS 依赖术者本身稳定度。  
+• 触觉反馈：VATS 直视操作有直接阻力感；RATS 目前缺乏真实触觉（只能靠视觉替代）。  
+• 人机工效：RATS 坐姿操作、符合人体工程学；VATS 长时间持镜及钳操作易疲劳。  
+三、围手术期结果（基于多中心队列、荟萃分析）  
+优势（RATS＞VATS）  
+1) 失血量减少：机器人器械灵活、放大视野，普遍报道减血 50–100 mL。  
+2) 淋巴结清扫更充分：回收淋巴结及站位数略高，N1/N2 淋巴结漏检率低；部分研究显示 RATS 的 N2 分期上调率（up-staging）高于 VATS（≈13% vs. 8%）。  
+3) 转开胸率更低：4%–8% vs. 9%–15%。  
+4) 住院时间略短、胸腔引流量/引流时间更低（差异约 0.5–1 天）。  
+劣势（RATS＜VATS）  
+1) 手术时间：早期报告 RATS 比 VATS 长 20–30 min；熟练后趋同或略短。  
+2) 费用：一次性耗材＋设备折旧＋维护成本，RATS 总费用通常高 30%–50%。  
+3) 器械碰撞/空间受限：超高 BMI、巨大肿瘤或胸腔粘连广泛时，机器人布控和操作复杂。  
+4) 无触感：处理脆弱血管或支气管界面需更依赖视觉经验。  
+四、肿瘤学长期结局  
+• 5 年总体生存率、无病生存率：迄今的回顾性 propensity-matched 数据及 SEER/NCDB 大数据库分析多显示两者无显著差异。  
+• 局部复发率：RATS 略低或相当（可能与更充分淋巴结清扫相关）。  
+• 证据等级：暂无前瞻、随机、大规模 RCT 证实优势；待正在进行的 ROMAN、RVlob 等 RCT 最终结果。  
+五、学习曲线  
+• VATS：约 50～100 例肺叶切除达到平台期。  
+• RATS：因 3D 视野＋腕关节，文献报道 20～40 例可进入稳定期；但需系统训练及模拟器练习。  
+六、成本-效益分析  
+• 硬件折旧、维护及耗材使 RATS 单例治疗成本明显上升；社保/医保支付模式限制其普及。  
+• 对高风险患者（肥胖、中央型肿瘤、淋巴结粘连）或高难度操作（袖状切除、复杂支气管/血管成形）中，RATS 可能通过减少并发症与二次手术抵消部分成本。  
+七、适应证与选择  
+1. 常规早期 NSCLC 肺叶/亚肺叶切除：VATS、RATS 均可，依据资源与医生经验选择。  
+2. 复杂袖状切除、血管成形、重症 COPD/肥胖或放疗后粘连：RATS 优势更明显。  
+3. 经济负担、医保覆盖不足：VATS 仍为主流。  
+八、综合评价  
+1. 安全性：两者相当，RATS 转开胸率和并发症略低。  
+2. 微创舒适度：RATS 失血、疼痛、住院时间有边际优势。  
+3. 根治性：目前看无明显差异，RATS 淋巴结清扫稍优。  
+4. 成本与可及性：RATS 显著更昂贵，设备占用率、维修及耗材是瓶颈。  
+5. 学习与推广：RATS 学习曲线更短，但需高额培训与器械投入。  
+九、未来趋势  
+• 设备国产化、竞争加剧有望降低成本。  
+• 触觉反馈、单孔/自然腔道（R-SP、daVinci SP）技术将进一步提高灵活度。  
+• 高质量 RCT 将明确 RATS 的长期优势与成本效益。  
+结论：在肺癌手术中，RATS 凭借 3D 视野、灵活器械和良好工效学，可实现更精细的操作、较少的失血与更彻底的淋巴结清扫，对复杂胸外科手术尤具价值；但在总体生存、费用和设备普及性上仍难全面取代成熟的 VATS。二者将长期并存，依据患者个体情况、医院资源和术者经验进行个体化选择是当前最现实的策略。</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -5155,6 +5913,32 @@
 **强烈建议：** 如果您正在处理具体患者的临床问题，请**立即查阅您所关注癌种的最新版NCCN患者版指南（For Patients）**（官网有免费中文版），并**与您的肿瘤专科医生讨论**。网络信息不能替代专业医疗决策。</t>
         </is>
       </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>在 NCCN 指南里，“Category（证据与共识等级）”同时考虑 **证据等级** 和 **专家共识程度**。  
+**Category 2A 和 2B 的关键区别在于：专家共识一致性的程度不同**（两者通常都不是最高等级证据）。
+- **Category 2A**：基于较低级别证据（如非随机研究、回顾性研究、专家经验等），但 **NCCN 专家组达成一致共识（uniform consensus）**，认为该干预/策略是合适的。
+- **Category 2B**：同样基于较低级别证据，但 **专家组共识不一致（nonuniform consensus）**，即存在明显分歧；不过仍然没有到“明确反对”的程度，因此仍被列为可选方案。
+补充对照（便于理解）：  
+- **Category 1**：高等级证据（通常为随机对照试验等）+ 一致共识。  
+- **Category 3**：无论证据如何，**存在重大分歧（major disagreement）**。
+如果你告诉我具体是哪一条治疗建议（癌种/分期/治疗线别），我也可以帮你解读它在临床决策中的含义。</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>在 NCCN（National Comprehensive Cancer Network）指南的推荐等级体系中，Category 2A 与 Category 2B 的主要区别在于“专家共识的统一程度”，而不是循证医学证据的高低。具体说明如下：
+1. Category 2A  
+   • 证据等级：来自较低级别或非随机对照试验的临床证据，或基于专家经验的临床数据。  
+   • 专家共识：一致（uniform）共识。也就是说，NCCN 专家小组几乎全部同意该治疗/检测方法是合适的，没有实质性反对意见。  
+   • 含义：虽然证据不是最高级别（非 Category 1），但由于专家意见的一致性高，被视为临床实践中的“标准推荐”之一。
+2. Category 2B  
+   • 证据等级：同样来自较低级别或非随机对照试验的证据。  
+   • 专家共识：非一致（non-uniform）共识，仅“大多数”（majority）专家认为该方案可行，但存在部分专家的不同意见。  
+   • 含义：推荐强度略弱于 2A，虽可作为可选方案，但在临床实践中需结合患者具体情况并考虑专家意见的分歧。
+因此，Category 2A 与 2B 的核心差异是“共识程度”——2A 为“统一”共识，2B 为“多数但非统一”共识；两者的证据层次同属“低级别或中等级别”，并非基于高质量随机对照试验。</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -5550,6 +6334,123 @@
     *   **核心原则**：全身治疗仍是晚期NSCLC的支柱；局部治疗是**补充手段**，非首选；**避免因“寡进展”概念而延误或错误调整有效全身治疗**。
 **强烈建议临床医生在遇到类似情况时，务必参考最新版NCCN、ESMO或ASCO指南，并咨询经验丰富的肿瘤内科和放疗科专家进行个体化决策。** 切勿将“寡进展”简单理解为可以局部治疗而忽视全身治疗的必要性。
 （注：指南更新较快，请务必查阅最新版本：NCCN: [https://www.nccn.org/](https://www.nccn.org/); ESMO: [https://www.esmo.org/](https://www.esmo.org/); ASCO: [https://ascopubs.org/doi/10.1200/JCO.21.00364](https://ascopubs.org/doi/10.1200/JCO.21.00364)）</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>以下按“定义—人群/影像学标准—局部治疗证据—指南与实践要点”概括非小细胞肺癌（NSCLC）中**寡进展（oligoprogression, OPD）**的常用定义与**局部治疗（local ablative therapy, LAT）**的主要证据。
+---
+## 1) 寡进展的定义（NSCLC 语境下的常用口径）
+**核心概念**：在全身治疗（靶向/免疫/化疗等）控制大部分肿瘤负荷的情况下，仅有**少数病灶出现新发或明确进展**；通过对进展灶行局部消融/切除/放疗，尽可能**延长当前有效全身治疗的获益时间**。
+### 常见操作性定义（临床研究与实践中）
+不同研究不完全一致，但大多包含以下要素：
+1. **进展灶数量少**
+   - 最常见阈值：**≤3 个或 ≤5 个进展病灶**  
+   - 有些研究以“进展器官数”限制（如 ≤2–3 个器官）。
+2. **发生在系统治疗期间**
+   - 既可发生在**一线或后线**治疗中；
+   - 也可发生在**维持治疗或持续缓解期**。
+3. **其余病灶稳定/缓解**
+   - 即“进展是局灶性的”，不是广泛系统性失控。
+4. **影像学确认**
+   - 通常用 RECIST 1.1 的 PD 标准或清晰的临床/影像进展证据；
+   - PET-CT/MRI（尤其脑转移）常用于提高“只在少数部位进展”的把握。
+&gt; 与相近概念区分：  
+- **寡转移（oligometastatic）**：初诊或某时间点总转移灶数量少（不是“进展灶少”）。  
+- **寡复发（oligorecurrence）**：根治后少数部位复发。  
+- **寡进展（OPD）**：在系统治疗背景下“少数病灶突破”。
+---
+## 2) 局部治疗（LAT）包括哪些？
+- **SBRT/SABR（立体定向放疗）**：最常用，适用于肺内、肝、肾上腺、骨等。
+- **脑转移局部治疗**：SRS（立体定向放射外科）、手术±放疗。
+- **手术切除**：可用于可切除的单/少数进展灶（肺、肾上腺、脑等）。
+- **消融**：射频/微波/冷冻等（视部位与条件）。
+临床目标通常是：**在不更换系统治疗的情况下**，用 LAT “打掉耐药克隆的突破点”，从而延长：
+- **PFS2/ time to next systemic therapy**
+- 以及在部分研究中改善 OS
+---
+## 3) 局部治疗在寡进展 NSCLC 的证据（按治疗时代梳理）
+### A. 靶向治疗时代（EGFR/ALK 等）—证据最为成熟（多为回顾性+一些前瞻性）
+**结论倾向**：对 EGFR/ALK 等驱动基因阳性患者，在 TKI 有效背景下出现少数部位进展时，对进展灶行放疗/手术并**继续原 TKI**，常可带来**数月到一年左右**的“额外控制时间”（延后换线）。
+- 多个中心的回顾性队列显示：  
+  - LAT + 继续 TKI 可延长 **time to treatment failure / PFS2**，并在部分研究中与更长 OS 相关。  
+  - 受益人群往往是：进展灶少、无广泛新发转移、总体肿瘤负荷低、全身治疗仍显效者。
+- 局限：回顾性研究易有选择偏倚（更适合做 LAT 的病人本身预后更好）；放疗剂量分割、进展定义不统一。
+&gt; 在 ALK/EGFR 的临床实践中，“**对少数进展灶 SBRT/SRS + 继续当前 TKI**”已经成为相当常见的策略。
+### B. 免疫治疗时代（PD-1/PD-L1 ± 化疗）—证据增长中（更多为回顾性/小型前瞻）
+**结论倾向**：在免疫治疗获得疾病控制后发生 OPD，对进展灶行 SBRT/SRS 等并继续 ICI，可能延长控制并推迟换线；但高质量随机证据相对不足，异质性较大。
+- 回顾性与小型前瞻观察提示：
+  - 对少数进展灶进行放疗（尤其 SBRT）可能带来较好的局部控制，并可能延长继续 ICI 的时间；
+  - 也有人关注潜在“旁观者效应（abscopal）”，但这在临床上并不稳定、不可作为主要预期。
+- 局限：研究样本量小、进展与“假性进展/混合反应”鉴别复杂、既往治疗线数差异大。
+### C. 关键随机研究：多为“寡转移/寡残留”而非纯 OPD，但为 LAT 理念提供强支撑
+虽然这些试验并不都是严格的“寡进展”，但它们确立了在 NSCLC 中对有限病灶行 LAT 可改善结局的生物学与临床合理性：
+- **Gomez 等（多中心随机II期）**：在系统治疗后达到部分缓解/稳定的寡转移 NSCLC，LAT（放疗/手术）较维护/观察显著延长 PFS，并提示 OS 获益。  
+- **SABR-COMET**（混合多肿瘤，含 NSCLC）：对有限转移灶行 SABR 改善 OS（但异质性大，且非专指 OPD）。  
+- **NRG-LU002**：在免疫/化疗时代的寡转移 NSCLC 中，加入 LCT 的结果更复杂（不同亚组、治疗构成影响结论），提示“谁从 LAT 获益”在 ICI 时代需要更精细分层。
+---
+## 4) 指南/共识的态度（概括性）
+主流指南与国际共识普遍认为：
+- 对**驱动基因阳性**且靶向治疗控制良好、出现**有限部位寡进展**者，可考虑 **LAT（SBRT/SRS/手术）+ 继续当前 TKI**，以延后换线（证据等级通常不如大规模III期，但一致性较好）。
+- 对**接受免疫治疗**后出现 OPD 者，可在 MDT 评估后考虑对进展灶 LAT，并决定是否继续 ICI（证据相对较弱，强调个体化）。
+---
+## 5) 实践中常用的“可考虑 LAT 的 OPD”要点（便于落地）
+通常更倾向考虑 LAT 的情形：
+- 进展灶 **≤3–5 个**、器官数少；
+- 其余病灶仍稳定/缓解；
+- 进展灶可安全给予根治性剂量 SBRT/SRS 或可切除/可消融；
+- 患者 PS 良好、预期寿命较长；
+- 影像学已尽量排除“其实已广泛进展”（必要时 PET-CT、脑 MRI）；
+- 结合分子机制：例如 EGFR/ALK 出现局部耐药克隆，继续原 TKI 仍可能控制大部分病灶。
+---
+如果你希望我把证据整理得更“可引用”（列出代表性研究的作者/年份/主要终点与结果、分别针对 EGFR/ALK/免疫治疗 OPD），请告诉我你关心的治疗背景（例如：EGFR 一代/三代 TKI，ALK 二代/三代，或 PD-1/PD-L1 联合化疗），以及你想采用的“进展灶数”阈值（3 还是 5）。我可以据此给出更贴近你需求的证据表格与结论表述。</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>一、概念和定义  
+1. 提出背景  
+   • “寡转移”(oligometastasis) 指肿瘤播散范围有限（多为≤5个病灶）。  
+   • 在靶向药或免疫治疗时代，常见另一种状态：大部分病灶仍被全身治疗有效控制，只有极少数病灶出现获得性耐药并继续进展，这种情形被称为“寡进展”(oligoprogression, OP)。其临床意义在于：如能把进展灶用局部方法清除，患者可继续使用仍然有效的全身治疗，从而延长无进展生存期(PFS)并可能改善总生存(OS)。  
+2. 常用定义（尚无全球统一标准，以下为目前公认范围）  
+   • 进展病灶数目：1-3个（部分文献放宽至≤5个）。  
+   • 进展病灶器官数：1-2个（最多3个）。  
+   • 既往全身治疗：需对既往治疗（EGFR/ALK-TKI、ICI、化疗等）获得疾病控制≥3-6个月后才出现局灶性进展。  
+   • 其余病灶仍处于缓解或稳定。  
+   ASTRO/ESTRO 2020 共识：≤3个进展病灶即可定义为“寡进展”；NCCN、ESMO、CSCO 等指南亦采纳“≤3-5个病灶，≤2-3个器官”的原则。  
+二、为什么要做局部治疗？  
+   • 获得性耐药往往源于少数克隆，局部消灭耐药灶可“重置”肿瘤负荷，延长有效全身治疗的时间。  
+   • 局部治疗（立体定向放疗[SABR/SBRT]、立体定向放射外科[SRS]、手术、射频/微波消融等）创伤小、控制率高，不会显著增加全身不良反应。  
+三、临床证据概览  
+1. 靶向治疗背景（EGFR/ALK 等）  
+   • Weickhardt 等（J Thorac Oncol, 2012, n=25）：EGFR/ALK-TKI 治疗后寡进展给予局部放疗/手术，中位PFS延长6.2个月，mOS 28.4个月。  
+   • Yu 等（Clin Cancer Res, 2014, n=65）：EGFR-TKI后寡进展，局部治疗+继续原TKI vs 直接换线；继续TKI组TTP 10.0个月 vs 1.8个月（p&lt;0.001）。  
+   • Jiang 等（Radiother Oncol, 2020, n=161，回顾性多中心SBRT）：局部治疗后PFS2 14.0个月，mOS 37.0个月，1年局部控制率93%。  
+   • HALT 研究（正在进行，三期，NRG-LU002）：EGFR/ALK-TKI背景出现≤5个寡进展灶，SBRT+继续原TKI vs 仅换线系统治疗，期望验证OS获益。  
+2. 免疫治疗或化疗背景  
+   • Bauml 等（J Clin Oncol, 2019，单臂前瞻性，n=45）：PD-1/PD-L1 单抗治疗后寡进展，SABR+继续PD-1 单抗；PFS 14.7个月，1年OS 92%。  
+   • Patel 等（JTO, 2020）：ICI治疗中的寡进展患者行局部放疗，PFS2 8.2个月，且无明显免疫相关毒性增加。  
+   • STOP (NCT02756793)、POSTCARD、COLUMBUS 等多项前瞻性试验正在进行。  
+3. 系统评价/荟萃分析  
+   • Owen et al. (Lung Cancer, 2020)：6项研究、450例EGFR/ALK阳性寡进展患者，局部治疗+继续原疗方案的中位PFS 10-14个月，mOS 26-37个月；Grade ≥3 毒性 &lt;10%。  
+   • Rim et al. (Radiother Oncol, 2021) 总结80篇研究：SABR/SRS 对寡转移、寡进展NSCLC 的2年局部控制率&gt;80%， Grade 3-5 不良事件≈5%。  
+四、指南推荐  
+1. NCCN NSCLC (2023版)：  
+   • 对 EGFR/ALK/ROS1 等 靶向治疗期间出现“系统总体受控、局部少数病灶进展”的患者，可考虑对进展灶行手术、SRS/SBRT、消融或其他姑息性局治，同时继续原靶向药。  
+2. ESMO 2023 / CSCO 2023：  
+   • 建议对≤3(-5) 个进展病灶采用根治剂量局部消融治疗；若为脑转移首选SRS或手术。  
+   • 若进展灶位于放疗耐受度较低器官，可考虑消融/介入治疗。  
+五、常用局部治疗策略  
+1. 立体定向放疗/放射外科  
+   • 脑SRS：18-24 Gy 单次或24-30 Gy分2-5次。  
+   • 体部SBRT：45-60 Gy/3-5f（肺、肝、肾上腺）、50-60 Gy/5-8f（脊柱）等，生物等效剂量(BED10)≥100 Gy。  
+2. 手术切除：适于单发外周肺结节或可切除脑/肝/肾上腺单转移。  
+3. 微波/射频消融、冷冻消融、立体定向介入放疗等作为替代或补充。  
+六、小结  
+• “寡进展”是NSCLC 在靶向或免疫治疗过程中常见且具有临床意义的特殊状态，多定义为≤3-5个进展病灶、≤2-3个器官，其余病灶仍受控。  
+• 大量回顾性及少量前瞻性/随机研究表明，对寡进展灶实施高剂量、根治性局部治疗并继续原有效全身方案，可显著延长PFS，并有机会改善OS，且毒性可接受。  
+• 国际/国内指南均已将“继续原有效全身治疗+局部消融进展灶”列为 II-III 级推荐。  
+• 仍需更多随机Ⅲ期试验（如NRG-LU002、HALT等）进一步证实OS获益及优化患者选择标准。</t>
         </is>
       </c>
     </row>
@@ -5810,6 +6711,48 @@
 理解R0/R1/R2的区别，有助于患者和家属更清晰地了解手术效果和后续治疗方向。在面对具体病情时，请务必以主治医生的详细解释为准。</t>
         </is>
       </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>在肺癌手术（以及其他肿瘤手术）里，**R 分级**用于描述**切缘是否残留肿瘤**（R = residual tumor，残留肿瘤），是判断手术“切干净没有”的标准之一：
+- **R0 切除（无残留）**  
+  - **含义**：手术切除后，**肉眼看不到残留肿瘤**，并且**显微镜下切缘也没有肿瘤细胞**（切缘阴性）。  
+  - **意义**：通常代表**根治性切除**，预后相对最好。
+- **R1 切除（显微残留）**  
+  - **含义**：术中/术后**肉眼看起来切干净了**，但**病理显微镜检查发现切缘有肿瘤细胞**（切缘阳性）。  
+  - **意义**：提示仍有肿瘤细胞残留在切除边缘，复发风险更高，往往需要进一步治疗（如放疗/全身治疗等，依分期与具体情况而定）。
+- **R2 切除（肉眼残留）**  
+  - **含义**：手术后仍有**肉眼可见的肿瘤残留**（例如肿瘤无法完全切除，或有明显残留病灶）。  
+  - **意义**：属于**非根治性切除**，局部控制较差，通常需要以综合治疗为主。
+补充两点常见理解：
+1. **R 分级只描述“残留情况/切缘状态”**，与 TNM 分期相关但不是一回事。  
+2. 肺癌里常提的切缘包括：支气管切缘、血管切缘、肺实质切缘、胸膜/胸壁切缘等，最终以**病理报告**为准。</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>在肺癌手术后，病理科要根据切缘及肿瘤残留情况给出 R  分级（Residual tumor classification），它直接影响对手术“根治性”的评价、后续辅助治疗的选择以及预后判断。国际肺癌研究协会（IASLC）采用的定义与大多数胸外科指南基本一致，可简要概括如下：
+1. R0 切除（完全切除，No residual tumor）
+   • 手术野内肉眼看不到残留肿瘤。  
+   • 所有切缘（支气管、血管、肺实质、胸膜、脊柱或膈肌等附加切缘）病理学检查均为阴性（即镜下无肿瘤细胞）。  
+   • 进行了系统性（或完全性）纵隔淋巴结清扫/系统取样，且最高位纵隔淋巴结阴性。  
+   预后最好，一般认为达到了“根治性切除”。
+2. R1 切除（显微残留，Microscopic residual tumor）
+   • 手术肉眼看似已将肿瘤全部切除，但病理检查发现切缘上仍有肿瘤细胞，或存在胸膜、血管、淋巴管、支气管壁内的微小残余。  
+   • 临床表现为“切缘阳性、镜下残留”。  
+   预后明显差于 R0，属“非完全切除”，术后通常需考虑辅助放疗/化疗或靶向/免疫治疗等综合手段。
+3. R2 切除（肉眼残留，Macroscopic residual tumor）
+   • 手术结束时就已知或术后影像学/病理证实仍有肉眼可见的肿瘤残留。常见情形如：  
+     – 肿瘤侵犯大血管、椎体、心包等而无法彻底切除；  
+     – 多处胸腔种植或远处转移只做了姑息性切除。  
+   • 切缘显著阳性或干脆未能切到“缘”。  
+   预后最差，仅属姑息性或减瘤手术范围，需要积极的全身治疗。
+要点总结
+• R0＝肉眼＋镜下均无残肿瘤（完全切除）；  
+• R1＝肉眼无残肿，但镜下仍有肿瘤（显微残留）；  
+• R2＝手术后仍有肉眼可见残肿瘤（肉眼残留）。
+因此，在肺癌手术报告里见到 “R0” 常被视为外科根治的基本要求；若为 “R1” 或 “R2”，则提示需进一步综合治疗并密切随访。</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -6214,6 +7157,92 @@
 如有具体病例细节（如病理类型、分期细节、基因结果），可进一步细化分析。</t>
         </is>
       </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>对于**可完全切除**的 NSCLC（非小细胞肺癌）患者，按你给出的分期范围（**IIB–IIIA、IIIB期〔仅T3N2〕或高危IIA**），常用、指南一致的**推荐治疗策略**可概括为以下几类（以“围手术期系统治疗 + 手术 + 术后补充/巩固”为核心）：
+---
+## 1）围手术期免疫联合化疗（优先推荐的主流策略之一）
+**适用人群**：可切除的 IIB–IIIA、部分可切除 IIIB（T3N2）及高危IIA，且无免疫禁忌。  
+**做法**：  
+- **术前（新辅助）**：PD-1/PD-L1 抑制剂 + 含铂双药化疗（通常 3–4 个周期）  
+- **手术**：评估后行根治性切除 + 系统性淋巴结清扫/采样  
+- **术后（辅助）**：部分方案继续免疫治疗维持一定疗程（依据所用方案与病理反应/分期）
+**要点**：可提高病理缓解率与无事件生存（EFS），目前已成为可切除中期NSCLC的重要标准方案之一。
+---
+## 2）围手术期化疗（不适合免疫或无法获得免疫时的标准选择）
+**适用人群**：IIB–IIIA、可切除IIIB（T3N2）或高危IIA；免疫治疗不适用时。  
+**做法**：  
+- 可选 **术前新辅助含铂化疗**（常见 2–4 周期）后手术  
+或  
+- **先手术**，再行 **术后辅助含铂双药化疗**（多为 4 周期）
+**要点**：术后辅助含铂化疗对 II–III 期总体获益明确，是传统“基石方案”。
+---
+## 3）EGFR突变阳性：术后靶向辅助治疗（常与/在化疗后进行）
+**适用人群**：可切除 NSCLC，术后病理为 **II–IIIA（以及部分指南/实践中覆盖到选定的IB高危）** 且 **EGFR敏感突变阳性**。  
+**做法**：  
+- 通常仍优先完成（或评估是否需要）**辅助含铂化疗**  
+- 随后给予 **EGFR-TKI 术后辅助治疗**（典型为奥希替尼方案）
+**要点**：EGFR突变人群通常**不把免疫治疗作为首选围术期策略**（获益不确定且潜在毒性/序贯风险需谨慎），而是以“化疗 ± 靶向辅助”为主。
+---
+## 4）ALK等其他可靶向驱动基因：以临床试验/个体化为主
+**适用人群**：ALK、ROS1、RET、MET等驱动基因阳性可切除中期NSCLC。  
+**策略**：  
+- 标准仍以 **含铂化疗（±围术期免疫，需结合驱动基因情况慎选）** 为主  
+- 靶向药围术期应用更多处于**研究/试验或个体化**阶段（不同地区批准情况差异较大）
+---
+## 5）术后放疗（PORT）：仅限特定高风险/特殊情况
+**适用情形（常见）**：  
+- **R1/R2切除（切缘阳性）**：通常推荐术后放疗（并结合全身治疗）  
+- **pN2**：是否常规PORT存在争议，更多倾向于**选择性**使用（如高负荷N2、多个纵隔站受累、局部复发风险高等），需MDT决策  
+- **R0切除且低风险**：一般不常规PORT
+---
+# 实操决策的关键前提（决定选哪条策略）
+1. **是否真正“可切除”**：尤其是 IIIA/IIIB（T3N2），需要胸外科 + 放疗科 + 肿瘤内科 MDT评估。  
+2. **术前必须完成分子与PD-L1检测**：至少 EGFR/ALK（及本中心常规的广泛NGS）+ PD-L1。  
+3. **患者能否耐受含铂化疗/免疫**：肾功能、心肺储备、自身免疫病史等。
+---
+如果你愿意，把患者的**具体TNM、驱动基因/PD-L1、计划切除方式（肺叶/全肺）、以及N2是单站还是多站**发我，我可以按“最匹配的推荐路径 + 每一步常用周期/时序 + 何时考虑放疗”的格式帮你进一步落到具体方案。</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>根据最新的 NCCN 及 CSCO 指南，对于经 MDT 评估可完整切除的  
+• IIB–IIIA 期，  
+• ⅡIB 期（仅 T3，N2），  
+• 以及具有高危因素（≥4 cm、脉管/神经/脉管鞘侵犯、未按解剖叶切、 纵隔 LN 采样不足等）的 ⅡA 期非小细胞肺癌（NSCLC）患者，可选的标准/推荐治疗策略主要包括以下几类：  
+一、围手术期以含铂为基础的化疗  
+1. 术前（新辅助）含铂双联化疗 2–4 周期 → 手术 ± 术后追加 0–2 周期  
+2. 术后（辅助）含铂双联化疗 4 周期（一般术后 4–8 周内开始）  
+   • 首选：含顺铂方案（如 PP、PC、PE、PCt 等）  
+   • 若对顺铂不耐受，可选卡铂双药（II 类推荐）  
+二、围手术期免疫治疗  
+1. 新辅助免疫-化疗（PD-1/PD-L1 抑制剂 + 含铂双药）2–3 周期 → 手术 → 术后继续同一 PD-1/PD-L1 抑制剂至 1 年（CheckMate-816 等证据）  
+2. 辅助免疫治疗（需先完成辅助化疗）  
+   • PD-L1 ≥1%，且无 EGFR/ALK 阳性：阿替利珠单抗 1 年（IMpower010，1A 推荐）  
+   • 其他 PD-1/PD-L1 抑制剂的辅助治疗目前建议在临床研究或 2B 级别推荐  
+三、围手术期靶向治疗  
+1. EGFR 19del/L858R 阳性：辅助奥希替尼 3 年（ADAURA，1A 推荐），需先完成或同步含铂化疗  
+2. EGFR 阳性而无法耐受化疗者，可考虑吉非替尼/厄洛替尼辅助治疗（2B）  
+3. ALK 阳性：目前无正式批准药物，建议临床试验或个案讨论后可用阿来替尼等（2B）  
+4. 其他驱动基因（ROS1、RET、MET、BRAF 等）尚无确切结论，鼓励临床试验  
+四、术后放射治疗（PORT）  
+1. R1/R2 切缘阳性、或术中/术后发现 N2 多站累及、高危局部复发风险者，建议术后放疗（45–54 Gy）  
+2. 已接受新辅助放疗的患者一般不再 routinely 加 PORT，需个体化评估  
+五、综合策略选择原则  
+1. 首选临床研究；有条件者尽量入组围手术期免疫/靶向联合方案试验  
+2. 无论选择新辅助还是辅助方案，均应在多学科团队 (MDT) 讨论后决定  
+3. 评估患者一般状况、合并症、PD-L1 表达及基因突变状态，制定个体化方案  
+简要流程示意：  
+• 可切除 IIB–IIIA/ⅡIB(T3N2)/高危ⅡA → MDT 讨论  
+   ├─ 若先做新辅助：含铂双药 ± PD-1/PD-L1（2–3 周期） → 手术 → 继续既定免疫/完成化疗  
+   └─ 若直接手术：手术 → 含铂辅助化疗 4 周期  
+        ├─ EGFR 19del/L858R：化疗后奥希替尼 3 年  
+        ├─ PD-L1 ≥1%，EGFR/ALK 阴性：化疗后阿替利珠单抗 1 年  
+        └─ 其他基因阳性或阴性：常规随访或进入相应靶向/免疫临床研究  
+   → 术后若 R1/R2 或多站 N2，可加 PORT  
+以上策略均需根据患者个体状况、分子分型、PD-L1 表达、治疗耐受性及患者意愿综合权衡。</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -6532,6 +7561,40 @@
 - **若术前未检测，术后必须补做**（尤其计划辅助治疗时）。  
 建议严格遵循最新版NCCN（[链接](https://www.nccn.org/guidelines/guidelines-detail/topic/1270-non-small-cell-lung-cancer)）或CSCO指南（[链接](http://csco.org.cn)），并结合患者具体情况个体化决策。  
 &gt; 注：本文内容不替代临床诊疗，最终方案需由主治医生根据患者实际病理、体能状态及指南更新调整。</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>用于指导**术后辅助治疗（TKI 或免疫治疗）**时，一般按“哪些分期在指南/证据中已明确存在可选的术后系统治疗”来决定术后必须做哪些分子与PD‑L1检测：
+## 1) 需要术后检测 PD‑L1、EGFR 突变、ALK 重排的分期（重点人群）
+**可切除 NSCLC：IB（≥4 cm）–IIIA（部分也包括 IIIB[T3‑4N2]）**术后，若计划/可能考虑辅助治疗（化疗±靶向±免疫），通常建议在手术标本上完成：
+- **PD‑L1（IHC）**
+- **EGFR 突变（至少 Ex19del/L858R，最好NGS覆盖）**
+- **ALK 重排（IHC/NGS/FISH）**
+原因（对应临床用药场景）：
+- **EGFR阳性**：有明确的术后辅助EGFR‑TKI适应证/证据主要在 **II–IIIA**（且在部分指南/地区也会扩展到 **IB≥4 cm**）。
+- **PD‑L1**：用于筛选是否可考虑术后辅助免疫治疗的分期主要覆盖 **II–IIIA**（部分方案也纳入 **IB≥4 cm**）。
+- **ALK**：用于识别驱动基因阳性人群（驱动阳性通常不优先选择免疫治疗），并为可能的辅助靶向治疗/临床试验及复发后治疗策略做准备。
+## 2) 通常不“常规必须”为术后辅助治疗而做的分期
+- **IA期（IA1–IA3）**：标准治疗以手术±随访为主，通常**不因辅助TKI/免疫治疗需要而常规要求**术后做PD‑L1/EGFR/ALK（除非复发风险高、研究/临床试验、或为将来复发治疗提前建档）。
+- **IIIB/IIIC、IV期**：若是“可切除”情形较少；更多属于综合治疗范畴，检测当然重要，但已不单纯是“术后辅助治疗”决策。
+## 3) 实用落地建议（一句话）
+如果你的患者是**切除后的 IB（≥4 cm）、II、IIIA（及部分可切除IIIB）**，并且有可能进入**辅助免疫或辅助EGFR‑TKI**路径，那么术后病理标本应**常规完善PD‑L1 + EGFR + ALK**（最好用NGS一次覆盖更多基因）。
+如果你告诉我：你所在地区/医院遵循的具体指南版本（CSCO/NCCN/ESMO）以及患者的**具体分期（含肿瘤大小、N分期）、腺癌/鳞癌、吸烟史**，我可以把“哪些必须测、优先测什么、用哪种检测方法”进一步细化成可直接写进病程的建议。</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>按现行国内外指南（如 CSCO、NCCN 2023 版早期 NSCLC 指南）的推荐，为了决定术后是否给予 EGFR-TKI 或免疫检查点抑制剂治疗，凡符合下述病理分期、已获得 R0 切除的非小细胞肺癌（NSCLC）患者均应常规检测 PD-L1 表达、EGFR 突变及 ALK 重排：  
+1. ⅠB 期（肿瘤直径 ≥4 cm 或具高危复发因素者）  
+2. ⅡA 期  
+3. ⅡB 期  
+4. ⅢA 期  
+5. ⅢB 期中属于 T3N2（可手术切除者）
+上述分期患者在术后进行  
+• PD-L1 检测——为是否应用辅助免疫治疗（如阿替利珠单抗、帕博利珠单抗等）提供依据；  
+• EGFR 突变检测——为是否应用辅助 EGFR-TKI（如奥希替尼）提供依据；  
+• ALK 重排检测——为评估是否可采用（或应避免）ALK-TKI 或免疫治疗，以及后续治疗策略提供信息。</t>
         </is>
       </c>
     </row>
@@ -6890,6 +7953,31 @@
 &gt; 2. ESMO Guidelines for the management of early stage non-small cell lung cancer (2021)  
 &gt; 3. 中国临床肿瘤学会（CSCO）非小细胞肺癌诊疗指南（2023）  
 如有临床细节（如具体影像描述、患者状态），可进一步分析个体化方案。</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>- **中央型肿块 / 疑似支气管内病变（NSCLC 诊断评估）**：  
+  **推荐首选：支气管镜检查（柔性支气管镜）**，并行**支气管内活检/刷检/灌洗（BAL）**等取材（必要时可加做 EBUS 相关取样用于分期/取材）。
+- **周围型肺部结节（NSCLC 诊断评估）可选的侵袭性诊断方法**：  
+  1) **CT 引导经皮穿刺活检（TTNB/经皮针吸或粗针活检）**  
+  2) **经支气管活检（TBLB）**：可结合**径向 EBUS（rEBUS）**、**电磁导航支气管镜（ENB）**或其他导航支气管镜技术提高定位和取材率  
+  3) **外科活检/切除**：如**胸腔镜（VATS）楔形切除/肺段切除**（或开胸）用于诊断兼治疗，尤其在高度怀疑且其他方式不易确诊时</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>1. 中央型肿块或怀疑存在支气管内病变  
+   首选的侵袭性诊断手段是支气管镜检查（常规软式支气管镜±气管-支气管内超声［EBUS］），可行：  
+   • 经支气管镜活检（包括钳取活检、刷检、冲洗细胞学）；  
+   • 如有需要，可在同一过程中行EBUS-TBNA对隆突或近端纵隔淋巴结取样。
+2. 周围型肺部结节  
+   可根据病灶位置、大小及患者情况选择下列侵袭性取材方法：  
+   • CT 引导下经皮肺针吸/穿刺活检（TTNA/TTNB）；  
+   • 经支气管镜的“靶向”活检技术  
+     – 径向超声探头（r-EBUS）引导的经支气管肺活检；  
+     – 电磁导航支气管镜（ENB）或机器人导航支气管镜活检；  
+   • 视频辅助胸腔镜（VATS）楔形切除或活检——尤其适用于无法经上述途径获得足量标本或同时拟行治疗切除者。</t>
         </is>
       </c>
     </row>
@@ -7245,6 +8333,115 @@
 **请务必携带患者所有既往病历、影像资料（原始DICOM文件最佳）、近期检查报告，尽快联系呼吸科/胸外科/肿瘤科专家，进行系统性的再评估和MDT讨论。这是确保患者获得最恰当治疗的关键一步。** 切勿自行决定下一步！</t>
         </is>
       </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>对于“主病灶有生长证据”的 **N0–1期多发性肺癌（MPLC）**，下一步治疗评估的核心是：**先确认“是否真为多原发”、明确分期与可切除性、再在多学科（MDT）下选择局部根治（手术/放疗/消融）为主的策略，并决定是否需要（新）辅助或术后系统治疗**。可按下面流程评估与决策。
+---
+## 1) 先把诊断与分期“做实”：是否多原发？是否存在隐匿转移？
+### A. 影像学与生长特征
+- 对比既往CT：**增长速度（体积倍增时间）、实性成分增加、毛刺/胸膜牵拉、SUV升高**等提示侵袭性增强。
+- 明确每个结节的：**大小、磨玻璃/部分实性/实性比例（CTR）、位置（同叶/同肺不同叶/对侧肺）**。
+### B. 全身分期
+- **PET-CT**：排除远处转移、评估淋巴结代谢活性、帮助区分多原发 vs 肺内转移（但不能单独定性）。
+- **脑MRI**：尤其是非鳞癌、肿瘤较大/更侵袭或考虑系统治疗前。
+### C. 淋巴结评估（N0–1的“确认”很关键）
+- 影像提示N1或可疑N2时：优先做**EBUS-TBNA**/经支气管针吸活检；必要时纵隔镜。
+- 目标：避免把“隐匿N2”当成N1/0而直接做手术导致策略偏差。
+---
+## 2) 组织学与分子：决定“多原发”与“下一步治疗强度”的关键证据
+### A. 至少对“主病灶”获得充分病理
+- 支气管镜/CT引导穿刺/手术楔切（诊断性切除）等。
+- 需要明确：**腺癌亚型、浸润程度、脉管/胸膜侵犯**等高危因素。
+### B. 尽可能对“会影响分期/策略的结节”取样
+- 优先取样：增长快、实性比例高、SUV高、将改变切除范围或放疗计划的结节。
+### C. 分子与克隆性判断（区分MPLC vs 肺内转移）
+- 建议：对主病灶及至少1个可疑结节做 **NGS/关键驱动基因谱系比对**（EGFR/ALK/KRAS等）。
+- **不同驱动突变/不同谱系**更支持多原发；高度一致需警惕肺内转移（策略会更偏系统治疗）。
+---
+## 3) “可切除性+功能储备”评估：决定是手术为主还是放疗/消融
+- 肺功能：**FEV1、DLCO**；必要时**预测术后（ppoFEV1/ppoDLCO）**、心肺运动试验（VO₂peak）。
+- 合并症与围术期风险：心血管、间质性肺病、既往放疗/手术史等。
+- 解剖学可切除性：多发病灶是否可在保证功能的前提下实现根治性处理（分期/分次手术、亚肺叶切除组合等）。
+---
+## 4) MDT下的治疗选择（N0–1、主灶生长的常见路径）
+### 情形A：高度怀疑/确认多原发，且整体可局部根治
+**优先策略：以局部根治为主（手术为主，或SABR/消融联合）**
+- **主病灶**：通常优先根治处理（解剖性切除更常见；也可在特定情况下行段/楔切）。
+- **其他结节**：
+  - 磨玻璃为主、惰性：可切除一部分+其余严密随访，或分期处理。
+  - 实性/增长快：倾向同步/分期切除或SABR/消融。
+- **淋巴结处理**：手术时系统性取样/清扫；N1需完整评估范围。
+### 情形B：N1已证实或强烈怀疑、肿瘤更侵袭，担心“并非多原发”
+- 若倾向单一肿瘤肺内转移：治疗会更偏向**按分期肺癌的综合治疗**（可能需要（新）辅助化疗±免疫/靶向，或术后辅助）。
+- 是否新辅助取决于：肿瘤负荷、结节性质、能否一次性根治、患者耐受性与指南适应证。
+### 情形C：手术风险高或无法完成理想切除
+- **SABR（立体定向放疗）**对早期病灶控制率高，可作为主灶/部分病灶根治方式。
+- **消融（微波/射频/冷冻）**适合部分周围型小结节或肺功能差者。
+- 常见做法：**主灶SABR + 其余病灶选择性SABR/消融或随访**。
+---
+## 5) 术后/局部治疗后的“下一步”：是否需要辅助治疗与随访策略
+- 依据最终病理分期（T、N）、高危因素（脉管/胸膜侵犯、低分化等）决定辅助治疗。
+- 如存在可靶向驱动（如EGFR等）或PD-L1信息，需结合分期与指南适应证决定是否进入**辅助靶向/免疫/化疗**路径。
+- 随访：通常需更密集的胸部CT随访以管理未处理结节与复发风险。
+---
+## 6) 建议你提供的关键信息（我可据此给出更具体的评估路径）
+1. 每个病灶的：部位、大小、磨玻璃/实性比例（CTR）、近期增长情况（时间跨度、增长幅度）。  
+2. PET-CT结果（各灶SUV、纵隔/肺门结节情况）。  
+3. 目前N0–1的依据：影像推断还是已穿刺/EBUS证实？  
+4. 主病灶病理（若已有）及分子结果（EGFR/ALK/KRAS等）。  
+5. 肺功能（FEV1、DLCO）、是否有COPD/间质性肺病、手术史。  
+6. 计划目标：优先根治、还是优先保留肺功能/降低风险？
+如果你把CT报告/PET-CT要点或关键影像截图发来（可去除个人信息），我可以按上述框架帮你把“下一步评估清单”和“更可能的治疗分支”具体化到可执行的检查与决策顺序。</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>多灶性肺癌（multiple primary lung cancer，MPLC）一旦出现“主病灶有明确生长证据”而总体分期仍为 N0–1 期，下一步的决策重点是：
+1. 重新确认“多原发”而非“转移”
+   • 复查高分辨率胸部 CT，又读前后对照片，确定除主灶外各病灶的影像学特征无“空洞-血管源性”转移样表现；  
+   • 结合病理（不同组织学类型、不同驱动基因突变）及时间间隔来满足 Martini–Melamed/AAH–AIS–MIA 等标准。
+2. 完整的分期与播散排查
+   • 18F-FDG PET/CT（或增强 CT）评估所有病灶及纵隔淋巴结；  
+   • 纵隔淋巴结 &gt;1 cm 或 SUV 高者行 EBUS-TBNA / mediastinoscopy；  
+   • 头颅 MRI、骨扫描/全身 PET 排除远处转移。  
+   若证实仍为 N0–1，T 期按最大病灶（dominant tumor）分期。
+3. 评估能否手术根治——首选 MDT 讨论
+   A. 全身状况  
+      • 年龄、伴发疾病、心功能（ECHO、BNP）、营养状态；  
+   B. 呼吸功能  
+      • FEV1、DLCO ≥ 60% 预测值（或术后预测 FEV1 &gt; 800 mL）；  
+      • 心肺运动试验 VO2max ≥ 15 mL·kg⁻¹·min⁻¹ 为相对安全。  
+   C. 影像学分布  
+      • 同侧同叶／同肺多发？两侧？  
+      • 病灶大小、位置与累叶范围。
+4. 拟定手术方式（可同步也可分期）
+   • 目标：既保证肿瘤学根治，又最大限度保留有效肺组织。  
+   • 建议方案（举例）：  
+     – 同叶多灶：行该叶肺叶切除+（必要时）加一临近楔形/段切；  
+     – 同侧不同叶：对主灶行肺叶切除，对较小病灶行解剖段切/楔形切除；  
+     – 双肺病灶：首选分期（interval 2–4 周）或同步双侧分次胸腔镜：主侧肺叶切除+对侧（或同侧第二叶）亚肺叶切除。  
+   • 均须系统性（或系统+采样）纵隔淋巴结清扫。  
+   • 若肺功能边缘：可多采用亚肺叶切除甚至 SBRT 取代部分手术。  
+5. 不能耐受手术或拒绝手术者
+   • 首选立体定向放射治疗（SBRT/SABR），按 NCCN、ASTRO 方案给予 50–60 Gy/5–8 次；  
+   • 或射频/微波/冷冻消融（RFA/MWA/Cryo）等局部消融；  
+   • 仍按最大病灶的病理或影像学分期决定是否补充系统治疗。
+6. 辅助/新辅助治疗的考量
+   • 真正的多原发按各病灶分期，取最高分期决定；  
+   • N1 或 T2b(&gt;4 cm) 以上病灶，可行含铂双药辅助化疗 4 周期；  
+   • 如有驱动基因突变且满足 ADAURA 等研究纳入标准，可考虑辅助 EGFR-TKI；  
+   • 免疫治疗现阶段仅建议在临床试验或无法手术/放射治疗的患者中使用。
+7. 随访与监测
+   • 术/放疗后 2 年内每 3–6 个月复查胸部 CT ± 肿瘤标志物；  
+   • 2～5 年每 6 个月，其后每年一次；  
+   • 一旦发现新发或原病灶增长再次进入第 1 步流程。
+8. 特别提示
+   • 整个决策过程需胸外科、放疗科、呼吸科、影像、核医、病理、肿瘤内科的 MDT 共同完成；  
+   • 定期比较序列 CT，识别“加速生长期”病灶；  
+   • 任何时候如发现 N2/3 或远处转移，则转入ⅢB–Ⅳ期综合治疗策略。
+总之，N0–1 期、主病灶已呈增长的多发性肺癌，首选在 MDT 指导下进行完善分期和肺功能评估；若可耐受手术，以“主灶解剖性切除+其它病灶个体化亚肺叶切除”为基础的根治性手术仍是首选；不能手术则依序采用 SBRT 或消融等根治性局部治疗，并按最高病灶分期决定是否给予辅助/系统治疗。</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -7664,6 +8861,106 @@
     *   **注意：** 指南是框架，**必须结合患者具体</t>
         </is>
       </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>术中发现（或术后病理证实）隐匿性 N2（pN2，临床分期 cN0/1 但最终证实纵隔淋巴结转移）NSCLC 的处理要点是：**完成“标准根治切除+系统纵隔淋巴结清扫/取样”后，以术后综合治疗为主**；是否当场扩大切除或改变术式，取决于“是否可R0切除、N2负荷大小、患者生理储备与并发症风险”。
+---
+## 1）术中第一步：确认信息与手术目标
+- **快速病理确认 N2**：站位、转移灶大小（微转移/宏转移）、是否多站、是否有囊外侵犯（ECE）。
+- **评估可否 R0 切除**：肿瘤切缘、血管/支气管受侵、是否需要袖式/联合切除。
+- **手术原则**：若可安全实现 **R0**，通常**不因“偶发单站/低负荷 N2”而立即放弃切除**；相反，若提示**多站/ bulky N2 或无法R0**，继续做大手术获益显著下降。
+---
+## 2）术中策略（可操作的决策框架）
+### A. 更倾向“继续完成根治切除”的情况
+满足多数条件时可继续：
+- **单站 N2** 或低负荷（尤其是微转移/小灶）
+- 肿瘤可 **R0**，不需高风险的广泛联合切除
+- 患者肺功能/心功能可承受
+- 具备规范的**系统纵隔淋巴结清扫（MLND）**条件  
+处理：
+- **完成解剖性肺叶切除（优先）+ 系统纵隔淋巴结清扫**（不是“挑几个结节”）。
+- 避免为追求“清得更广”而做不必要的**全肺切除**，除非这是唯一能R0的方式且风险可接受。
+### B. 更倾向“停止根治切除/转为分期或姑息”的情况
+- **多站 N2**、明显 **bulky N2**、疑似纵隔固定/囊外广泛侵犯
+- 预计 **无法R0** 或只能通过高死亡率方案（如高风险全肺切除）实现
+- 术中出现不稳定（出血/通气/循环）  
+处理：
+- 以**分期性取样/清扫**结束（获得准确病理分期），避免过度切除。
+- 术后转入**以全身治疗±放疗为主**的策略（MDT决定）。
+---
+## 3）术后综合治疗：隐匿性 pN2 的“主战场”
+### 3.1 辅助化疗（多数 pN2 的基础治疗）
+- **含铂双药辅助化疗**通常是标准（若R0且体能允许），可降低复发风险。
+- 不能耐受含铂者个体化（替代方案或放弃化疗）。
+### 3.2 辅助放疗 PORT：按风险选择，不是“一刀切”
+一般考虑 PORT 的情形（倾向获益更大）：
+- **多站 N2**
+- **淋巴结比率高/结外侵犯（ECE）**
+- 纵隔复发风险高且能接受放疗毒性  
+一般不常规 PORT 的情形：
+- **单站、低负荷、R0、清扫充分**者，PORT 获益不确定，需MDT权衡心肺毒性风险。
+&gt; 关键前提：是否做过**规范系统清扫**会显著影响对PORT的判断。
+### 3.3 靶向/免疫辅助治疗：按驱动基因与PD-(L)1决定
+- **EGFR敏感突变（如19del/L858R）**：辅助EGFR-TKI可作为重要选择（通常在完成辅助化疗后或根据方案衔接）。
+- **无EGFR/ALK等可靶向驱动**且符合适应证者：可考虑**辅助免疫治疗**（通常在术后辅助化疗后序贯），具体药物与人群限制以当地指南/获批适应证为准（PD-L1、分期、R0等条件不同）。
+---
+## 4）必须补齐的“术后再分期/复发风险评估”
+- 复核：N2 是哪一站、几站、结外侵犯、淋巴结数量/比率、切缘状态、脉管/胸膜侵犯。
+- 建议：术后按指南完成**影像学评估**（必要时PET-CT/脑MRI视风险而定）以排除同步远处病灶。
+- MDT（胸外/肿瘤内科/放疗/影像/病理）共同确定辅助方案与时间窗。
+---
+## 5）一句话落地
+- **可R0、单站/低负荷隐匿性N2**：通常**完成肺叶切除+系统纵隔清扫**，术后以**含铂化疗为基础**，再按分子分型/PD-L1决定**靶向或免疫**，PORT 选择性考虑。  
+- **多站/ bulky N2 或无法R0/需高风险全肺切除**：倾向**停止扩大根治切除**，以**系统治疗±放疗**为主（术后或转入新辅助/根治性放化疗路径）。
+---
+如果你愿意，我可以按你提供的关键信息给出更具体的“当场怎么做/术后怎么排方案”：
+1）肿瘤位置与拟行术式（叶切/袖切/全肺等）  
+2）N2：单站还是多站？哪几站？是否bulky/结外侵犯？  
+3）是否已完成系统纵隔清扫？R0把握如何？  
+4）分子（EGFR/ALK等）和PD-L1、病理分型与分期（pT?N2）。</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>术中快速冰冻切片证实病灶为“隐匿性（occult）N2”转移时，既要尽快完成病理分期，又要在根治机会与手术风险之间取得平衡。各国指南（NCCN 2024、ESMO 2023、CSCO 2023 等）以及多中心回顾性研究的处理原则基本一致，可归纳为下列步骤与策略。  
+一、术中决策流程  
+1. 立即系统了解病变范围  
+   • 首先要明确这是“可切除”还是“不能安全切除”的 N2。  
+   • 需补做（或继续做）系统性纵隔淋巴结清扫（≥3 个纵隔站位，必须包括 7 站）。  
+2. 判断 N2 的特征  
+   a) 单站 / 少量（microscopic、非 bulky）  
+   b) 多站 / bulky（&gt;3 cm 或包埋、侵犯血管神经）  
+   c) 是否需要肺全切、袖式切除或合并脏器切除等高危操作  
+3. 与麻醉师、患者家属/代理人（术前授权）及 MDT 即时沟通后作出决策：  
+   • 单站、非 bulky、可在低风险下行标准肺叶切除＋系统性淋巴清扫者 → 建议继续完成根治性切除（R0）。  
+   • 多站或 bulky N2；或仅能通过高危广泛切除（如肺全切）获得 R0；或患者基础功能差 → 结束手术（活检＋淋巴清扫或取样），术后行诱导治疗/根治性同步放化疗。  
+二、术后（或中止手术后）综合治疗方案  
+1. 已完成 R0 切除的 pN2（IA–IIIA）  
+   (1) 以含铂辅助化疗 4 周期为标准  
+       – 鳞癌：顺铂 + 吉西他滨/多西他赛/紫杉醇  
+       – 非鳞：顺铂 + 培美曲塞  
+   (2) 靶向治疗  
+       – EGFR 19del/L858R：奥希替尼 80 mg qd × 3 年（ADAURA）  
+       – ALK 阳性：可考虑艾乐替尼（III 期数据待成熟，可在 MDT 决策后使用）  
+   (3) 免疫治疗  
+       – PD-L1 ≥1% 且无 EGFR/ALK：化疗后可给予阿替利珠单抗 1 年（IMpower010）；或参加临床试验。  
+   (4) 术后放疗（PORT）  
+       – R0 且单站 N2 不常规推荐；  
+       – 多站、结外侵犯、残余或近切缘阳性可考虑 50–54 Gy/25–27 次。  
+2. 术中终止切除者  
+   • 首选含铂双药诱导化疗 2–3 周期 ± 放疗（或化免联合）；评价（CT/PET-CT、EBUS/EUS 或 mediastinoscopy）若达到可切除状态，再行二次手术；  
+   • 若仍不可切除，给予根治性同步放化疗（CRT）→ 随后 durvalumab 维持 1 年（PACIFIC）。  
+三、围手术期注意要点  
+1. 术中应尽可能获取并标记所有取出的纵隔、肺门淋巴结，清扫后单独送检。  
+2. 与病理科协作保证冰冻切片质量，避免假阳性/假阴性。  
+3. 充分告知患者术中可能改变手术方式或终止切除的风险，并在术前签署知情同意。  
+4. 术后 MDT 讨论，结合精准分子病理及 PD-L1 结果制定个体化的序贯方案并及时启动。  
+四、小结  
+• 术中意外发现 N2 时，核心是“能否安全完成 R0 切除”。单站、微小、非 bulky 的 N2 可继续手术；多站/ bulky N2 或需扩大切除者宜中止并改行诱导/根治性放化疗。  
+• 完成 R0 切除后必须行含铂辅助化疗，并根据分子/PD-L1 状态选择靶向或免疫治疗 ± 术后放疗。  
+• 全程 MDT 管理、精准病理分期及个体化综合治疗是提高 IIIA(N2) NSCLC 患者长期生存的关键。</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -8000,6 +9297,70 @@
 **请务必与您的主治医生进行深入沟通，他们最了解您的具体情况，能为您制定最合适的分期评估方案。** 以上清单旨在帮助您了解通常包含哪些项目，但最终方案请以您的医疗团队为准。</t>
         </is>
       </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>非小细胞肺癌（NSCLC）在治疗前的分期评估，核心目的是明确 **TNM分期（肿瘤T、淋巴结N、远处转移M）**，从而决定手术/放疗/系统治疗方案。常用检查一般包括以下几类（具体会根据分期可能性、症状与体能状态取舍）：
+## 1）明确诊断与病理分型（必须）
+- **病理学证实**：支气管镜活检、经皮肺穿刺活检、胸腔镜/开胸活检、胸水细胞学（若有胸水）等  
+- **组织学分型**：腺癌、鳞癌、其他
+- **必要时**：免疫组化（如TTF-1、p40等）帮助分型
+## 2）胸部与局部分期（评估T、N为主）
+- **增强胸部CT（含上腹部）**：评估原发灶大小、胸壁/纵隔侵犯，肺门纵隔淋巴结，常同时看肝上部、肾上腺  
+- **PET-CT（^18F-FDG）**：对纵隔淋巴结分期与发现隐匿远处转移很有价值（手术/根治放疗前常推荐）
+- **纵隔/肺门淋巴结取样（确定N分期的关键）**  
+  - **EBUS-TBNA**（气管镜超声针吸）  
+  - **EUS-FNA**（食管超声）  
+  - **纵隔镜检查**（必要时）
+- **胸腔评估**（怀疑胸膜转移或胸水时）  
+  - 胸水常规/生化/细胞学  
+  - 胸膜活检或胸腔镜探查（若细胞学阴性但高度怀疑）
+## 3）远处转移评估（M分期）
+- **脑MRI增强**：尤其是Ⅱ–Ⅲ期拟根治治疗、或有神经症状者（优于脑CT）
+- **上腹部增强CT或腹部MRI**：肝、肾上腺等（很多情况下胸部CT已覆盖上腹部一部分）
+- **骨评估**：  
+  - PET-CT通常可覆盖骨转移筛查  
+  - 或骨显像/局部MRI（有骨痛或PET不可用时）
+## 4）手术/放疗前的功能与风险评估（决定能否耐受治疗）
+- **肺功能**：FEV1、DLCO，必要时运动试验（6分钟步行、心肺运动试验CPET）
+- **心血管评估**：心电图、超声心动图；有心脏病史者按需做进一步评估
+- **基础实验室**：血常规、肝肾功能、电解质、凝血、血糖等
+- **体能状态评估**：ECOG评分、营养状态
+## 5）分子与生物标志物检测（决定靶向/免疫治疗方案）
+常在确诊NSCLC后尽早做（尤其非鳞癌或晚期）：
+- **驱动基因/融合**：EGFR、ALK、ROS1、BRAF、MET（含ex14跳跃）、RET、KRAS（含G12C）、HER2、NTRK等（建议用NGS更全面）
+- **PD-L1表达**（免疫组化）
+- 需要时：肿瘤突变负荷TMB、MSI等（视地区与方案）
+---
+### 简要的“常见组合”（便于理解）
+- **拟手术/根治放疗（早期到局部晚期）**：增强胸CT ± PET-CT + 脑MRI（常做）+ 纵隔淋巴结取样（如影像提示可疑）+ 肺功能/心评估  
+- **疑似晚期**：PET-CT或胸腹增强CT + 脑MRI + 分子检测/PD-L1
+如果你愿意，可以告诉我：**目前影像提示的分期（如结节大小、是否有纵隔淋巴结、是否有胸水/骨痛/头痛）**、病理类型（腺癌/鳞癌/未分型）以及医生计划的治疗方向（手术/放化疗/药物），我可以帮你把“必须做”和“可选做”的检查进一步精简成一个更贴合的清单。</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>对拟诊断为非小细胞肺癌（NSCLC）的患者，在确定治疗方案之前必须先完成 TNM 分期评估。常用、推荐的分期检查主要包括以下几大类：  
+1. 原发灶及纵隔评价  
+   • 增强薄层胸部 CT（覆盖肺尖至肾上腺）：判断 T 分期、肺门/纵隔淋巴结、胸壁、膈肌、肾上腺等情况  
+   • PET-CT（18F-FDG）：一次检查同时评价肺内、纵隔及远处转移，可提高 N、M 分期准确性  
+   • （CT 禁忌时）胸部增强 MRI  
+2. 纵隔及肺门淋巴结取材（病理 N 分期）  
+   • EBUS-TBNA（气管镜下纵隔淋巴结超声引导针吸活检）  
+   • EUS-FNA（食管超声引导针吸）  
+   • 颈前纵隔镜 / 视频辅助纵隔镜取活检 (VAM / VATS)  
+   • 必要时支气管镜活检/刷检
+3. 远处转移筛查（M 分期）  
+   • 头颅 MRI（首选）或增强 CT——排除/确认脑转移  
+   • 骨显像（99mTc 全身骨扫描）或 PET-CT、骨 MRI——筛查骨转移  
+   • 上腹部增强 CT 或腹部超声——观察肝脏、肾上腺等  
+   • 必要时局部 MRI（脊柱、骨盆等）、全身 PET-CT
+4. 手术可行性及伴随疾病评估（虽非分期但决定治疗方案必需）  
+   • 肺功能测试（FEV1、DLCO 等）  
+   • 心电图、心脏超声 / 心功能评估  
+   • 常规实验室检查：血常规、生化、凝血、肿瘤标志物等  
+上述检查的组合可根据患者临床表现、影像发现及医疗资源进行选择；其目标是获得准确的 TNM 分期，为制订手术、放疗、系统治疗等个体化方案提供依据。</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -8233,6 +9594,25 @@
 | 无法行肺叶切除的中央型病变     | 全肺切除术           | 仅作为最后选择，术后并发症风险高      |
 **重要提示**：最终决策需由胸外科、肿瘤科、呼吸科、影像科等共同制定，并充分与患者沟通手术风险及获益。对于不可手术者，可考虑立体定向放疗（SBRT）或消融治疗作为替代方案。
 建议参考最新版《NCCN非小细胞肺癌临床实践指南》或《中华医学会肺癌临床诊疗指南（2023年版）》获取详细流程。</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>对**可切除的NSCLC（非小细胞肺癌）**患者，**首选手术方式是解剖性肺叶切除（lobectomy）+ 系统性纵隔淋巴结清扫或系统性取样（mediastinal lymph node dissection/sampling）**。
+在患者肺功能或合并症不允许肺叶切除时，可考虑：
+- **解剖性肺段切除（segmentectomy）**（尤其是小体积、外周型早期肿瘤，且能保证足够切缘与淋巴结评估）
+- **楔形切除（wedge resection）**通常仅在无法耐受更大范围切除时作为替代，且需严格选择病例并完成淋巴结评估
+如你提供分期（如IA/IB/IIA等）、肿瘤大小与位置、肺功能情况，我可以更精确到“肺叶切除 vs 肺段切除”的选择。</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>对于可切除的非小细胞肺癌（NSCLC）患者，目前公认的首选手术方式是：
+解剖性肺叶切除（lobectomy）联合系统性（或系统化）纵膈及肺门淋巴结清扫。
+说明  
+1. 肺叶切除可以充分切除肿瘤所在解剖单元，兼顾根治性和保留肺功能，是 I～II 期以及部分可切除 IIIA 期 NSCLC 的标准术式。  
+2. 系统性淋巴结清扫（或至少系统取样）可获得准确病理分期，并降低局部复发风险。  
+3. 若患者存在严重合并症或肺功能储备不足，无法耐受肺叶切除，可考虑亚肺叶切除（楔形或段切除）等替代方案；而对肿瘤范围更大的中央型病变，可能需行肺全切，但作为首选仍以肺叶切除为原则。</t>
         </is>
       </c>
     </row>
@@ -8475,6 +9855,40 @@
 - **关键决策点**：术中快速病理结果、淋巴结形态学特征、患者整体状况。  
 最终方案需由胸外科、肿瘤科、影像科多学科团队（MDT）共同制定，平衡根治性与手术风险。
 （注：具体操作需结合最新指南及患者个体情况，本文内容仅供参考。）</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>在对 **NSCLC（非小细胞肺癌）** 患者实施**亚肺叶切除（楔形切除/肺段切除）**时，淋巴结处理的核心要求是：**必须进行系统的淋巴结取样或系统性纵隔淋巴结清扫，以完成准确分期并降低漏分期风险**。常用要求可概括为：
+1. **必须评估肺门/叶间（N1）与纵隔（N2）淋巴结**
+   - 不能只做肺内局部切除而不处理淋巴结。
+2. **至少进行“系统性淋巴结取样（systematic sampling）”**
+   - 通常要求取样**≥3个纵隔（N2）站点**，且应**包含7号站（隆突下）**；
+   - 同时取样**≥1个N1站点**（肺门/叶间/段间或肺内淋巴结）。
+3. **条件允许时可行“系统性纵隔淋巴结清扫（systematic dissection）”**
+   - 尤其在：肿瘤风险较高、影像/术中提示可疑淋巴结、冰冻/触诊异常等情况下，更倾向清扫而非仅取样。
+4. **重要细节**
+   - **段切除**时应特别注意获取**段间/肺内淋巴结**（避免漏掉“隐藏的N1转移”）。
+   - 若术中发现淋巴结转移（如N1/N2阳性），通常需根据分期与切缘等情况考虑**扩大切除范围或调整综合治疗方案**。
+如果你告诉我：计划做的是**楔形切除还是肺段切除**、肿瘤大小/磨玻璃成分、以及术前PET-CT或纵隔评估结果，我可以把“应取哪些站点（按左右肺）”更具体地列出来。</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>亚肺叶切除（楔形切除或肺段切除）虽然切除范围小，但对淋巴结的处理必须与常规肺叶切除相同或等同，核心要求如下：  
+1. 系统性或叶-特异性淋巴结清扫 / 系统性分区采样  
+   ① 术中应对可见的段间、叶间、肺门及纵隔淋巴结进行系统性清扫，或按叶-特异性原则在规定的分区中做充分采样。  
+   ② 不能仅做孤立病灶切除而不处理淋巴结。  
+2. N1、N2结节均需取材  
+   ① N1（10～14站）：至少取（或清扫）≥3站，包括段间/叶间/肺门结节。  
+   ② N2（纵隔结节）：右肺至少取≥3站，且必须包含 7 号（气管隆突）结节；  
+      左肺至少取≥2站，且须包含 7 号或 9 号结节及 5/6 号中的一站。  
+3. 数量要求  
+   ‑ N1＋N2 淋巴结总数不少于 6 枚（多数指南建议 ≥6～10 枚）。  
+4. 术中快速病检  
+   对可疑的段间、叶间或肺门淋巴结应行冰冻切片。  
+   ‑ 若发现转移（N1 或 N2 阳性），应改行标准肺叶切除并做系统性纵隔淋巴结清扫。  
+5. 随手尊循 “干净切缘＋足量淋巴结” 的肿瘤根治原则，保证亚肺叶切除的肿瘤学等效性。</t>
         </is>
       </c>
     </row>
@@ -8863,6 +10277,110 @@
 &gt; - **切勿为追求“完整切除”而牺牲患者安全**——当无法保证R0或并发症风险过高时，应选择转化治疗或姑息性手术。  
 &gt; - 指南更新快（2023 NCCN v1），务必参考最新版并结合患者具体情况决策。
 如有具体病例细节（如肿瘤位置、患者年龄、合并症），可进一步分析个体化方案。建议与胸外科、肿瘤科专家充分沟通！</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>对于**可切除的 T3 及 T4（局部侵犯）NSCLC**，手术处理的核心要求可以概括为：**在可接受的围手术期风险下，实现 R0 切除，并完成规范的肺叶/肺段切除与系统性淋巴结清扫（或系统取样）**；当存在邻近结构侵犯时，原则上采取**整块（en bloc）联合切除**，避免“剥离/刮削式”切除导致阳性切缘。
+下面按临床常用的“手术要求/原则”总结要点：
+---
+## 1) 总体手术目标与前提
+**（1）必须追求 R0 切除**
+- 切缘阴性是获益的关键。若评估为难以获得 R0（如广泛纵隔大血管/椎体深部受侵且无法重建，或多站 N2/N3 明确阳性等），通常不主张直接手术作为根治。
+**（2）肺切除方式要“解剖性切除”为主**
+- 以**肺叶切除**为标准（必要时双肺叶切除/全肺切除，但尽量避免为“凑R0”而不必要扩大到全肺切除）。
+- 仅在严格适应证（如肺功能有限、肿瘤位置允许且保证足够切缘）可考虑**解剖性肺段切除**；楔形切除一般不用于此类局部侵犯 T3/T4 根治。
+**（3）必须做规范纵隔淋巴结评估与清扫/取样**
+- 术前：尽量用 PET-CT、EBUS/EUS 或纵隔镜明确 N 分期，尤其避免漏诊 N2。
+- 术中：推荐**系统性纵隔淋巴结清扫（MLND）**或至少系统取样（含肺门+纵隔多站），以保证分期与局部控制。
+**（4）复杂手术应在高量中心、多学科团队（MDT）完成**
+- 需要胸外科、麻醉、重症、放疗、肿瘤内科、影像、病理及必要时血管外科/骨科/神外协作。
+---
+## 2) “局部侵犯”时的手术技术原则：整块联合切除
+对 T3/T4 的“邻近结构侵犯”，一般不做分离式剥离，而做**肺+受侵结构的整块切除**，常见情形如下：
+### A. 胸壁侵犯（T3 常见）
+- **肺叶切除 + 胸壁整块切除**（肋骨/肋间肌/壁层胸膜等）。
+- 关键要求：  
+  - 取得足够胸壁切缘（软组织与骨性切缘均需阴性）。  
+  - 缺损较大时行胸壁重建（补片/钛网/肌皮瓣等），以维持稳定性和呼吸功能。
+### B. 纵隔胸膜/心包/膈肌侵犯（多属 T3 或部分 T4）
+- 可行**心包部分切除并补片修补**、**膈肌部分切除修补/重建**。
+- 仍以 R0 为目标，避免“贴着肿瘤刮”。
+### C. 主支气管/隆突附近、中央型肿瘤（部分 T3/T4）
+- 优先考虑**支气管袖式切除/肺动脉成形（或双袖式）**以在保证 R0 的同时减少全肺切除比例。
+- 若必须全肺切除，应严格评估肺功能与并发症风险。
+### D. 大血管侵犯（T4：如上腔静脉、肺动脉主干、主动脉外膜/部分壁）
+- 在可重建前提下可做**血管部分切除+重建（补片/置换/吻合）**。
+- 这类手术对中心经验要求极高；若无法安全重建或难以 R0，通常不选手术根治。
+### E. 椎体/椎旁结构侵犯（T4）
+- 多需**胸外科+脊柱外科/神外**联合，做椎体部分切除/脊柱稳定重建。
+- 仅在明确可 R0 且全身状况允许时考虑，属于高度选择性手术。
+---
+## 3) 关键的“适应证/禁忌证”要点（手术角度）
+**更倾向手术的情况**
+- 影像与侵袭范围提示**可达到 R0**；
+- **N0–N1**更理想；部分“单站、可清除的 N2”在新辅助治疗后达到良好反应者可个体化考虑；
+- 无远处转移（M0），肺功能/心功能能耐受计划切除范围。
+**通常不主张直接根治手术的情况**
+- 明确 **N3** 或广泛/多站 **N2**（多采用以放化疗/系统治疗为主的策略，是否手术取决于中心方案与反应）；
+- 预期无法 R0；
+- 无法耐受所需切除（尤其全肺切除风险极高者）。
+---
+## 4) 围术期与术后要求（与“局部侵犯T3/T4”相关的重点）
+- **术中冰冻切缘评估**：支气管切缘、血管切缘、胸壁/软组织切缘必要时冰冻，发现阳性及时扩大或改术式。  
+- **减少全肺切除与右全肺切除**：能袖式尽量袖式（全肺切除并发症与死亡风险更高）。  
+- **术后综合治疗衔接**：即使 R0，T3/T4 常需结合病理分期与淋巴结状态考虑术后化疗±放疗、以及驱动基因/PD-L1 指导的靶向或免疫治疗（按指南与个体情况）。
+---
+如果你愿意，我可以根据你关心的具体“局部侵犯类型”（胸壁/心包/膈肌/隆突/大血管/椎体等）、是否有 N2、以及计划的术前治疗（是否新辅助）来把“手术方式选择 + 切缘/清扫要求 + 术后治疗衔接”整理成更具体的决策流程。</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>可切除的 T3、T4 期局部侵犯型非小细胞肺癌（NSCLC）手术治疗的核心是“严格选择-整块联合切除-显微阴性切缘（R0）-系统性纵隔淋巴结清扫”，其主要技术要点和要求如下。
+一、术前评估与病例选择  
+1. 影像学：增强 CT、MRI、PET-CT 明确肿瘤与邻近结构的关系，必要时行心血管、支气管三维重建。  
+2. 纵隔淋巴结分期：EBUS、纵隔镜或胸腔镜活检；确证无 N2/N3 转移。  
+3. 远处转移筛查：脑 MRI、骨显像/18F-FDG PET-CT。  
+4. 心肺功能：FEV1、DLCO、心脏超声、运动试验等，确认能耐受计划切除范围。  
+5. 多学科讨论：胸外科、肿瘤内科、放疗科、胸外周围科（骨科、血管外科、心脏外科、整形外科）共同制定方案，可考虑术前（新辅助）化/放疗 2-4 周期。
+二、手术总原则  
+1. 一期整块（en-bloc）切除肿瘤和受累器官或组织，严禁分块或挤压肿瘤。  
+2. 取得显微镜下阴性切缘（R0）；胸壁需 ≥2 cm 或 ≥1 根完整肋骨的切缘。  
+3. 例行系统性纵隔淋巴结清扫（≥3 站 N2 结节）。  
+4. 必要时行重建，以维持胸廓稳定、血流通畅和呼吸道通畅。  
+5. 若预计无法 R0、存在 N2/N3 或远处转移、或心肺储备不足则为禁忌。
+三、不同受侵结构的具体处理要点  
+1. 胸壁  
+   • 连同肋骨、肋间肌、壁层胸膜整块切除。  
+   • 缺损＞5 cm、切除≥3 根肋骨或前外侧壁缺损需重建：钛板、聚丙烯网＋肌皮瓣等。  
+2. 膈肌  
+   • 局部楔形或部分切除，直接连续缝合；缺损＞5 cm 或张力大用补片（PTFE、伪膜等）重建。  
+3. 心包  
+   • 壁层心包整块切除；左侧大缺损应用补片（Gore-Tex、牛心包）防心脏疝出。  
+4. 肺动脉／肺静脉  
+   • 侧壁楔形＋补片、袖状（血管袖）重建或血管替换；可与支气管袖同步进行“双袖”切除。  
+5. 左心房  
+   • 小范围可在不停跳状态下使用血管闭合器或钳夹局部切除＋直接缝合；大范围需体外循环＋补片。  
+6. 上腔静脉（SVC）  
+   • 受侵周径＜30%：侧壁楔形＋补片。  
+   • ≥30%：人造血管（PTFE、ePTFE）或自体静脉旁路／替换。  
+7. 主动脉  
+   • 局灶侧壁受侵：侧壁钳闭后局部切除＋补片。  
+   • 弓部／降主动脉广泛受侵：深低温体外循环下部分切除＋重建，需心脏外科协作。  
+8. 气管／隆突  
+   • 支气管袖切除、隆突或气管-支气管重建；广泛受侵可行袖式肺切或袖式肺全切（pneumonectomy）。  
+9. 椎体  
+   • 与骨科联合行椎体块切除＋脊柱内固定，严格选择病例。
+四、围术期处理  
+1. 术前新辅助治疗：T3/T4 + N0-1 建议 2-4 周期铂类为基础的化疗 ±放疗，提高 R0 率、降低病灶分期。  
+2. 术后：根据病理分期行含铂辅助化疗 ±放疗；胸壁大缺损可加术后放疗。  
+3. 严密监测出血、吻合口瘘、胸壁不稳定、呼吸困难等并发症；早期呼吸功能锻炼、镇痛、营养支持。
+五、手术禁忌  
+1. 难以获得 R0 的广泛纵隔结构“包绕”或主动脉弓&gt;90°环周受侵。  
+2. 纵隔 N2/N3 转移或任何远处播散（M1）。  
+3. 不能耐受手术的严重心肺功能不全。
+结论  
+在严格的术前评估和多学科协作下，T3/T4 局部侵犯 NSCLC 仍可通过整块联合切除及必要重建获得根治性（R0）切除。遵循上述技术要求、并辅以规范的围术期综合治疗，可显著改善这类患者的长期生存。</t>
         </is>
       </c>
     </row>
@@ -9253,6 +10771,95 @@
     *   我适合手术吗？</t>
         </is>
       </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>I期或II期（早期）NSCLC初治的核心是“可切就以根治性手术为主，不可切/不适合手术则以根治性放疗为主”，并根据分期与高危因素决定是否加做（新辅助/辅助）全身治疗。下面按常见情形列出可选方案（以非小细胞肺癌 NSCLC 为前提）。
+---
+## 1）可手术（总体首选）：根治性手术为主
+**手术方式**
+- **肺叶切除 + 系统性纵隔淋巴结清扫/取样**（最标准）
+- **解剖性肺段切除**：多用于肿瘤较小、外周、保留肺功能需要者（部分I期）
+- **楔形切除**：通常仅在肺功能很差、无法耐受更大切除时考虑（复发风险更高）
+**术后（辅助）治疗的选择**
+- **I期**
+  - 多数：术后**随访观察**即可
+  - 若存在**高危因素**（如肿瘤较大、脏层胸膜侵犯、淋巴血管侵犯、切缘接近等）：部分情况下会讨论**辅助化疗**（依指南与具体风险而定）
+- **II期（尤其IIA/IIB）**
+  - 通常推荐：**术后辅助含铂双药化疗**（常见如顺铂/卡铂 + 培美曲塞/长春瑞滨/吉西他滨/紫杉类等，取决于病理类型和体能）
+  - **分子靶向辅助治疗（有特定突变时）**
+    - **EGFR敏感突变（如19del/L858R）**：可选**辅助奥希替尼**（通常在完成或评估是否需化疗后使用）
+  - **免疫辅助治疗（部分人群）**
+    - 在完成含铂化疗后，部分II期（以及更高分期）且符合条件者可考虑**辅助免疫治疗**（具体取决于PD-L1表达、病理分期与地区指南/适应证）
+&gt; 关键点：**术后病理分期**与**基因检测/PD-L1**结果会显著影响“要不要加全身治疗、加哪一种”。
+---
+## 2）可手术但肿瘤较大/疑有淋巴结风险：可选“新辅助（术前）治疗 + 手术”
+在部分**II期**或肿瘤较大、影像提示更高复发风险者，初治也可选择：
+- **新辅助化疗**（含铂为主）后手术  
+- **新辅助免疫联合化疗**后手术（越来越常用，目标是降期、提高病理缓解率；是否适合取决于分期、可切除性评估、禁忌证等）
+---
+## 3）不适合手术或拒绝手术：根治性放疗为主（SBRT/常规分割）
+- **I期（尤其周围型、小肿瘤）**：**立体定向放疗 SBRT/SABR**是标准替代方案，局控率很高  
+- **II期或中央型/较大肿瘤**：可能需要**常规分割放疗**或“放疗 ± 化疗”（视分期、肿瘤大小、淋巴结情况与耐受性）
+---
+## 4）特殊情况处理（初治时也要考虑）
+- **切缘阳性/局部残留风险高**：可能需要**再次手术**或**术后放疗（PORT）**（严格个体化）
+- **术后发现N2等更高分期**：治疗策略会升级（需多学科MDT重新定方案）
+- **合并严重基础病/肺功能差**：更倾向**肺段/楔形切除**或**SBRT**等保肺策略
+---
+## 5）初治前建议“必须做”的评估（决定方案的关键）
+- **分期**：增强CT（胸/上腹）、脑MRI（按风险）、PET-CT（常用于手术前分期）、纵隔淋巴结评估（EBUS/纵隔镜）
+- **病理与分型**：腺癌/鳞癌/其他
+- **分子检测**：至少**EGFR、ALK、ROS1**等（腺癌/非鳞更需）；及**PD-L1**
+- **手术耐受评估**：肺功能、心功能、体能评分等
+- **多学科MDT**：胸外、肿瘤内科、放疗科、影像、病理共同决策
+---
+如果你愿意，我可以把选择方案进一步“落到你/家人具体情况”。请告诉我：
+1）具体分期（IA/IB/IIA/IIB）和肿瘤大小；2）是否有淋巴结受累；3）病理类型（腺癌/鳞癌）；4）EGFR/ALK等结果与PD-L1；5）年龄、肺功能/合并症、是否能手术。</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Ⅰ～Ⅱ期非小细胞肺癌（NSCLC）仍属“ 早期可切除 ”疾病，治疗目标以治愈为主。初次就诊时应在多学科团队（MDT）讨论后，依据肿瘤分期、病理类型、分子/免疫学特征、患者年龄、合并症及肺功能等因素个体化制订方案。主要可选策略归纳如下：  
+一、可手术患者（绝大多数Ⅰ期及部分Ⅱ期）  
+1. 根治性手术切除——首选  
+   • 标准为解剖性叶切除＋系统性淋巴结清扫（或系统采样）  
+   • 对符合条件的T1a-b（≤2 cm）的周围型病灶，可考虑亚叶切（肺段或楔形）  
+   • 胸腔镜/机器人手术已成为主流方式之一  
+2. 围手术期治疗  
+   2.1 新辅助治疗（术前）  
+       - 方案：含铂双药化疗2-4周期；或化疗＋免疫检查点抑制剂（ICIs）—如尼沃利单抗/pembrolizumab/信迪利单抗/特瑞普利单抗等（CheckMate-816、Keynote-671、ORIENT-Neo 等研究支持）。  
+       - 适应证：Ⅱ期及高危ⅠB期（≥4 cm）或影像学/镜检怀疑N1者，需要肿瘤降期或提高R0切除率。  
+   2.2 辅助治疗（术后）  
+       a) 含铂双药化疗（4周期）——所有Ⅱ期及高危ⅠB期（≥4 cm）。  
+          非鳞癌常用：顺铂/培美曲塞；鳞癌常用：顺铂/吉西他滨或长春瑞滨。  
+       b) 靶向治疗  
+          • EGFR Ex19del/L858R 阳性：奥希替尼 3 年（ADAURA）。  
+       c) 免疫治疗  
+          • Atezolizumab（PD-L1≥1%，II～IIIA，IMpower010）  
+          • Pembrolizumab（不依赖PD-L1，Ⅱ～ⅢA，KEYNOTE-091）  
+       d) 术后放疗（PORT）  
+          仅限切缘阳性或不可手术清扫的N2残存结节等，常规不推荐例行应用。  
+二、医学或解剖条件不宜手术的患者  
+1. 立体定向体部放疗（SBRT/SABR）——Ⅰ期（尤其≤5 cm、N0）首选，局控率可达85%–95%。  
+2. 常规分割/调强放疗（CFRT/IMRT）——肿块较大或邻近重要结构（T3、T4）无法SBRT者。  
+3. 同步／序贯放化疗——少数Ⅱ期（T3-4或N1）且不宜手术但能耐受化疗的患者。  
+4. 经皮消融（射频、微波、冷冻）或立体定向放射外科（SRS）——肿瘤≤3 cm、外周型、且SBRT因解剖限制或重复治疗受限时。  
+三、其他可选或正在研究中的策略  
+• 靶向/免疫新辅助或辅助治疗的临床试验（EGFR、ALK、KRAS^G12C 抑制剂，双抗/双免疫等）  
+• 肺保护性康复、戒烟、营养及合并症管理  
+四、决策要点  
+1. 先行高质量影像（PET-CT、增强CT）及系统纵隔淋巴结分期（EBUS/EUS、纵隔镜）确定真正的Ⅰ～Ⅱ期。  
+2. 完整的基因/PD-L1检测为术后辅助治疗和临床试验奠定基础。  
+3. 充分评估肺功能、心血管合并症，必要时行心肺康复。  
+4. MDT模式下综合考量疗效、风险、患者意愿和可及性。  
+简要流程示例：  
+① IA1-2（≤2 cm）：首选手术（含精准亚叶切）→ 无需辅助；若不宜手术 → SBRT/消融  
+② IA3-IB（&gt;2 cm-≤4 cm）：手术±辅助化疗(高危因素)或SBRT；EGFR阳性术后可加奥希替尼  
+③ IB (≥4 cm)-ⅡA/B：推荐手术±新辅助化疗/免疫→术后含铂化疗→EGFR阳性加奥希替尼；PD-L1≥1%可加atezolizumab，或pembrolizumab  
+④ 医学禁忌／拒绝手术：SBRT为主，必要时加同步/序贯化疗或免疫  
+总之，Ⅰ～Ⅱ期NSCLC的初始治疗以根治性局部治疗（手术或SBRT）为核心，辅以新辅/辅助化疗、靶向及免疫治疗等全身策略，以期最大限度提高治愈率和长期生存。</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -9713,6 +11320,72 @@
 - 中华医学会: 《中华医学会肺癌临床诊疗指南（2023年版）》  
 如有具体病例细节（如年龄、基因结果、手术情况），建议提供更多信息以进一步分析。  
 **注：本文内容不作为医疗建议，最终方案请以主治医生为准。**</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>对于**可手术切除的早中期（通常指II–IIIA期，部分IB期高危）非鳞状NSCLC**，围术期（术前/术后）化疗以**含铂双药**为标准。临床常用方案如下（以**每3周1周期**最常见）：
+## 一、术后辅助化疗（adjuvant，最常用）
+**首选：顺铂（Cisplatin）+培美曲塞（Pemetrexed）**（非鳞首选）
+- 典型用法：顺铂 + 培美曲塞，**共4个周期**
+- 适用：II–IIIA期；部分IB期高危（如肿瘤≥4 cm等）也可考虑  
+- 优点：非鳞组织学证据充分、相对耐受性较好
+**其他可选含铂双药（非鳞也可用，但培美曲塞通常更优先）**
+- 顺铂 + 多西他赛（Docetaxel）
+- 顺铂 + 长春瑞滨（Vinorelbine）（证据经典，但不良反应相对更多，近年使用有所下降）
+- 顺铂 + 吉西他滨（Gemcitabine）（更偏向鳞，但非鳞在特定情况下也可用）
+- **卡铂（Carboplatin）+紫杉醇（Paclitaxel）**：一般用于**不能耐受顺铂**者（如肾功能/听力/体能等问题），证据相对顺铂弱一些，但临床常用替代
+&gt; 辅助化疗周期数：多数指南与研究为**4周期**（约3个月）。
+---
+## 二、术前新辅助化疗（neoadjuvant）
+用于II–IIIA期较常见（也可用于部分IB高危/肿瘤较大或N1/N2风险高者），核心同样是**含铂双药，2–4周期**后评估手术。
+**常用：顺铂 + 培美曲塞（非鳞首选）**  
+**其他可选：**
+- 顺铂 + 多西他赛
+- 卡铂 + 紫杉醇（顺铂不适用时常用）
+---
+## 三、围术期“化疗+免疫”的常见做法（近年重要趋势）
+如果你问的“围术期化疗方案”包含与免疫联合的策略：目前很多可切除II–IIIA期患者会采用**术前含铂化疗联合PD-1/PD-L1抑制剂**（通常3–4周期）±术后免疫维持；其中化疗底座仍多为：
+- **顺铂/卡铂 + 培美曲塞（非鳞）**  
+- 或顺铂/卡铂 + 紫杉类（某些方案/中心）
+（具体免疫药物、是否术后继续用，与分期、PD-L1、合并症和当地获批适应证相关。）
+---
+## 四、补充：EGFR/ALK等驱动基因阳性时的策略会改变“术后系统治疗”
+即便做了辅助化疗，术后还可能根据分子分型加用靶向（如EGFR突变的辅助奥希替尼等）。但这属于“围术期系统治疗”的更大框架，化疗仍通常是**含铂双药4周期**（是否必须用需结合分期与指南/证据）。
+---
+如果你方便提供：**具体分期（IB/II/IIIA）、N分期、肾功能/听力/体能状态、是否计划术前或术后、基因检测（EGFR/ALK等）与PD-L1**，我可以把可选方案按指南思路给你列成更明确的推荐顺序与用药剂量框架。</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>在《中国临床肿瘤学会（CSCO）非小细胞肺癌诊疗指南》和NCCN指南中，针对可手术切除的早-中期（病理 IB≥4 cm～ⅢA 期）非鳞状 NSCLC，推荐在围术期（术前或术后）给予以铂类为基础的双药方案，疗程 3-4 个周期（q21d）。常用方案及给药剂量示例如下：
+一、首选方案  
+1. DDPC（顺铂＋培美曲塞）  
+   • Cisplatin 75 mg/m² d1 + Pemetrexed 500 mg/m² d1，q3w × 3-4 周期  
+   • 术前 2-3 周期或术后 4 周期  
+二、可选方案（顺铂双药联合）  
+2. DP（顺铂＋多西他赛）  
+   • Cisplatin 75 mg/m² d1 + Docetaxel 60-75 mg/m² d1，q3w  
+3. DG（顺铂＋吉西他滨）  
+   • Cisplatin 75-80 mg/m² d1 + Gemcitabine 1000-1250 mg/m² d1,8，q3w  
+4. NP（顺铂＋长春瑞滨）  
+   • Cisplatin 60-80 mg/m² d1 + Vinorelbine 25 mg/m² d1,8，q3w  
+5. TP（顺铂＋紫杉醇）  
+   • Cisplatin 75 mg/m² d1 + Paclitaxel 175 mg/m² d1，q3w  
+   （或 Nab-paclitaxel 260 mg/m² d1，q3w）
+三、不能耐受顺铂时的替代方案  
+6. PC（卡铂＋紫杉醇）  
+   • Carboplatin AUC 5-6 d1 + Paclitaxel 175 mg/m² d1，q3w  
+   – 亦可采用每周小剂量：Carboplatin AUC 2 + Paclitaxel 100 mg/m² qw × 6 周  
+7. PCarbo（卡铂＋培美曲塞）  
+   • Carboplatin AUC 5-6 d1 + Pemetrexed 500 mg/m² d1，q3w  
+四、疗程与注意事项  
+• 术前新辅助：推荐 2-3 周期化疗后评估，若影像学评估(PR/SD)即可手术。  
+• 术后辅助：常规 4 个周期，最好在手术后 6-8 周内开始。  
+• 培美曲塞需补充叶酸、维生素 B12；所有顺铂方案注意防治肾毒、胃肠道反应及骨髓抑制。  
+• 对于 EGFR 突变或 ALK 融合阳性患者，化疗后可按指南考虑靶向药（如奥希替尼、阿雷替尼）辅助维持，但不替代含铂双药化疗的地位。  
+• 伴免疫治疗的新辅助／辅助方案正在研究（如PD-1/PD-L1单抗联合化疗），当前用于临床需参考最新指南和适应证。
+以上方案均为指南推荐的标准围术期含铂双药化疗组合，可根据患者一般状况、合并症及毒性耐受情况个体化选择。</t>
         </is>
       </c>
     </row>
@@ -10172,6 +11845,95 @@
 &gt; - **动态评估**：术前优化（如戒烟4周、呼吸训练）可显著改善预后；  
 &gt; - **指南更新**：2023年NCCN指南强调"可手术性"需结合分子分型（如EGFR突变患者即使T2N0也可考虑亚肺叶切除减少肺功能损失）。
 **最终原则**：当且仅当 **"肿瘤可完整切除" + "患者能耐受手术" + "术后生存获益＞风险"** 三者同时满足时，才推荐手术。任何环节存在重大不确定性时，应启动MDT讨论或选择更安全的替代方案。</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>在NSCLC拟行外科切除前，是否“具备手术切除条件”通常从三大维度综合评估：**肿瘤是否可切（resectable）**、**患者是否耐受（operable）**、以及**是否能达到根治性切除（R0）并获得获益**。关键要素包括：
+## 1) 肿瘤学因素：分期与可切除性
+- **准确临床分期（TNM）**：重点是T（肿瘤范围/侵袭）与N（纵隔淋巴结）决定可切除性与手术获益。
+- **N分期评估**：  
+  - 影像：增强胸部CT、PET-CT（评估纵隔/远处转移）。  
+  - 组织学证实：疑似N2/N3时常需EBUS-TBNA、EUS或纵隔镜取材确认。
+- **远处转移排除（M分期）**：脑MRI/增强MRI（尤其是≥II期或有症状者）、PET-CT/骨评估等。
+- **局部侵袭与血管/气道受累**：是否累及主气管、隆突、主动脉、肺动脉主干、食管、椎体等，决定是否需要复杂袖式/血管重建或是否不可切。
+- **肿瘤部位与多灶性**：同叶/同肺不同叶/对侧肺结节、同步多原发 vs 肺内转移的鉴别，影响手术策略与适应证。
+- **胸膜播散/恶性胸腔积液**：通常提示不可根治切除。
+## 2) 解剖与技术因素：能否实现R0切除与必要的手术方式
+- **能否达到R0切除**（切缘阴性）是核心目标。
+- **计划切除范围**：楔形/段切/叶切/双叶切/全肺切除；是否需要**支气管袖式切除、血管袖式/重建、胸壁/膈肌/心包联合切除**等。
+- **纵隔淋巴结处理可行性**：系统性淋巴结清扫或系统采样是否可完成。
+- **既往治疗与局部条件**：既往放疗/免疫治疗后纤维化、严重胸膜粘连、既往肺切除等增加手术风险与难度。
+## 3) 患者可手术性（生理储备与围手术风险）
+### (1) 肺功能与呼吸储备（最关键）
+- **基础肺功能**：FEV1、FVC、DLCO；合并COPD/间质性肺病时尤需关注DLCO与氧合。
+- **预测术后肺功能（ppoFEV1、ppoDLCO）**：结合计划切除肺段数或灌注扫描/定量CT评估。
+- **运动负荷/心肺运动试验（CPET）**：VO₂peak等指标用于中高风险患者；必要时爬楼/6分钟步行作为补充。
+- **静息与运动氧合**：血气、SpO₂，是否需要长期氧疗。
+### (2) 心血管风险评估
+- **冠心病、心衰、瓣膜病、肺动脉高压、心律失常**等；必要时心超、负荷试验/冠脉评估。
+- **围术期抗栓/抗凝管理**与支架史、卒中史等。
+### (3) 全身状况与合并症
+- **体能状态（ECOG/PS）、衰弱评估（frailty）**、营养状况（体重下降、白蛋白等）。
+- **肝肾功能、糖尿病控制、贫血**等可影响并发症和恢复。
+- **吸烟状态**：戒烟时间与术前肺康复。
+- **感染/炎症**：活动性肺部感染需先控制。
+## 4) 病理与分子信息（影响治疗路径与手术时机）
+- **明确病理类型**（腺癌/鳞癌/其他）与分化、肿瘤负荷特征。
+- **驱动基因与PD-L1等**：在部分分期（如可切除II–III期）会影响是否优先选择新辅助治疗/围手术期系统治疗，从而影响“直接手术”的决策。
+## 5) 价值与决策因素
+- **预期获益与替代方案比较**：与放疗（如SBRT）、同步放化疗、系统治疗相比的生存获益与生活质量。
+- **患者意愿与风险沟通**：对可能的术式（尤其全肺切除）、并发症、术后功能下降的可接受度。
+- **多学科讨论（MDT）**：胸外科、呼吸、肿瘤、放疗、影像、麻醉等共同决定“可切除 + 可手术 + 最佳路径”。
+如果你愿意提供患者的**临床分期（CT/PET/脑MRI结果）、预计切除范围（段/叶/全肺）、肺功能（FEV1/DLCO）和主要合并症**，我可以按常用流程帮你把“是否适合手术/需要哪些补充检查/可能的风险点”整理成一页清单。</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>在决定一名非小细胞肺癌（NSCLC）患者是否可接受根治性手术切除时，需要同时从“能否切干净（可切除性）”和“能否承受手术（耐受性）”两个维度进行综合评估。要点可概括为以下四大类：
+一、肿瘤学和解剖学的“可切除性”
+1. TNM 分期  
+   1) T 分期：肿瘤大小、是否侵犯胸壁、膈肌、纵隔大血管、食管、椎体等。  
+   2) N 分期：淋巴结状态（N0–N1 通常可切除；部分可选的单站 N2* 在 MDT 充分评估后可考虑，新辅助治疗后 R0 可能性高时也可切）。  
+   3) M 分期：M1a（恶性胸/心包积液、对侧肺结节）或 M1b/M1c 远处转移者原则上不宜行根治性手术。  
+   （*特别关注 N2 的范围：单站、微小 N2 vs 多站、体积大的嗜侵性 N2。）
+2. 肿瘤部位与周围结构关系  
+   • 主支气管开口、隆突、肺门大血管受累程度。  
+   • 气管隆突或左主支气管受侵犯时是否可行袖式切除/隆突成形而仍可实现 R0。  
+   • 同侧胸腔黏连、胸壁、脊柱、心包、膈肌等受累时，需评估联合切除或扩大全肺/袖状手术的可行性。
+3. 影像学与术前入路规划  
+   • 薄层增强 CT、PET-CT、MRI（纵隔、脑转移）、超声支气管镜（EBUS）、纵隔镜/腔镜等用于病灶定位、淋巴结取样。  
+   • 估算术后余肺容量和切缘长度。  
+4. 术中达到 R0 的可能性  
+   若需牺牲重要血管/结构且仍难以保证阴性切缘，则判定为技术上不可切除。
+二、患者整体健康状况与“手术耐受性”
+1. 肺功能储备  
+   • 基础 FEV1、FVC、DLCO（弥散量）、肺泡-动脉氧分压差 A-aDO₂。  
+   • 预测术后(ppo) FEV1 或 ppoDLCO ≥40% 为常用安全阈值。  
+   • 心肺运动试验（CPET）测 VO₂max：≥15 mL·kg⁻¹·min⁻¹ 或 ≥70% 预计值较安全；&lt;10 mL·kg⁻¹·min⁻¹ 手术风险高。  
+2. 心血管评估  
+   • 既往冠心病、心功能不全、心律失常；必要时行超声心动图、心脏负荷试验、冠脉 CTA/心导管检查。  
+   • 血压、心率控制；心功能 NYHAⅠ–Ⅱ级者手术容忍度较好；Ⅲ级需慎选，Ⅳ级一般不考虑。  
+3. 一般情况与合并症  
+   • ECOG/KPS 体能评分：ECOG 0–1 最佳，2 需个体化权衡，≥3 通常不建议常规手术。  
+   • 年龄并非绝对禁忌，更关注生理年龄和脏器储备。  
+   • 慢性阻塞性肺病、间质性肺病、糖尿病、肾功能不全、肝硬化等需在可控范围内。  
+   • 营养状况（BMI、白蛋白、体重变化）、贫血、凝血功能。  
+4. 围术期支持条件  
+   • 戒烟时间（≥4 周可显著降低并发症）。  
+   • 呼吸康复、物理治疗、肺扩张训练等。
+三、手术策略和多学科讨论 (MDT)
+1. 择术方式：胸腔镜/机器人 VS 开胸；楔形/段切/肺叶切除/袖式切除/组合切除/全肺切除。  
+2. 是否需要新辅助治疗：针对 N2(+) 或肿瘤大、疑侵犯结构者，术前化疗/放化疗或新辅助免疫/靶向治疗以提高手术 R0 率和生存获益。  
+3. 对不可达 R0 或高危人群，需评估根治性放疗、放化同步、根治剂量立体定向放疗（SBRT）、靶向/免疫治疗等替代方案。  
+4. 讨论患者意愿和生活质量预期，明确治疗目标（根治 vs 减瘤/姑息）。
+四、术后预期及风险—获益平衡
+1. 术后并发症风险：支气管胸膜瘘、呼吸衰竭、心血管事件。  
+2. 术后生活质量：呼吸功能下降程度、长期氧疗可能性。  
+3. 远期预后：依据病理分期、分子分型、是否可接受后续辅助治疗。  
+4. 医疗资源及随访条件：术后ICU、快速康复路径（ERAS）、康复支撑系统。
+结论  
+决定 NSCLC 患者能否行手术切除必须由胸外科、呼吸科、肿瘤科、影像科、麻醉科、病理科等多学科团队联合评估。核心是“两能”原则： ①技术上能否获得 R0 切除；②患者生理功能是否足以耐受手术并获益。综合 TNM 分期、肿瘤与邻近结构关系、肺心功能储备、全身状况和患者意愿后，方可制定个体化、最优化的治疗方案。</t>
         </is>
       </c>
     </row>
@@ -10633,6 +12395,111 @@
 通过以上结构化评估与协作，可最大限度降低SABR在复杂NSCLC患者中的风险，为个体化治疗提供坚实基础。</t>
         </is>
       </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>对**高风险或边界可切除（borderline resectable）NSCLC**患者，若拟以**SABR（SBRT）**作为根治性治疗或替代/桥接手段，建议重点把握以下**评估**与**多学科协作（MDT）**要点：
+## 一、术前/放疗前核心评估要点
+1. **肿瘤分期与可切除性再确认**
+   - 完成高质量影像分期：增强胸部CT、上腹部/肾上腺评估，优先建议PET-CT（评估隐匿转移与纵隔淋巴结）。
+   - 纵隔评估：如影像提示N2/可疑淋巴结，优先考虑EBUS/EUS或纵隔镜获取病理，避免把“应系统治疗的局部晚期”误当成早期行SABR。
+2. **病理学与分子信息**
+   - 尽量获取组织学诊断（经支气管镜/CT引导穿刺等）。  
+   - 若是“影像高度怀疑但难以取材”的情况，应在MDT讨论后形成书面共识（说明不能取材原因、风险与替代策略）。
+3. **肺功能与围治疗风险分层（决定能否手术/以及SABR方案强度）**
+   - 基础：FEV1、DLCO（必要时分段/预计术后ppoFEV1、ppoDLCO）。
+   - 运动耐量：6分钟步行或CPET（VO₂peak）用于更精确评估高风险手术人群。
+   - 合并症：COPD/ILD（尤其放射性肺炎风险）、肺动脉高压、心衰、冠心病、抗凝/抗血小板用药等。
+4. **靶区与危及器官（OAR）风险评估**
+   - 明确肿瘤部位：外周 vs 中央/超中央（靠近主支气管、气管、食管、大血管等）直接决定分割方式与毒性风险。
+   - 评估肿瘤与胸壁/肋骨、臂丛、膈肌、心包的距离；必要时行MRI或4D-CT辅助。
+   - 既往胸部放疗史、基础间质性肺病、严重肺气肿等均需单独风险评估与剂量约束强化。
+5. **呼吸运动管理与计划制定条件**
+   - 4D-CT评估运动幅度；选择合适技术（呼吸门控、腹压板、深吸气屏气DIBH、追踪等）。
+   - 影像引导能力（CBCT/ExacTrac/表面引导）及摆位重复性；必要时植入金标但需评估气胸风险。
+6. **治疗目标与替代方案明确**
+   - 是“因高风险而**替代手术**的根治SABR”、还是“边界可切除、拟**桥接/降期**后再评估手术”、或“术后/术前综合治疗的一部分”，需在MDT中定性清楚。
+   - 对潜在N1/N2风险者，需讨论是否增加纵隔处理或系统治疗策略（而非单纯SABR）。
+## 二、必须强化的协作（MDT）要点
+1. **胸外科—放疗科共同确认：手术风险 vs 肿瘤获益**
+   - 由胸外科给出“可切除性/手术方式/围术期风险（含麻醉评估）”的明确意见；
+   - 放疗科给出“可达成的SABR剂量、分割方案、OAR约束可行性、预期局控率与毒性谱”。
+2. **呼吸科/介入/病理协作：尽可能完成病理与纵隔分期**
+   - 介入取材路径选择、风险控制（气胸、出血）；
+   - 病理确保分型与必要时的分子检测（尤其在后续可能需要系统治疗时）。
+3. **影像科协作：结节性质、靶区勾画与随访判读**
+   - 明确是否存在卫星灶、多发磨玻璃结节（同步多原发 vs 转移）；
+   - 形成随访影像判读共识（区分放疗后纤维化改变与复发）。
+4. **心内/麻醉/老年医学：围治疗优化**
+   - 高龄、心肺储备差者：优化支气管扩张/吸入激素、戒烟、肺康复、营养支持；
+   - 抗凝管理与出血风险评估（若需穿刺/金标植入）。
+5. **必要时纳入肿瘤内科：系统治疗衔接**
+   - 对“边界可切除、疑有微转移风险较高、或分期不完全确定”的患者，讨论新辅助/辅助系统治疗的可能；
+   - 明确后续复发时的救治路径（手术/再放疗/消融/系统治疗）。
+## 三、知情同意中应特别强调的内容
+- **与手术相比的利弊**：局控率、无病生存、缺乏手术病理分期信息的局限。
+- **中央/超中央病灶的潜在严重毒性**：气道/血管事件、食管损伤、放射性肺炎等（虽低概率但后果重）。
+- **随访策略与“疑似复发”处置预案**：何时做PET-CT/再活检、是否可行挽救手术或再放疗。
+如你希望更贴近临床落地，我可以按**外周 vs 中央/超中央**分别列出常用分割思路与“必须满足的关键OAR约束/禁忌信号”（不涉及个体处方，只给结构化检查清单）。</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>对“高风险”或“边界可切除”的非小细胞肺癌（NSCLC）患者，若倾向采用立体定向消融放疗（SABR/SBRT）而非手术，需在 MDT（多学科团队）框架内完成全面评估与协作。临床要点可归纳为以下几方面。  
+一、适应证与基础评估  
+1. 一般情况  
+   • 年龄、体质指数、营养状况  
+   • ECOG/KPS 评分  
+   • 合并症（COPD、ILD、冠心病、糖尿病、肾功能不全等）  
+2. 呼吸和循环功能  
+   • 静息/活动血氧饱和度  
+   • 肺功能：FEV1、FVC、DLCO；预测剩余肺功能（ppo-FEV1、ppo-DLCO，最好 &gt;30–35% 预测值）  
+   • 心脏评估：心电图、超声心动图或核医学心灌注；必要时心内科会诊  
+3. 肿瘤学评估  
+   • 影像分期：胸部高分辨 CT + PET/CT（或全身增强 CT）；脑 MRI  
+   • 病理学：经支气管镜、CT/超声引导针吸活检或外科活检，尽量获得组织学亚型及分子病理信息  
+   • 肿瘤可切除性/手术风险：由胸外科评估，明确“高危”或“边界可切除”原因（肺功能差、合并症、肿瘤位置、需扩大全肺叶切或袖状切等）    
+二、SABR 可行性与计划制定  
+1. 肿瘤部位与剂量分割  
+   • 外周瘤：常用 54–60 Gy/3–5 f 或 48 Gy/4 f 等方案  
+   • 中央/超中央瘤：50–60 Gy/5–8 f（或更分割的 60–70 Gy/8–10 f）  
+2. 器官保护  
+   • 严格执行 OAR 剂量限制：脊髓、食管、大血管、心脏、支气管树及近中央结构、胸壁、臂丛等  
+3. 影像与运动管理  
+   • 4D-CT、呼吸门控/主动呼吸控制或腹带约束；必要时植入金标  
+   • CBCT/ExacTrac/逐分次 IGRT 对位  
+4. 技术手段  
+   • 非共面 VMAT/IMRT、Tomo 或 CyberKnife 等，根据中心经验选择  
+5. 剂量预测及风险评估  
+   • 评估 V20、MLD；尤其是既往有放疗史或 ILD 时要降低肺剂量阈值  
+   • 对超中央/气道贴近病灶，讨论分割延长或剂量下降策略 (e.g., 60 Gy/8–10 f)  
+6. 病人沟通  
+   • 说明可能收益、局控率、远处复发风险  
+   • 讨论晚期毒性（辐射性肺炎/支气管软化、食管炎、胸壁痛、肋骨骨折等）  
+   • 交代随访方式：术后1–3 月复查 CT，此后每 3–6 月随访 2–3 年，之后每 6–12 月  
+三、MDT 协作要点  
+1. 成员  
+   • 放疗科、胸外科、呼吸科、影像科、麻醉科、肺康复/营养科、护理、肿瘤内科（如并行/后续全身治疗）  
+2. 决策流程  
+   • 首次病案讨论：确认最佳初始治疗（手术 vs SABR）及备选方案  
+   • 明确救援策略：若 SABR 后局部失败，是否可二次手术或再次放疗  
+   • 病例复杂时（中心/超中心肿瘤、ILD、曾接受胸部放疗），建议转至高-volume 中心或行二次会诊  
+3. 团队分工  
+   • 胸外科：评估可切除性、若需则行先期视频胸腔镜评估或设定 salvage plan  
+   • 放疗科：制定计划、复核剂量学、主持随访与不良反应处置  
+   • 呼吸/麻醉/康复：术前肺康复、气道管理、并发症处理  
+   • 影像科：周期性影像判读，区别放射性改变 vs 局部复发  
+4. 沟通与文书  
+   • 在治疗前取得患者书面知情同意，记录 MDT 结论  
+   • 明确后续随访流程、紧急就诊通道及转诊流程  
+四、特殊情境提示  
+1. 胸膜下外周、靠近胸壁病灶：注意肋神经、胸壁痛、胸壁坏死风险  
+2. 伴弥漫性肺纤维化/ILD：对肺瓣叶运动大、低密度区域要用合并图像（MIP）勾靶，适当缩窄 ITV，降低肺剂量  
+3. 既往胸部放疗：需叠加剂量学分析，谨慎决策  
+4. 合并抗凝/抗血小板药：与心血管科沟通调整给药时机，预防胸腔出血  
+结论  
+对高风险或边界可切除的早期 NSCLC 患者，SABR 是一种替代手术的可靠选择，但必须在 MDT 讨论后、基于充分的整体和局部评估来确定适应证，并在精确放疗技术、严格剂量约束和规范随访支持下实施，同时留有救援治疗方案，以实现最佳的疗效与安全性。</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -11070,6 +12937,101 @@
    - 术后3天仍需强阿片类止痛：提示镇痛不足或排痰困难，需排查。  
 &gt; **重要提醒**：根据《NCCN指南（v2.2024）》，**未戒烟者不应推迟手术**（除非患者强烈拒绝戒烟且肿瘤快速进展），但必须同步启动戒烟计划。围手术期支持的质量直接影响患者能否从手术中真正获益——**切除了肿瘤却未解决吸烟，等于只治了"果"未治"因"**。
 通过以上系统化支持，可显著降低早期NSCLC患者的围手术期并发症（目标：&lt;10%）、缩短住院时间（目标：5-7天）、并为长期生存奠定基础。最终目标不仅是完成手术，更是帮助患者获得无癌且健康的生活方式。</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>对于“仍在吸烟、拟行手术治疗的早期非小细胞肺癌（NSCLC）患者”，胸外科医生在围手术期应提供的支持核心是：**系统识别烟草依赖、立即启动戒烟干预、用药+行为支持并行、围绕手术风险进行优化与随访巩固**。可按时间轴落实如下。
+## 1) 术前：把戒烟当作“围手术期优化措施”立即启动
+### A. 评估与告知（每位吸烟者都应做）
+- **记录吸烟史**：包年、目前每日支数、最近一次吸烟时间、既往戒烟失败原因。  
+- **评估尼古丁依赖与戒断风险**（如Fagerström量表/晨起第一支烟时间）。  
+- **明确告知获益**（简明、与手术结局直接相关）：戒烟可降低术后肺部并发症、伤口/吻合口问题、心血管并发症、住院时间和再入院风险。  
+- **设定明确戒烟计划**：最好**立即戒**；若能争取，通常建议至少**术前4周**戒烟获益更大，但**即使离手术很近戒烟也有益**，不应因“来不及”而放弃干预。
+### B. 提供“一线戒烟治疗”：行为支持 + 药物治疗
+胸外科团队至少应做到**开立/协调用药**并转介专业支持（戒烟门诊/肺康复/心理支持）。
+**行为支持（所有人）**
+- 简短干预（5A：询问-建议-评估-协助-安排随访），给出书面计划与触发因素应对策略。  
+- 转介：戒烟门诊、心理/成瘾医学、电话/线上随访工具。
+**药物治疗（多数依赖者建议使用，除非禁忌）**
+- **尼古丁替代治疗（NRT）**：贴片作为基础，配合口香糖/含片/喷雾应对渴求；可用于围手术期控制戒断。  
+- **伐尼克兰（varenicline）**：有效性高；一般需提前启动并持续到术后。  
+- **安非他酮（bupropion）**：适用于部分人群；注意禁忌证（如癫痫史等）。  
+&gt; 具体选药与剂量需结合合并症、精神心理史、药物相互作用，由外科医生开立或与麻醉/呼吸/戒烟专科共同完成。
+### C. 围手术期风险分层与优化（与吸烟高度相关）
+- **肺功能评估**：肺功能（FEV1、DLCO）、必要时运动评估；合并COPD者规范吸入治疗。  
+- **肺康复/呼吸训练**：腹式呼吸、缩唇呼吸、激励肺量计训练；有条件者术前肺康复。  
+- **营养与感染风险**：营养筛查、控制呼吸道感染、接种建议（流感/肺炎球菌等视情况）。  
+- **明确术前禁烟要求**：至少强调**手术当日必须不吸烟**；避免术前吸烟导致气道反应性增高、一氧化碳升高等。
+## 2) 住院与麻醉期：预防戒断、减少肺部并发症
+- **住院期间“强制无烟环境 + 戒断管理”**：  
+  - 主动开具/续用NRT或既定戒烟药物，避免因戒断引发焦虑、烦躁、私自吸烟。  
+- **麻醉/术中协同**（外科与麻醉共同）：优化镇痛（含区域阻滞/多模式镇痛）、保护性通气策略，减少术后肺不张/肺炎风险。  
+- **术后肺部并发症预防**：早期下床活动、有效镇痛以利咳痰、呼吸训练、雾化/排痰策略，必要时无创通气支持。
+## 3) 术后与出院后：把“短期戒烟”转为“长期戒烟”
+- **出院带药与随访**：将戒烟药物疗程延续到术后（常见为8–12周或按方案），并安排1–2周内首次随访。  
+- **复吸预防**：识别高危情境（疼痛、焦虑、回家环境有人吸烟、酒精），制定替代行为；必要时加强心理支持。  
+- **与肿瘤随访结合**：每次复诊都重复“评估-支持-调整方案”；若复吸，快速重启治疗，不责备。
+## 4) 团队与流程层面的“应提供”
+- 建立科室流程：**所有吸烟患者自动触发戒烟路径**（评估表单、开药模板、转介渠道、随访节点）。  
+- 与麻醉科/呼吸科/戒烟门诊/护理/康复团队形成闭环管理。  
+- 护理宣教：无烟住院、正确使用NRT、呼吸训练与咳痰方法。
+---
+如果你希望我把这些支持措施整理成**“胸外科门诊/术前评估单 + 医嘱模板 + 随访时间表”**，我可以按你们医院的流程（手术等待期、是否有戒烟门诊、常用药物目录）进一步细化。</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>对于仍在吸烟而即将接受肺叶或更大范围切除的早期非小细胞肺癌（NSCLC）患者，围手术期最大的风险是呼吸道并发症和心血管并发症，而持续吸烟又显著增加这些风险。胸外科医生应当联合麻醉科、呼吸科、康复医学科及戒烟门诊，为患者提供一个以“戒烟为核心、心肺功能优化和快速康复并重”的围手术期综合管理方案。要点可概括为以下几方面：
+一、立即启动系统化戒烟干预  
+1. “5A+5R”策略：  
+   ① Ask：每次门诊、住院都主动询问吸烟史；  
+   ② Advise：明确告知戒烟对降低术后并发症及远期预后的益处；  
+   ③ Assess：评估戒烟意愿；  
+   ④ Assist：提供药物（尼古丁替代、伐伦克林、安非他酮）和行为支持；  
+   ⑤ Arrange：随访、热线、互联网平台持续跟踪；  
+   若患者暂不愿戒烟，再进行5R（相关性、风险、回报、阻碍、重复）动机访谈。  
+2. 建议术前至少4 周（越早越好）完全戒烟；如果手术日已迫近，也应鼓励即刻戒断，因为即使停烟 24–48 h 也能改善一氧化碳血红蛋白水平和黏膜纤毛功能。  
+3. 住院期间提供无烟病房环境及尼古丁替代治疗，以防止“偷抽”和戒断症状。  
+二、严谨的术前评估与心肺功能优化  
+1. 肺功能：FEV1、DL_CO、必要时心肺运动试验（CPET），计算预计残余肺功能 (ppoFEV1、ppoDL_CO)。  
+2. 影像学：薄层 CT、PET-CT/增强 CT；评估胸腔黏连、气道分布及肺气肿程度。  
+3. 合并症管理：  
+   • COPD、哮喘——阶梯式支气管舒张剂、吸入激素、祛痰剂；  
+   • 冠心病、高血压、糖尿病——按指南优化药物；  
+   • 营养不良——营养支持（蛋白/能量补充、免疫营养）。  
+4. 预防感染：术前 1–2 周纠正可能的肺部感染；接种流感、肺炎球菌疫苗（可行时）。  
+三、术前“预康复”（pre-habilitation）  
+1. 有氧运动与阻抗训练：根据CPET结果制定个体化方案，每周≥3 次，持续 &gt;2 周。  
+2. 呼吸肌训练：阔口/缩唇呼吸、阈值吸气肌训练器（IMT）。  
+3. 咳痰训练与呼吸物理治疗：明确手术当天及术后如何有效排痰。  
+4. 心理支持：应对焦虑、抑郁，增加戒烟信心。  
+四、术中管理（与麻醉科合作）  
+1. 肺保护性通气：低潮气量、适当PEEP、限制补液，减少肺损伤。  
+2. 尽量采用胸腔镜/机器人等微创技术及单肺通气时的肺复张策略。  
+3. 严密监测氧合与CO水平；允许适度高氧，避免高浓度吸氧过度。  
+五、术后快速康复与并发症防控  
+1. 镇痛：选择性硬膜外或椎旁阻滞+多模式镇痛，减少阿片用量，利于咳嗽、早下床。  
+2. 继续无缝衔接戒烟支持：术后加强随访，处理戒断反应。  
+3. 呼吸康复：  
+   • 早期坐起、翻身、床边活动；  
+   • 频繁深呼吸—咳嗽、激励肺量计；  
+   • 气道湿化、雾化吸入、支气管扩张剂。  
+4. 预防并发症：  
+   • 肺不张/肺炎——呼吸训练、早期拔管、合理抗生素；  
+   • 深静脉血栓——早期下床、间歇性气囊加压、必要时药物预防；  
+   • 心律失常/心衰——监测电解质、β阻滞剂控制心率等。  
+5. 营养与代谢支持：48 h 内恢复经口进食或肠内营养，优化蛋白/热量摄入；必要时免疫营养。  
+6. 复诊与长期管理：  
+   • 出院后定期随访戒烟及肺功能恢复情况；  
+   • 提供社区/远程康复平台；  
+   • 监测肿瘤复发，强调生活方式干预。  
+六、团队协作与流程保障  
+1. 建立“ERAS-肺癌手术”多学科路径；  
+2. 术前一次完成胸外科—麻醉—呼吸—营养—康复—戒烟门诊联合评估；  
+3. 信息化随访系统追踪戒烟与康复达标情况；  
+4. 质控指标：术前完全戒烟率、术后肺部并发症发生率、住院天数、30 天再入院率等。  
+通过“戒烟+心肺预康复+快速康复”三位一体的围手术期干预，能够显著降低术后肺部并发症、缩短住院时间、提高生活质量，并且对减少远期复发及改善生存具有潜在益处。胸外科医生的核心职责是：早识别、早干预、全过程、个体化，把握好“每一段可控的时间窗口”。</t>
         </is>
       </c>
     </row>
@@ -11464,6 +13426,43 @@
 建议尽早转诊至有经验的肺癌中心，由MDT制定精准方案。</t>
         </is>
       </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>针对 **NSCLC** 中出现 **胸壁、气管/隆突、纵隔或膈肌受累**（即 **T3 侵犯，N0–1；或“可切除”的 T4 侵犯，N0–1**）的患者，**初始治疗**常见可选方案包括（以多学科评估为前提）：
+1) **手术为主（优先考虑可完整切除者）**  
+- **直接手术切除**（肺叶/全肺切除 + 系统性纵隔淋巴结清扫/取样）  
+- 对受侵结构行 **整块切除（en bloc）**：如胸壁、膈肌、部分纵隔结构等（在可实现 R0 切除的前提下）
+2) **诱导治疗后手术（新辅助）**  
+- **新辅助化疗** 后评估再手术  
+- **新辅助放化疗** 后评估再手术  
+（常用于肿瘤较大、侵犯范围较广、期望提高手术 R0 率或降低局部复发风险者）
+3) **根治性同步放化疗（不手术/不适合手术者）**  
+- 对于 **不可切除**、或虽“技术上可切除”但**手术风险过高/患者不愿手术**者，可选择 **根治性同步放化疗** 作为初始根治方案  
+（之后是否进行巩固治疗按具体分期与方案、指南路径及个体情况决定）
+4) **序贯化疗与放疗（无法耐受同步者）**  
+- 先化疗后放疗或先放疗后化疗，作为替代根治策略（多用于体能状态或合并症导致无法耐受同步放化疗者）
+如果你愿意，我可以根据你给出的更具体信息（T3具体侵犯部位/是否Pancoast、N0还是N1、PS评分、肺功能、是否计划R0切除等）把上述方案进一步细化到“更推荐哪一条路径”和常用的治疗序列。</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>在 MDT 评估为病灶可完整切除、全身情况允许手术（或可放弃手术）的 T3（胸壁、气管/隆突、纵隔或膈肌受累，N0-1）及可切除的 T4（N0-1）非小细胞肺癌患者，指南推荐的初始治疗策略可从下列 4 条途径中选择：  
+1. 先行手术  
+   • 以根治性切除为目标行肺叶/肺段切除或肺叶-胸壁（或膈肌、心包等）整块切除 ± 支气管/血管袖式切除。  
+   • 术后常规给予 4 周期含铂双药辅助化疗；若切缘阳性、分期 pT3-4 或 pN2，可加术后放疗。
+2. 新辅助化疗 → 手术  
+   • 含铂双药方案 2-4 周期，影像学无进展后手术，术后补足至 4 周期化疗（必要时加放疗）。  
+   • 若新辅助期间出现疾病进展，则转换为根治同步放化疗。
+3. 新辅助同步放化疗 → 手术  
+   • 典型方案：45 Gy/25 F 同步每周卡铂/紫杉醇或顺铂/依托泊苷。  
+   • 影像学评估可切除后手术，术后再补足 4 周期含铂化疗 ± 放疗。
+4. 根治性同步（或序贯）放化疗  
+   • 适用于评估仍可切除但患者拒绝/不耐受手术，或术后发现已无法切除者。  
+   • 60-70 Gy（常 2 Gy/次）同步含铂双药化疗；不能同步时可序贯。  
+   • 放化疗完成且疾病未进展者，可按 PACIFIC 方案给予 durvalumab 免疫巩固治疗。
+临床医师应根据肿瘤侵犯范围、是否可完整切除、患者全身情况及意愿，在上述 4 种初始方案中做个体化选择。</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -11745,6 +13744,26 @@
 建议术前与患者充分沟通切缘选择的利弊（如保留更多肺组织 vs 降低复发风险），共同决策。</t>
         </is>
       </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>NSCLC（非小细胞肺癌）行**亚肺叶切除（楔形切除或肺段切除）**时，对**肺实质切缘**的一般要求是：
+- **切缘必须为阴性（R0切除）**：术中可行冰冻病理确认切缘无肿瘤细胞残留。  
+- **切缘距离要足够**：通常要求  
+  - **切缘距离 ≥ 肿瘤最大径（margin ≥ tumor size）**，或  
+  - **至少 ≥ 2 cm**，  
+  取两者中的**更大者**（即“≥2 cm 或 ≥肿瘤直径，以较大者为准”）。
+（若为磨玻璃为主/原位或微浸润病变，有时可在多学科评估下适当放宽，但通行的外科肿瘤学原则仍以以上标准为主。）</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>在进行亚肺叶切除（肺段切除或楔形切除）时，必须获得足够的肺实质切缘以降低局部复发风险。一般公认的要求为：
+1. 肺实质切缘（从肿瘤外缘到切缘的最短距离）应 ≥2 cm，或  
+2. ≥肿瘤最大径，  
+3. 取上述两者中的较大值。  
+换言之，须保证“切缘距离 / 肿瘤最大径 ≥1”，且最低不能短于 2 cm，同时病理学上应为 R0（无肿瘤残存）。</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -11939,6 +13958,23 @@
 ### 临床意义  
 T4期NSCLC通常无法通过单纯手术根治，需联合**新辅助治疗（化疗/放化疗）→ 手术 → 辅助治疗**的多学科模式（MDT）。准确分期对制定治疗方案和预后评估至关重要，建议由胸外科、肿瘤科、影像科共同确认。
 &gt; **注**：以上标准基于AJCC第8版（2017），实际临床需参考最新版指南（如NCCN 2024）。若涉及具体病例，请以病理和完整分期报告为准。</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>在（非小细胞肺癌）NSCLC 的 TNM 分期中，以下情况可使肿瘤被判定为 **T4**（列举三种）：
+1. **肿瘤侵及纵隔**（例如侵犯纵隔组织/器官）。  
+2. **肿瘤侵及心脏或大血管**（如主动脉、肺动脉主干、上腔静脉等）。  
+3. **同侧不同肺叶存在肿瘤结节**（同侧另一肺叶内出现肿瘤结节）。
+（以上均为常见的 T4 判定情形。）</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>按照第 8 版 TNM 分期标准，非小细胞肺癌（NSCLC）被定为 T4 期通常满足下面几类情形中的任何一种。举例列出三种常见情况如下：  
+1. 肿瘤最大径 &gt;7 cm。  
+2. 肿瘤直接侵犯纵隔内的重要结构，如心脏、主动脉或其他大血管、气管、食管、喉返神经、隆突或椎体等。  
+3. 在同侧不同肺叶出现独立的肿瘤结节（隔叶转移）。</t>
         </is>
       </c>
     </row>
@@ -12200,6 +14236,31 @@
 2. **以病理/手术结果为金标准**：术前影像学为参考，最终需术后病理确认（尤其判断侵犯范围和淋巴结状态）。  
 3. **指南动态更新**：NCCN（美国）、CSCO（中国）、ESMO（欧洲）指南细节可能有差异，**临床决策请以最新版指南为准**（推荐查阅NCCN NSCLC指南v2024.1或AJCC Cancer Staging Manual 8th）。
 建议在具体病例中，由**胸外科、肿瘤科、呼吸科、影像科多学科团队（MDT）** 共同讨论，避免单一影像学误判。如需用于临床，请务必核对最新权威文献。</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>T3期（T3）NSCLC（非小细胞肺癌）通常指**原发肿瘤具有较大体积或一定范围的局部侵犯**，但仍未达到T4那种更广泛/关键结构受侵的程度。按常用的 **TNM（第8版）** 判定，符合以下任一条即可归为 **T3**：
+1. **肿瘤最大径 &gt;5 cm 且 ≤7 cm**。  
+2. **直接侵犯**以下结构之一：  
+   - **胸壁**（包括壁层胸膜/肋骨等）、  
+   - **膈神经**，  
+   - **心包**（壁层心包）。  
+3. **同一肺叶内存在一个或多个独立肿瘤结节**（卫星结节）。  
+4. **主支气管受累**（肿瘤位于主支气管），且**不论距隆突远近**，但**未侵犯隆突**（侵犯隆突通常归T4）。  
+5. 伴随**全肺不张或阻塞性肺炎**（累及范围可达全肺）。
+需要的话我也可以对比一下T2/T4的关键区别，方便记忆与分期判断。</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>（以第 8 版 TNM 分期为主）
+T3 期非小细胞肺癌（NSCLC）指符合下列任意 1 项情况的肿瘤：
+1. 肿瘤最大径＞5 cm，≤7 cm；  
+2. 肿瘤直接侵犯胸壁（含上沟癌）、膈神经或壁层心包；  
+3. 同一肺叶内存在与原发灶分离的卫星结节（同叶多灶病灶）。
+凡符合以上之一即可定为 T3。  
+（注：在第 7 版 TNM 中，“累及全肺的阻塞性肺炎/肺不张”亦列入 T3，临床应用时应注明所采用的 TNM 版本。）</t>
         </is>
       </c>
     </row>
@@ -12576,6 +14637,97 @@
 **肺结节很常见，科学管理是关键。** 你主动寻求信息的行为已经说明你很重视健康，接下来交给专业医生，按步骤来，绝大多数情况都能得到妥善处理。如果还有具体困惑，我很乐意继续帮你分析（但请记住，最终决策一定要以面诊医生为准）。🙏</t>
         </is>
       </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>一般不建议“筛查首次发现的肺结节就直接切除”。多数首次发现的肺结节是良性或惰性病变，处理原则通常是：**先评估风险与影像特征 → 再决定随访、进一步检查或手术**。是否切除取决于“恶性概率”和“可接受的手术风险”。
+下面按临床常用思路把关键点说清楚（不替代面诊）：
+## 1）什么时候不应直接切？
+首次筛查发现、且满足以下任一情况时，多数应先随访或进一步评估，而不是立刻手术：
+- **结节很小**：尤其是 **&lt;6 mm**（低风险人群多不需频繁复查）
+- **典型良性征象**：如明确的钙化模式（中央/层状/爆米花样）、脂肪成分（错构瘤）、稳定多年不变
+- **感染/炎症可能性大**：伴近期感染症状、片子呈炎性改变，可先抗感染/短期复查
+- **纯磨玻璃结节（pGGN）较小**：不少生长极慢，常以长期随访为主
+## 2）哪些情况更倾向“尽快进一步检查甚至手术”？
+如果影像和临床提示恶性概率较高，就不应长期拖延，可能需要PET-CT、穿刺活检或直接手术（取决于位置与可及性）：
+- **结节 ≥8 mm** 或短期增大
+- **实性成分增加**、出现/增大“实性核心”（磨玻璃变混合，或实性比例上升）
+- **高危影像特征**：毛刺、分叶、胸膜牵拉、血管集束、空泡征等
+- **高危人群**：年龄偏大、吸烟史/二手烟、既往肿瘤史、家族史、职业暴露等
+- **随访中出现生长**（体积或直径增加；或体积倍增时间提示较快生长）
+## 3）为什么不主张“一发现就切”？
+- **过度治疗**：很多结节终生不变或属良性，手术带来不必要的创伤
+- **手术并非零风险**：出血、感染、漏气、肺功能损失、术后长期疼痛/麻木等
+- **即使是早期腺癌谱系**（AIS/MIA等）也常增长缓慢，可在规范随访中把握手术时机
+## 4）常见、相对标准的处置路径（概念版）
+&gt; 具体间隔与策略需结合结节类型（实性/亚实性/磨玻璃）、大小、风险分层，由专科医生按指南制定。
+- **&lt;6 mm**：低风险多观察；高风险可考虑一年复查低剂量CT
+- **6–8 mm**：通常安排分阶段复查CT（如6–12个月，再视情况延长）
+- **≥8 mm**：评估恶性概率；可考虑PET-CT、增强CT、穿刺活检或手术
+- **亚实性/磨玻璃结节**：更强调**长期随访**与观察“实性成分变化”；一旦实性成分明确增大，处理会更积极
+## 5）什么情况下“可以考虑直接手术”？
+在以下组合更常见（仍需MDT评估）：
+- 影像高度怀疑恶性 + 结节位置不适合穿刺/支气管镜取材  
+- 随访证实增长/实性成分增加  
+- 患者整体肺功能允许、手术风险可接受  
+- 术式上通常优先考虑**亚肺叶切除（楔形/段切）**以保留肺功能（是否适合取决于病灶位置、大小、淋巴结评估等）
+---
+## 你可以把这些信息补充给我，我能帮你判断“更像随访还是该进一步检查/手术”的方向
+1) 结节大小（mm）、数量（单发/多发）  
+2) 类型：实性 / 纯磨玻璃 / 混合磨玻璃（有没有实性成分、实性成分多大）  
+3) 部位（上叶更需警惕）、是否贴近胸膜  
+4) 是否有毛刺/分叶/胸膜牵拉等描述  
+5) 你的年龄、吸烟史、既往肿瘤史  
+6) 这次是首次发现还是以往片子可对比（是否增长）
+如果你愿意，把CT报告的“结节描述那段”原文发来（隐去个人信息），我可以按常见指南思路帮你整理下一步方案与需要问医生的关键问题。</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>不宜“一发现就切”。对于体检或肺癌筛查（低剂量螺旋 CT，LDCT）首次发现的肺结节，国际及国内指南均主张先进行风险分层与动态随访，再决定是否活检或手术切除。核心思路是“先评估—再观察（或进一步检查）—最后才考虑手术”，以避免对大量良性结节的过度治疗。以下要点可供参考：
+一、为什么不能直接切  
+1. 病理恶性率低：在普通人群的筛查结节中，约 90% 以上为炎症、瘢痕或良性肿瘤。  
+2. 手术并非无害：即使是胸腔镜（VATS），仍有麻醉、出血、气漏、感染、肺功能受损等风险。  
+3. 过度医疗：一次性“清扫”会带来心理压力、经济负担及潜在并发症，而对预后获益有限。  
+二、评估流程（核心基于 ACCP、Fleischner、CSLC 指南，可因医院 MDT 调整）  
+1. 明确结节类型  
+   • 实性结节（solid nodule）  
+   • 纯磨玻璃结节（pGGN）  
+   • 部分实性结节（混合磨玻璃结节，mGN）  
+2. 测量大小与体积  
+   • 最大径和体积（软件自动体积测量可提高准确度）  
+   • 判断新增还是既往已有  
+3. 计算/判断恶性概率  
+   • 模型：Brock、Mayo、PanCan 等  
+   • 影像特征：毛刺、分叶、胸膜牵拉、血管集束、生长速度（倍增时间 &lt;400 d）、实性成分、空泡征等  
+   • 临床危险因素：年龄、吸烟量、既往肿瘤史、家族史、职业暴露、慢阻肺等  
+三、随访或进一步检查的常用阈值（示例）  
+A. 实性结节（非高危人群）  
+   • &lt;6 mm：通常不需随访或 12 个月复查一次。  
+   • 6–8 mm：6–12 个月复查；稳定后 18–24 个月再次复查。  
+   • &gt;8 mm：3 个月复查；或 PET-CT、经皮/支气管镜活检；恶性高疑可手术。  
+B. 纯磨玻璃结节 (pGGN)  
+   • ≤5 mm：可以 2–3 年复查一次。  
+   • &gt;5 mm：首次发现后 6–12 个月复查；若稳定，每 2 年一次。  
+   • 持续增大或出现实性成分 &gt;5–6 mm→考虑切除。  
+C. 部分实性结节  
+   • 任何尺寸均比纯 GGN 危险度高。  
+   • 总径或实性部分 &gt;6 mm，或者 3–6 个月内进展 → PET-CT/活检或直接切除。  
+四、何时可以（或应当）手术  
+1. 结节&gt;8 mm 且影像/临床提示高恶性概率，尤其 PET-CT 高代谢；  
+2. 随访中结节体积倍增时间&lt;400 d 或明显增加实性成分；  
+3. 经活检提示恶性或可疑；  
+4. 病变位置适合微创切除（胸腔镜楔形/段切/叶切）；  
+5. 患者本身合并高危因素且强烈担忧，能耐受手术，经 MDT 讨论后同意。  
+五、术式与预后  
+• 目前微创胸腔镜（VATS）为主流，可楔形、段切或解剖叶切；  
+• 对病理为 AIS、MIA 或早期 IA 期腺癌者，5 年生存率可&gt;90%。  
+六、MDT 与患者共同决策  
+• 影像科、呼吸内科、胸外科、肿瘤内科、病理科联合评估；  
+• 充分告知患者良恶性概率、随访方案、手术与非手术风险与收益，尊重患者偏好。  
+结论  
+首次筛查发现的肺结节并不意味着立即手术。遵循指南进行分层评估、影像随访及必要的 PET-CT/活检，只有在“高度恶性可疑或证实恶性”时才考虑切除，这样既保证了早期肺癌的治愈机会，又最大限度避免过度治疗所带来的伤害。</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -12868,6 +15020,79 @@
 **总而言之：对于可手术的早期NSCLC，SBRT和肺叶切除术不是“效果一样”的简单替代关系。手术是适合者的首选，SBRT是适合手术者的重要替代（当手术不可行时），而非在适合手术者中与之平起平坐的同等选择。精准医疗和个体化决策是核心。** 请务必在专业医生的指导下，基于全面评估做出决定。</t>
         </is>
       </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>总体结论：**对“可手术”的早期（多为I期）NSCLC患者，SBRT目前还不能被普遍认为与肺叶切术（lobectomy）“效果完全一样”**。在**能耐受手术**的患者中，肺叶切术（合并系统性淋巴结评估）仍是多数指南的标准方案；**SBRT是对不适合/拒绝手术者的标准替代方案**，并且在一些精选人群中显示出接近的肿瘤控制与生存结果，但证据仍存在不确定性。
+## 为什么说“还不能等同”
+### 1) 证据层级：随机对照试验不足
+- 直接比较SBRT vs 肺叶切术的随机试验**招募困难、样本量小**，因此对“总体生存是否等同/谁更优”的结论不够稳健。  
+- 许多支持“差不多”的研究来自**回顾性队列/倾向评分匹配**，仍可能有选择偏倚（例如更健康的人更可能去手术）。
+### 2) 肿瘤学差异：手术可做淋巴结分期
+- 肺叶切术通常会进行**纵隔/肺门淋巴结取样或清扫**，能发现影像学看不出的隐匿N1/N2转移，从而调整后续治疗。  
+- SBRT主要治疗原发灶，**对隐匿淋巴结转移的发现与处理能力不如手术**，可能影响部分患者的长期结局（尤其是肿瘤更大、实性成分多者）。
+### 3) 结局模式：局部控制SBRT很强，但远处/区域复发与生存受多因素影响
+- 在小体积、周围型I期肿瘤中，SBRT的**局部控制率非常高**，常可接近手术。  
+- 但**总体生存（OS）**不仅取决于局部控制，还与分期准确性、合并症、后续全身治疗机会等相关；手术组往往能获得更准确分期与路径信息。
+## 哪些情况下SBRT更接近“可替代手术”
+更可能接近手术效果的典型情境（需要个体化评估）：
+- **周围型、肿瘤较小（如≤2–3 cm）**、影像学无淋巴结受累；
+- **高龄或合并症较多**，手术风险上升；
+- 肺功能较差但仍希望根治；
+- 患者明确**拒绝手术**，且可接受严密随访与必要时的挽救治疗。
+## 手术的主要优势与SBRT的主要优势（简要对比）
+- **肺叶切术优势**：长期证据最充分；可获得病理分期与淋巴结信息；对部分患者的长期生存更有把握。  
+- **SBRT优势**：微创/无创；住院与恢复期短；对肺功能影响通常更小；围手术期风险几乎没有（但仍有放射性肺炎、胸壁痛、肋骨骨折等放疗风险）。
+## 实际临床怎么选
+- 如果你是“可手术且能耐受手术”的早期NSCLC：多数情况下仍优先考虑**肺叶切术+系统淋巴结评估**。  
+- 如果担心手术风险或希望比较SBRT：建议在**多学科团队（胸外科+放疗科+呼吸科）**共同评估后决定，并确认：
+  1) 肿瘤位置（周围型/中央型）、大小、磨玻璃成分比例；  
+  2) PET-CT、纵隔评估是否充分（必要时EBUS等）；  
+  3) 若选SBRT，复发后的**挽救方案**（挽救手术/再次放疗/消融等）是否可行。
+如果你愿意，我可以根据你的具体信息更“落地”地给建议：年龄、肿瘤大小与位置（是否靠近主支气管/纵隔）、分期（T1a/b/c？）、PET-CT结果、肺功能（FEV1、DLCO）、是否有严重心肺合并症，以及你更在意“生存把握”还是“创伤与恢复”。</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>简要结论  
+• 在医学上可耐受手术的 Ⅰ 期 NSCLC 患者中，肺叶切除（lobectomy+系统性淋巴结清扫）依然是具有最高等级证据和指南推荐（NCCN 1 类证据）的标准治疗。  
+• 立体定向体部放疗（SBRT）在局部控制率上可与手术相当，但缺乏对潜在淋巴结病灶的病理分期与清除，长程总生存（OS）及无病生存（DFS）仍呈现手术略优或至少未证实等效的结果。  
+• 目前尚无完成的大规模Ⅲ期随机对照试验（RCT）能够确认 SBRT 与肺叶切除在可手术人群中的“等效性”；VALOR、STABLE‐MATES 等 RCT 仍在进行中。  
+• 因此，SBRT 主要用于 “医学上不宜手术” 或 “患者拒绝手术” 的早期 NSCLC（NCCN 2A 类推荐），而不是可手术患者的首选。
+1. 关键临床证据及解读  
+1) 随机对照试验  
+   • ROSEL（荷兰）与STARS（美国）两项 RCT 因入组困难提前终止，总计仅58例；合并分析显示 SBRT 3 年 OS 95% vs 手术 79%，但样本量过小、选择偏倚大，CI 极宽，不足以改变实践。  
+   • VALOR（VA 系统，规划 670 例）与 STABLE-MATES（北美，规划 454 例）正在进行，尚无正式结果发布。
+2) 大型观察性研究/倾向评分匹配  
+   • NCDB、SEER 以及多中心回顾性研究普遍显示：  
+     - 3–5 年 OS 手术 60%–80%，SBRT 40%–70%。  
+     - 经倾向评分校正后差距缩小，但手术仍常优于或至少不劣于 SBRT。  
+     - 手术组局部复发率 5%–10%，SBRT 5%–15%；而区域/远处复发 SBRT 略高。  
+     这些研究仍无法避免“健康人”效应及潜在混杂因素。
+3) 术式与肿瘤学因素  
+   • 肺叶切除可完成系统性淋巴结清扫，约 15% 临床 N0 病例术后发现隐匿 N1/N2，影响分期和后续治疗，SBRT 无法做到这一点。  
+   • 肿瘤≤2 cm、周边型、高龄/伴严重合并症患者，SBRT 的无病与总体生存率最接近手术，但依然缺乏Ⅲ期证据。  
+   • 中心型肿瘤（离近端支气管树 &lt;2 cm）SBRT 并发症（大血管、支气管坏死）风险增加，剂量设计更复杂。
+4) 毒性与生活质量  
+   • 手术围手术期死亡率 1%–4%，并发症（肺部、心脏）10%–30%。  
+   • SBRT 急性毒性轻微，≤5% 出现≥3 级肺炎/胸壁疼痛；长期可能出现呼吸功能轻度下降、放射性肋骨骨折等。  
+   • 因此，在重度合并症或低肺功能患者中 SBRT 可显著降低治疗风险。
+2. 指南观点（2024 版）  
+• NCCN、ESMO、CSCO 均将“可耐受手术”患者的首选方案定为肺叶切除 ±段/楔形切除（具体视 JCOG0802 及CALGB140503 等结果变化）。  
+• SBRT 属于：  
+  a) 医学上不可手术（高龄、COPD、间质性肺病、心血管合并症等）。  
+  b) 患者知情后拒绝手术。  
+  （NCCN 类别 2A；ESMO Ⅱa 级推荐）
+3. 临床实践建议  
+• 对所有 cT1a–T2aN0M0、能耐受单肺肺叶切除的患者，首选手术，并行系统性淋巴结清扫。  
+• 对高危或拒绝手术者，可选择 SBRT（常用方案 54–60 Gy/3–5 fx），需多学科讨论并监测远期转移。  
+• 若采取 SBRT，建议：  
+  - 系统 PET/CT + 纵隔 EBUS/EUS 或 VATS 评估以降低分期不准。  
+  - 定期随访（3 个月×2 年 → 6 个月×3 年 → 每年），重视远处转移筛查。  
+• 持续关注 VALOR、STABLE-MATES、POSTILV 等 RCT 结果，未来不排除特定亚组（小于2 cm、外周型、合并症患者）SBRT 可与手术“非劣”而成为并列选择。
+4. 结语  
+目前的循证医学证据尚不足以认为 SBRT 与肺叶切除在“可手术”早期 NSCLC 患者中具有完全相同的治疗效果；手术仍是金标准。SBRT 是一种具有高局控率、低毒性的替代手段，适用于不宜或不愿手术者。继续等待正在进行的大规模 RCT 以确定两者在不同亚组中的真实差异。</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -13203,6 +15428,35 @@
 通过精准把握MRI的适用边界，可最大化其价值并减少医疗资源浪费，同时确保关键信息不被遗漏。</t>
         </is>
       </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>在NSCLC的**肺上沟肿瘤（Pancoast tumor）**诊疗流程里，**增强MRI的主要适用场景**是用于**评估局部侵犯范围**，尤其是**胸廓入口及神经血管结构**受侵情况；当这些问题会影响**可切除性判断、放疗靶区勾画或手术方式选择**时，应优先考虑MRI（通常为增强MRI）。
+**具体适用情况：**
+1. **怀疑或需要明确胸廓入口受侵**时  
+   - 臂丛神经（brachial plexus）受侵/压迫  
+   - 椎管、椎间孔、硬膜外或脊髓相关受侵  
+   - 椎体、椎旁软组织、胸膜顶（cupula）与周围筋膜间隙侵犯范围不清
+2. **CT增强仍不足以判定局部侵犯或可切除性**时  
+   - 尤其是肿瘤与**锁骨下动静脉、臂丛、椎旁结构**的关系难以在CT上清晰分辨时  
+   - MRI在软组织分辨率上通常优于CT，更利于区分“肿瘤侵犯”与“炎性粘连/纤维化”
+3. **计划根治性治疗（术前新辅助放化疗/手术）需精细分期与治疗设计**时  
+   - 用于术前评估R0切除可能性  
+   - 放疗计划制定时，帮助明确肿瘤对神经血管、椎旁/椎管的累及边界
+**不作为首选或一般不必常规做增强MRI的情况：**
+- 仅为常规胸部肿瘤初筛/一般T分期：通常**胸部增强CT**即可完成主要评估。  
+- 评估远处转移：优先**PET-CT**和/或**脑MRI**（脑MRI是针对脑转移筛查/评估，不等同于胸廓入口的增强MRI）。
+如果你能提供所参照的指南/流程图来源（如NCCN、CSCO或医院路径版本）或患者影像疑点（例如“疑臂丛/椎管/锁骨下血管受侵”），我可以把“何时必须做/可选做/不需要做”的节点更精确地对应到该流程。</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>MRI 并不是常规用于所有 NSCLC 病人的检查；只有当病变位于肺尖，怀疑或已明确为肺上沟肿瘤（Pancoast 瘤）时才需要加做增强 MRI。其主要目的和适用场景是：
+1. 进一步评价肿瘤与周围软组织的关系——尤其是臂丛神经、锁骨下动静脉、交感链及椎管的侵犯情况；  
+2. 判断胸廓入口区骨质（横突、椎体、肋骨）及硬膜外间隙受累程度；  
+3. 明确肿瘤能否达到“可切除”标准，为术前放化疗或手术方式制定提供依据。
+因此，在 NSCLC 诊疗流程中，当影像或临床表现提示“肺尖／肺上沟占位”并需评估其对周围神经、血管及椎体的累及时，应行胸廓入口区（肺上沟区）增强 MRI。</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -13467,6 +15721,54 @@
 4. 多学科团队（MDT）全程参与决策。
 **最终目标**：在保证根治性切除的前提下，最大限度保留肺功能，改善患者术后生活质量。任何重大手术决策均需基于全面评估，而非简单遵循“优先全肺切除”的教条。
 建议患者与主治医生详细讨论具体病情（如肿瘤位置、影像学特征、肺功能结果等），以制定最适合的治疗方案。</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>不一定正确，不能一概“优先全肺切除”。在“中心型肺癌、无淋巴结及远处转移（可理解为早期/局限期）”的前提下，如果单纯肺叶切除不能保证切缘阴性，**更常见、也更被指南与共识支持的优先策略是：尽量行支气管/血管袖式肺叶切除（或双袖式）等肺实质保留手术**；只有在**无法通过袖式/扩大肺叶切除获得R0切除**，或解剖/功能条件不允许时，才考虑**全肺切除（pneumonectomy）**。
+## 为什么不“优先全肺切除”
+1. **全肺切除并发症和围手术期死亡率更高**（尤其右全肺切除风险更高），术后长期生活质量与运动耐量下降明显。  
+2. 对于很多中心型肿瘤，**袖式肺叶切除在保证R0的同时**，能取得与全肺切除**相当的肿瘤学效果**（在合适病例中），但功能保留更好、风险更低。  
+3. 现代胸外科的原则通常是：**在保证R0和系统淋巴结清扫/取样的前提下，尽量保留肺组织**。
+## 临床上的“优先顺序”（更贴近实践）
+在评估可切除且目标是R0时，常见决策路径是：
+1. **标准肺叶切除** → 若切缘可能阳性：  
+2. **袖式肺叶切除（支气管袖式/血管袖式/双袖式）或扩大肺叶切除（例如联合楔形/管状支气管切除重建）**，并且术中**冰冻切缘**反复确认至阴性 → 若仍无法R0：  
+3. **全肺切除**（作为“确保根治切除的最后手段/兜底方案”）
+## 什么时候全肺切除更可能“必要”
+- 肿瘤或受侵范围使得**袖式重建后仍无法获得阴性切缘**（支气管或血管近端侵犯过长、累及隆突/主支气管近端等，且无法安全重建）。  
+- **血管/支气管受侵复杂**，重建风险过高或不可行。  
+- 术中冰冻提示多次追加切除仍**R1风险高**。  
+- 患者肺功能储备足够，且综合评估认为全肺切除总体风险可接受。
+## 关键补充：不能只看“切缘”，还要看“能否R0 + 功能与风险”
+- “切缘阴性”是底线，但实现R0的方式不止全肺切除。  
+- 需要结合：肿瘤与支气管/血管/隆突关系、术中冰冻、团队袖式经验、患者肺功能（FEV1、DLCO、预测术后值）、肺动脉高压、心血管共病等。
+如果你愿意，把以下信息补充一下，我可以更具体地判断“是否应全肺切除”以及“是否有袖式机会”：  
+1）肿瘤位置（右/左、上/中/下叶、距隆突距离、是否累及主支气管/叶支气管开口）  
+2）影像提示的血管受侵情况（肺动脉/肺静脉）  
+3）支气管镜所见与活检  
+4）肺功能（FEV1、DLCO、ppoFEV1/ppoDLCO）  
+5）计划手术医院是否常规开展袖式/双袖式手术。</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>不完全正确，也不够全面。  
+R0 切除（切缘阴性）当然是肺癌外科治疗的首要目标，但对于中心型、N0M0 的非小细胞肺癌，临床实践和国内外指南均强调“在保证肿瘤根治的前提下最大限度保存功能肺组织”。因此，手术方式的选择应遵循下列原则：
+1. 首选肺叶或亚肺叶切除＋支气管/血管成形  
+   • 对肿瘤累及肺叶支气管近端、单纯肺叶切除难以取得足够切缘者，可行支气管袖状切除（sleeve lobectomy），必要时联合肺动脉袖状切除或双袖切除。  
+   • 多项研究和 meta-analysis 证实，与全肺切除相比，袖状切除能获得等同的局部控制率和生存率，但围手术期并发症、死亡率及长期生活质量明显优于全肺切除。  
+2. 只有当袖状切除等肺实质保留手术不能获得 R0、或肿瘤累及两个以上肺叶、主肺动脉（无法重建）、近端支气管过长段、或患者肺功能足以耐受时，才考虑全肺切除。  
+3. 决策流程  
+   ① 术前评估：胸 CT、支气管镜、必要时 PET-CT；判断纵隔及肺门淋巴结情况、支气管及肺动脉受累范围。  
+   ② MDT 讨论：胸外科、呼吸科、影像科、麻醉科共同评估。  
+   ③ 若影像或镜下提示支气管受累但仍有可重建条件 → 计划袖状切除。  
+   ④ 术中冰冻病理：如仍不能保证 R0，或重建张力/血供无法满足，即转为全肺切除。  
+4. 指南依据  
+   • NCCN、ESTS、CSCO 肺癌指南：对可切除的中心型肺癌，推荐“可行时应采用肺叶切除联合袖状支气管或血管成形，以取代全肺切除”。  
+   • 国内外大型回顾及前瞻研究：袖状切除 5 年 OS 与全肺切除相当，但 FEV1 保留 20%～30%，并发症和住院死亡率显著下降。  
+结论  
+“如单纯肺叶切除不能满足切缘阴性就优先全肺切除”这一说法并不符合当今肺癌外科的治疗理念。应先评估并尝试袖状切除或其他肺组织保留手术，在不能获得 R0 或无法安全重建时，才行全肺切除。</t>
         </is>
       </c>
     </row>
@@ -13917,6 +16219,137 @@
 **最终决策必须基于个体化评估，没有放之四海而皆准的答案。患者应与经验丰富的肺癌多学科团队进行深入讨论，充分了解自身情况下的具体利弊后再做决定。** 对于大多数晚期NSCLC患者，持续优化的全身治疗仍然是延长生存期和维持生活质量的最重要手段。</t>
         </is>
       </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>晚期非小细胞肺癌（NSCLC）“寡转移”（一般指转移灶数量少、常见为≤3–5个，且可被局部手段覆盖）的患者中，**对原发灶和/或转移灶进行局部手术（常与放疗/消融合并）**，在合适人群里可能带来更长的无进展生存期甚至总生存期获益；但它不是对所有IV期患者都适用，且有明确的手术与肿瘤学风险。
+下面按“可能获益—主要风险—哪些人更可能获益—常见策略与关键问题”梳理。
+---
+## 一、局部手术治疗的可能获益（在严格筛选人群中）
+### 1) 延长无进展生存期（PFS）与可能延长总生存期（OS）
+- 多项研究（尤其是“**系统治疗后疾病稳定/部分缓解**的寡转移”场景）提示：对**全部可见病灶**进行局部巩固治疗（手术/放疗/消融）可明显延长PFS；部分研究也观察到OS改善的趋势或获益。
+- 关键点：获益更常见于**系统治疗已控制住大部分微转移风险**之后，再用局部手段“清干净”残余病灶。
+### 2) 提高局部控制率，降低局部相关并发症
+- 切除原发灶或关键转移灶，可能减少：
+  - 肿瘤出血、阻塞性肺炎、咯血、胸痛
+  - 脑转移导致的癫痫/颅高压（脑转移更常用手术+放疗的组合）
+  - 骨转移导致的病理骨折/神经压迫（需骨科/放疗综合决策）
+### 3) 争取更长“无治疗间歇”或降低后续治疗强度
+- 在某些患者中，局部清除后可能获得较长的疾病控制窗口，从而推迟更强的全身治疗或换线时间。
+### 4) 获得更充分的病理信息（对后续治疗有价值）
+- 手术标本可帮助明确：
+  - 是否仍有活性肿瘤、坏死比例
+  - 淋巴结状态（N分期）
+  - 耐药机制（如靶向/免疫治疗后耐药的分子改变），便于后续个体化用药
+### 5) 对“寡进展”（Oligoprogression）可延长当前有效系统治疗的使用时间
+- 如果靶向/免疫治疗整体有效、只有1–2个病灶进展，切除/消融进展灶可能让原方案继续获益更久。
+---
+## 二、主要风险与局限（需要提前充分权衡）
+### 1) 围手术风险与并发症
+- 肺部手术常见风险：肺不张、肺炎、持续漏气、出血、房颤、血栓栓塞等；严重者可影响后续系统治疗启动/继续。
+- 转移灶手术风险因部位而异：  
+  - **脑**：出血、感染、神经功能缺损、癫痫  
+  - **肝/肾/肾上腺**：出血、胆漏/尿漏、器官功能损伤  
+  - **骨/脊柱**：神经损伤、内固定失败、感染  
+- 风险与基础肺功能（COPD/间质性肺病）、心血管疾病、年龄、营养状况密切相关。
+### 2) 机会成本：延误或中断全身治疗
+- 手术恢复期可能导致化疗/靶向/免疫治疗推迟或中断；若实际存在“看不见的微转移”，延误全身治疗可能得不偿失。
+### 3) 肿瘤学风险：并非真正“低负荷”
+- 影像学看似寡转移，但可能仍有微转移或快速进展的生物学行为；术后仍可能短期复发。
+- 若未能对“所有病灶”实施有效局部控制，获益会明显下降。
+### 4) 与系统治疗的相互作用与安全性问题
+- **免疫治疗**：围手术期可能增加肺炎等免疫相关不良反应的鉴别难度；个体可能需要停药窗口（由团队制定）。
+- **抗血管生成药**（如贝伐珠单抗等）：与伤口愈合/出血风险相关，通常需术前术后停用一段时间。
+- **靶向药**：部分药物对伤口、皮肤、肝功能等有影响；是否停药及停多久需个体化。
+### 5) 生活质量与功能代价
+- 肺叶切除/广泛切除可能带来长期气短、运动耐量下降；若本就肺功能储备差，得不偿失。
+- 某些转移部位手术可能带来持续疼痛或神经功能影响。
+---
+## 三、哪些患者更可能从局部手术获益（“适合人群”特征）
+通常更倾向考虑局部根治性治疗（手术/放疗/消融）的条件包括：
+1) **转移灶数量少、位置可完全处理**（理想：所有病灶都能被切除或用SBRT/消融覆盖）。  
+2) **系统治疗后达到稳定/缓解**（先用药筛出生物学更“温和”、可控的人群）。  
+3) **纵隔淋巴结负荷低**（例如N0–N1优于N2–N3；N2并非绝对不行，但获益概率下降、需更慎重）。  
+4) **体能状态好（ECOG 0–1）**、肺功能/心功能允许。  
+5) **无广泛胸膜播散/恶性胸腔积液**（通常提示更弥漫性疾病，局部手术价值下降）。  
+6) 分子分型明确、系统治疗路径清晰（EGFR/ALK/ROS1等靶向或免疫治疗策略明确时，更便于做“系统治疗+局部巩固”的整合）。
+---
+## 四、常见治疗组合方式（现实中更常见的是“多学科+多手段”）
+- **系统治疗为主**（靶向/免疫±化疗） → 评估达到寡残留或寡进展 →  
+  - 原发灶：手术或SBRT  
+  - 转移灶：手术 / SBRT / 消融（RFA/MWA）  
+  - 脑转移：手术（尤其是单发/症状明显/占位效应）±立体定向放疗（SRS）
+- 许多情况下，**SBRT/消融**能达到接近手术的局部控制率且创伤更小；当病灶位置、病理需求、或压迫症状使得“必须切除”时，手术更占优势。
+---
+## 五、做决策前建议重点问清的几个问题
+1) 我属于“同步寡转移”（初诊即寡转移）还是“异时寡转移/寡进展”？这会影响收益。  
+2) 能否做到“**所有病灶**”的局部控制？若不能，局部手术目的是什么（减症/取材/控制关键灶）？  
+3) 纵隔淋巴结状态如何（PET-CT、EBUS或纵隔镜评估）？  
+4) 围手术期系统治疗如何衔接（停药多久、何时恢复、是否影响免疫/靶向效果）？  
+5) 预计的手术方式与切除范围（楔形/段切/叶切）及对肺功能的影响评估（肺功能、运动试验）。  
+6) 是否存在替代方案（SBRT/消融），其控制率、风险、便利性与费用差异。
+---
+如果你愿意提供以下信息，我可以把“获益—风险”更精确地落到你的场景（更接近临床MDT讨论的结论）：  
+- 转移灶数量与部位（脑/骨/肾上腺/肝/肺内等）、是否都可处理  
+- 当前分期与纵隔淋巴结情况（N分期）  
+- 基因/PD-L1结果、已用过哪些系统治疗及疗效  
+- ECOG体能、肺功能/合并症、年龄  
+- 目标是延长生存（根治意图的局部巩固）还是以缓解症状为主（减瘤/减症手术）</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>晚期非小细胞肺癌（NSCLC）寡转移（oligometastasis，常指转移灶≤3-5个且可局部控制）的病人，若在全身系统治疗（靶向、免疫或化疗）基础上加做 局部根治性手术（原发灶和/或转移灶切除），临床上既可能带来获益，也存在不可忽视的风险。需在 MDT（胸外科、肿瘤内科、放疗科、影像科、麻醉科等）充分评估后进行个体化决策。
+一、潜在获益  
+1. 生存期延长  
+   • 多数回顾队列和少量前瞻性小样本研究显示，严格筛选的寡转移 NSCLC 患者行手术 ± 其他局部治疗，5 年总生存率可达 30%-50%，明显高于仅系统治疗（8%-15%）。  
+   • 部分研究报道中位 OS 20-60 个月 vs 8-12 个月（对照为未做局部手术的历史队列）。  
+2. 提高无进展生存（PFS）和局部控制率  
+   • 切除后病灶“清零”可延缓新病灶出现时间；若结合立体定向放疗/消融可进一步巩固局部控制。
+3. 症状缓解与生活质量改善  
+   • 脑、骨、肾上腺、脊柱等部位的孤立转移灶切除，可迅速缓解颅高压、疼痛或内分泌问题。  
+   • 减少后续放疗/镇痛/类激素药物使用量，改善生活质量。
+4. 争取“无病状态”(NED) 与停化维持  
+   • 对 EGFR/ALK 靶向或免疫治疗获得深度缓解后做“巩固手术”，部分患者可暂停昂贵或有毒副作用的长期药物。
+5. 有助于病理评估和后续策略  
+   • 手术标本能提供真实病理分期、微环境和耐药机制，为下一步精准治疗奠定基础。
+二、主要风险与局限  
+1. 手术相关并发症  
+   • 胸腔手术并发症 10%-30%，围手术期死亡率 1%-3%。  
+   • 特定部位风险：  
+     – 脑转移切除：癫痫、神经功能缺损 5%-10%。  
+     – 肾上腺切除：出血、肾上腺危象、腹腔脏器损伤。  
+     – 骨转移切除/脊柱固定：大出血、截瘫、慢性伤口感染。  
+2. 肺功能或器官功能永久损失  
+   • 大范围肺叶/双边手术、肝部分切除等，可造成长期功能受限，影响随后的全身治疗耐受性。
+3. 耽误或中断系统治疗  
+   • 围手术期需停用靶向药/免疫药，可能导致微转移进展。  
+   • 术后恢复缓慢亦推迟新系统治疗（尤其化疗或免疫联合方案）。
+4. 潜在“过度治疗”  
+   • 影像学寡转移不等于生物学寡转移，隐匿性微转移可使手术获益抵消。  
+   • 如果患者系统病灶迅速进展，局部手术投资-收益比低。
+5. 经济与心理负担  
+   • 高水平手术、住院和后续康复费用较高；术后并发症加剧经济压力。  
+   • 多次治疗带来心理焦虑、对工作生活的长期影响。
+6. 证据级别仍有限  
+   • 目前缺乏大规模随机Ⅲ期试验，现有数据多为回顾性或小规模前瞻性队列，选择偏倚明显。  
+   • 不同器官转移、分子亚型、伴随治疗方案的真实优势及最佳时点尚未完全明确。
+三、适合手术的基本条件（常用共识要点）  
+1. 转移灶数目少（≤3-5 个）、直径小且影像学可完全切除。  
+2. 原发灶控制良好或可同步切除；无（或可切除的）纵隔 N2 病变。  
+3. ECOG 0-1，预计可耐受手术，主要脏器储备良好。  
+4. 术前系统治疗已产生部分或以上缓解，提示肿瘤生物学行为相对 indolent。  
+5. 无其他不适合手术的严重合并症。
+四、降低风险与提升获益的策略  
+1. MDT 讨论：综合评估 PFS 与 OS 预测值、系统治疗选项、手术可行性与替代疗法（SBRT、射频/冷冻消融）。  
+2. 先系统治疗再“加做”局部（“巩固”或“转换”策略），以筛选生物学惰性的真正寡转移。  
+3. 选择创伤小的术式：胸腔镜/达芬奇肺叶切除，腹腔镜肾上腺切除，神经导航显微脑转移手术等。  
+4. 术后快速康复（ERAS）和多模式镇痛，减少肺部并发症、深静脉血栓。  
+5. 因地制宜联合其他局部放疗/消融，替代高风险或难以切除的病灶。  
+6. 密切随访，必要时早期重启或调整系统治疗。
+结论  
+对经过严格筛选的晚期 NSCLC 寡转移患者，局部手术可提供显著的生存与症状获益，并有可能实现长期控制，甚至治愈；但需权衡手术并发症、功能丧失、耽误全身治疗及潜在过度治疗的风险。当前证据尚属中等水平，应在 MDT 框架下个体化决定，并鼓励患者进入前瞻性临床试验。</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -14288,6 +16721,107 @@
 **没有放之四海而皆准的答案，但精准分期+个体化靶区定义+多学科协作是唯一正确路径。** 临床中遇到困惑时，务必查阅最新文献或MDT讨论，避免机械套用旧概念。</t>
         </is>
       </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>对局部晚期非小细胞肺癌（LA‑NSCLC）而言，**选择性淋巴结照射（ENI，elective nodal irradiation）**与**累及野照射（IFI，involved‑field irradiation / involved‑site irradiation）**的核心差异在于：是否把“影像学未证实受累但存在潜在隐匿转移风险”的纵隔/肺门淋巴结区域也纳入照射范围。总体趋势是：在以同步放化疗为主的现代治疗框架下，**IFI更常用**；ENI的角色更趋向于“特定情形下的保守策略”。
+---
+## 1) ENI（选择性淋巴结照射）
+### 优势
+- **更强的“预防性覆盖”**：理论上减少未检出的纵隔/肺门微转移导致的区域复发（尤其是在分期不充分或影像不可靠时）。
+- **对分期不足的“容错性”更好**：如果未做PET‑CT或纵隔侵袭性分期（EBUS/EUS/纵隔镜），ENI可在一定程度上弥补漏分期风险。
+### 劣势
+- **照射体积更大 → 正常组织剂量更高**：更容易推高肺V20/V5、平均肺剂量（MLD）、心脏剂量、食管剂量，增加  
+  - 放射性肺炎  
+  - 放射性食管炎（急性、晚期狭窄）  
+  - 心脏毒性（尤其在同步放化疗背景下更受关注）
+- **限制处方剂量/计划质量**：体积扩大往往迫使降低靶区剂量或牺牲剂量分布，可能不利于局部控制。
+- **与现代影像/分期的增益下降**：在PET‑CT、EBUS等较完善分期下，“额外照射未累及结区”的边际收益变小。
+---
+## 2) IFI（累及野照射）
+### 优势
+- **照射体积更小 → 毒性更低**：更有利于满足肺/心/食管剂量约束，减少≥2级肺炎/食管炎风险；患者更容易完成同步放化疗。
+- **有利于剂量递送与计划优化**：更容易在不突破器官限量的前提下保证靶区覆盖与剂量均匀性；对需要更精细的IMRT/VMAT计划更友好。
+- **现代证据与实践更支持**：多项研究/系统综述总体显示，**IFI并未显著增加“孤立性（未照射结区）淋巴结失败”**，而毒性往往更低；因此在当代以PET‑CT分期+同步放化疗为主的路径中更常作为默认策略。
+### 劣势
+- **更依赖准确分期与靶区勾画**：如果PET‑CT缺失、纵隔未系统取样、肿瘤阻塞性肺不张/炎症导致结节判读困难，漏照受累结区的风险上升。
+- **“跳跃式转移”担忧**：虽总体发生率不高，但在个别解剖/病理亚型或分期不全时，可能出现未覆盖结区复发。
+---
+## 3) 临床上如何评价与选择（更实用的结论）
+### 多数情况下更倾向 IFI
+尤其在以下条件具备时，IFI的收益更明确：  
+- 有**PET‑CT**（最好治疗前不久完成）  
+- 有**纵隔侵袭性分期**（EBUS/EUS/纵隔镜）或至少对可疑结区充分评估  
+- 计划需严格控制肺/心剂量（合并COPD、间质性改变、心血管病等）  
+- 同步放化疗并计划后续免疫巩固治疗（毒性控制更重要）
+### ENI可能考虑的情形（不是“常规”）
+- **分期不足/不可靠**：无法做PET‑CT，或纵隔评估明显不充分且复发代价高  
+- 影像学“界限不清”的淋巴结可疑但证据不足、又不便取样  
+- 中心型、纵隔多站高风险但评估存在盲区（需个体化权衡剂量约束能否满足）
+---
+## 4) 关键终点：区域控制 vs 毒性（总体权衡）
+- **区域控制方面**：在现代分期与放疗技术下，IFI通常能在不显著增加“选择性结区失败”的前提下获得相近的区域控制。  
+- **毒性方面**：ENI更容易提高肺/心/食管受量，临床上更常表现为**更高的食管炎和肺炎风险**，并可能影响同步治疗完成率。  
+- 因而现实决策常是：**优先保证可安全完成高质量同步放化疗（及后续治疗）**，这通常指向IFI。
+---
+如果你愿意，我可以结合你关心的具体场景（是否做了PET‑CT/EBUS、N2站点数、肿瘤位置、计划采用IMRT/VMAT、肺功能和心脏基础病、是否同步/序贯放化疗、是否计划度伐利尤单抗巩固等），给出更“按指南与剂量约束可落地”的选择建议与注意点。</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>一、概念  
+1. 选择性淋巴结照射（elective nodal irradiation, ENI）：在把全部已知原发肿瘤及影像学（或/和病理学）证实阳性的淋巴结站点纳入照射的同时，按照经验再将“高危但阴性的”纵隔/肺门淋巴结站点一并纳入照射范围，对这些区域实行预防性照射。  
+2. 累及野照射（involved-field / involved-site irradiation, IFI/ISI）：只照射影像学或病理学证实受累的肿瘤及淋巴结站点，加上适当的安全边界，对未证实受累者不做预防性照射。
+二、疗效与失效率  
+1. 局部/区域控制  
+   • 多项随机对照试验（如Yuan 2007、JCOG 0206）和前瞻性队列（RTOG 9311、RTOG 0617、CALGB 39801 等）比较 ENI 与 IFI，均未显示两者在局控率、无进展生存期(PFS)或总体生存(OS)方面存在统计学差异。  
+   • 近年来的 meta-analysis（Jiang 2015；Hua 2016）亦证实 IFI 与 ENI 的1、2、5年OS及局控率相当。  
+2. 单纯“隔离性结节转移”(isolated nodal failure, INF)  
+   • IFI 组的 INF 发生率多在 4%–10% 之间，比 ENI 略高 3%–5%，但总体仍属低水平，可望通过二次放疗或系统治疗补救。  
+   • 现代分期（PET/CT、EBUS/EUS）和四维CT 辅助下，INF 发生率进一步降低。  
+三、毒性与可给药剂量  
+1. 急、亚急性毒性  
+   • IFI 明显降低了 ≥3 级放射性食管炎和肺炎（G3 食管炎：IFI 约 8%–12% vs ENI 15%–30%；G3 肺炎：IFI 约 4%–8% vs ENI 10%–18%）。  
+   • 心脏、脊髓受量亦显著减少。  
+2. 剂量升级与综合治疗可行性  
+   • IFI 由于照射体积缩小，使正常组织剂量约束更易满足，可安全提高肿瘤剂量（RTOG 9311 最高至 83.8 Gy）或顺利实施同步放化疗、放化免一体化（PACIFIC 方案中的 cCRT 均采用 IFI）。  
+   • ENI 体积大，常被肺、食管剂量限度所“卡死”，难以剂量升级或开展多模式联合。  
+四、临床应用的利弊权衡  
+1. IFI 优势  
+   a. 更低急慢性毒性，改善生活质量；  
+   b. 便于剂量增量或联合强度大的同步治疗、后续巩固免疫治疗；  
+   c. 在精确分期、影像学/介入支气管超声可疑结节可取活检的当代条件下，漏照风险可控制在较低水平；  
+   d. 计划设计简单，治疗时间短。  
+2. IFI 局限  
+   a. 对PET/EBUS 等精准分期的依赖度高，资源不足地区或分期模糊者可能漏照；  
+   b. 对“跳跃转移”、微转移风险特别高的少数患者（如 N2 多站、多纵隔受累）理论存在漏治隐患；  
+   c. 需要严谨的图像配准、四维CT 和 ITV/GTV 界定，技术门槛高。  
+3. ENI 优势  
+   a. 对于分期手段有限，或肿瘤中心无法进行EBUS、PET/CT的环境，ENI 能在一定程度上弥补分期不足；  
+   b. 对于极度 bulky 的纵隔肿块、跳跃转移概率高的亚群（如上叶原发伴对侧纵隔淋巴结转移）可能降低 INF；  
+   c. 医师操作空间较大，对计划制作和影像配准精细化要求相对低。  
+4. ENI 不足  
+   a. 增加肺、食管、心脏、脊髓受量，毒性显著增高；  
+   b. 不利于放疗剂量提高或联合免疫/靶向药物；  
+   c. 迄今缺乏提高OS、PFS 的确凿证据；  
+   d. 一旦发生严重毒性，可能延迟或中断系统治疗。  
+五、指南观点  
+1. NCCN (2023)、ASTRO、ESTRO/ACROP、CSCO 等均推荐：  
+   • 常规采用 IFI/ISI；  
+   • 在“影像/病理分期充分”前提下不做 ENI；  
+   • 若分期手段受限、或存在明显的跳跃转移高危情况，可个体化考虑 ENI。  
+六、临床实践建议（局部晚期NSCLC）  
+1. 具备 PET/CT、EBUS/EUS 及四维CT 的中心：  
+   • 首选 IFI；  
+   • 争取 GTV-to-CTV 扩展 0.5–0.8 cm，CTV-to-PTV 0.5 cm（四维调校）标准。  
+2. 资源受限或高风险人群：  
+   • 不能排除对侧纵隔隐匿病灶、分期不充分时，可考虑ENI，但需权衡毒性并适当降低处方剂量 (如 56–60 Gy)。  
+3. 研究方向  
+   • 影像组学、血液ctDNA、人工智能辅助评估亚临床淋巴结风险，以进一步优化真正需要 ENI 的亚组；  
+   • 与免疫治疗、分子靶向治疗联合时的安全窗口。  
+总结  
+在精准分期和现代三维/调强/影像引导技术的支持下，IFI 能明显降低治疗相关毒性，并为剂量强化及综合治疗留出余地，而不会牺牲生存或局控，是目前局部晚期非小细胞肺癌的主流推荐方案。ENI 仅在分期条件不足或被认为具有极高潜在淋巴结隐匿转移风险的个体化情况下作为补充选择。</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -14607,6 +17141,60 @@
 &gt; 3. “如果现在终止手术，最坏结果是什么？如果继续手术，风险在哪里？”  
 &gt; **切勿仅因“看到N2就要求停手术”**—— 完整信息是做出正确选择的前提。
 最终，这一决策需以**患者最大获益**为唯一标准，而非机械遵循“发现N2就停”或“必须切到底”的教条。经验丰富的胸外科团队会在10-15分钟内完成关键评估，这是现代精准外科的体现。</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>在术中才发现“隐匿性 N2（纵隔淋巴结）阳性”的 NSCLC，并不一定要立刻终止手术，很多情况下仍会选择完成既定的肺切除（连同系统性纵隔淋巴结清扫/取样），核心原因是：这类情形的预后与获益高度取决于 **N2 的负荷、可切除性、切缘是否可达 R0、以及后续能否接受规范的辅助治疗**；而在这些条件满足时，继续切除并不比中止手术更差，甚至可能更好。
+主要逻辑如下：
+1. **隐匿性 N2 通常属于“低负荷 N2”人群，手术仍可能带来生存获益**  
+   术前未检出、术中偶然发现的 N2，往往是单站/少量转移或微小转移（相比术前就明确的 bulky、多站 N2）。多项回顾性研究和真实世界数据提示：对“偶发/隐匿 N2、尤其是单站、完全切除（R0）”的患者，完成肺切除 + 术后辅助化疗（±放疗/±免疫/靶向）可获得较好的长期结局。
+2. **一旦已经开胸/胸腔镜进入并且肿瘤可 R0 切除，中止手术未必能带来额外优势**  
+   立刻终止的目的通常是“改行诱导治疗（新辅助）后再手术”。但对已经在台上的患者：  
+   - 终止手术只能获得分期信息，并不能切除原发灶；  
+   - 还会增加一次手术风险（未来再手术更粘连、更复杂）；  
+   - 若患者后续因体能下降、并发症或等待时间而无法完成再手术，可能反而失去根治机会。  
+   因此，当判断能够安全达到 R0、且患者能耐受后续治疗时，继续完成切除常更稳妥。
+3. **继续切除可获得“完整病理分期”，从而更精准地制定后续综合治疗**  
+   完整的肺叶/肺段切除 + 系统淋巴结清扫/取样，能明确：N2 的站数、转移结数、是否包膜外侵犯等关键风险分层信息。此信息直接决定术后策略（辅助化疗、放疗、免疫治疗、EGFR/ALK 等靶向），从而影响生存。
+4. **现在的标准治疗是“多学科综合治疗”，N2 并不等于“不能手术”**  
+   IIIA/N2 在许多指南中并非绝对手术禁忌，而是强调选择：  
+   - **可切除、低负荷、可达 R0** → 手术可作为综合治疗的一部分；  
+   - **多站 bulky、固定不可切、或难以 R0** → 更倾向先系统治疗/放化疗。  
+   术中发现的隐匿 N2 往往更接近前一种可选择手术的亚型。
+5. **并非所有 N2 都应继续：关键是术中快速评估“是否值得切”**  
+   通常会结合：是否单站/多站、是否包绕大血管/气管导致不可切、预计能否 R0、患者心肺储备等。  
+   - 若提示 **多站 N2、广泛纵隔受累、无法保证 R0**，中止或改为仅取样/活检并转入系统治疗更合理；  
+   - 若为 **单站/少量、技术上可 R0**，继续切除更常见。
+总结：术中发现隐匿性 N2 阳性时，是否继续肺切除不是“看到 N2 就必须停”，而是基于“N2 负荷 + 是否能 R0 + 患者耐受 + 术后综合治疗可及性”的权衡。在可完全切除且负荷不高的情况下，完成肺切除并配合术后辅助治疗，往往是合理且被指南与临床证据支持的策略。</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>在开胸探查时才发现的“N2 阳性”多属于
+• 单站、非肿块性（non-bulky）的淋巴结转移；
+• 结节直径通常 &lt;2 cm，PET/CT 或术前纵隔镜检查难以检出，
+因此称为“隐匿性（occult）N2”。  
+这类患者的生物学特征和预后与术前已明确为多站或肿块性 N2（典型ⅢB/Ⅳ期）的患者明显不同，主要理由如下。
+1. 肿瘤负荷小，仍有根治机会  
+   隐匿性 N2 往往是单站、小体积、甚至“跳跃转移”。如果能够做到 R0 切除（病灶及受累淋巴结全部切除），5 年生存率可达 20 %–30 %，明显优于单纯活检或仅行放化疗 (&lt;10 %)。
+2. 手术已经开始，追加肺叶/肺段切除的风险增量很小  
+   患者已在全麻和开胸（或胸腔镜）状态下，如果即时中止，只得到一枚淋巴结的活检标本，并不能减少既有的手术创伤；而继续完成解剖性肺切除及系统性淋巴结清扫，可一次性获得：
+   • 彻底的病灶切除和病理分期；  
+   • 对局部的最佳肿瘤控制，为后续辅助化疗±放疗创造条件。
+3. 作为综合治疗的一部分可改善预后  
+   多项回顾性及前瞻性研究（包括 SWOG 8805、JCOG 0301、Intergroup 0139 等）提示：  
+   • 术中偶遇单站 N2 并完成 R0 切除 + 辅助化疗者的总生存率明显高于未切除者；  
+   • 与仅行诱导放化疗后继续放化疗相比，能切至肺叶/全肺的患者生存更佳。  
+   因此，国际及国内（NCCN、CSCO、ESTS）指南均建议：对于术中偶发、可完全切除的单站/小体积 N2，可继续完成肺叶或袖式切除，并在术后联合全身治疗。
+4. 中止手术反而会带来问题  
+   • 再次麻醉、再次开胸困难；  
+   • 肿瘤残留可能进展，错失可切除时期；  
+   • 患者心理与经济负担加重。
+5. 需要立即放弃的情形  
+   若术中发现的是多站、巨大肿块性 N2，或伴 N3、胸主动脉/心包/气管不可切除浸润，无法获得 R0，则应停止根治性切除，仅作活检或减症处理。
+结论  
+术中发现的隐匿性单站非肿块性 N2 并不等同于不可切除ⅢB/Ⅳ期。只要能够达到 R0，继续完成肺切除并行术后综合治疗，可明显提高长期生存率，因此不必也不应立即终止手术。</t>
         </is>
       </c>
     </row>
@@ -14927,6 +17515,57 @@
 ### **结论**
 在BRAF V600突变NSCLC中，**单用BRAF抑制剂因无法有效克服MAPK通路的代偿激活机制，导致疗效有限、耐药迅速，难以满足新辅助/转化治疗对“快速、深度缩小肿瘤以达手术”的核心需求**。而**BRAF+MEK联合方案通过双重阻断核心增殖通路，显著提高了客观缓解率、延缓耐药、并加速肿瘤退缩**，成为当前临床实践和指南推荐的首选策略（尤其在转移性一线治疗中）。尽管新辅助/转化应用仍需更多III期数据（如正在进行的NCT03888612），但基于现有证据和机制理解，**联合方案是单药无法替代的合理选择**。未来随着更精准的生物标志物（如共突变状态）和新型抑制剂（如高选择性BRAFi）的发展，策略可能进一步优化，但现阶段联合仍是平衡疗效与安全性的最优解。
 &gt; **提示**：具体治疗方案需由肿瘤科医生根据患者分期、体能状态、合并症、基因检测结果及最新指南综合制定。本文内容不构成医疗建议。</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>在BRAF V600突变型NSCLC里，把靶向药当作新辅助/转化治疗希望“尽快缩小肿瘤、提高可切除率、减少复发风险”时，临床更倾向 **BRAF抑制剂 + MEK抑制剂** 而非单用BRAF抑制剂，核心原因是：**联合更强、更持久、耐药更慢，而且更安全（特定毒性更少）**。要点如下：
+1) **通路“纵向双重阻断”，抑制更彻底、缓解更深更快**
+- BRAF V600是MAPK通路（RAS–RAF–MEK–ERK）的强驱动点。  
+- 单用BRAF抑制剂可以压下通路，但肿瘤细胞很容易通过上游/旁路把信号重新“接回”MEK/ERK。  
+- 加上MEK抑制剂，相当于把同一条通路再往下游“封死”，通常带来：更高的客观缓解率、更深的肿瘤缩小、更长的缓解持续时间——这对“争取手术窗口期”的转化/新辅助尤为关键。
+2) **显著延缓/降低获得性耐药（MAPK再激活是主轴）**
+BRAF V600肿瘤对BRAF单药常见的耐药机制多指向“ERK信号恢复”，例如：
+- 上游RTK/RAS激活（使RAF二聚化、绕开单药抑制）  
+- BRAF剪接变体/扩增、MEK突变等  
+联合MEK抑制剂能在很多这类情况下继续压制ERK输出，从而**延后耐药出现**，更有利于在有限时间内达到可切除状态，并降低“刚缩小就反弹”的风险。
+3) **安全性层面：联合能减少BRAF单药特有的“反常MAPK激活”相关毒性**
+BRAF抑制剂在**BRAF野生型**细胞（尤其皮肤角质形成细胞）可产生“反常激活”MAPK通路，导致：
+- 角化棘皮瘤/皮肤鳞癌等皮肤肿瘤风险上升  
+- 其他MAPK相关皮肤不良反应  
+加入MEK抑制剂可抑制下游信号，**显著降低这些反常激活相关皮肤肿瘤事件**。对计划手术的患者来说，减少这类并发问题也有利于手术安排与围手术期管理。
+4) **证据与指南实践已把“联合”作为BRAF V600 NSCLC的主流方案**
+在转移/不可切除BRAF V600E NSCLC中，既往研究与真实世界经验总体显示：**BRAF+MEK** 比BRAF单药有更好的疗效指标（缓解率、PFS等）和更可控的毒性谱，因此多数指南与临床路径把联合视为标准做法。  
+新辅助/转化治疗虽然总体证据仍在积累，但临床往往沿用“在已证实有效的系统治疗中选最可能带来快速深度缓解且可持续的方案”的逻辑，因而更偏向联合。
+5) **新辅助/转化治疗的目标决定了更需要“深且稳”的缩瘤**
+为了达到手术切除，理想状态是：
+- 尽可能高的缩瘤概率（避免错过窗口）  
+- 缓解尽可能深（提高手术R0率/减少切缘风险）  
+- 缓解尽可能稳定（避免围手术期前后进展）  
+联合方案在这些维度上通常优于单药，因此更符合“转化到可切除”的临床需求。
+如果你愿意提供患者的分期、肿瘤负荷/累及部位、计划的手术方式以及PS/合并症（尤其心脏、眼科、肝功能）、既往治疗史，我可以进一步把“为何选联合、疗程多久评估、何时停药进入手术、围手术期风险点”按具体场景梳理成可执行的讨论框架。</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>在 BRAF V600E（或其他 V600 型） 突变的 NSCLC 中，MAPK-ERK 级联通路被持续、异常地激活。对于需要在较短时间内尽可能缩小肿瘤、争取“转化”至可手术切除的患者，仅用 BRAF 抑制剂并不能满足临床需求，主要基于以下几方面的机制学与临床证据：
+1. 阻断通路更彻底，肿瘤缩小更快、反应率更高  
+   • BRAF 抑制剂（如 encorafenib）只能在 BRAF 节点抑制信号，当 MEK/ERK 重新被旁路或反馈活化时，通路仍会被重新打开。  
+   • 加上 MEK 抑制剂（如 binimetinib）后，可在 BRAF 下游“再加一道闸”，双重阻断 MAPK 通路，可显著提高客观缓解率（ORR）和肿瘤体积缩减幅度。  
+   • 在多项Ⅱ期研究（NSCLC 中 dabrafenib+trametinib；melanoma 中 encorafenib+binimetinib）里，组合方案的 ORR 往往在 60% 以上，而单药 BRAF 抑制剂一般只有 30%–40%，这对需要在有限的术前窗口内快速降期的患者非常关键。
+2. 延缓或克服耐药，缓解持续时间更长  
+   • 单用 BRAF 抑制剂常在 2–4 个月内出现 MAPK 级联的反馈性再激活（如 CRAF 二聚、RAS 上调等），导致快速获得性耐药。  
+   • 联合 MEK 抑制剂可同时封堵最常见的耐药通路（MEK 2 次突变、ERK 重新激活等），显著延长 PFS，使“可切期”窗口更稳定，从而为择期手术或继续巩固治疗争取时间。
+3. 安全性反而更好，减少 BRAF 单药特有的不良反应  
+   • BRAF 单药易出现“悖论性激活”——在 BRAF 野生型细胞中 ERK 反而被激活，促发皮肤鳞癌、手掌脚底角化增厚等副作用。  
+   • 加入 MEK 抑制剂可抑制这种过度 ERK 活化，不良反应（尤其是皮肤增生性病变）发生率下降，更适合以根治为目标的围手术期治疗。
+4. 临床指南与真实世界数据的背书  
+   • NCCN、ESMO、CSCO 等指南在局部晚期/转化治疗或系统治疗章节均已把 “BRAF 抑制剂 + MEK 抑制剂” 列为 V600E NSCLC 的优先推荐；国内外已有围手术期成功转化并 R0 切除的病例报道。  
+   • Encorafenib+Binimetinib 已在黑色素瘤、结直肠癌等证实疗效安全性，在肺癌领域的机制相同，早期数据同样显示良好下瘤效应，因而被临床医生优先采用。
+总结  
+在意图“把肿瘤从不可切→可切”这一时间敏感且疗效要求高的场景下，BRAF 抑制剂联合 MEK 抑制剂相比单药能带来：
+① 更高、更快、更深的肿瘤缩小；② 更持久的缓解、降低早期耐药；③ 更佳的整体安全性。  
+因此，临床上倾向选择 Encorafenib＋Binimetinib（或其它 BRAF/MEK 组合）作为 BRAF V600 突变 NSCLC 的新辅助或转化治疗方案，而不是单纯的 BRAF 抑制剂治疗。</t>
         </is>
       </c>
     </row>
@@ -15428,6 +18067,111 @@
 **最终目标不是“做哪个操作”，而是“通过最小必要干预，为患者争取最佳治疗窗口期”**—— whether that window is for chemotherapy, targeted therapy, or simply a few more weeks of comfortable breathing. 对于晚期NSCLC患者，心包积液的处理本质是**姑息医学的体现**，其价值在于**提升当下生活质量，而非治愈疾病**。直接跳过这些步骤去谈肿瘤切除，往往是临床决策的陷阱。</t>
         </is>
       </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>对“出现心包积液的非小细胞肺癌（NSCLC）患者”，临床决策之所以常把重点放在**如何处理心包积液：心包穿刺（pericardiocentesis）还是心包开窗（pericardial window）**，而不是立刻讨论“能否肿瘤切除”，核心原因在于：**心包积液在这个语境下首先是一个潜在的致命并发症与分期/可切除性信息源**，必须先解决“是否马上会死、是否已经系统性进展”这两个更上游的问题；肿瘤切除只有在**确认可切除、可从中获得生存获益且围手术期风险可控**时才成立。
+---
+## 1) 为什么不是“直接肿瘤切除”先行？
+### A. 心包积液常意味着“紧急风险优先”
+NSCLC合并心包积液，很多患者出现或可能迅速发展为**心包填塞**（低血压、颈静脉怒张、心动过速、休克）。  
+在这种情况下，任何择期的大手术（如肺叶切除/全肺切除）都不可能优先于**解除循环动力学威胁**。这是典型的“先救命、后治癌”。
+### B. 心包积液往往改变分期与治疗目标：可能已是M1a
+对NSCLC而言，若心包积液被证实为**恶性心包积液（心包液细胞学阳性或心包组织证实肿瘤）**，在现行分期体系里通常归入**远处转移范畴（M1a）**，意味着疾病多为系统性。此时“根治性切除”大多**不再带来合理的净获益**（即使把胸内肿瘤切掉，也难以改变系统性复发/进展的自然史），治疗重心转向**全身治疗 + 姑息/并发症控制**。
+&gt; 换句话说：处理心包积液不只是“排水”，还在做一个关键的**诊断与分期动作**，直接决定后续是否还谈得上“切除”。
+### C. 心包积液的病因并非都能靠切除肺肿瘤解决
+NSCLC合并心包积液可能来自：
+- 肿瘤直接侵犯/淋巴回流受阻导致的恶性积液  
+- 感染、放化疗相关心包炎、免疫治疗相关心包炎  
+- 低蛋白/心衰等非肿瘤原因  
+即使原发灶可切，积液也可能持续或复发；反过来，若积液是恶性的，切原发灶并不能解除系统性问题。
+---
+## 2) “心包穿刺” vs “心包开窗”背后的不同临床逻辑
+两者都能“放液”，但决策差异主要来自：**目的（诊断/救急 vs 长期控制）**、**侵袭性与风险**、**复发率**、以及患者的**生存预期与后续治疗计划**。
+---
+## 3) 心包穿刺术：更偏“救急 + 快速诊断”的策略
+### 临床逻辑
+- **最快解除填塞/症状**：床旁超声引导下可迅速完成，适合血流动力学不稳定或需要立刻缓解呼吸循环负担者。  
+- **获得分期证据**：抽液做细胞学、必要时做生化/微生物/肿瘤标志物，有助于判断恶性 vs 非恶性。  
+- **桥接后续治疗**：一旦稳定下来，可尽快进入系统治疗（化疗/靶向/免疫）或进一步评估可切除性。
+### 证据权衡（一般趋势）
+- 优点：创伤小、恢复快、可重复、对衰弱患者更友好。  
+- 局限：**复发率相对更高**（尤其恶性积液），有时需要反复穿刺或置管引流；单次穿刺对长期控制不如开窗。  
+- 风险：出血、心肌/冠脉损伤、心律失常、气胸等，但在超声引导与经验操作下通常可控。
+### 典型适用情景
+- 生命体征不稳/疑似心包填塞需要立即处理  
+- 需要快速拿到心包液细胞学以明确分期和治疗方向  
+- 预期生存较短或总体状况差，不适合更侵入性手术  
+- 作为“先减压、后计划”的第一步
+---
+## 4) 心包开窗术：更偏“更持久的控制 + 降低复发”的策略
+### 临床逻辑
+- **建立持续引流通道**：将心包液引流到胸腔或腹腔，降低再次形成大量积液/填塞的概率。  
+- **更可靠的组织学证据**：可同时取心包组织活检（相比单纯液体细胞学，有时能提高诊断把握度）。  
+- **减少后续反复入院/反复穿刺**：对症状复发频繁者尤其重要。
+### 证据权衡（一般趋势）
+- 优点：通常比单次穿刺**复发更少**、更稳定；对反复积液或穿刺后快速复发者更合适。  
+- 局限：需要麻醉与手术（胸腔镜或开胸/剑突下途径），围术期风险更高、恢复更慢；对体能差、凝血异常、广泛胸膜转移/胸腔条件差者未必合适。  
+- 在恶性积液患者中，开窗更多是一种**提高生活质量/减少急诊事件**的手段，而非改善肿瘤总体预后的手段（总体预后仍主要由肿瘤系统性控制决定）。
+### 典型适用情景
+- 穿刺/置管后仍反复快速复发或持续大量引流  
+- 预计生存期相对更长、且希望减少反复侵入性操作  
+- 需要心包组织活检提高诊断确定性  
+- 患者全身情况允许手术
+---
+## 5) 这两种方式如何与“是否可切除”产生关系？
+处理心包积液的方式选择，本质上是在回答两个优先级更高的问题：
+1) **病人现在是否存在即时的血流动力学风险？**  
+- 有：先穿刺（更快）往往优先；稳定后再评估是否需要更持久方案（开窗/硬化等）。
+2) **积液是否恶性、是否意味着M1a从而否定根治性切除？**  
+- 如果细胞学/组织学证实恶性：通常转向系统治疗为主；积液处理以症状控制和减少复发为主（穿刺或开窗取决于复发风险与耐受性）。  
+- 如果证据支持非恶性，且肿瘤本身仍可能是可切除的早期/局部进展期：则在稳定后再进入“可切除性评估路径”（分期、纵隔评估、肺功能、围术期风险等），这时“肿瘤切除”才回到议程中心。
+---
+## 6) 总结为一句话
+在NSCLC合并心包积液时，临床首先要做的是：**救命与分期**。  
+- **心包穿刺**更像“快速减压 + 快速拿证据”的第一线手段；  
+- **心包开窗**更像“为高复发风险或较长生存预期的人提供更持久控制”的策略；  
+而“直接肿瘤切除”之所以不作为决策重点，是因为心包积液常提示**已系统性进展或至少需要先明确分期与稳定循环**，否则切除既不安全也可能不改变结局。
+如果你愿意，我可以按“是否填塞/细胞学结果/PS评分/预期生存期/是否计划全身治疗”给出一个更接近临床路径的决策树式梳理。</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>一、为什么不首先考虑“把肿瘤切掉”  
+1. 解剖-病理与 TNM 分期  
+   • 出现心包积液（并证实为恶性或伴癌细胞）时，TNM 分期中属于 M1a，整体归为 IVA 期。  
+   • 这一分期提示肿瘤已发生胸腔（含心包）内播散，而不仅是原发灶的局部问题。局部切除原发瘤并不能根除已播散的肿瘤细胞，也不能阻止短期内再次积液。  
+2. 紧迫性与获益-风险比  
+   • 心包积液一旦出现心脏压塞，可在数分钟-数小时内危及生命，处理重点是“迅速减压、维持循环”；肿瘤切除手术在时间上来不及，也无法立即缓解心脏压塞。  
+   • 多数 IVA 期患者已失去根治性外科指征，而系统治疗（靶向/免疫/化疗）需要时间起效；因此必须先用效率最高、创伤相对可控的“心包减压措施”渡过危象，再谈后续抗肿瘤治疗。  
+二、心包穿刺术 vs. 心包开窗术—两条不同的临床路径  
+1. 技术特点  
+   • 心包穿刺（pericardiocentesis）  
+     - 床旁即可完成，局麻，耗时短；  
+     - 可同时取得心包液做诊断（细胞学、基因检测）；  
+     - 但仅靠一次抽液，复发率高（40%-90%）；  
+     - 可联合注入硬化剂（顺铂、Bleomycin 等）降低复发到约20%-40%，但仍不彻底。  
+   • 心包开窗（pericardial window，胸腔镜或次剑突切口）  
+     - 外科手术，需要全身麻醉或硬麻，创伤大于穿刺；  
+     - 形成“永久交通”口，使心包液可持续流入胸腔/腹腔，复发率显著降低（5%-15%）；  
+     - 住院时间与围术期并发症（出血、感染、肺不张）略高，但一次性解决问题的概率更大。  
+2. 临床决策逻辑  
+   • 以“当下病情 + 预计生存 + 复发概率”为主线：  
+     A. hemodynamic unstable 或首次出现急性心脏压塞 → 先做穿刺，快速救命；  
+     B. 预计生存 &gt;3-6 个月、体能状态良好、肿瘤控制方案明确 → 倾向开窗，减少多次复发、反复住院；  
+     C. 预估生存有限（2-3 个月）、PS 差，或解剖学上不能耐受手术 → 选择穿刺 ± 硬化剂，减轻症状即可。  
+3. 证据与指南  
+   • 大量回顾性队列与少量前瞻性研究：  
+     - 穿刺组复发中位时间 7-30 天；开窗组复发可延至 3-6 个月甚至更久；  
+     - 两种方法对总体生存几乎无影响（死亡仍由基础肿瘤决定），区别主要体现在“心包再积液相关事件率”。  
+   • NCCN、ERS/ESC 以及胸外科相关共识：  
+     - 恶性心包积液首选穿刺解除压塞；  
+     - 对于复发性或预计高复发风险（大量癌细胞、心包增厚）的患者，可二次或直接选择开窗。  
+三、小结  
+1. 在非小细胞肺癌合并心包积液的临床场景，首要目标是“抢救循环、缓解症状”，而不是立刻做根治性肿瘤手术。  
+2. 穿刺与开窗代表“快速、低创、但高复发” 与 “一次性、低复发、但高创” 的权衡；决策需结合 hemodynamics、肿瘤分期/生存预期以及患者整体状况。  
+3. 肿瘤切除只有在极少数误分期、局限性播散且经 MDT 论证可 R0 切除的特殊病例才会被重新提及；对绝大多数出现恶性心包积液的 NSCLC 者，肿瘤治疗以系统治疗和姑息为主。</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -15775,6 +18519,55 @@
 &gt; **注**：实际临床中，高血压发生率因药物和方案而异（贝伐珠单抗约20%~30%，帕博利珠单抗单药约10%~15%），但围手术期联合治疗（如免疫+抗血管生成）时风险显著增高（可达50%以上）。务必参考最新指南（如NCCN、ESMO）并结合患者具体情况决策。</t>
         </is>
       </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>两类药物虽然“主靶点”不同，但都可能把血管系统推向“血管收缩占优、血管舒张不足”的状态，从而出现高血压。机制侧重点不同，但在血管内皮功能、血管张力和微循环结构上会产生趋同的结果。
+## 1) 抗血管生成药（贝伐珠单抗）：直接改变血管内皮舒缩与微循环结构
+贝伐珠单抗中和 VEGF-A，VEGF 信号被抑制后会出现典型的“VEGF 抑制相关高血压”，主要包括：
+- **一氧化氮（NO）/前列环素（PGI₂）减少**：VEGF 平时促进内皮产生 NO、PGI₂（强力舒张血管）。被阻断后舒张因子下降，外周阻力上升。
+- **内皮素-1（ET-1）相对增多/占优势**：ET-1 是强缩血管因子，导致血管收缩增强。
+- **微血管稀疏（capillary rarefaction）**：长期 VEGF 抑制可使部分微小血管减少，等于“并联通路变少”，**外周阻力进一步上升**。
+- **肾脏效应**：肾小球内皮/滤过屏障受 VEGF 调控，VEGF 抑制可引起肾小球微血管功能改变、钠水潴留倾向（并常伴蛋白尿），也会推高血压。
+因此贝伐珠单抗的高血压是“靶向 VEGF 通路”带来的**可预期的类效应**。
+## 2) 免疫检查点抑制剂（帕博利珠单抗）：免疫炎症与内分泌/肾脏免疫毒性间接推高血压
+PD-1 抑制剂不直接打 VEGF，但通过“解除免疫刹车”引发的免疫相关不良反应（irAEs）可在多个层面导致血压升高：
+- **内皮炎症/内皮功能障碍**：免疫活化后，细胞因子与免疫细胞可损伤或激活血管内皮，使 NO 生物利用度下降、氧化应激上升，血管更易收缩、变硬，外周阻力增加。
+- **免疫相关肾损伤**（如急性间质性肾炎、肾小球病变等）：可导致**盐水潴留、肾素-血管紧张素系统（RAAS）激活**，出现新发或加重高血压。
+- **免疫相关内分泌异常**：例如甲状腺功能异常（甲亢阶段可升高收缩压）、少见的肾上腺/垂体轴问题等，都可能影响血管反应性与容量状态。
+- **治疗应对因素**：一旦出现中重度 irAE，常需使用**糖皮质激素**等免疫抑制治疗，激素本身可致钠水潴留、体液容量增加，从而诱发或加重高血压。
+因此帕博利珠单抗的高血压更常是“免疫介导的系统效应或并发症”所致，发生机制相对**异质**。
+## 3) 共同终点：外周阻力↑/容量负荷↑ → 高血压
+- 贝伐珠单抗：更偏 **“血管舒张信号被切断 + 微血管减少”** → 外周阻力↑（并可能伴肾脏效应）。
+- 帕博利珠单抗：更偏 **“免疫炎症导致内皮功能障碍 + 肾脏/内分泌 irAE + 激素治疗”** → 外周阻力↑和/或容量负荷↑。
+两者最终都可落在同一个生理学结局（血管收缩占优、阻力增大和/或容量增加），所以会出现“高血压”这一共同不良反应。</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>造成血压升高的直接环节只有两个：  
+1) 全身外周阻力增加；  
+2) 血容量（钠水潴留）增加。  
+无论是哪一类抗肿瘤药物，只要最终扰乱了上述任何一个环节，临床上都会表现为高血压。帕博利珠单抗（PD-1 抑制剂）和贝伐珠单抗（VEGF 抗体）虽然“靶点天各一方”，但在血管-肾脏-免疫这一套共同的生理网络中却可能汇聚到同一条“升压通路”，主要可以从以下几方面理解：
+1. 内皮功能紊乱是共同终点  
+   • 贝伐珠单抗：阻断 VEGF → eNOS 活性下降 → 一氧化氮（NO）和前列环素减少，同时内皮素-1等缩血管物质相对增加 → 外周阻力升高。  
+   • 帕博利珠单抗：解除免疫刹车 → T 细胞/巨噬细胞大量活化，产生 IFN-γ、TNF-α、IL-6 等细胞因子 → 诱导氧化应激和内皮炎症，NO 合成减少，血管张力上升。  
+2. 微血管／毛细血管稀疏化（capillary rarefaction）  
+   • VEGF 信号被抑制后，小血管密度下降；  
+   • 免疫炎症同样可导致微血管损伤与凋亡；毛细血管床减少等效于血管“并联电阻”减少——系统阻力升高。  
+3. 肾脏损伤与钠水潴留  
+   • 抗 VEGF 药物可致肾小球内皮损伤、血栓性微血管病，激活 RAAS → 水钠潴留；  
+   • 免疫检查点抑制剂可发生免疫相关的间质性肾炎、肾小球肾炎 → 肾小管重吸收钠增多或糖皮质激素治疗本身均会增加血容量。  
+4. 交感/RAAS 被继发激活  
+   内皮NO减少、炎症介质和肾脏缺血都会刺激交感神经和 RAAS 活化，进一步促进血管收缩和水钠潴留。  
+5. 内分泌因素  
+   ICI 可诱发甲状腺功能亢进、嗜铬细胞瘤样表现或糖皮质激素替代不当等，也会加重或诱发高血压；而抗 VEGF 药物可降低 NO、增加内皮素，同样影响内分泌-血管轴。
+总结  
+两类药物虽然起始靶点不同：  
+• 抗 VEGF：直接削弱“血管舒张因子”信号；  
+• 抗 PD-1/PD-L1：间接造成“免疫炎性”对血管和肾脏的攻击；  
+但它们均可造成“内皮功能受损 + 微血管密度降低 + 肾脏/RAAS-交感激活”这一系列下游改变，最终走向同一条“血压升高”的临床表型。这就是机制迥异的免疫检查点抑制剂与抗血管生成药物会共享高血压这一不良反应的根本原因。</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -16133,6 +18926,68 @@
 &gt; - 一位年轻、强烈要求手术的患者，即使 PET/CT 轻度异常，也需结合其他检查综合判断。  
 &gt; **多学科讨论（MDT）是避免误诊的核心！**
 通过合理应用 FDG PET/CT，NSCLC 患者可避免约 15-20% 的无效开胸术，同时让真正适合手术的患者获得最佳机会——这正是现代精准肿瘤学的核心目标。</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>在NSCLC术前分期里之所以推荐把 **FDG PET/CT 作为标准评估**（而不是只靠传统增强CT），核心原因是：**CT主要看“形态/大小”，而PET/CT能同时看“代谢活性 + 解剖定位”**，从而在淋巴结分期和远处转移评估上更准确、对治疗决策影响更大。
+## 1) 纵隔/肺门淋巴结：CT按“大小”判断，误差大
+- **CT判定依据**多为短轴≥10 mm等形态学标准。  
+- 但临床常见两类误判：  
+  - **假阴性**：小淋巴结也可能已有肿瘤转移（尤其是微转移），CT看起来“不大”但其实是阳性。  
+  - **假阳性**：感染、炎症、尘肺、肉芽肿等会导致淋巴结增大，CT会“看起来像转移”。  
+- **PET/CT**通过FDG摄取反映肿瘤葡萄糖代谢，能在很多情况下把“炎性增大”和“肿瘤转移”区分开，并能发现**未明显增大的代谢阳性结**，因此总体上**更敏感/更特异**，减少分期错误。
+## 2) 远处转移：CT往往是“局部/分区检查”，PET/CT是一站式全身筛查
+- NSCLC常见远处转移部位包括**骨、肾上腺、肝、对侧肺等**。  
+- 单纯CT（尤其只做胸部CT）可能漏掉胸外转移；即使加做腹部/骨扫描等，也容易出现“检查分散、敏感度不一致”。  
+- **PET/CT一次覆盖从颅底到大腿根部的全身评估**，对许多**代谢活跃的隐匿转移**（例如骨髓腔内早期骨转移、部分肾上腺转移）比CT更早发现，从而避免把已有IV期患者误当成可手术的I–III期。
+## 3) 直接影响治疗路径：避免不必要的开胸/手术，优化放化疗或系统治疗策略
+- 如果PET/CT发现：  
+  - **N2/N3纵隔淋巴结转移** → 往往改变为需要侵袭性纵隔分期（EBUS-TBNA/纵隔镜）或改为（新辅助）放化疗/免疫治疗策略；  
+  - **远处转移** → 通常从“可切除”转为“系统治疗为主”，避免无效手术。  
+- 这也是指南强调PET/CT的关键：它不仅“更准”，而且**能显著改变分期与方案**，提高整体决策质量。
+## 4) PET/CT仍需病理确认：它不是“最终裁判”，但更适合做标准初筛/分期工具
+- PET/CT仍可能有：  
+  - **假阳性**（炎症/结核/肉芽肿）  
+  - **假阴性**（低FDG摄取肿瘤如部分腺癌原位/微浸润、类癌；或很小的病灶）  
+- 因此，对将改变治疗的可疑纵隔结，通常仍建议**EBUS-TBNA或纵隔镜取材**确认。  
+- 但作为术前“标准分期评估”，PET/CT能把需要进一步病理验证的人群筛出来，并减少漏分期。
+**总结**：CT更像“测尺寸”，PET/CT则是“看活性 + 定位 + 全身扫描”。在NSCLC术前分期中，PET/CT能更可靠地评估纵隔/肺门淋巴结和隐匿远处转移，显著减少误分期和不必要手术，因此被推荐作为标准评估手段。</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>之所以在非小细胞肺癌（NSCLC）的术前分期中推荐把18F-FDG PET/CT（以下简称 PET/CT）作为标准检查，而不能仅依赖传统增强 CT，主要基于以下几点循证医学与影像学理论和临床实践的差异：  
+1. 评估淋巴结转移的敏感性和特异性更高  
+   • CT 主要靠短径≥8–10 mm 的形态学标准判断“肿大”淋巴结，但  
+     – 小于 10 mm 的转移结节可被漏诊（假阴性）；  
+     – 结核、尘肺、矽肺、炎症等引起的反应性增大可被误判为转移（假阳性）。  
+   • PET/CT 把代谢信息（FDG 摄取）与解剖信息叠加：  
+     – 转移结节即使直径＜5 mm，只要有活跃葡萄糖代谢即可被检出；  
+     – 对良性炎性结节可进一步通过 SUV 值分布、形态学特征、随访等提高鉴别力。  
+   多个 Meta-analysis 显示，PET/CT 评价纵隔淋巴结的敏感性 74–85%，特异性 85–90%，均显著优于单独 CT（敏感性 50–60%，特异性约 70%）。
+2. 能一次性全身搜索隐匿性远处转移  
+   • 常规胸部或上腹 CT 不足以检查骨、软组织、对侧肾上腺或肌肉等部位。  
+   • PET/CT 全身扫描可在 15–20 min 内覆盖头颅以下全身（配合脑 MRI 可完成全身 T 分期/ M 分期）。各种研究报道：  
+     – 对拟手术/拟放疗的 “可切除” Ⅰ–Ⅲ期患者中，PET/CT 能在 10–20% 病例发现 CT 未显示的远处转移（M1），从而直接改变治疗策略，避免无谓开胸。  
+   • ACCP、ESTS 研究指出，常规 CT + 骨扫描 + 肝上腹增强 CT 的组合仍可能漏诊 15% 的 M1 病灶，而 PET/CT 对这些病灶的检出率明显更高。
+3. 提高整体分期准确度，减少无效手术与成本  
+   • 多中心随机试验（如 PLUS、Maziak 等）证明：  
+     – 术前加做 PET/CT 能使不必要的开胸/胸腔镜探查减少 20–30%；  
+     – 每避免一次无效手术可节约住院和术后康复成本，并降低围手术期并发症与心理负担。  
+   • 经济学评价（cost-effectiveness analysis）显示，尽管单次 PET/CT 价格高于 CT，但因其能早期排除 M1 或广泛 N2/N3 病变，总体治疗成本更低。
+4. 对放疗/术后辅助治疗的计划价值  
+   • PET/CT 精确标定生物学靶体积（BTV），有利于放疗计划中减小正常组织剂量，增加剂量均匀性。  
+   • 可作为基线，术后或同步放化疗后再行 PET/CT，以 SUV 下降率评价疗效和预后。
+5. 国际/国内指南一致推荐  
+   • NCCN、ACCP、ERS/ESTS 以及《中国肺癌诊疗规范》等均把 PET/CT 列为手术前分期必选或强烈推荐项目。  
+   • 指南指出：对计划根治性手术或放疗的 ⅠB–ⅢA 期患者，如无 PET/CT，应先行 PET/CT 后再决定是否接受纵隔介入取样（EBUS/EUS、VATS-MLND 等）。
+6. 仍需注意的局限  
+   • 炎症、肉芽肿、结核等可导致 SUV 升高 → 必要时仍要 EBUS-TBNA、纵隔镜取样病理确认；  
+   • 微小脑转移敏感性有限 → 脑 MRI 仍是必需；  
+   • 肾上腺、骨皮质表面或空腔型病灶偶有假阴性 → 需 CT、MRI、骨扫描或病理互补。
+结论  
+PET/CT 通过“代谢+解剖”双重信息显著提高了淋巴结与远处转移检出率，能准确分期、优化治疗决策、节约综合医疗成本，已成为 NSCLC 术前分期的标准影像学手段，而传统 CT 单凭形态学判断难以满足现代精准治疗需求。</t>
         </is>
       </c>
     </row>
@@ -16560,6 +19415,78 @@
 此逻辑既符合解剖与肿瘤生物学原理，也契合当前国际指南的循证医学证据，是精准医疗在肺癌治疗中的典型体现。</t>
         </is>
       </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>在NSCLC里，N分期不仅是“淋巴结数量/大小”的问题，本质上是在用**淋巴回流的解剖通路**去刻画肿瘤已经走到“局部可控”还是“系统性扩散”的阶段。因此：
+## 1) 解剖学逻辑：N3意味着越过了“同侧胸腔引流边界”，局部根治性很难成立
+### N2与N3的解剖差别
+- **N2（同侧纵隔/隆突下）**：仍在原发肺叶（或同侧肺）主要淋巴引流链的“中心站”。从肺内/肺门（N1）向同侧纵隔（N2）推进，仍属于**同侧胸腔的区域性引流路径**。
+- **N3（对侧纵隔/对侧肺门，或锁骨上/斜角肌旁）**：代表肿瘤细胞已经进入  
+  - **对侧**纵隔或对侧肺门（跨越纵隔中线的引流/交通通道），或  
+  - **锁骨上区**（胸导管/右淋巴导管汇入前的“上行终末站”），  
+  这相当于淋巴转移已超出同侧胸腔的“区域”范畴，进入更接近全身淋巴回流的通路。
+### 手术“可切除性”和“可清扫性”随之改变
+- 对**N2**：标准肺叶切除 + 系统性纵隔淋巴结清扫，在解剖上仍有机会做到“把已知与潜在的区域结节一并清掉”，属于**局部-区域控制**可以想象的范围。
+- 对**N3**：  
+  - 对侧纵隔/对侧肺门结节在解剖与功能上不再是“同侧肺癌的区域淋巴站”，即使技术上能取到部分结节，也**难以实现完整、系统、低风险的双侧纵隔清扫**；  
+  - 锁骨上结节更是“胸腔外”站点，提示病灶已进入胸腔外淋巴链，局部手术无法覆盖其潜在播散范围。  
+因此，单靠切除原发灶很难获得真正的R0意义上的“区域根治”。
+## 2) 肿瘤生物学逻辑：N3更像“系统性疾病表型”，N2仍存在生物学异质性
+### N3代表更强的播散能力与更高的隐匿远处转移概率
+当肿瘤到达N3：
+- 往往意味着肿瘤具备**跨侧淋巴交通、纵隔跨越或沿大淋巴干上行**的能力；
+- 与血行微转移、远处微转移的相关性更强（临床上也常伴随更高的复发率），所以把它当作“局部手术无法解决的系统性病”更符合自然史。
+### N2并非一类人：存在“可被多学科降期后获益”的子集
+N2的关键在于异质性很大：
+- **低负荷/单站/不 bulky、隐匿N2（术前未发现，术后病理偶然发现）**：可能更接近“区域扩展但仍以胸内为主”的阶段；
+- **可诱导治疗后降期的N2**：若新辅助化疗/放化疗/免疫治疗后达到结节学与病理学反应，提示肿瘤对全身治疗敏感、系统性负担较低，这时手术作为**局部控制的终端手段**可能带来生存获益；
+- 反之，**多站、 bulky N2**更接近系统性表型，手术获益明显下降。
+换句话说：  
+- **N3更“同质地”指向广泛播散的生物学行为** → 手术通常不改变总体结局；  
+- **N2仍可能是“区域病变+有限系统风险”的过渡态** → 在严格选择与综合治疗下仍可能获益。
+## 3) 一句话总结
+- **N3**：解剖上越过同侧区域引流边界、常涉及胸腔外或对侧淋巴链；生物学上更符合系统性播散 → 通常视为手术绝对禁忌。  
+- **部分N2**：仍处于可通过系统清扫覆盖的区域链条内，且存在低负荷/可降期的亚群 → 在多学科治疗后仍有手术机会。
+如果你愿意，我可以按更临床的角度把“哪些N2更可能考虑手术（单站vs多站、bulky定义、PET/EBUS评估、诱导治疗后如何再分期）”做成一个简明决策框架。</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>一、TNM 分期中 N2 与 N3 的定义  
+1. N2：病灶肺叶同侧的纵隔、隆突下（subcarinal）淋巴结转移。  
+2. N3：  
+   • 对侧纵隔或对侧肺门淋巴结转移；  
+   • 任一侧的斜角肌区、锁骨上窝淋巴结转移；  
+   • 同侧肺的“跳跃”至对侧纵隔的转移。  
+二、外科切除的根本目标  
+1. 解剖学上“一块切净”（R0），即把原发灶及其可能的淋巴转移组织全部包容在可切除范围之内。  
+2. 生物学上“局限性肿瘤”，即转移仍停留在原发肺、肺门及同侧纵隔的淋巴引流路径内，没有转变为全身性疾病。  
+三、解剖学逻辑  
+1. 肺的淋巴引流：  
+   肺实质 → 叶间 / 肺门（N1）→ 同侧纵隔 / 隆突下（N2）→ 通过气管旁、后纵隔到胸导管或气管前后交通道 → 对侧纵隔、锁骨上窝（N3）→ 体循环。  
+2. 手术可及范围：  
+   • 叶 / 肺切除 + 系统性同侧纵隔淋巴结清扫（一般到主支气管、气管旁、隆突下、肺动脉前后区）可完整去除 N1 + N2 区域。  
+   • N3 节段已跨越胸骨中线或进入锁骨上窝，除非行双侧胸廓打开或颈根部清扫，否则难以解剖学上“一块切净”；且手术创伤巨大而无法增加根治机会。  
+四、肿瘤生物学逻辑  
+1. N2 的异质性  
+   • 微小、单站、非肿块型的 N2（“minimal N2”、“single-station N2”）提示病灶仍在局部纵隔通路；  
+   • 可经新辅助化疗 / 放疗后显著缩小乃至病理降期，R0 切除率高，5 年生存率可达 30%–40%。  
+2. N3 的生物学意义  
+   • 肿瘤已突破同侧纵隔屏障，进入对侧纵隔或锁骨上窝，与体循环的“高速入口”——胸导管、静脉角邻近；  
+   • 统计学显示 N3 的远处微转移发生率&gt;70%，5 年生存率&lt;5%；  
+   • 因此 N3 实质上是“区域外扩散＋潜在全身病”，单纯外科干预难以改善预后。  
+五、临床处理策略  
+1. N2  
+   • 单站、非 bulky（短轴&lt;2 cm）、可经新辅助治疗降期者：多学科评估后可行肺叶/肺切除＋系统性纵隔清扫，再辅以术后辅助治疗。  
+   • 多站或 bulky N2：预示局部负荷大、R0 机会小，一般采用同步放化疗 ± 免疫治疗，手术仅作姑息或救援。  
+2. N3  
+   • 视同ⅢC / Ⅳ期的“系统性”疾病；  
+   • 以全身治疗（放化疗、免疫/靶向）为主，手术只在极少数经过治疗后完全转阴且可一块切除的“救援性”情形中讨论。  
+六、总结  
+• 同侧纵隔（N2）仍位于肺癌主要淋巴引流轴线上，解剖上能随肺叶/肺切除而完整清扫；部分患者的生物学行为局限，仍属“可治愈局部病”。  
+• 对侧纵隔、肺门或锁骨上窝（N3）超越了传统外科切除范围，且提示肿瘤已具“跨栏”能力，潜在全身转移概率高，手术难以实现根治，加之手术创伤大、收益小，故被视为外科绝对禁忌。</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -16943,6 +19870,61 @@
 在临床实践中，医生需牢记：**"宁可过度随访，不可仓促手术"**——对&lt;8mm实性结节，耐心观察3–6个月的变化，往往比一次高风险的PET或手术更安全有效。</t>
         </is>
       </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>PET/CT 对直径较小（如 &lt;8 mm）的肺部实性结节良恶性鉴别能力有限，核心原因在于“看得见但看不清、看不准”，既有物理分辨率问题，也有肿瘤生物学与技术因素共同作用：
+## 1) 为什么小结节 PET/CT 容易“测不准/测不出”
+- **空间分辨率与部分容积效应（partial volume effect）**  
+  临床 PET 的有效空间分辨率通常在约 4–6 mm（甚至更大，受设备与重建算法影响）。当病灶直径接近或小于分辨率时，放射性摄取会被“摊薄”，SUV 被明显低估，导致即使是恶性结节也可能表现为**低摄取或阴性**（假阴性增多）。
+- **呼吸运动伪影**  
+  肺结节随呼吸移动，PET 采集时间长，运动会进一步“抹平”小病灶信号，使摄取被低估。
+- **小体积肿瘤的生物学特征**  
+  一些早期或低级别肺癌（如部分腺癌谱系、贴壁生长/低增殖灶）本身 **FDG 摄取就不高**；在小尺寸叠加部分容积效应后更容易呈阴性。
+- **炎症/感染带来的假阳性依旧存在**  
+  即便结节小，肉芽肿性炎症、感染等也可能 FDG 摄取增高，导致**假阳性**；因此“阳性”也未必等于恶性。
+结论：对 &lt;8 mm 结节，PET/CT 往往既可能“**阴性但仍是癌**”，也可能“**阳性但不是癌**”，因此总体鉴别效能下降。
+## 2) 这种局限性如何影响外科诊疗决策
+- **PET 阴性不能作为“排除恶性、避免手术”的依据**  
+  小结节 PET 阴性并不可靠，外科/MDT 通常不会仅凭阴性就判定良性或放弃进一步评估；更常见做法是结合 CT 形态学特征与风险评估，选择**短期随访（如 3–6 个月复查薄层 CT）**或进一步取材。
+- **PET 阳性也难以直接推动“马上手术”**  
+  因假阳性可能性不小，尤其在炎症/结核流行地区，PET 阳性对 &lt;8 mm 结节往往不足以直接升级为根治性切除决策；更倾向于：  
+  - 评估是否可行 **穿刺/支气管镜活检**（但小结节取材成功率也受限），或  
+  - 采取 **随访观察结节生长/形态演变**，或  
+  - 若影像学高度可疑且患者可耐受，可考虑**诊断性楔形切除 + 术中快速病理**，再决定是否扩大切除范围。
+- **导致决策更依赖“CT形态 + 临床风险 + 动态变化”**  
+  对小结节，外科策略通常更重视：边缘毛刺、胸膜牵拉、分叶、血管集束、增长速度（体积倍增时间）、患者年龄/吸烟史/既往肿瘤史等；PET/CT 在这里往往是“辅助信息”，而非决定性证据。
+- **影响术式与手术时机选择**  
+  PET 对小结节不可靠，使得：  
+  - 更常采用**先局部切除（楔形/段切）+ 冰冻**的“分步决策”，避免一开始就做过度切除；  
+  - 或更倾向**延后手术、先随访**，以减少对良性结节的过度手术。
+总体而言：PET/CT 在 &lt;8 mm 实性结节中容易出现假阴性/假阳性，降低了其作为“是否恶性”的裁决价值，使外科决策不得不更多基于 CT 影像特征、临床风险分层及随访动态，必要时采用“诊断性切除+术中病理”的策略来降低误判带来的过度或不足治疗。</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>1. PET/CT 对＜8 mm 结节的诊断局限性  
+（1）空间分辨率与部分容积效应  
+   • 目前临床 PET 系统的空间分辨率约 4–6 mm。直径小于 8 mm 的病灶本身只占 1–2 个像素，放射性浓度被周围肺野“稀释”，出现部分容积效应，导致 SUV 被显著低估，甚至低于背景值而被误判为阴性。  
+（2）呼吸运动导致影像模糊  
+   • 肺组织随呼吸上下移动 1–2 cm，小病灶在 10–15 分钟的采集过程中不断位移，使其信号进一步减弱。  
+（3）某些低代谢肿瘤本身 FDG 摄取低  
+   • 微浸润腺癌、黏液性腺癌、典型类癌等对 FDG 摄取本就不高，即使病灶 &gt;8 mm 也可呈低代谢，更不用说小于 8 mm 的结节。  
+（4）炎症-肉芽肿假阳性  
+   • 反过来，感染或肉芽肿病变即使很小也可能有 FDG 摄取，导致假阳性率增高，进一步降低特异性。  
+2. 对外科诊疗决策的影响  
+（1）阴性 PET 不能排除恶性  
+   • 小结节即使 PET 阴性，仍可能是早期癌。外科医师不能仅凭 PET 阴性就选择长期随访或放弃手术。  
+（2）阳性 PET 也不能肯定恶性  
+   • 对＜8 mm 结节检出率低、假阳性高，贸然依据阳性 PET 做叶切或肺段切除，会增加不必要的手术。  
+（3）指南建议  
+   • ACCP、NCCN 等均指出：对＜8 mm 的肺实性结节，PET/CT 不能作为决定性分诊工具；应结合临床危险因素、薄层 HRCT 形态学特征、结节随访生长率及经皮/支气管镜活检结果综合评估。  
+（4）实际外科策略  
+   • 高危患者（吸烟史、既往肿瘤史、结节边缘毛刺、磨玻成分）常先行短期 CT 随访或考虑定位下楔形切除＋快速冰冻，以病理结果决定是否扩大切除。  
+   • 低危或不确定者更多采用 3–12 个月 CT 动态观察，而不是直接手术或依赖 PET。  
+   • 对需要手术的患者，PET 仍用于术前全身分期（淋巴结、远处转移），但不用于判断小结节本身的良恶。  
+总结：由于分辨率、部分容积效应和代谢特性等因素，PET/CT 在直径&lt;8 mm 的实性肺结节中灵敏度和特异性明显下降，既不能排除恶性也难以确诊恶性。因此，外科决策必须更多依赖 CT 形态学、结节生长动态及病理学检查，而不应单纯以 PET/CT 结果作为手术与否或手术范围的依据。</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -17255,6 +20237,41 @@
 （注：具体操作需由胸外科、呼吸科、肿瘤科、影像科共同制定个体化方案，本文仅作科普参考。）</t>
         </is>
       </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>因为对T2–T3非小细胞肺癌（NSCLC）而言，“PET/CT 纵隔阴性”并不足以把纵隔转移的概率降到可以完全放心直接手术的程度，仍可能存在一定比例的隐匿性 N2/N3 病变；而一旦漏分期，会直接改变治疗策略和预后评估，所以指南仍推荐做病理学纵隔评估（EBUS/EUS±纵隔镜等）。核心原因包括：
+1. **PET/CT存在假阴性**  
+   - 纵隔淋巴结转移灶较小、微转移或肿瘤代谢活性偏低时，FDG摄取可能不明显。  
+   - 受限于空间分辨率与部分容积效应，小转移灶容易被漏检。  
+2. **T分期越高，纵隔隐匿转移的先验概率越高**  
+   - T2–T3肿瘤（更大、可能累及胸膜/支气管等）本身就显著提高N2风险。  
+   - 即使影像学“阴性”，在这一人群中仍有不可忽略的发生率会在术后病理发现N2（所谓“意外N2”）。
+3. **漏掉N2会导致治疗路径错误**  
+   - 发现N2常会改变方案：从“直接手术”为主转向“新辅助治疗后再评估/手术”或以放化疗为主等。  
+   - 术前明确N2还能避免不必要的开胸/肺切除、减少围手术期风险，并更准确进行预后分层。
+因此，在T2–T3病变患者中，PET/CT纵隔阴性只能降低风险但不能排除风险，出于**分期准确性与治疗决策**的关键性，仍推荐行**侵入性/病理学纵隔分期**（首选EBUS-TBNA±EUS，必要时纵隔镜）。</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>在术前分期时，影像学“纵隔阴性”并不能把 N2 转移的可能性降到可以忽略的程度，尤其是 T2～T3 期肿瘤。主要理由如下：  
+1. PET/CT 的假阴性问题  
+   • 对纵隔淋巴结转移的总体敏感性只有 70%～80%，对直径＜1 cm 或含微小转移灶的淋巴结敏感性更低。  
+   • 某些肿瘤亚型或低代谢灶可产生低摄取、导致 SUV 值不高而漏诊。  
+   • 研究显示：即使 PET/CT 纵隔为阴性，仍有 15%～25% 的 T2 病变和 20%～30% 的 T3 病变在手术后被发现存在 N2 转移。
+2. T 分期越高，隐匿 N2 患病率越高  
+   • T2（＞3 cm）或 T3（＞5 cm、累及胸壁或叶间裂等）往往提示肿瘤生物学行为更侵袭，出现纵隔转移的“事前概率”明显升高。  
+   • 当预先概率＞10%，单靠阴性的影像学结果已不足以排除疾病，需要病理学确定（循证指南采用的阈值）。
+3. 病理学分期对治疗决策至关重要  
+   • 一旦证实 N2 转移，治疗策略通常转变为新辅助（放）化疗/免疫治疗或直接放弃手术，避免“无效开胸”。  
+   • 精确分期可以减少不必要的胸壁切除、肺叶/肺段切除及由此带来的并发症，提高总体生存率和成本效益。
+4. 现行指南的一致推荐  
+   • ACCP、NCCN、ESTS 等指南均规定：对  
+     - CT 或 PET/CT 阴性但存在 T2、T3、中央型肿瘤、伴 N1 结节或需行肺全切／袖式切除的患者  
+     - 均应行 EBUS/EUS-TBNA、经纵隔镜或其他病理学方式的系统性纵隔取样。
+因此，对 T2～T3 非小细胞肺癌患者，即使 PET/CT 显示纵隔淋巴结阴性，也应通过 EBUS-TBNA、EUS、纵隔镜等手段进行病理学纵隔淋巴结评估，以获得可靠的分期并指导最佳治疗方案。</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -17586,6 +20603,57 @@
 &gt; **关键原则**：在肺癌精准医疗时代，**“影像学提示” ≠ “临床确诊”**。FDG-PET/CT是强大的**筛查和辅助工具**，但**病理学是决定患者命运的最终裁判**。任何影响重大治疗决策（如是否手术、是否新辅助）的关键节点，都必须由“金标准”病理结果来锚定。这是现代循证医学和患者安全的基本要求。
 **临床提示**：若患者因高龄/合并症无法耐受活检，需在MDT中权衡风险——有时宁可选择“按N2处理”（即术前新辅助治疗），也不可仅凭影像冒进手术。但这一决策仍需基于尽可能多的客观证据（包括PET/CT的详细报告、CT的淋巴结描述等），而非仅凭一句“PET阳性”。
 通过严格遵循“影像初筛→病理确诊”的流程，才能最大程度避免“过度治疗”或“治疗不足”，真正实现为患者提供最优化的个体化方案。</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>在非小细胞肺癌（NSCLC）术前分期里，FDG‑PET/CT提示纵隔淋巴结“阳性”时之所以必须做病理学确认（如EBUS‑TBNA、EUS‑FNA或纵隔镜），而不能直接据此决定放弃手术或改为放化疗，核心原因是：**PET/CT的“阳性”并不等同于“肿瘤转移”，其假阳性和假阴性都足以显著改变分期与治疗决策，必须用组织学金标准来定性。**
+主要理由如下：
+1. **纵隔PET阳性假阳性率不低（炎症/感染很常见）**  
+   FDG反映的是葡萄糖代谢增高，而不是“癌特异性”。纵隔淋巴结FDG增高常见于：
+   - 结核、非结核分枝杆菌感染  
+   - 肺炎/支气管炎后的反应性增生  
+   - 肉芽肿性疾病（如结节病）  
+   - 粉尘/职业暴露相关炎症等  
+   在这些情况下，影像可呈现与转移相似的高摄取，若不做病理确认，可能把本可手术治愈的N0/N1误判为N2/N3，导致**过度分期与过度治疗**（错失根治性手术机会）。
+2. **分期跨越的治疗策略差异巨大，容错率很低**  
+   是否存在纵隔转移（尤其N2/N3）会直接决定：
+   - 能否直接手术 vs 需要新辅助治疗/同步放化疗  
+   - 放疗靶区与剂量设计  
+   - 预后评估与临床试验入组  
+   因为治疗路径差别极大，指南要求在“将要改变治疗策略”的情况下必须用病理证实来避免误判。
+3. **PET/CT也可能假阴性，病理可提供更完整信息**  
+   微小转移、低代谢肿瘤亚型、或小体积淋巴结转移可能PET不显著；此外病理还能给出：
+   - 明确的转移证据与受累淋巴结站位  
+   - 肿瘤组织学/必要时分子检测（在某些情境下有价值）  
+   从而提高分期准确性与治疗精确性。
+4. **影像阈值（如SUV）缺乏统一“转移界值”，可重复性受影响**  
+   SUV受设备、重建算法、血糖、注射到扫描时间等影响；不同中心与不同患者之间可比性有限。仅凭“SUV高/低”做不可逆治疗决策风险大。
+因此，临床实践与多国指南共识是：**PET/CT在纵隔淋巴结的作用是“提示/定位需要取样的结点”，而不是“最终定性”。**  
+一般做法是：PET/CT纵隔阳性 → 优先EBUS‑TBNA/EUS‑FNA取样；若阴性但临床仍高度怀疑，再考虑纵隔镜等进一步确认。</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>在非小细胞肺癌（NSCLC）的术前分期中，即使 ^18F-FDG-PET/CT 显示纵隔淋巴结摄取增高（阳性），也必须再行病理学取证（EBUS-TBNA、EUS-FNA、纵隔镜、VATS 节段活检等），原因主要有以下几点：
+1. PET/CT 并非“金标准”，存在假阳性  
+   • FDG 为葡萄糖类似物，肿瘤细胞和多种炎症细胞都可摄取。  
+   • 结核、肉芽肿性疾病、肺炎、尘肺、硅肺、姓淡疤痕等均可导致纵隔结节 FDG 摄取增高。  
+   • 在我国（或其他结核/肉芽肿病高发地区）假阳性比例更高，可达 20%–40%。若仅凭影像学阳性即可判定 N2/N3，将使相当一部分可切除病例被误判为不可手术，从而失去根治机会。
+2. PET/CT 也存在假阴性  
+   • 微小转移灶、低代谢肿瘤（例如纯磨玻璃灶腺癌、典型类癌）可能不显影。  
+   • 若仅凭影像阴性就直接开胸，可能遗漏纵隔转移，导致术后病理突升期别（up-staging），影响预后评估及后续治疗。
+3. 病理分期直接决定治疗策略  
+   • N0/N1：首选手术治疗 ± 辅助化/放疗。  
+   • N2（尤其多站或大体 N2）或 N3：通常需先行新辅助（放）化疗或根治性同步放化疗，不会直接手术。  
+   • 因此，一个“阳性或阴性”的差别就可能让患者走向截然不同的治疗路径，须保证分期准确无误。
+4. 指南一致要求“影像学阳性需病理证实”  
+   • NCCN、ACCP、ESTS、CSCO 等指南均强调：凡 PET/CT 或增强 CT 显示纵隔结节增大或 FDG 摄取增强者，除非已有其他部位无法手术的远处转移，否则都应行病理学取证。  
+   • 只有在“影像学阴性 + 肿瘤位于外周 + 直径 &lt;3 cm + 无肺门淋巴结肿大”的低危人群中，可考虑直接手术但术中系统清扫并快速冰冻切片确认。
+5. 经济与预后考虑  
+   • 一个不必要的“放弃手术”或一次“徒劳手术”都会增加费用、并发症风险及延误最佳治疗时机。  
+   • 通过微创介入（EBUS-TBNA/EUS-FNA 等）即可获得组织学证据，创伤小、成本相对低，能显著提高决策准确性。
+结论：PET/CT 是优良的分期筛查工具，但影像学阳性并不等于病理阳性。当纵隔淋巴结在 PET/CT 上显示摄取增高时，必须通过病理学取证来确认其性质，才能制定最合适的治疗方案，避免误判导致的过度治疗或不足治疗。</t>
         </is>
       </c>
     </row>
@@ -17972,6 +21040,118 @@
 对于可手术的早期NSCLC，**务必进行多学科会诊（MDT）**，在术前充分评估肿瘤特征、患者状态及意愿后，制定个体化方案。**切勿仅因“亚肺叶听起来小”而草率选择，也勿因“肺叶是标准”而忽视患者耐受性**——这才是现代胸外科的精髓。</t>
         </is>
       </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>肺叶切除术之所以在相当长时间内被视为“可手术早期NSCLC”的标准治疗，核心原因在于它在肿瘤根治性（足够的切缘与淋巴结清扫/分期）、降低局部复发和提升生存方面，早期就获得了较高质量的随机对照证据支持；而楔形切除/段切除等亚肺叶切除的临床应用，则主要是基于“在尽量不牺牲肿瘤控制的前提下，最大限度保留肺功能”的需求，在特定人群与特定肿瘤特征（尤其是小、外周、低侵袭度）背景下逐步积累证据并与肺叶切除进行对比。
+---
+## 1) 肺叶切除术为何长期被视为标准：历史RCT确立“更强的肿瘤学根治性”
+### 关键理念：更大切除范围 + 系统淋巴结评估 → 更低局部复发与更可靠分期
+- **解剖学切除范围更完整**：肺叶切除能同时移除肿瘤及其所在肺叶的支气管血管、相关肺段间淋巴回流区域，理论上更符合肺癌的“解剖学淋巴引流/播散”规律。
+- **更容易获得足够切缘**：早期手术时代影像分辨率有限，肿瘤“真实边界”和微浸润难判断，肺叶切除更保险。
+- **系统纵隔/肺门淋巴结清扫或取样更规范**：更好的病理分期会影响预后评估与后续治疗策略。
+### 关键证据：LCSG 821（1995）等经典试验的影响
+- 早期一项里程碑随机试验（Lung Cancer Study Group，LCSG 821）比较了**T1N0**患者的肺叶切除 vs 亚肺叶切除（楔形+段切除混合）。
+- 其结果提示：亚肺叶切除组**局部复发更高**，并出现不利的肿瘤学结局信号。
+- 在当时影像学、病理亚型精细分层、围手术期管理尚不如今天的背景下，这一证据促成了指南与外科界长期形成共识：**“能耐受者优先肺叶切除 + 系统淋巴结评估”**。
+&gt; 简言之：肺叶切除成为标准，很大程度上源于早期高质量RCT对“局部控制优势”的确认，以及它在分期与根治性上的“更保险”。
+---
+## 2) 亚肺叶切除（楔形切除/段切除）为何会被使用：功能保留与风险收益权衡
+亚肺叶切除并非“为了更小而更小”，而是源于两类临床现实需求：
+### (A) 患者因素：很多早期患者并不“适合”肺叶切除
+- 高龄、COPD/间质性肺病、既往肺切除、心肺储备差等，使肺叶切除的围手术风险与术后呼吸功能下降更显著。
+- 对这类人，亚肺叶切除可作为**“折中但可治愈意图的手术”**：降低手术创伤，保留更多肺功能，提高可手术性。
+### (B) 肿瘤因素：一部分“生物学低风险”的小结节不一定需要切掉整个肺叶
+随着低剂量CT筛查与影像进步，出现越来越多：
+- **外周型、小肿瘤**（如≤2 cm）
+- **磨玻璃成分较多/低侵袭影像特征**（提示浸润性可能低）
+- 病理上可能对应AIS/MIA或低级别腺癌谱系的一部分
+对这些肿瘤，“扩大切除范围”带来的肿瘤学增益可能变小，而“保肺”价值变大，于是产生了用亚肺叶切除进行对比验证的临床研究需求。
+---
+## 3) 亚肺叶切除与肺叶切除如何形成“可比性”：解剖性段切除的崛起与现代RCT
+亚肺叶切除包括**楔形切除（非解剖性）**与**肺段切除（解剖性）**，两者肿瘤学含义不同：
+- **段切除（解剖性切除）**：按支气管血管解剖切除整个肺段，理论上更接近肺叶切除的“解剖学根治”，也更利于获得足够切缘并系统处理肺门/纵隔淋巴结。
+- **楔形切除（非解剖性）**：仅楔形切掉肿瘤及周围肺组织，切缘与淋巴结处理更依赖技术与规范，肿瘤学一致性相对弱；但创伤更小、最保肺。
+### 现代关键证据（与传统结论形成对照）
+近年两项重量级随机试验改变了“亚肺叶切除一定更差”的旧印象，但要注意其**入组条件、手术质量控制和以段切除为主**等前提：
+1) **JCOG0802/WJOG4607L（日本）**  
+- 人群：外周型、小肿瘤（典型为≤2 cm、实性成分受限等条件）  
+- 对比：肺叶切除 vs **段切除**  
+- 结果要点：段切除在总体生存上显示不劣甚至有优势信号，但**局部复发倾向更高**，提示需要严格把握适应证、切缘与淋巴结评估。
+2) **CALGB/Alliance 140503（北美）**  
+- 人群：外周型、临床分期IA期、小肿瘤（≤2 cm）  
+- 对比：肺叶切除 vs 亚肺叶切除（段切除或楔形，按术中情况选择）  
+- 结果要点：在严格分期与规范手术前提下，亚肺叶切除在无病生存等主要终点上达到**不劣性**结论，支持在合适人群中可作为与肺叶切除相当的选择。
+&gt; 这些研究之所以能与肺叶切除“形成正面比较”，关键在于：**更精准的影像筛选、更严格的N分期排除、更强调切缘与淋巴结评估的手术质量控制**，使得亚肺叶切除的肿瘤学短板被尽可能补齐。
+---
+## 4) 为什么楔形切除仍常被谨慎对待：证据层级与肿瘤学一致性
+- 经典试验中“亚肺叶切除较差”的结论，部分与当时**楔形切除比例较高、淋巴结评估不充分**有关。
+- 在现代实践里，若做楔形切除，通常更强调：
+  - **足够切缘**（常用经验指标如“切缘≥肿瘤直径”或至少达到一定厘米数；具体以团队与指南为准）
+  - **系统性淋巴结取样/清扫**（否则可能“漏分期”）
+  - 适用肿瘤特征：更小、更外周、低侵袭影像/病理可能性更高，或患者确实不能耐受更大切除
+因此，在“能耐受且肿瘤并非低风险小外周结节”的情况下，肺叶切除仍常被视为稳妥选择；在“严格筛选的小肿瘤”或“功能受限患者”中，亚肺叶切除（尤其段切除）越来越多成为可与肺叶切除并列讨论的方案。
+---
+## 5) 一句话总结两者的长期比较逻辑
+- **肺叶切除**：以更大解剖切除范围和更可靠分期为代价，换取更稳健的局部控制与长期肿瘤学安全性，因此长期成为标准。  
+- **亚肺叶切除（段/楔）**：以“保留肺功能、降低手术负担”为核心诉求，在现代影像分层、严格淋巴结评估与手术质量控制的证据支持下，开始在特定早期小外周NSCLC人群中与肺叶切除进行不劣性/等效性比较并被应用。
+如果你希望，我可以按“肿瘤大小（≤2 cm/2–3 cm）、磨玻璃比例、段切 vs 楔切、淋巴结策略”把当前常用的适应证和决策要点用表格列出来。</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>一、肺叶切除术为何长期被视为早期 NSCLC 的“金标准”
+1. 历史沿革  
+   • 20 世纪 60～70 年代，肺癌外科以全肺切除为主，死亡率和长期生活质量不理想。  
+   • 1973 年 Cahan 首次系统提出“解剖性肺叶切除”概念，既能获得足够切缘，又能系统清扫同一肺叶内的 N1 淋巴结。  
+   • 1982～1995 年美国 Lung Cancer Study Group-821（LCSG 821）前瞻性随机试验：将 ≤3 cm 的外周期 T1N0 NSCLC 分为“肺叶切除”与“有限切除（楔形/段切）”两组。结果显示：  
+     – 5 年局部复发率：有限切除 20%、肺叶切除 6%  
+     – 肿瘤相关死亡率：有限切除明显高于肺叶切除  
+     – 因此 1995 年 NEJM 报道后，肺叶切除被国际指南（NCCN、ACS、ESMO 等）确立为可手术早期 NSCLC 的标准术式。  
+2. 理论依据  
+   • 足够的肿瘤切缘：保证 ≥2 cm 或 ≥肿瘤直径的切除边界。  
+   • 解剖学完整性：切除所属肺段淋巴、支气管、血管一并清扫，降低漏切 N1 转移的风险。  
+   • 更低的局部复发率与更可靠的长期生存数据。  
+二、亚肺叶切除（楔形切除/段切除）再度“回潮”的原因
+1. 时代背景的改变  
+   • 低剂量 CT 筛查普及 → 检出大量 ≤2 cm、磨玻璃/半实性结节（AIS、MIA、微浸润腺癌）。  
+   • 患者老龄化、合并 COPD/心血管病 → 更需要保留肺功能。  
+   • 影像与手术技术进步（3D-CT、VATS、RATS、Stapler） → 精细段切成为可能。  
+2. 生物学认识更新  
+   • 小尺寸、磨玻璃成分高的腺癌侵袭性低，局部复发本就罕见。  
+   • “安全切缘比切除范围更重要”，提出“切缘距≥肿瘤直径”或 ≥2 cm 原则。  
+3. 证据积累  
+   （1）回顾性/队列研究：多份 Propensity score-matched 分析提示 ≤2 cm 外周腺癌段切与肺叶切除 5 年 OS、DFS 无显著差异，且 FEV1 损失更少。  
+   （2）日、美两项里程碑式前瞻性随机试验：  
+       a. JCOG0802/WJOG4607L（2022 NEJM）  
+          – 入组 cT1a-b ≤2 cm、周边型 NSCLC 1106 例，比较解剖性段切 vs 肺叶切除。  
+          – 5 年总生存率：94.3%（段切） vs 91.1%（叶切）；无病生存率（DFS）非劣；段切局部复发稍高（10.5% vs 5.4%），但肺功能保存优于叶切（术后 1 年 FEV1 多保留 5.4% 预测值）。  
+       b. CALGB/Alliance 140503（2023 NEJM）  
+          – 入组 697 例 ≤2 cm 外周 NSCLC（楔形或段切任选） vs 654 例叶切，需系统性淋巴结取样。  
+          – 5 年 DFS：64.1%（亚肺叶） vs 63.6%（叶切），达到非劣性；5 年 OS：80.3% vs 78.9%，无统计学差异；术后肺功能优势明显。  
+   （3）JCOG0804、JCOG1211 等单臂研究：针对 GGO 占比较高的 ≤2 cm 结节，单纯楔形切除 5 年无复发生存率达 99% 以上。  
+三、临床实践中的“比较与取舍”
+1. 适应证（基于 NCCN、CSCO 2023 版）  
+   • 可行肺叶切除的前提下，满足以下任一情况可考虑亚肺叶切除：  
+     – 结节 ≤2 cm，且 CTR（固实成分/肿瘤最大径）≤0.5；  
+     – AIS、MIA 或病理证实纯磨玻璃；  
+     – 患者高龄/肺功能储备差；  
+     – 通过 3D 重建能获得 ≥2 cm 或 ≥肿瘤直径（取更大者）的安全切缘。  
+   • 解剖性段切优先于楔切；楔切仅限于病灶非常外周、实质足以获得安全切缘者。  
+2. 手术原则  
+   • 系统/至少采样性 N1+N2 淋巴结 → 避免漏诊分期。  
+   • 术中快速病检评估切缘、侵袭性、淋巴结转移；必要时升级至肺叶切除。  
+3. 结局比较  
+   • 肿瘤学安全性：在严格选择和执行前提下，亚肺叶切除与肺叶切除 DFS、OS 非劣；局部复发虽略增，但总体可控。  
+   • 功能与并发症：亚肺叶切除术后 FEV1、DLCO 保留更多；高龄及合并症患者围手术风险更低。  
+   • 二次手术机会：保留更多肺储备，利于以后同侧/对侧新发病灶处理。  
+四、小结
+1. 肺叶切除凭借 20 余年的随机证据与临床经验，仍是绝大多数可手术早期 NSCLC 的基线“标准术式”。  
+2. 随着肺癌早期筛查与病理分型的进步，亚肺叶切除在严格选择的 ≤2 cm 周边型病灶中已显示非劣甚至优越的长期生存，并显著保留肺功能。  
+3. 当前的共识是“个体化手术”：  
+   • 以肿瘤生物学（大小、磨玻璃比例、位置）+ 患者因素（年龄、肺功能）为依据；  
+   • 在确保 R0 切除和系统淋巴结评估的前提下，能做小就不做大。</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -18268,6 +21448,51 @@
 &gt; - **恶性心包积液或胸腔积液**（需细胞学证实）。  
 &gt; **注**：仅“积液”而无细胞学证据 → 属于局部晚期（T4/N2/N3）或需鉴别其他原因，不直接归为M1a。
 通过这一严谨流程，既能避免漏诊真正转移（延误治疗），也能防止过度治疗（保护患者生活质量），体现了肿瘤分期的科学性和人文关怀。</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>在非小细胞肺癌（NSCLC）的TNM分期里，“心包积液”只有在被认为是**恶性心包积液**时才计入 **M1a（IVA期）**。仅凭影像学看到心包积液通常不足以直接定为M1a，核心原因是：**影像学只能证明“有积液”，很难可靠证明“积液里有肿瘤细胞/心包受肿瘤累及”**，而分期需要尽量避免把“非肿瘤原因的积液”误判为远处转移。
+主要依据和逻辑如下：
+1) **心包积液并不等同于恶性受累，假阳性风险高**  
+NSCLC患者出现心包积液很常见，但原因很多：感染、炎症、放疗/免疫治疗相关心包炎、心功能不全、低蛋白血症、肺栓塞、肾功能不全、药物反应等都可能导致积液。  
+如果仅凭影像就判M1a，会把相当一部分“可逆的、非肿瘤性积液”误分期，直接影响治疗策略（例如从根治/局部治疗路径转为以全身姑息为主）和预后判断。
+2) **TNM分期强调“恶性证据”或“高度特异的临床判断”**  
+在AJCC/UICC TNM规则中，像胸腔积液、心包积液这类情况，分期原则是：  
+- **证实为恶性（细胞学/病理学阳性）** → 计入M1a；  
+- 若细胞学阴性，且临床上也更符合非恶性（如少量、稳定、随抗炎/利尿好转等） → 不应因为“有积液”就上调到M1a；  
+- 只有在“反复大量、无其他解释、伴心包结节/增厚等强提示恶性”的情况下，才可能在无法取材时做高度推定，但临床上仍倾向尽量取证以减少争议。
+3) **影像学对“恶性心包积液”的特异性有限**  
+CT/超声/ MRI/ PET-CT可以提示风险（如心包增厚结节、强化、PET摄取等），但仍可能与炎症性心包炎、结核、放疗改变等重叠。分期是“决定性分类”，需要更高特异性证据；细胞学/病理学是目前最直接的证据链。
+4) **细胞学/病理结果直接决定分期与治疗路径**  
+一旦定为M1a（IVA），通常意味着疾病已属转移范畴，治疗目标与方案（系统治疗为主、局部治疗定位、临床试验选择等）都会改变；因此指南与实践更倾向通过心包穿刺或心包开窗获取标本，尽量“坐实”或“排除”恶性。
+5) **细胞学阴性也有局限，但仍比影像单独判断更可靠**  
+心包液细胞学并非100%敏感，可能出现假阴性（取样量少、肿瘤脱落少等）。但它仍然比影像单独判断更接近“分期所需的证据”。必要时会结合重复取样、心包活检、影像特征与临床过程综合判断。
+总结：**TNM分期把“恶性心包积液”作为M1a，是因为它代表肿瘤已播散至心包/浆膜腔；而影像学只能看到积液，无法可靠证明恶性来源。为避免过度分期及由此带来的治疗误导，临床上通常需要心包穿刺或开窗术取得细胞学/病理学证据来确认。**</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>在 TNM 第 8 版中，M1a 被定义为“恶性胸膜或心包病变，包括恶性胸腔/心包积液或胸膜/心包结节”。  
+其关键字是“恶性 (malignant)”。单纯在影像上看到有液体并不能说明其为“恶性积液”，原因主要有以下几点：  
+1. 心包积液在肺癌患者中很常见，但大约 30%–50% 并非肿瘤播散所致  
+   • 可由肿瘤直接压迫或侵犯所致的出血、淋巴回流受阻  
+   • 放疗、化疗、免疫-炎症反应  
+   • 伴发的感染、心力衰竭、低蛋白血症等  
+   上述情况下即使出现较大量积液，也可能找不到肿瘤细胞，严格来说仍属于 T4（直接侵犯）或因其他原因产生的良性/反应性积液，而非转移性病灶。  
+2. 影像学无法可靠地区分“恶性”与“非恶性”  
+   CT、MRI、超声只能告诉我们“有液体”“量的多少”“伴或不伴心包增厚”，但并不能看到游离的癌细胞，也无法百分之百区分反应性渗出、出血性渗出或真正的恶性种植。  
+3. 分期结果直接决定治疗策略  
+   • 误将可切除的局部晚期（T4 或 III 期）错判为 IV 期，会使患者失去根治性手术或同步放化疗的机会。  
+   • 反之，将真正的恶性积液误判为可切除期，又可能让患者接受无益的高风险手术。  
+   因此 TNM 规定：只有在心包液（或胸腔液）中检出肿瘤细胞，或在镜下证实心包表面种植结节时，才可判定为 M1a。  
+4. 组织/细胞学证据获取方式简便且可靠  
+   心包穿刺、心包开窗 (pericardial window) 活检可直接获得心包液及心包组织，操作风险低、特异度高，足以满足分期所需的“病理学依据”。  
+综上，  
+• “心包积液” ≠ “恶性心包积液”；  
+• TNM 分期要求对“恶性”有病理-细胞学证据；  
+• 只有当心包穿刺或开窗术等检查证实存在肿瘤细胞（或心包面种植）时，才能将其归入 M1a（IVA 期）。  
+这就是为什么单靠影像学出现心包积液不足以直接判为 M1a，而需要进一步取材证实。</t>
         </is>
       </c>
     </row>
@@ -18679,6 +21904,102 @@
 4. *NCCN Guidelines® NSCLC (v2.2023)*. (最新临床实践标准)  
 5. *JAMA Oncol.* 2019;5(11):1600-1606. (SBRT在寡转移中的应用)  
 （注：具体方案需以患者实时评估为准，本文不构成诊疗建议）</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>对于**临床N2期（cN2）非小细胞肺癌（NSCLC）**，“直接手术切除”之所以没有被公认为唯一标准治疗，核心原因在于：**这类疾病在诊断时往往已具有较强的系统性扩散风险、分期不确定性和生物学异质性**，单纯依赖局部手术很难稳定带来长期获益；而多学科综合治疗（MDT）用“先全身、后局部/再局部”的策略，证明了在很多人群中可获得更优或更稳健的结局，从而动摇了“手术优先”的传统路径。
+---
+## 一、为什么cN2期不能简单等同于“可切就切”的手术病？
+### 1）cN2本质上常是“局部+系统”并存的高风险状态
+- 纵隔淋巴结转移提示肿瘤已经具备较强的淋巴/血行播散潜力。  
+- 即使手术做到R0（显微镜下无残留），**远处微转移**仍可能是主要复发来源，导致“局部切干净但仍早复发”。
+### 2）cN2人群高度异质：预后差异巨大，单一方案很难“一刀切”
+cN2包含多种临床情形，例如：
+- **单站N2 vs 多站N2**
+- **淋巴结体积小/隐匿（minimal N2） vs bulky N2**
+- 可切除边界不同（血管/气管受侵程度）
+- 肿瘤生物学差异（PD-L1、驱动基因、增殖活性等）
+这些因素决定：**有些人手术可能获益明显，有些人手术风险大且收益低**，因此难以把“直接手术”作为唯一标准。
+### 3）临床分期存在误差：开刀前很难保证“真N2”与范围判断精准
+- 影像学（CT/PET-CT）对纵隔淋巴结的敏感性和特异性有限，炎症/肉芽肿可造成假阳性，小转移可造成假阴性。  
+- 一旦实际为更广泛的N2/N3或潜在远处病灶，**先手术可能变成“过度局部治疗”**，延误系统治疗窗口。
+### 4）手术本身的代价与后续治疗完成率问题
+- 肺叶切除/全肺切除等创伤可导致并发症、体能下降。  
+- 这会影响术后放化疗/免疫治疗的耐受与完成率；而对N2而言，术后往往仍需要辅助治疗，“先手术”未必能保证综合治疗按计划完成。
+---
+## 二、多学科综合治疗如何挑战“手术优先”？
+MDT之所以能挑战传统观念，是因为它把cN2从“外科主导的局部病”重新定义为“需要系统控制的综合病”，并形成了更符合生物学规律的治疗路径。
+### 1）治疗顺序从“先切除再说”变为“先筛选、先系统控制”
+MDT常采用：
+- **新辅助化疗/放化疗 ± 免疫治疗** → 再评估 → 选择手术或放疗巩固  
+其逻辑是：
+- 先用全身治疗处理潜在微转移  
+- 同时观察肿瘤对治疗的反应，作为“生物学筛选器”  
+  - **反应好（降期、纵隔清扫可达R0）**：再手术，获益更确定  
+  - **反应差/进展**：避免无效或高风险手术，及时转入根治性放化疗或系统治疗
+### 2）“降期/病理缓解”带来可量化的获益证据
+新辅助治疗可使部分患者实现：
+- 纵隔淋巴结转阴（N2→N0/N1）
+- 主要病理缓解甚至病理完全缓解  
+这类患者通常预后更好，使“先治疗后手术”的策略更有说服力。
+### 3）放化疗作为根治性方案的成熟，使“非手术路径”同样可能长期控制
+对于部分cN2（尤其多站/ bulky N2 或切除代价很大者）：
+- **同步放化疗 + 免疫巩固**等策略已成为重要的根治性路线  
+这意味着：即便不先做手术，也可能达到较好的长期生存与局部控制，从而削弱“手术必须优先”的必然性。
+### 4）MDT把“能不能切”升级为“切了是否真正获益”
+传统外科思维更强调可切除性；MDT更强调：
+- R0概率  
+- 术后复发风险  
+- 后续治疗可完成性  
+- 患者肺功能/合并症  
+- 肿瘤生物学特征与对系统治疗敏感性  
+因此，手术不再是起点，而是综合策略中的一个“可选模块”。
+---
+## 三、结论（用一句话概括）
+cN2期NSCLC之所以不把“直接手术”定为唯一标准，是因为它常具有**系统性复发风险高、分期与范围不确定、异质性强**等特点；而MDT通过**新辅助/根治放化疗等综合路径**实现“先系统控制、再个体化选择局部手段”，用更符合疾病生物学和真实获益的方式，实质性挑战了“手术优先”的传统观念。
+如果你愿意，我可以按“单站vs多站、bulky与否、是否可明确取样证实N2、是否驱动基因阳性/PD-L1高”等条件，给出更贴近指南与现实MDT决策的分层思路。</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>一、单纯“直接开刀”为什么没有被奉为 N2 期 NSCLC 的唯一标准？
+1. 疾病生物学特点  
+   • N2 期意味着肿瘤已经突破肺叶内或肺门淋巴结，进入纵隔淋巴结系统，本质上是一种“区域性全身病”。  
+   • 仅靠局部手术无法清除潜在的微转移灶，术后远处复发率高（30%–50%）。
+2. 异质性强  
+   • 单站 vs 多站、微小 vs bulky、可切除 vs 不可切除，预后差异巨大。  
+   • 影像学 cN2 与真正的 pN2 一致率不足 65%，导致一部分病人术后发现分期更晚或根治（R0）失败。
+3. 证据不足  
+   • 多个随机对照试验（INT-0139、EORTC 08941 等）显示：  
+     - 单纯手术并不优于含化疗/放疗的综合方案；  
+     - 术前化疗或序贯放化疗 + 手术可提高 5 年 OS 约 10%–15%。  
+   • 外科并发症（尤其是肺动脉重建、右肺全切）亦影响生存及生活质量。
+4. 现代非手术手段疗效提高  
+   • 同步放化疗 5 年 OS 已可达 25%–30%，并非“姑息”治疗。  
+   • 免疫治疗、靶向治疗加入新辅助或辅助序列后，中位 DFS/OS 进一步延长。
+二、多学科综合治疗（MDT）如何冲击“手术优先”传统？
+1. 术前评估与分层  
+   • 影像科（PET-CT）、呼吸内镜（EBUS/EUS）、胸外科、放疗科、肿瘤内科共同判断“真 N2”与“假 N2”，确定是否可切、能否降期。
+2. 新辅助治疗的加入  
+   • 新辅助化疗：N2→N0-1 的降期率 20%–30%，可提高手术 R0 率，减少术后放疗范围。  
+   • 新辅助化疗 + 免疫（CheckMate-816、NADIM 等）：主要病理缓解(MPR) 40%–50%，病理完全缓解(pCR) 20%–30%，让更多患者成为“可切除”。  
+   • 靶向新辅助（EGFR、ALK）：对基因阳性人群进一步提高降期率。
+3. 根治性同步放化疗 + 免疫维持  
+   • 对 bulky 或多站 N2，MDT 更倾向“非手术根治”模式；PACIFIC 方案 5 年 OS 42.9%，与许多历史手术队列相当或更好。
+4. 手术角色重新定位  
+   • 由“一锤定音”变为“多模式中的一环”。  
+   • MDT 决定：  
+     - 降期成功者行肺叶/袖状切除，保留功能；  
+     - 放化疗后残留局灶行“救援性手术”；  
+     - 对高危突变（EGFR、ALK）患者术后序贯 TKI，而非单纯手术观望。
+5. 个体化、精准化  
+   • 病理、分子、影像、功能评估贯穿 MDT 讨论；  
+   • 方案可组合：新辅助 IO-CT + 手术 ± 辅助放疗／免疫／TKI。
+三、小结
+1. N2 期非小细胞肺癌已被视为全身性疾病，手术单兵作战难以满足长生存需求。  
+2. 随着化疗、放疗、分子靶向及免疫治疗的进步，多学科综合治疗在随机研究和真实世界中不断刷新生存数据。  
+3. 因此，国际国内指南（NCCN、ESMO、CSCO）均不再把“立即手术”列为 cN2 的唯一标准，而是主张由 MDT 依据病人具体分期、生物学及功能状态制定个体化综合治疗策略，真正挑战并取代了“手术优先”的传统观念。</t>
         </is>
       </c>
     </row>
@@ -19151,6 +22472,127 @@
 遵循这一逻辑，可最大程度平衡**分期准确性**与**手术安全性**，为患者提供最优治疗路径。最新指南（如2023 NCCN、ESMO）均强调：**在可及条件下，系统性纵隔淋巴结清扫应作为标准术式**（尤其对临床N0/N1患者），但需严格掌握适应证。</t>
         </is>
       </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>在非小细胞肺癌（NSCLC）外科手术中，**纵隔淋巴结评估之所以“至关重要”**，核心原因不在于手术动作本身，而在于它决定了三件事：**分期是否真实、后续治疗是否正确、局部控制是否可靠**。
+## 一、为何纵隔淋巴结评估至关重要？
+1. **决定真实分期（尤其是N2）**
+   - 纵隔转移（N2）在影像学上可被低估（微小转移）或高估（炎症性肿大）。
+   - 手术切除肿瘤本身做得再“干净”，如果漏掉N2，病人会被“误分期”为I期/II期。
+2. **直接影响术后治疗策略（是否需要辅助治疗）**
+   - N0/N1 与 N2 的辅助治疗策略差异巨大（辅助化疗、放疗、以及近年对部分分子/免疫人群的辅助系统治疗选择等）。
+   - **漏诊N2 = 漏掉可能显著获益的术后治疗**；反之把炎症当转移则可能造成过度治疗。
+3. **与预后判断、复发风险评估密切相关**
+   - 纵隔淋巴结状态是NSCLC最强的预后因子之一。
+   - 对研究、疗效比较、登记数据的可比性也高度依赖淋巴结评估质量。
+4. **可能带来局部控制收益（但这是“次要/有争议”的目标）**
+   - 清扫更多结节可能减少局部复发或清除“隐匿转移”，但这一点是否能稳定转化为总生存获益，证据并不一致（见下文）。
+---
+## 二、两种方式：系统性清扫 vs 采样，临床目标不同
+可以把它们理解为两种不同的“优先级排序”：
+- **系统性淋巴结清扫（systematic nodal dissection, SND）**  
+  更像“解剖学上的完整切除 + 最充分的病理分期”。目标是：  
+  **最大限度减少漏诊 + 可能的局部治疗效应**。
+- **淋巴结采样（sampling）**  
+  更像“以分期为目的的代表性抽检”。目标是：  
+  **在保证分期可靠的前提下，减少手术创伤和并发症**。
+关键在于：采样是否“足够系统”、是否覆盖高风险站位。如果只是随意摘几颗，不属于高质量sampling。
+---
+## 三、证据差异：为什么并没有简单结论“清扫一定更好”？
+### 1）清扫的证据逻辑：减少漏诊与“更彻底”
+支持清扫的传统逻辑主要来自：
+- **病理学与队列研究**：清扫能检出更多N2/多站转移，提高分期准确性（stage migration / Will Rogers现象）。
+- **一些研究提示局部控制改善**：更多结节被移除，局部/纵隔复发可能下降。
+但问题在于：  
+- 分期更“准确”并不必然等于生存更好；它也可能只是把原本预后差的人归到更晚期，使“分期内生存率”看起来改善。
+- 局部控制获益是否能转化为总体生存获益，受**系统治疗时代、复发以远处为主**等因素影响。
+### 2）采样的证据逻辑：在“合格分期”前提下，生存未必差、但创伤更小
+重要的随机研究与总体证据趋势是：
+- **在已做过充分术前/术中纵隔评估、并且采样是“系统性采样”的前提下**，SND 相比 sampling：
+  - **总生存差异往往不显著**（多项随机试验/系统综述总体倾向如此）
+  - 清扫可以提高结节检出数与上调分期率，但临床结局优势不稳定
+- 并发症方面：很多研究显示总体严重并发症差异不大，但清扫在某些情境可能增加：
+  - 返喉神经相关问题（左侧更需谨慎）
+  - 乳糜漏
+  - 出血/气道旁结构损伤风险
+  - 手术时间延长
+因此，采样的“证据链”更强调：  
+**如果采样足够规范（覆盖关键站位、阴性可信），那么额外清扫未必带来生存增益；而减少不必要的解剖剥离可能更符合微创与加速康复理念。**
+---
+## 四、实践中如何理解“选择差异”的临床逻辑？
+### 什么时候更倾向系统性清扫（SND）？
+当你最担心的是“漏掉N2/N3”或需要最强分期信息时：
+- 术前分期不充分或结果不确定（PET/CT可疑、EBUS/纵隔镜未做或覆盖不足）
+- 肿瘤生物学高风险：中央型、较大肿瘤、实性成分高、SUV高、腺癌微乳头/实体型等提示结节转移概率高
+- 术中发现结节可疑、肺门N1阳性/可疑（N1阳性显著提高N2概率）
+- 需要为后续治疗提供最可靠依据（例如考虑是否加放疗、临床试验入组等）
+### 什么时候更倾向（系统性）采样？
+当病例属于“低风险、分期工作已充分且阴性概率高”，并且采样能做到规范覆盖时：
+- 外周小肿瘤、影像学N0、且已有高质量术前纵隔评估（如EBUS覆盖关键站位并阴性）
+- 计划做亚肺叶切除/高龄/合并症多，希望缩短手术时间、减少剥离风险
+- 微创手术情境下强调“足够分期 + 低侵袭”的平衡
+注意：这里的采样应是**“系统性采样”**（例如按肿瘤所在肺叶选择应采的纵隔站位，并至少覆盖多个N2站位），而不是“随便摘一两个”。
+---
+## 五、把争议归纳成一句话
+- **清扫（dissection）**的逻辑：用更大的解剖范围换取**更低漏诊率与潜在局控**；证据强项是“分期更充分”，但“生存一定更好”并不稳定。  
+- **采样（sampling）**的逻辑：在“已经做到合格、系统的纵隔评估”前提下，用更小创伤换取近似的长期结局；证据强项是“部分随机研究未显示清扫的明确生存优势”。
+---
+如果你愿意，我可以结合你关心的具体场景（如：右上叶外周 cT1N0、计划段切；或中央型cT2、PET纵隔轻度摄取；或已做EBUS阴性等）给出更贴近指南与手术路径的“应该清扫还是系统采样”的决策框架与需要覆盖的站位。</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>一、为什么纵隔淋巴结评估是非小细胞肺癌（NSCLC）外科的“关键步骤”  
+1. 明确病理分期  
+   • N 分期是 TNM 体系中与预后、辅助治疗决策最密切的因素之一。  
+   • 任何漏诊的 N2/N3 转移都会把“可切除的Ⅰ–Ⅱ期”变成“应首选综合治疗的Ⅲ期”，直接影响生存和后续治疗策略。
+2. 保证 R0 切除的完整性  
+   • 纵隔清扫或采样是“系统性肺叶切除+系统性淋巴结评估”这一“完整手术（complete resection）”概念的重要组成部分。  
+   • 如果忽略隐匿转移，就可能造成潜在的“显性残留病灶”。
+3. 预后与治疗指导  
+   • 确定是否需要术后辅助化疗/免疫治疗（现行指南：N1 或 N2 阳性即可进入辅助治疗范畴）。  
+   • 为术后随访和复发风险评估提供基线。
+4. 科研与临床数据的可比性  
+   • 只有统一的、规范的淋巴结评估方法，才能保证多中心研究和真实世界数据的可比性。
+二、两种方式：系统性淋巴结清扫（Systematic Nodal Dissection, SND）与淋巴结采样（Sampling）的对比  
+1. 技术定义  
+   • SND：在既定解剖界限内成块切除所有相关淋巴组织。至少切除：同侧肺门 + 亚肺门 + ≥3 个纵隔站（含 7 号）。  
+   • Sampling：按术前/术中影像或预设方案，摘取“可疑或代表性”淋巴结站，数量少且不必清除全部淋巴组织。
+2. 临床逻辑差异  
+   • SND 的核心诉求是“完整分期 + 潜在治疗效益”；  
+   • Sampling 的核心诉求是“尽量减少创伤 + 足够分期信息”。
+3. 主要循证证据  
+   ① 潜在治疗与分期优势——支持 SND  
+      • Wu 等（JCO 2002）、Darling 研究（Ann Thorac Surg 2011, RCT）显示：在未经过严格术前分期的总体人群中，SND 能发现更多 N2（约 10–15% 升期），并在部分研究提示生存获益。  
+   ② “严格阴性”人群中的非劣效——支持 Sampling  
+      • ACOSOG Z0030（N Engl J Med 2011）：对术前 CT/PET/EBUS 均阴性且在手术中已做“系统化采样”的患者，SND 未进一步改善 5 年生存（采样 69%，SND 66%，P = 0.25），并且并发症及手术时间更长。  
+      • 欧洲 ESTS、JCOG RCT（Sugi 1999；Izbicki 1994）结果类似——在“小、周边、影像阴性”的高选择人群中，清扫与采样生存差异不大。  
+4. 风险与获益  
+   • SND：  
+     - 优点：分期最准确；可能清除微小转移；有助于研究；避免复发“跳跃转移”漏诊。  
+     - 缺点：手术时间延长；喉返神经损伤、乳糜漏、出血风险增加；肺功能差患者不一定耐受。  
+   • Sampling：  
+     - 优点：时间短、创伤小；老年或并存症患者的安全性更好。  
+     - 缺点：对术者依赖大；可能漏诊跳跃/隐匿 N2；分期不准确时导致不当治疗。
+5. 指南与实际决策  
+   • NCCN、ESTS、CSCO 等均要求：  
+     1) 肺叶/全肺切除应至少取 ≥3 个纵隔站（含 7 号）＋肺门＋叶间结；  
+     2) 若肿瘤为 &lt;2 cm、外周、磨玻璃或经 PET/EBUS 确认为 N0，可接受“系统化采样”，否则推荐 SND。  
+   • 多做 SND 的情景：  
+     - 中央型、T&gt;3 cm、SUV 高、术前影像可疑；  
+     - 计划做术中快速冰冻决定是否同步胸腺、血管袖状/支气管袖状切除；  
+     - 解剖亚肺段、肺叶/全肺切除时需保证标准化。  
+   • 可以考虑采样的情景：  
+     - T1a–b (&lt;2 cm)、外周 GGO 主导、纵隔影像完全阴性；  
+     - 高龄/合并症、不耐受长时间或广泛清扫手术；  
+     - 临床试验已有严格分期标准。
+三、总结  
+1. 纵隔淋巴结评估是决定 NSCLC 外科手术“治愈性”与“分期准确度”的核心环节。  
+2. 系统性清扫提供最可靠的病理分期，并在未经过严格选择的人群中有潜在生存获益；代价是手术创伤与并发症风险增加。  
+3. 对高度疑似真正 N0、且肿瘤生物学行为良好的小病灶，严格的采样可获得与清扫相近的生存，同时降低手术负担。  
+4. 最佳方案需结合肿瘤特征、术前分期结果、患者一般状况及外科团队经验综合判断。</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -19515,6 +22957,79 @@
 希望这个详细解析能帮您理解这一复杂决策背后的科学逻辑！临床实践中保持对最新证据的关注和个体化思维至关重要。</t>
         </is>
       </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>在**完全切除的 IB 期（通常指 AJCC TNM 第 8 版的 T2aN0M0，肿瘤约 3–4 cm）非小细胞肺癌（NSCLC）**中，指南往往呈现一种“分层推荐”的策略：**整体 IB 期不常规推荐术后辅助化疗（adjuvant chemotherapy）**，但**存在高复发风险特征的 IB 亚组可考虑/推荐辅助化疗**。这种差异的证据基础主要来自以下三类证据的综合：随机试验的分期/亚组结果、个体数据/荟萃分析、以及回顾性与真实世界研究对“高危因素”的一致指向。
+---
+## 1）总体 IB 期：随机对照试验的“总体获益不确定/不足”
+### 关键点：辅助含铂化疗的确定获益主要发生在 II–III 期
+- 以 **LACE（Lung Adjuvant Cisplatin Evaluation）个体数据荟萃分析**为代表：总体显示术后含铂化疗有生存获益，但**分期分层中 IB 期获益不显著**（而 II、III 期更明确）。  
+- 多个经典随机试验（如 IALT、JBR.10、ANITA 等）纳入了部分 I 期患者，但：
+  - **IB 人群样本量不足**、事件数少；
+  - IB 分期在不同 TNM 版本中定义变化（第 6/7/8 版的“IB”不完全等价），使得早期试验的“IB”与当前临床的“IB”并非一一对应；
+  - 结果通常表现为：**总体 I 期（或 IB）未显示稳定、可复制的 OS 获益**，导致“常规推荐”的证据强度不够。
+因此，从循证医学角度：  
+&gt; 若把所有 IB 患者都一刀切地常规化疗，**绝对获益可能很小**，而化疗毒性（肾毒性、骨髓抑制、神经毒性等）是确定存在的，风险-收益比不理想。
+---
+## 2）高风险 IB：存在“肿瘤负荷更大/生物学更凶险”时，获益信号更强
+### 关键点：获益往往集中在“更接近 II 期风险”的 IB 患者
+虽然“整体 IB”获益不稳定，但多项研究提示：在 IB 中**按风险分层**后，某些亚群复发风险明显更高，且更可能从化疗中获益。
+最常被引用的证据来源与逻辑包括：
+### A. 分层或事后亚组分析显示“肿瘤更大者获益更多”
+- **CALGB 9633**（专门研究“IB 期”辅助化疗）：总体结果未能稳定显示 OS 获益；但后续分析提示**肿瘤直径较大（经典阈值约 ≥4 cm）**的患者可能存在更明确获益信号。  
+- 这类发现虽多为亚组/事后分析（证据级别低于主要终点阳性试验），但在临床上推动了“IB 按肿瘤大小与风险特征选择化疗”的路径。
+### B. 高危病理特征与复发风险高度相关，真实世界研究支持“选择性化疗更合理”
+多项回顾性队列与数据库研究一致显示，以下特征与复发/死亡风险增加相关，因此被许多指南列为“高危因素”，并据此建议“可考虑辅助化疗”：
+- **肿瘤较大**（尤其接近或达到 4 cm，或在 TNM7 中属于 IB、在 TNM8 中可能已归入 II 期的一部分人群）
+- **脏层胸膜侵犯（VPI）**
+- **淋巴血管侵犯（LVI）**
+- **低分化/高等级**
+- **STAS（气腔播散）**（近年证据逐渐增多）
+- **楔形切除/切缘风险、淋巴结取样不足**（代表分期不足或局部控制不足）
+- **需要时也包括：驱动基因阴性/不适合靶向辅助治疗等情境下的综合评估**
+这里的循证逻辑是：  
+&gt; 当 IB 患者带有这些特征时，其复发风险更接近 II 期，**潜在的绝对获益变大**，从而更可能抵消化疗毒性，风险-收益比改善。
+---
+## 3）为何指南用语常是“可考虑/推荐给高危”，而不是“普遍推荐给所有 IB”
+这体现了指南对证据等级与外推范围的谨慎处理：
+- **“不普遍推荐”**：因为针对“所有 IB”的高质量证据（主要终点阳性且可复制）不足，IB 总体绝对获益小且不确定。  
+- **“高危可考虑/推荐”**：因为有一致的风险分层证据（肿瘤大小、VPI、LVI 等与复发风险升高相关），并且在部分试验亚组与多项队列研究中看到获益信号；虽然证据不如 II–III 期强，但足以支持个体化决策。
+---
+## 4）一句话总结证据基础
+- **整体 IB 期**：随机试验/荟萃分析中 **OS 获益不稳定或不显著** → 不常规推荐。  
+- **高风险 IB 亚组**：肿瘤负荷更大或病理生物学更凶险，复发风险更高；在**亚组分析+一致的真实世界研究**中更可能看到化疗获益 → 因风险-收益比更佳而被建议“选择性使用”。
+---
+如果你愿意，我可以按你关心的指南体系（NCCN / ESMO / CSCO / ASCO）列出各自对 IB 高危因素的具体列表与推荐等级，并结合 TNM 第 7/8 版差异解释“为何 4 cm 阈值会反复出现”。</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>IB 期（T2aN0M0，8 版 TNM 为 3–4 cm）非小细胞肺癌（NSCLC）在完全切除后是否需要辅助化疗，一直处于“灰色地带”。  
+之所以今天的指南只把“高危 IB 期”推荐为应考虑辅助化疗的对象，而未把“所有 IB 期”一并纳入，关键在于以下几方面的循证医学证据。
+1. 随机对照试验的整体结果：  
+   • IALT、JBR-10、ANITA 及 ALPI 等 4 个经典Ⅲ期随机研究以及其荟萃分析（LACE）表明，辅助含铂化疗能显著提高整个 IIA-IIIA 人群的 5 年生存率，但对 IB 期总体并未达到统计学显著（LACE：IB 期 HR 0.93，95%CI 0.78-1.10）。  
+   • CALGB-9633 是唯一专门针对 IB 期（第 6 版 TNM，肿瘤 ≤5 cm）的随机研究。中期分析显示 carboplatin/paclitaxel 组 OS 获益（HR 0.62，P=0.03），但 74 个月更新后整体人群差异不再显著（HR 0.83，P=0.12）。
+2. 同一批数据的亚组分析却提示“高危因素”可获益：  
+   • CALGB-9633 中肿瘤直径 ≥4 cm 这一亚组（n=173）OS 明显改善（HR 0.69，P=0.04）。  
+   • JBR-10 的事后分析显示，T2N0 且肿瘤 ≥4 cm／伴脏层胸膜受侵（VPI）的患者，辅助化疗 OS HR 0.48（P=0.03）。  
+   • ANITA 研究同样提示直径 &gt;4 cm 或分化差等患者 DFS、OS 均有获益。  
+   • LACE-pooled 再次验证：肿瘤 &gt;4 cm 的 IB 人群 HR 0.66，而 ≤4 cm 无明显获益。
+3. 复发风险的绝对差异决定了“收益/风险”比：  
+   • 术后单纯观察的 3–4 cm 肿瘤 5 年复发率约 20%–30%，而 ≥4 cm 或合并血管/脏胸膜受侵的可达 40%–50%。  
+   • 含铂化疗的不良反应（1%-2% 治疗相关死亡）在低复发风险人群中往往抵消其可能的微小生存获益。  
+   • 因此，仅当复发风险升高到一定阈值（“高危”特征存在）时，化疗的绝对获益才大于毒性成本。
+4. 分期更迭后的影响：  
+   • 第 8 版 TNM 把 4-5 cm 划入 IIA 期，因此现今的 IB（3-4 cm）在既往试验中多属于低危 T2，进一步稀释了在“所有 IB”层面看到显著获益的可能性。  
+   • 即便如此，各指南仍保留“≥4 cm”这一尺寸阈值作为高危标准，主要基于上述历史数据及复发风险连续性。
+5. 各主要指南的表述（2023-2024 年版）  
+   • NCCN：IB 期如肿瘤 ≥4 cm 或具血管/淋巴管受侵、脏胸膜受侵、分化差等危险因素，可考虑铂类双药辅助化疗（2A 类证据）。  
+   • ASCO/ESMO/CSCO 持类似意见，把“肿瘤 ≥4 cm”列为最有数据支持的指标，其他病理高危特征为可参照因素。
+结论  
+1) 随机试验与荟萃分析显示：对整体 IB 期人群，辅助化疗未能稳定、显著改善 OS；  
+2) 但在肿瘤 ≥4 cm 或合并 VPI、血管/淋巴管受侵、分化差等“高危亚组”中，复发风险升高且事后分析一贯指向生存受益，因此指南倾向推荐；  
+3) 这种“只推荐高危 IB”的做法，正是基于既往试验的亚组数据、LACE 荟萃分析以及绝对获益/毒性的综合权衡。</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -19778,6 +23293,46 @@
 2. ESMO Guidelines for the management of early stage non-small cell lung cancer (2023)  
 3. American Thoracic Society Statement: Endobronchial Ultrasound in the Evaluation of Lung Cancer (Am J Respir Crit Care Med, 2018)  
 建议临床实践中严格遵循最新指南，并动态更新知识以适应技术进展（如液体活检等新方法的应用）。</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>一般**不需要对所有临床 I–II 期（cI–II）NSCLC 患者常规做术前侵袭性纵隔分期**；是否需要取决于是否存在**提示纵隔/肺门淋巴结转移（N2/N1）的高风险因素**。
+## 结论（何时做/不做）
+### 1）通常可不做侵袭性纵隔分期（直接手术或按计划处理）
+- **外周型肿瘤**  
+- **PET-CT/增强CT 未提示纵隔或肺门淋巴结肿大或高代谢**（影像学 N0）  
+- 肿瘤较小、风险低（如 T1 期、实性成分少等）
+### 2）建议术前做侵袭性纵隔分期（EBUS/EUS ± 纵隔镜等）
+满足以下任一情况时，即使临床分期仍归为 I–II，也应考虑：
+- **影像学提示纵隔淋巴结异常**：CT 短径 ≥10 mm 和/或 PET 阳性（SUV 升高）  
+- **中央型肿瘤**（靠近肺门/主支气管）  
+- **肺门（N1）淋巴结阳性或可疑**（因为 N1 阳性显著增加隐匿 N2 的概率）  
+- **肿瘤体积大或T2以上、实性为主、SUV高**等提示“隐匿N2”风险较高  
+- 临床上任何导致“分期结果会改变治疗策略”的情形（如可能改为新辅助治疗/放化疗方案）
+## 为什么（核心理由）
+1. **I–II期整体纵隔转移概率较低**：对低风险人群常规侵袭性检查的“阳性收益”小，却会增加检查成本、时间与并发症风险。  
+2. **侵袭性纵隔分期的价值在于“改变治疗决策”**：一旦证实 N2/N3，治疗往往从“直接手术”转为“新辅助治疗或同步放化疗”等；因此应针对高风险人群精准使用。  
+3. **影像学并非完美**：PET/CT 有假阳性/假阴性；当出现可疑征象或高风险特征时，用 EBUS/EUS（必要时纵隔镜）能提高分期准确性，避免“开胸后才发现 N2”的不必要手术或不恰当手术序列。
+如果你提供：肿瘤位置（中央/外周）、大小（T分期）、PET/CT淋巴结表现（是否肿大/是否高代谢）、是否有N1可疑，我可以据此给出更具体的“该不该做EBUS/EUS/纵隔镜”的建议路径。</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>不需要把Ⅰ期和Ⅱ期肺癌一概而论。是否在术前做侵袭性纵隔分期（如EBUS-TBNA、EUS-FNA、颈前纵隔镜等）取决于影像学（CT、PET/CT）显示的纵隔淋巴结情况以及肿瘤本身的危险因素。
+1. 临床Ⅰ期（cT1-2 N0 M0）  
+   • CT显示所有纵隔结节＜1 cm，PET/CT亦未见FDG高摄取——预期隐匿性N2的发生率＜10%。  
+   • 这类患者行常规侵袭性纵隔分期的阳性发现率低，检查带来的风险、费用和等待时间大于获益。  
+   • 因此多数指南（NCCN、ACCP、ESTS）均认为：影像学N0的外周小肿瘤（特别是≤3 cm）可直接手术，术中再行系统性（或取样）淋巴结清扫即可，术前无需侵袭性纵隔分期。  
+   • 例外情况：中央型病灶、肿瘤&gt;3 cm、SUV非常高或已接受其它治疗而影像结果不可靠时，仍应考虑侵袭性检查。
+2. 临床Ⅱ期（cT1-2 N1 或 cT3 N0）  
+   • 已有N1或T3提示肿瘤生物学行为更“侵袭”，隐匿性N2发生率通常≥20%。  
+   • 一旦存在N2，治疗策略会从“直接手术”转变为“新辅助（放）化疗后再评估”或“同步放化疗”，因此准确判别十分关键。  
+   • CT/PET的假阴性率较高（PET约25%），单靠影像不足以排除N2。  
+   • 因此指南推荐：凡影像示N1、肿瘤&gt;3–4 cm、中央型病灶或有纵隔结节可疑者，应常规行EBUS-TBNA或纵隔镜等侵袭性分期。
+结论  
+• 影像学cN0的典型Ⅰ期外周小肺癌，可不做术前侵袭性纵隔分期。  
+• 只要存在任何提示纵隔转移风险升高的特征（Ⅱ期及Ⅰ期中的高危因素），就应行侵袭性纵隔分期，以免漏诊N2而影响整体治疗方案与预后。</t>
         </is>
       </c>
     </row>
@@ -20073,6 +23628,55 @@
 | **ESMO (2023)**     | 1A类      | T790M阳性：奥希替尼（单药）作为标准二线治疗（证据等级：I）             |
 | **CSCO (2023)**     | I级       | EGFR-TKI耐药后：T790M阳性 → 奥希替尼（首选）                           |
 **结论**：奥希替尼作为后续治疗的核心价值在于——**精准靶向最常见耐药突变（T790M），在疗效、安全性、便利性上全面优于传统方案，且符合精准医疗时代“检测-治疗-再检测”的闭环管理原则**。但必须强调：**检测先行，避免盲目用药**。对于无法获取组织/血液的患者，需在充分知情同意下经验性尝试，并密切监测疗效。</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>在EGFR突变阳性NSCLC中，一代/二代EGFR‑TKI（厄洛替尼、吉非替尼、阿法替尼等）一线治疗后出现获得性耐药很常见，但仍推荐奥希替尼作为后续选择，核心原因是：**耐药机制中最常见、且“可靶向”的那一类，正是奥希替尼最擅长解决的**，同时它在中枢神经系统控制和安全性上也更有优势。
+## 1) 一线耐药最常见机制是T790M，而奥希替尼可精准覆盖
+- 一代/二代EGFR‑TKI耐药后，约**40%–60%**患者出现**EGFR T790M**继发突变（尤其在经典敏感突变Ex19del/L858R背景下）。  
+- **奥希替尼是第三代EGFR‑TKI**，对**敏感突变 + T790M**均有强效抑制，同时对野生型EGFR抑制相对弱一些（因此皮疹、腹泻等毒性往往更轻）。  
+- 多项研究显示：在**T790M阳性**且一线用过一代/二代TKI后，奥希替尼能显著提高客观缓解率与无进展生存期，因此成为指南所推荐的标准后线策略之一。
+**临床落点：**一线一代/二代TKI进展后，通常要做**组织或血浆ctDNA检测**寻找T790M；若阳性，奥希替尼是优选。
+## 2) 对脑转移/中枢进展更有优势
+EGFR突变肺癌患者脑转移发生率高；一代/二代TKI在中枢的药物暴露有限。  
+- **奥希替尼血脑屏障穿透更好**，对脑转移和脑膜转移的控制更强，很多情况下能延缓或减少放疗需求。  
+- 因此即便是“获得性耐药”，只要耐药背景仍以EGFR通路为主（尤其T790M），奥希替尼在全身及中枢的综合获益更突出。
+## 3) 后线治疗需要“按耐药机制分层”，奥希替尼是最明确的一类
+一代/二代TKI耐药并不等于“所有患者都适合奥希替尼”，而是要看机制：
+- **T790M阳性：**奥希替尼证据最强、最标准。  
+- **T790M阴性：**耐药可能来自MET扩增、HER2改变、KRAS/PIK3CA、组织学转化（小细胞化）、EMT等，通常需要化疗、联合靶向（如MET抑制剂）或临床试验等；奥希替尼在这类人群中并非普遍有效。
+## 4) 实际策略上更“可持续”：疗效与耐受性平衡更好
+相比化疗或部分联合方案，奥希替尼（在适应证人群中）通常：
+- 缓解更快、控制更持久；
+- 毒性谱相对更友好（但仍需警惕间质性肺病、QT间期延长、心肌病等少见但重要不良反应）。
+---
+**一句话总结：**一代/二代EGFR‑TKI获得性耐药后，最常见、最可靶向的驱动事件是**T790M**；奥希替尼正是针对这一机制设计，并且中枢控制更强、总体耐受性更好，所以在检测证实（尤其T790M阳性）时被推荐作为后续治疗的关键选择。</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>在 EGFR 突变阳性的非小细胞肺癌（NSCLC）患者中，一线使用第一/二代 EGFR-TKI（如厄洛替尼、吉非替尼、阿法替尼等）后几乎都将出现获得性耐药，平均 PFS 约 9-13 个月。临床指南仍然把三代 EGFR-TKI——奥希替尼（osimertinib）列为进展后的首选推荐，核心原因可从以下几方面理解：
+1. 主要耐药机制与靶点吻合  
+   • 最常见的获得性耐药机制是 EGFR 基因 20 号外显子上的 T790M 突变，占所有耐药病例的 50%-60%。  
+   • 奥希替尼是一种第三代、口服、不可逆 EGFR-TKI，能同时抑制“敏感突变”（Ex19del、L858R）及 T790M 突变，对野生型 EGFR 的抑制活性低 200-fold 以上，可特异性克服 T790M 介导的耐药。   
+2. 临床证据最为充分  
+   • AURA Ⅱ、AURA 扩展队列、AURA3 Ⅲ期研究等均证实：在 T790M 阳性、对一/二代 TKI 进展的患者中，奥希替尼的 ORR 约 60%-70%，中位 PFS 10-12 个月；AURA3 与含铂化疗头对头比较显示 PFS HR≈0.30，且总生存（OS）也获显著延长。  
+   • 真实世界与多中心队列研究进一步验证了其疗效及安全性。   
+3. 中枢神经系统（CNS）疗效突出  
+   • 奥希替尼分子量小、脂溶性好、P-gp 及 BCRP 外排率低，血脑屏障通透率高。  
+   • 临床上对脑转移或脑膜转移的缓解率远优于早期 TKIs 及化疗，以 CNS-PFS 延长著称，因此成为脑转移患者的最优后续选择。  
+4. 安全性和耐受性更佳  
+   • 由于对野生型 EGFR 选择性低，皮疹、腹泻、口腔炎等不良反应发生率和严重程度均低于第一/二代 TKIs；导致停药的 Grade 3-4 AE 较少。  
+   • 良好的安全谱允许患者长期连续用药，也使高龄或合并症患者受益面更广。  
+5. 其他可选方案疗效有限  
+   • 如果不使用奥希替尼，传统选择是含铂双药化疗，ORR≈25%，PFS≈4-5 个月；单药免疫治疗在 EGFR 突变人群中亦显示疗效有限。  
+   • 因而在 T790M 阳性且未用过奥希替尼的患者中，奥希替尼优先级远高于化疗/免疫治疗。   
+6. 指南与共识的推荐  
+   • NCCN、ESMO、CSCO 等权威指南均建议：一/二代 EGFR-TKI 进展后应重取肿瘤样本或做液体活检检测 T790M；若 T790M 阳性，首选奥希替尼。  
+   • 对于 T790M 阴性、或无法获取分子结果但伴 CNS 进展的患者，在缺乏更好靶向手段时，奥希替尼也被视为可考虑的 off-label 选项。   
+总结  
+第一/二代 EGFR-TKI 进展后最常见的耐药机制是 T790M 突变，而奥希替尼能够选择性、不可逆地抑制 T790M，同时具有优异的 CNS 穿透力与安全性，随机对照研究已明确提高 PFS 和 OS，且替代治疗手段有限。因此，无论在循证证据还是在机制对位层面，奥希替尼都是 EGFR-TKI 获得性耐药后的标准后续治疗。</t>
         </is>
       </c>
     </row>
@@ -20411,6 +24015,56 @@
 &gt; **跳过分子检测直接换方案，如同“蒙眼开药”——可能浪费患者宝贵时间、增加痛苦，甚至因错误选择导致生存期缩短。**  
 &gt; **精准医疗的核心在于“知因施治”**：只有明确T790M等耐药机制，才能将患者从“盲目换线”的困境中解救出来，进入更有效的治疗路径（如奥希替尼将T790M阳性患者的PFS延长至18-20个月）。
 **因此，临床实践中必须坚持“影像学评估+组织/血液分子检测”双轨制**，这是国际国内指南的硬性要求，也是对患者生命负责的基本原则。当患者面临“进展”时，请务必与医生讨论分子检测的必要性——这可能是后续治疗成败的关键分水岭。</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>因为在EGFR敏感突变NSCLC接受一代/二代EGFR‑TKI后出现“进展”时，影像学只能说明“肿瘤在长大或出现新灶”，却无法回答决定下一步治疗的关键问题：**到底是什么耐药机制在驱动进展、是否仍主要依赖EGFR通路、以及有没有可靶向的新改变**。组织活检（或至少分子检测）能提供影像学给不了的可操作信息，因此被推荐。
+主要原因如下：
+1) **进展≠耐药机制明确，影像学无法区分不同生物学原因**  
+   影像学只能按RECIST判断PD/SD/PR，不能区分：  
+   - **p.T790M获得性突变**（最常见机制之一）  
+   - **MET扩增、HER2扩增、KRAS/BRAF等旁路激活**  
+   - **组织学转化**（如转化为小细胞肺癌或鳞状转化）  
+   - **异质性进展**（部分病灶耐药、部分仍敏感）  
+   这些情况在影像上可能表现相似，但治疗策略完全不同。
+2) **p.T790M结果直接决定是否能用三代EGFR‑TKI（如奥希替尼）**  
+   对于一代/二代TKI进展患者，是否存在T790M常常决定下一步能否获得高获益的靶向治疗方案。  
+   - 影像学不能预测T790M阳性与否；  
+   - 不做分子检测可能导致“该用靶向却改成化疗/免疫”的失配。
+3) **组织活检不仅能测到T790M，还能发现“非T790M耐药机制”，影响联合或替代方案**  
+   例如：  
+   - MET扩增/融合 → 可能考虑MET抑制剂或联合策略  
+   - HER2改变 → HER2靶向路径  
+   - ALK/RET等融合（少见但可见） → 对应靶向药  
+   - 小细胞转化 → 治疗应转为小细胞方案（如铂类+依托泊苷），这在影像上常无法可靠判断  
+   因此组织学+基因层面的信息能显著提升“后线治疗的精准性”。
+4) **排除“假性进展/非肿瘤因素/第二原发”等影像陷阱**  
+   新发结节或浸润影可能来自感染、炎症、放射性改变等；也可能出现第二原发肿瘤。组织病理能帮助澄清，从而避免因误判而过早更换有效药物。
+5) **肿瘤异质性与动态演化：需要“当下”的肿瘤样本**  
+   耐药突变常具有空间/时间异质性：不同转移灶耐药机制不同。进展时取样可更贴近当前驱动克隆，指导更合理的分层治疗。
+补充：临床上也常同时使用**血浆ctDNA**作为无创补充；但若血液检测阴性或需要判断组织学转化/扩增等，仍往往需要**组织活检**来提高检出率并获得病理信息。
+总结：影像学用于确认“是否进展、进展模式”；而组织活检/分子检测用于回答“为什么进展、下一步用什么药”。这就是推荐在EGFR‑TKI进展后进行组织活检检测T790M及其他耐药机制，而非仅依赖影像学评估的核心原因。</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>影像学检查只能告诉我们“病灶在长大或者出现了新的转移”，却回答不了“为什么会长大”的问题。而 EGFR-TKI 继发耐药的本质是一系列分子和/组织学水平的变化，后续治疗必须依据这些变化来制定。主要理由如下：  
+1. 指导后续精准用药  
+   • 约 50%～60% 的 EGFR-TKI 获得性耐药由 EGFR p.T790M 二次突变造成。一旦检出，可直接使用第三代 EGFR-TKI（如奥希替尼），中位 PFS 可再次达到 10～19 个月。  
+   • 若无 p.T790M，而检测到 MET 扩增、HER2 扩增、BRAF V600E、KRAS G12C 等，则可考虑相应的靶向药（MET 抑制剂、抗-HER2 方案、BRAF/MEK 双抑制、KRAS-G12C 抑制剂等）或临床试验。  
+   • 如果检测不到任何已知靶点，则更倾向于化疗或免疫-化疗方案。  
+2. 发现组织学转化，改变治疗策略  
+   • 约 5% 的患者在 EGFR-TKI 治疗后会转化为小细胞肺癌或其他表型。影像学毫无特征性，只有组织活检才能确认，随后治疗需改用小细胞肺癌的化疗方案（依托泊苷/铂类）。  
+3. 排除假性进展或其他非肿瘤性改变  
+   肺炎、出血、坏死性炎症都可在 CT 上表现为病灶增大，活检能够鉴别真进展与假进展，避免过早放弃有效的 TKI。  
+4. 为免疫治疗评估 PD-L1、TMB 等生物标志物  
+   虽然 EGFR 突变 NSCLC 总体对免疫治疗获益有限，但伴有高 PD-L1、高 TMB 或复合突变的亚群仍可能从免疫-化疗中获益，需要组织样本检测。  
+5. 液体活检（血浆 ctDNA）阳性即可接受，但阴性结果需组织活检确认  
+   ctDNA 对 p.T790M 的灵敏度只有 60%～80%，阴性不能排除该突变。组织活检仍是“金标准”。  
+6. 满足临床试验入组条件  
+   多数新药或组合治疗试验要求提供活检组织以确认分子靶点或进行伴随检测。  
+综上，影像学只能提示“进展”，而组织活检能够揭示“进展机制”，直接决定后续药物选择及预后，因而在 EGFR-TKI 治疗后进展的 EGFR 敏感突变 NSCLC 患者中被强烈推荐。</t>
         </is>
       </c>
     </row>
@@ -20740,6 +24394,67 @@
 &gt; ——这不仅是技术进步，更是对肿瘤本质认知的深刻转变。</t>
         </is>
       </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>TRK抑制剂（如拉罗替尼 larotrectinib、恩曲替尼 entrectinib）之所以能“不限癌种”用于包括非小细胞肺癌（NSCLC）在内的多种实体瘤，核心原因在于：**它们靶向的是一种跨癌种共享的、强驱动性的分子异常——NTRK基因融合——而不是靶向某个特定器官来源的肿瘤类型**。
+## 1) 为什么NTRK融合能成为“跨癌种通用靶点”
+- **NTRK1/2/3基因融合会产生持续活化的TRK融合蛋白激酶**，可持续驱动下游MAPK/PI3K等通路，促进肿瘤细胞增殖与存活。  
+- 在许多肿瘤中，这类融合属于典型的**“致癌驱动事件（oncogenic driver）”**：肿瘤对它形成“依赖”（oncogene addiction）。  
+- NTRK融合**可出现在多种实体瘤**（总体比例低，但分布广；在少数罕见肿瘤中比例很高），因此只要肿瘤携带该融合，**生物学上就可能对TRK抑制剂敏感**，与发生在肺、甲状腺、唾液腺或其他组织无关。
+## 2) 这种“tumor-agnostic”策略如何挑战传统肿瘤治疗思路
+传统肿瘤治疗（尤其是药物研发与适应证）大多遵循：  
+**“按器官/组织来源分癌种 → 在该癌种内做临床试验 → 获批该癌种适应证”**。  
+不限癌种策略带来几个关键挑战与改变：
+1. **从“解剖学分型”转向“分子分型”作为用药依据**  
+   - 过去：NSCLC用一套方案，结直肠癌另一套方案。  
+   - 现在：只要检测到NTRK融合，不论是NSCLC还是其他实体瘤，都可能优先考虑TRK抑制剂。  
+   这在临床决策上把“基因改变”提升为与“肿瘤发生部位”同等甚至更核心的分层因素。
+2. **临床试验与审批模式从单一癌种走向“篮式试验（basket trial）”**  
+   - 不再按“同一种癌”入组，而是按“同一种分子异常”跨癌种入组。  
+   - 药物获批也可基于跨多个肿瘤类型汇总的疗效证据，而非某一单癌种的大型III期试验模式（在罕见突变中往往不现实）。
+3. **推动常规诊疗路径前移分子检测**  
+   - 由于NTRK融合在常见癌种中总体发生率低，要“找到人”必须依赖更广泛的检测（如NGS；或IHC/FISH作为筛查/确认策略）。  
+   - 这改变了传统“先按病理和分期治，再考虑基因”的顺序，促使更多肿瘤患者在早期就进行广谱分子分型。
+4. **重新定义“适应证”的边界：以生物标志物为中心**  
+   - 用药标签的核心不再是“肺癌/乳腺癌”，而是“携带NTRK融合的实体瘤”。  
+   - 这也带来新的临床与监管问题：不同组织微环境、共突变背景、耐药机制差异，可能导致同一融合在不同肿瘤中的疗效并非完全一致，需要更精细的证据积累与用药管理。
+## 3) 放在NSCLC中的意义
+NSCLC里NTRK融合总体**罕见**，但一旦存在，往往可作为**明确的可靶向驱动**；因此TRK抑制剂在NSCLC中的应用体现了现代精准治疗的方向：  
+**不是“肺癌就该用某药”，而是“这位患者的肿瘤由哪个驱动改变主导，就用对应靶向药”。**
+如果你希望我进一步展开，我也可以补充：NTRK融合的检测策略（IHC/NGS/FISH选择）、耐药突变（如溶剂前沿突变）与二代TRK抑制剂思路，以及为何某些癌种中同一靶点疗效可能不同。</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>一、为什么一条药物可以“通吃”多种实体瘤  
+1. 共同的驱动事件——NTRK基因融合  
+   • NTRK1/2/3基因与不同的启动子或结构蛋白断裂-重排后，可产生TRKA/B/C融合蛋白。  
+   • 融合蛋白具有持续、配体非依赖的酪氨酸激酶活性，激活下游 MAPK、PI3K-AKT、PLCγ 等通路，驱动细胞增殖与存活。  
+   • 这种“驱动依赖”（oncogene addiction）与组织来源、分化程度无关，只要肿瘤细胞把生存完全寄托在 TRK 融合信号上，抑制这一靶点即可产生显著抗肿瘤效应。  
+2. 生物学特征高度一致  
+   • 正常情况下 TRK 主要在神经组织表达；一旦形成融合，人为把神经特异基因的激酶结构域搬到“高度表达”或“持续活化”的启动子下，导致强烈而统一的致癌表型。  
+   • 不同器官间微环境、基因背景差异，并不足以改变“对 TRK 激酶的成瘾”这一核心弱点，因此一类抑制剂可跨组织生效。  
+3. 临床数据验证“跨癌种”有效  
+   • 拉罗替尼和恩曲替尼的注册临床试验采用“篮子试验”（basket trial）设计，把17-20余种实体瘤患者按同一个分子事件（NTRK融合）纳入，客观缓解率分别≈75 % 与≈57 %，且缓解持续时间长、脑转移中亦有效。  
+   • 研究者并未观察到特定组织来源或伴随突变明显削弱疗效，进一步证明“分子主导而非组织主导”。  
+二、“不限癌种”策略如何冲击传统肿瘤治疗范式  
+1. 从“组织学-病理分类”到“分子病因分类”  
+   • 传统：先问“这是什么癌——肺癌？结直肠癌？乳腺癌？”，再按指南给标准方案。  
+   • 现在：先问“这是不是 NTRK 融合驱动的癌？”，若是，无论发源部位都可用 TRK 抑制剂。  
+2. 重新定义临床试验与药物审批  
+   • 篮子试验/伞形试验替代以往一个器官一个试验的模式，提高了罕见突变药物的研发效率。  
+   • FDA/EMA/NMPA 直接给予“pan-tumor”适应证（拉罗替尼为全球首个 kinase 类别的 tumor-agnostic 批准；国内恩曲替尼亦获“实体瘤”适应证），监管逻辑由“肿瘤类型”转向“生物标志物”。  
+3. 促进大规模基因检测（NGS）成为诊疗前置环节  
+   • 低发生率的 NTRK 融合（在常见肿瘤&lt;1 %，在某些罕见肿瘤&gt;90 %）难以依靠免疫组化或单基因 PCR 全覆盖，推动全外显子/全转录组测序在临床常态化。  
+4. 对多学科诊疗与支付体系提出新挑战  
+   • MDT 需跨专业解读罕见驱动基因，决定先用靶向还是常规疗法。  
+   • 保险/医保需要从“按癌种收费”过渡到“按精准分子标志物”付费。  
+5. 推动精准医学理念深化  
+   • NTRK 融合+TRK 抑制剂的成功，连同 dMMR/MSI-H+PD-1 抑制剂、RET融合+selpercatinib 等病例，为“one biomarker-one drug”模式提供现实依据，鼓励更多以基因异常为中心的“无瘤种”开发策略。  
+结论  
+TRK 融合肿瘤的共同生物学弱点使拉罗替尼、恩曲替尼等可在不同实体瘤中发挥相似而显著的疗效；这种依据分子驱动而非组织来源开出的“不限癌种”处方，打破了百年来按照器官-病理分类行医、行审、行保的传统体系，标志着肿瘤治疗从“位置学”时代迈向真正的“精准分子时代”。</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -21051,6 +24766,59 @@
 3. **多学科协作（MDT）**：  
    - 肿瘤科、病理科、影像科共同决策，尤其当检测结果存疑时。
 **最终目标**：将RET阳性NSCLC从“预后极差的亚型”转变为“长期带瘤生存的慢性病”。**任何延误都可能让患者失去这一历史性机遇。** 临床医生需牢记：**在驱动基因阳性的战场上，时间就是生存。**</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>在RET重排（RET fusion）非小细胞肺癌（NSCLC）里，一旦在一线系统治疗进行中才“补发现”RET重排，指南/共识仍常建议**尽快切换到选择性RET抑制剂（Pralsetinib或Selpercatinib）**，而不是继续原方案，核心原因是：**这是一个高效、可持续获益且更“对靶点”的治疗机会，继续原方案通常是在用相对低效或不够匹配的治疗消耗时间与毒性预算**。具体逻辑如下：
+1) **疗效差异往往是“量级”上的**  
+   RET融合是明确的驱动基因。选择性RET-TKI（selpercatinib/pralsetinib）在RET融合NSCLC中通常带来更高的客观缓解率、更长的无进展生存期，并且对脑转移也更有把握。相比之下，化疗±免疫、或非靶向方案对这类“单一强驱动”肿瘤往往不如靶向治疗有效且持久。  
+   因此，一旦知道了驱动基因，继续非匹配方案通常意味着“错过最佳治疗窗口”。
+2) **免疫治疗在驱动基因阳性人群中常见：获益有限但毒性成本可能更高**  
+   多数驱动基因阳性NSCLC（包括RET融合）整体上对单药免疫治疗反应率偏低（并非绝对无效，但平均收益不如靶向）。更关键的是：  
+   - 如果继续免疫治疗，后续再上RET-TKI，可能在一定时间窗内增加某些免疫相关/炎症性毒性的风险（临床上对序贯策略更谨慎，通常需要间隔与监测）。  
+   - 所以“尽早转入靶向”不仅为了更高疗效，也是在做**风险管理**。
+3) **“维持原方案直到进展”会增加肿瘤负荷与并发症风险，影响后续靶向治疗收益**  
+   等到进展再换药，常意味着：肿瘤负荷更大、症状更重、器官功能更差、脑转移/胸腔积液等并发症更可能出现，从而降低后续靶向治疗的“可控性”和耐受性。对强驱动肿瘤而言，**越早用对药，越可能把病情压到更稳定的水平**。
+4) **选择性RET抑制剂的“靶点匹配度”和治疗连续性更好**  
+   Pralsetinib/Selpercatinib专门针对RET融合设计，相比多靶点TKI或经验性方案，往往：  
+   - 靶向更精准（疗效与耐受性更均衡）  
+   - 可长期口服维持，便于疾病控制与生活质量管理  
+   这使其在“发现RET融合后”成为优先级很高的调整。
+5) **临床决策原则：发现可操作驱动基因 → 优先使用相应靶向药**  
+   不少指南的共同原则是：只要确认存在明确可药物靶向的驱动变异，且患者无禁忌/可及，就应把治疗策略调整为“以驱动靶向为核心”。因此即便是在一线治疗中途才拿到结果，也常建议更换到RET-TKI。
+---
+### 什么时候可能不立即中断原方案？
+少数情况下会个体化处理，例如：  
+- 患者正在发生严重感染/器官功能不稳，需先稳定再换；  
+- 靶向药暂不可及（医保/供药/审批），短期内需要“桥接治疗”；  
+- 对当前方案出现非常深且稳定的缓解且换药风险更高（但这在RET驱动背景下并不常见，且通常仍会讨论尽快切换的利弊）。
+如果你愿意，可以把患者目前用的具体一线方案（化疗/免疫/联合、已治疗周期、疗效评估、是否有脑转移、PD-L1、既往不良反应）以及RET融合的检测方式（NGS DNA/RNA、FISH等）告诉我，我可以更贴近情境地解释“为什么此时更应换”以及换药前需要注意的停药间隔与监测点。</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>在被确定为 RET 重排（RET-fusion）驱动的非小细胞肺癌（NSCLC）后，这个肿瘤就属于“驱动基因依赖型（oncogene-addicted）”肿瘤。针对这类肿瘤，RET 特异性酪氨酸激酶抑制剂 (TKI) ──Pralsetinib 或 Selpercatinib──具有与常规化疗/免疫治疗截然不同、且明显优于后者的生物学和临床特性，因此即使病人在接受一线系统治疗的中途才检测出 RET 重排，也建议立刻中断当前治疗并改用靶向药。关键理由如下：
+1. 客观缓解率和无进展生存期优势显著  
+   • ARROW 与 LIBRETTO-001 研究显示：  
+     ‑ 一线使用时，ORR 70%-88%，中位 PFS 16-24 个月；  
+     ‑ 既往接受过化疗/免疫治疗后再使用，ORR 57%-64%，中位 PFS 17-19 个月；  
+   • 传统含铂化疗 ORR 25% 左右，PFS 4-6 个月；  
+   • 单药免疫治疗在 RET+ NSCLC 中 ORR 通常 &lt;10%，且 PD-L1 表达与疗效相关性差。  
+   换言之，越早用 RET-TKI，疗效越好，继续原方案几乎不可能获得与靶向药相当的疾病控制。
+2. 毒性谱更可控、生活质量更高  
+   RET-TKI 的主要不良反应以 1-2 级肝酶、血压升高、轻度血象改变为主，可逆且可管理；而化疗/免疫治疗常见的骨髓抑制、外周神经病变、免疫相关肺炎、结肠炎等毒性更重，长期维持困难。
+3. 免疫-TKI 顺序问题  
+   如果先接受免疫检查点抑制剂，再换 RET-TKI，出现免疫相关不良反应（尤其肺炎、肝炎）的风险明显增加；因此早期切换能减少严重毒性。
+4. 避免让肿瘤“白白暴露”于低效治疗 ── 防止基因异质性和耐药克隆的出现  
+   在无靶向压力的化疗/免疫治疗环境中，RET 驱动克隆仍在持续复制，既无法被充分抑制，又可能产生新的旁路变异，未来即便改用 RET-TKI，疗效也可能降低。
+5. 指南与监管机构的共识  
+   • NCCN、ESMO、CSCO 均已把 Pralsetinib、Selpercatinib 列为 RET 重排 NSCLC 的 1 类/Ⅰ 级首选治疗；  
+   • FDA、国家药监局亦批准两药用于既往未经治疗和既往治疗后的 RET 重排晚期 NSCLC。  
+   指南明确指出：一旦确认存在可靶向的驱动基因，应尽快给予匹配靶向药。
+6. 颅内活性  
+   RET-TKI 对脑转移的控制率&gt;80%，而化疗或单药 PD-1 抑制剂对脑转移疗效有限；中途换药能及时控制中枢疾病进展。
+综合来看，维持原有化疗/免疫方案既难以获得实质收益，又可能增加毒性及耐药风险，而及时换用 Pralsetinib 或 Selpercatinib 能显著提高缓解率、延长生存、改善生活质量，并符合现行循证医学与指南的最高等级推荐。因此，在一线治疗过程中“补做”基因检测发现 RET 重排后，建议立刻中断当前治疗、启动相应靶向药。</t>
         </is>
       </c>
     </row>
@@ -21367,6 +25135,49 @@
 ### **结论**
 RET重排阳性NSCLC的“免疫单药疗效差”源于其**低免疫原性、缺乏预测标志物及“冷肿瘤”微环境**，而**靶向治疗凭借精准、高效、快速起效的临床优势，已成为该人群的绝对首选**。这体现了现代肿瘤学“**先检测、后治疗**”的核心原则：**明确分子分型是制定最优方案的前提**。对于RET+患者，延迟靶向而盲目尝试免疫单药，可能导致肿瘤快速进展、错过最佳治疗时机。因此，临床医生应优先通过NGS确认驱动基因状态，再根据指南分层决策。
 &gt; **注**：随着研究进展（如免疫联合策略在耐药后的探索），未来可能有新方案，但**当前标准治疗中，靶向仍是RET+ NSCLC的基石**。患者务必在专业肿瘤科医生指导下，结合基因检测、体能状态、经济因素等综合决策。</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>在 RET 重排阳性的非小细胞肺癌（NSCLC）中，免疫检查点抑制剂（ICI）单药疗效往往不理想，而靶向治疗成为主导，主要有以下几类原因：
+1) **肿瘤免疫原性通常偏低（“冷肿瘤”特征更常见）**  
+- RET 融合属于典型的“驱动基因”事件，这类肿瘤往往**肿瘤突变负荷（TMB）较低**、新抗原少，免疫系统更不容易识别。  
+- 因而 ICI 单药依赖的“已有免疫反应再释放刹车”的机制，常常缺少足够的基础反应可放大。
+2) **PD-L1 阳性并不等于对 ICI 有效（在驱动基因阳性亚型中尤甚）**  
+- RET 融合肿瘤中也可能出现 PD-L1 表达升高，但这类表达有时更多反映**驱动信号通路相关的“内源性表达”**，未必代表真实的炎症型免疫微环境。  
+- 临床上常见现象是：即便 PD-L1 不低，**ICI 单药客观缓解率仍偏低、缓解不持久**。
+3) **患者临床特征也常提示 ICI 获益有限**  
+- RET 融合在临床上更常见于**从不吸烟或轻度吸烟者、腺癌**等人群；这类人群总体上也更倾向于 **TMB 低**，与 ICI 单药获益较差相吻合。
+4) **RET 选择性抑制剂疗效明确、起效快、可及性越来越好**  
+- 选择性 RET-TKI（如 **selpercatinib、pralsetinib**）在 RET 融合 NSCLC 中通常具有**较高的缓解率、较长的疾病控制时间**，且对部分**脑转移**也有较好活性。  
+- 与“多数情况下反应率偏低且不稳定”的 ICI 单药相比，靶向治疗的**确定性收益更强**，因此在指南和临床实践中成为优先策略。
+5) **序贯与联合治疗的安全性/策略考量**  
+- 在驱动基因阳性 NSCLC 中，如果先用 ICI，后续再上靶向药或某些组合治疗，临床上需要更谨慎评估**毒性风险与治疗窗口**（不同药物组合/序贯的风险不完全相同，但总体上会影响治疗策略选择）。  
+- 因此更常采用“**先靶向、再考虑化疗±免疫**”的路径。
+综合而言：RET 重排 NSCLC 往往免疫原性不足、免疫微环境偏“冷”，使得 ICI 单药难以获得稳定而显著的收益；而选择性 RET 靶向药在该分子亚型中疗效更明确，因此成为主导治疗策略。需要的话我也可以按“一线/二线及以后”的顺序，把常见治疗路径与适用条件梳理成一个简表。</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>1. 生物学基础  
+   1) 患者人群的特征  
+      • RET 重排多见于年轻、女性、从不或轻度吸烟者的腺癌。  
+      • 这类人群累积的吸烟相关突变很少，因而整体突变负荷（TMB）低。  
+   2) 肿瘤免疫微环境“冷”  
+      • 低 TMB → 新抗原数量少 → 免疫原性弱。  
+      • 多数 RET-融合肿瘤的 PD-L1 表达为阴性或弱阳性，且常伴外周／肿瘤浸润淋巴细胞不足。  
+      • RET 驱动的 MAPK 信号可抑制Ⅰ型干扰素通路和 MHC-Ⅰ 表达，使肿瘤更难被免疫系统识别。  
+2. 临床证据  
+   • 多个回顾性队列（n≈100）与病例汇总显示：  
+     ‑ ICIs 单药 ORR 0–10%，mPFS 1.4–3 个月，mOS &lt; 10 个月。  
+     ‑ 即使 PD-L1 ≥50% 的亚组，反应率也不理想。  
+   • 相比之下，选择性 RET 抑制剂（selpercatinib、pralsetinib）一线或经治人群的 ORR 60–85%，mPFS 17–24 个月；颅内缓解率亦达 70% 以上，且毒性可控。  
+   • 基于这些结果，NCCN、CSCO、ESMO 均将 RET-TKI 列为首选或优选方案，而把 ICI 单药降为后线或不推荐。  
+3. 机制与策略总结  
+   • RET 融合肿瘤依赖单一驱动基因，且免疫原性低 → 对“唤醒”已有免疫反应的 ICI 不敏感。  
+   • 选择性 TKI 能直接阻断必需的驱动通路 → 临床获益大且迅速。  
+   • 若因种种原因需要使用免疫治疗，可考虑含化疗的 ICI 联合方案（提高抗原释放），但在缺乏 TKI 可及性或 TKI 进展后使用。  
+因此，因“低 TMB + 低 PD-L1 + 免疫冷微环境”造成 ICI 单药效应差，而高效、快速且可预测的靶向 RET 抑制剂成为 RET 重排阳性 NSCLC 的主导治疗策略。</t>
         </is>
       </c>
     </row>
@@ -21682,6 +25493,60 @@
 **总而言之，在极少数特定条件下（经过严格确认的无症状、轻微、孤立性进展，且患者状态良好），在严密监测下可以谨慎选择短期继续原药或观察，但这绝非标准流程，而是高度个体化的策略。绝大多数“进展”情况仍需要及时评估并考虑更换治疗方案。务必与你的肿瘤科医生进行深入、具体的讨论，这是做出正确决策的唯一途径。** 请务必以你的主治医生的专业意见为准。</t>
         </is>
       </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>在ROS1重排的非小细胞肺癌（NSCLC）中，如果影像学提示“无症状进展”（尤其是缓慢、低负荷的寡进展），临床上仍可能继续沿用原ROS1抑制剂（如克唑替尼/恩曲替尼等），而不必须立刻换成“新一代”TKI，核心原因通常是以下几类“收益—风险”权衡：
+1) **影像学进展 ≠ 临床失败（仍可能有持续获益）**  
+很多患者在出现RECIST意义的进展时，整体肿瘤负荷仍被当前药物大体控制，生长速度慢、无症状、器官功能未受威胁。此时继续原药可能仍能带来：  
+- 维持多数病灶的控制（“仍在压住主干敏感克隆”）  
+- 延缓需要更强治疗带来的毒性与不确定性  
+这在靶向治疗中常见，被称为**“treatment beyond progression（进展后继续用药）”**的策略之一。
+2) **寡进展/局部进展可用局部治疗“补位”**  
+ROS1阳性患者常见的进展模式是**少数病灶先逃逸**（例如单个肺内结节、少数淋巴结或局部骨灶）。如果其余病灶仍受控，可考虑：  
+- 放疗（SBRT/常规放疗）、消融、手术等局部手段处理“逃逸灶”  
+- 同时**继续原ROS1抑制剂**维持系统控制  
+这种做法常用于延长原方案的有效时间，推迟全身换药。
+3) **进展未必由“可被新TKI解决的耐药突变”驱动**  
+无症状进展可能来自：  
+- 肿瘤异质性/药物暴露不足/依从性问题  
+- 非ROS1依赖的旁路通路激活或小细胞转化等  
+这些情况下，立即换到新一代ROS1 TKI未必一定更有效。反而需要通过**ctDNA/组织再活检**尽量搞清机制，再决定是否换药更精准。
+4) **新一代TKI的“顺序使用价值”与可及性/安全性考虑**  
+- 新一代ROS1抑制剂（如对某些耐药位点更强、或更好的中枢渗透）通常是重要“后手牌”。在病情稳定、无症状、进展缓慢时，过早使用可能并不划算。  
+- 不同药物毒性谱不同；患者可能对当前药耐受良好，而新药可能带来新的不良反应或相互作用管理问题。  
+- 现实中还存在药物可及性、医保/费用等因素；在不影响安全的前提下继续原药有时更可行。
+5) **对“何时必须换药”的临床底线更看重症状与风险**  
+通常更倾向于在以下情况及时换药/升级治疗：  
+- 出现症状或生活质量下降  
+- 进展迅速、肿瘤负荷明显增加  
+- 累及关键脏器、存在器官功能受损风险  
+- 明确出现中枢神经系统进展且当前药物中枢控制不足（需结合是否可局部治疗与可换用更强中枢活性的药物）
+---
+**总结**：对于ROS1阳性NSCLC的“无症状、缓慢、低负荷（尤其寡进展）”进展，继续原ROS1抑制剂是一种常见的“维持总体控制、用局部手段处理少数逃逸、为后续换药保留空间”的策略；是否立即换新一代TKI，更取决于进展速度、部位（尤其是否脑转移）、耐药机制证据、患者耐受与可及性等综合判断。
+如果你愿意补充：当前用的是哪一种ROS1 TKI、进展部位（是否脑/骨/胸腔）、进展是寡进展还是多发进展、有没有做ctDNA/再活检，我可以把“继续原药 vs 换药 vs 局部治疗”的决策逻辑具体化到更可操作的方案。</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>出现“无症状进展（asymptomatic progression）”时，肿瘤虽然在影像学上达到 RECIST PD 标准，但对患者的整体病情及生活质量影响很小。在 ROS1-重排 NSCLC 中，继续沿用原 ROS1 抑制剂而不给予第二代/三代 TKI 的主要考虑点包括：
+1. 克隆异质性与“持续敏感”：
+   • 进展往往是寡进展或 CNS/单灶进展，仅是部分耐药克隆失控；大部分 ROS1 依赖克隆仍对原 TKI 敏感。  
+   • 继续给药可抑制仍然敏感的肿瘤细胞，避免停药后出现肿瘤“反跳(flare-up)”。
+2. 缓进展＋局部治疗策略在实践中有效：
+   • 多项回顾性研究、NCCN 与 CSCO 指南均建议：寡进展可行局部放疗/手术并维持原 TKI，可进一步获得 6-12 个月乃至更长的无进展期。  
+   • 既延长整体疾病控制时间，又推迟二线 TKI 的使用，从而延后后续耐药的发生。
+3. 缺乏“立即换药”必须证据：
+   • 现有二、三代 ROS1 TKI（lorlatinib、taletrectinib 等）在“未经一代 TKI 充分耐药”情况下提前使用尚无随机对照研究显示 OS 优势。  
+   • 若仅因影像学轻度增大即换药，可能过早消耗后线治疗资源。
+4. 安全性与依从性：
+   • 患者已适应当前 TKI 的毒性谱；高脂血症、认知障碍等新一代 TKI 特有不良反应并非所有患者都能耐受。  
+   • 经济可及性：新一代药物价格高、可及性有限，尤其在尚未医保覆盖地区。
+5. 临床症状与总体肿瘤负荷：
+   • 无症状、肿瘤负荷低的患者通常病情稳定，可密切随访；出现症状或快速进展再换药亦来得及。  
+   • 这样既避免过度治疗，也符合个体化精准治疗的理念。
+因此，在 ROS1-阳性 NSCLC 患者、既无临床症状又未伴快速系统性进展的情形下，维持原 ROS1 抑制剂（必要时辅以局部治疗）是一种被指南和临床循证所支持、能够兼顾疗效、耐受性及后续治疗筹码的合理策略，而不是必须立刻更换至新一代 TKI。</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -21989,6 +25854,106 @@
 &gt; - WJOG4607L Collaborative Group. *J Clin Oncol*. 2014;32(15):1542–1549. （JCOG0802：培美曲塞+顺铂 vs 吉西他滨+顺铂在晚期非鳞NSCLC）  
 &gt; - NCCN Guidelines: NSCLC (v2.2024) — Section 3.2024.
 **简言之**：组织学类型是连接肿瘤生物学与临床决策的“桥梁”——它反映了不同亚型在**药物靶点表达、代谢能力及毒性易感性**上的固有差异，而这些差异在大型临床试验中被反复验证，最终转化为指南中的精准推荐。理解这一逻辑，可避免“经验主义”用药，提升治疗获益比。</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>在非小细胞肺癌（NSCLC）辅助化疗里，“铂类 + 第三代药物”的双药是基础框架，但**非鳞癌（腺癌/大细胞等）**与**鳞癌**之所以会在“铂类搭配哪一个伙伴药”上分道扬镳，核心不是“铂类本身对某一组织学亚型完全无效”，而是：**不同组织学亚型的分子表达谱、代谢通路、易感毒性谱不同，导致某些联合药在某一亚型中疗效/毒性比更优**。这一结论主要来自多项分层分析与真实世界毒性差异（尤其在晚期人群里证据更强，随后外推到围手术期/辅助环境中形成推荐习惯）。
+下面按“药理学机制 + 组织特异性差异”解释为什么会这样选。
+---
+## 1）先说铂类：共同的“骨架”，差异主要来自“搭配药”
+**顺铂/卡铂**的主要作用是形成DNA加合物与交联（intra-/inter-strand crosslinks），引发复制阻滞、DNA损伤反应与细胞凋亡。  
+组织学亚型之间在铂类敏感性上有差别，但**临床上更决定组合优劣的是：铂类与搭配药物是否在该亚型中产生更强的协同，且毒性可接受**。
+---
+## 2）非鳞癌更常用“铂类 + 培美曲塞”的关键：叶酸代谢靶点的组织学差异
+### 2.1 培美曲塞的药理：多靶点抗叶酸
+培美曲塞（pemetrexed）抑制：
+- **胸苷酸合成酶（TS/TYMS）**
+- **二氢叶酸还原酶（DHFR）**
+- **甘氨酰胺核苷酸甲酰转移酶（GARFT）**  
+→ 同时阻断嘧啶与嘌呤合成，导致DNA/RNA合成障碍。
+### 2.2 为什么“非鳞”更获益：TS 等靶点表达谱不同
+大量转录与蛋白水平研究显示：**鳞癌更常见TS（TYMS）高表达**，而**腺癌等非鳞癌TS表达相对更低**。  
+- **TS高表达**会削弱抗叶酸药的抑制效果（需要更高药物暴露才能压住通路），临床上表现为**鳞癌对培美曲塞的相对耐受/低敏感**。  
+- 非鳞癌TS较低时，培美曲塞更容易在“常规剂量 + 维生素补充方案”下把通路压到足够深，从而与铂类的DNA损伤形成更强的“合成致死式”压力（DNA损伤 + 原料供应被切断）。
+### 2.3 协同机制（简化理解）
+铂类造成DNA交联损伤；培美曲塞减少核苷酸供给并影响修复所需底物，使细胞更难完成损伤修复与复制重启 → **协同增强细胞死亡**。这种协同在非鳞癌中更容易兑现为临床获益。
+---
+## 3）鳞癌更常用“铂类 + 吉西他滨/紫杉类/长春瑞滨”：与其生物学特征与毒性谱更匹配
+### 3.1 吉西他滨（gemcitabine）：对鳞癌更“对路”的分子背景
+吉西他滨是脱氧胞苷类似物：
+- 需要**脱氧胞苷激酶（dCK）**磷酸化激活  
+- 抑制**核苷酸还原酶（RRM1/RRM2）**并掺入DNA导致链终止  
+组织学差异方面，鳞癌在某些队列中呈现更有利的核苷类似物代谢/激活与复制压力特征（如增殖更强、细胞周期相关通路更活跃），使其在临床上更常见“铂类+吉西他滨”成为可接受的高效组合。
+（要点：这一块不像TS-培美曲塞那样有一个几乎“教科书式”的单靶点解释，而更像多因素叠加：增殖特征、代谢酶谱、既往临床分层结果共同推动。）
+### 3.2 紫杉类（紫杉醇/多西他赛）与长春瑞滨：微管靶向药与鳞癌的经验优势
+这类药通过干扰微管动态抑制有丝分裂。鳞癌历史上在很多方案中与铂类合用数据更成熟、可及性好；同时**鳞癌患者往往合并肺基础病、总体毒性耐受窗口不同**，在具体个体上可能更倾向选择某些非抗叶酸类搭配。
+---
+## 4）“组织学决定用药”背后还夹着一个很现实的因素：组织学相关毒性（尤其与抗血管生成药联用时）
+严格来说这不是“辅助化疗双药选择”的核心药理原因，但它强化了“看到鳞癌就避开某些药”的临床思维：  
+- 鳞癌（中央型、空洞、贴近大血管）更易出现**咯血/致死性肺出血**风险；因此像**贝伐珠单抗**这类抗VEGF药在鳞癌中被明确规避。  
+虽然你问的是“铂类联合化疗”，但这一历史教训使得指南与临床路径更强调“组织学分层”，并延伸到化疗搭配药的选择上（尤其在证据边界不那么锐利的情境，如从晚期证据外推到围手术期）。
+---
+## 5）一句话总结机制链条
+- **非鳞癌**：更常见**TS较低/抗叶酸更敏感** → **铂类 + 培美曲塞**疗效/毒性比更优。  
+- **鳞癌**：更常见**TS较高导致培美曲塞相对不敏感**，且历史证据与可耐受方案多集中在**铂类 + 吉西他滨/紫杉类/长春瑞滨** → 更常作为优先组合。
+---
+如果你希望我把这件事进一步“落到辅助化疗具体推荐”（如ⅠB–ⅢA不同分期、顺铂 vs 卡铂、以及我国/国际指南对各组合证据等级的差异），告诉我你关注的指南体系（CSCO/NCCN/ESMO）和患者具体分期/基因状态，我可以按场景把选择逻辑写成可操作的决策树。</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>在以顺铂为基础的辅助化疗（甚至在晚期一线化疗）中，临床指南往往把非小细胞肺癌（NSCLC）先分成“鳞癌（Sq）”和“非鳞癌（主要为腺癌/大细胞癌，Non-Sq）”后再决定与顺铂联用的第 2 个药物。例如  
+• 非鳞癌：顺铂＋培美曲塞（pemetrexed）  
+• 鳞　癌：顺铂＋吉西他滨（gemcitabine）、长春瑞滨（vinorelbine）或紫杉类（paclitaxel 等）
+这一“按组织学分药”的做法最初来自Ⅲ期临床试验（如 JMDB、JMEN、PARAMOUNT、JIPANG 等）的生存差异，随后被分子病理学和药理学机制所证实。核心机理可概括为“药物作用靶点（或代谢/转运酶）的组织学差异表达 + 铂类的协同/增敏 + 毒性安全性差异”。
+一、培美曲塞对非鳞癌更敏感的机制  
+1. 作用靶点差异  
+   • 培美曲塞是“多靶点”抗叶酸类，主要抑制胸苷酸合酶（TS）、二氢叶酸还原酶（DHFR）和甘酰胺核苷酸转移酶（GARFT）。  
+   • RNA/DNA 测序和免疫组化显示：  
+     – 非鳞癌（尤其腺癌）TS 基因/蛋白表达显著低于鳞癌 → 靶点低表达意味着对 TS 抑制更敏感。  
+     – FPGS（folyl-polyglutamate synthetase）在非鳞癌中表达更高，利于培美曲塞在细胞内多谷氨酰化、滞留和增强抑酶效应。  
+   • 鳞癌 TS 高表达 → 先天“耐药”；临床也观察到培美曲塞联合或维持治疗在鳞癌人群无获益甚至劣效。  
+2. DNA 修复/增敏协同  
+   • 顺铂造成 DNA 链内/链间交联，需 ERCC1-XPF 复合体修复。  
+   • 非鳞癌 ERCC1 水平较低，更难修复铂损伤；培美曲塞抑制嘌呤/嘧啶合成后，可进一步降低修复能力 → 对顺铂呈协同增敏。  
+3. 毒性安全性因素  
+   • 培美曲塞对骨髓、黏膜的毒性相对温和，和顺铂联合在非鳞癌通常可保证足够剂量密度；而鳞癌患者常伴中央型病灶、气道黏膜脆弱，使用培美曲塞获益小而经济负担高，因此不推荐。  
+二、吉西他滨 / 长春瑞滨 / 紫杉类对鳞癌更敏感的机制  
+1. 吉西他滨（核苷类似物）  
+   • 激活需经脱氧胞苷激酶（dCK）磷酸化。鳞癌 dCK 高、胞苷脱氨酶（CDA）低 → 活性代谢物 2,2-difluoro-dCTP 累积多。  
+   • RRM1（ribonucleotide reductase M1）高表达会导致吉西他滨耐药；鳞癌平均 RRM1 低于腺癌 → 对吉西他滨更敏感。  
+2. 长春瑞滨 / 紫杉类（微管抑制剂）  
+   • 鳞癌来源于气道基底/鳞状上皮细胞，增殖分裂指数高，微管动力学活跃 → 微管抑制剂杀伤效果更突出。  
+   • 鳞癌多有 β-Ⅲ tubulin 表达降低，减轻对紫杉类的耐药。  
+3. 与顺铂的协同  
+   • 微管抑制剂可阻滞细胞于 G2/M 期，此期核对修复能力最低，与顺铂 DNA 交联协同。  
+   • 吉西他滨 S 期特异，可降低核苷酸池，抑制 DNA 修复，也与顺铂协同。  
+4. 毒性/安全性考虑  
+   • 鳞癌中央型病灶出血、空洞风险高，所以含贝伐珠单抗或抗血管生成药物常被禁用。  
+   • 吉西他滨/长春瑞滨骨髓抑制可控，且无増血管出血风险。  
+三、组织学差异的分子基础  
+1. 发源细胞不同：  
+   • 鳞癌多起源于支气管上皮基底细胞 → 需要更强角化、分化相关基因，与 DNA/叶酸代谢相关基因表达谱不同。  
+   • 腺癌起源于远端肺泡 II 型细胞/ Clara 细胞 → 对叶酸代谢更依赖。  
+2. 吸烟暴露与突变负荷：  
+   • 鳞癌通常累积多发突变、高增殖及 TP53 失活 → 提高对 DNA 交联/微管靶向药敏感性。  
+   • 腺癌中 EGFR、ALK、ROS1 等驱动基因显著，兼具叶酸酶表达特征 → 对培美曲塞敏感。  
+3. 药物转运体差异：  
+   • 培美曲塞需经 RFC、PCFT 转运；这些转运体在非鳞癌表达稍高。  
+   • 吉西他滨需 hENT1 转运，鳞癌 hENT1 阳性率略高。  
+四、临床证据与结论  
+1. JMDB 研究：顺铂＋培美曲塞 vs 顺铂＋吉西他滨：  
+   • Non-Sq OS 11.0→12.6 个月（HR 0.81）  
+   • Sq OS 10.8→9.4 个月（HR 1.23，不利）  
+2. PARAMOUNT、JIPANG 等巩固了“非鳞癌优选培美曲塞”概念。  
+3. 这些临床差异与上文分子机制相吻合，成为指南把组织学作为选择标准的依据。  
+总结  
+• 组织学决定了关键药物靶点、代谢/转运酶以及 DNA 修复、微管动力学等生物学特征。  
+• 非鳞癌：TS 低＋FPGS 高 → 对培美曲塞敏感；ERCC1 低 → 与顺铂协同。  
+• 鳞癌：TS 高、dCK 高、RRM1 低、β-Ⅲ tubulin 低、高增殖 → 对吉西他滨/长春瑞滨/紫杉类＋顺铂更敏感。  
+• 安全性（出血、毒性谱）也进一步影响了推荐。  
+因此，在非小细胞肺癌的辅助（及一线）化疗中，根据鳞癌与非鳞癌的组织学类型选择不同的顺铂联合药物，是基于充足的药理学、分子生物学和临床证据的精准医学实践。</t>
         </is>
       </c>
     </row>
@@ -22273,6 +26238,78 @@
 **对患者和家属的建议：** 如果您或家人正在经历TKI治疗后进展，请务必与主治医生充分沟通，了解进行再活检/液体活检的必要性。虽然过程可能有些麻烦或担心，但这是获得最有效、最安全后续治疗的关键一步，切勿因“怕麻烦”或“想快点换药”而跳过这一关键步骤。真正的“快速”有时恰恰是建立在精准诊断的基础之上。</t>
         </is>
       </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>临床上强调在 TKI 治疗后进展的非小细胞肺癌（NSCLC）必须做“再次活检/血浆检测 + 广泛分子谱分析（NGS）”，而不是直接经验性换另一种靶向药（如 Lazertinib），核心原因是：**“进展”背后机制高度异质，后续治疗必须建立在明确的耐药机制或新驱动改变之上；盲换药命中率低，还可能错过更有效、甚至决定预后的方案。** 具体包括：
+1) **耐药机制很多，且决定下一步用药方向**
+同样是“TKI 后进展”，可能是：
+- **靶点内耐药突变**（如 EGFR C797S、L718Q、G724S 等；或 ALK/ROS1 的二代/三代耐药位点）
+- **旁路通路激活/扩增**（如 MET 扩增、HER2 扩增、KRAS/NRAS、BRAF、PIK3CA 等）
+- **融合/重排新出现**（如 RET、ALK、FGFR 等）
+- **组织学转化**（最典型：EGFR 肺腺癌 → 小细胞肺癌转化；也可鳞癌化、EMT）
+- **并非分子耐药**（少数是药代问题、依从性、局部寡进展等）
+这些机制对应的最佳处理完全不同：  
+例如 **MET 扩增**常需要 MET 抑制剂联合策略；**小细胞转化**应转向化疗方案；**C797S**的处理还要看与 T790M 的顺反式关系；若出现 **BRAF V600E / RET 融合**则有各自高效的靶向药。**不检测就无法匹配治疗。**
+2) **Lazertinib 这类“换同靶点药”并非对所有耐药都有效**
+以 EGFR 为例：如果患者已在三代 EGFR-TKI（如奥希替尼）后进展，很多常见耐药机制（如 **MET 扩增、转化、KRAS 通路**）对“再换一个三代 EGFR-TKI（包括 Lazertinib）”通常**不敏感**。  
+也就是说，经验性更换往往只是“换药名”，但**没有解决耐药的生物学根因**。
+3) **广泛分子谱可发现“可操作变异”，直接带来更高获益**
+再次活检/ctDNA NGS 的价值在于：
+- 找到**可靶向的获得性改变**（可进入指南推荐或临床试验）
+- 明确是否存在**共突变/复杂耐药**，决定联合治疗或转向非靶向治疗
+- 为**临床试验入组**提供必要证据（很多试验要求分子确认）
+4) **避免“错过窗口期”和无效毒性**
+- 若存在 **小细胞转化**，继续或更换 EGFR-TKI 可能延误化疗/放疗等关键治疗窗口。  
+- 若存在可用的高效靶向/联合方案，盲换药会让患者消耗体能与时间，且可能产生不必要不良反应与经济负担。
+5) **血浆 ctDNA 与组织活检互补，能解决肿瘤异质性问题**
+- **ctDNA**：微创、速度快，可反映多灶病灶的综合分子图谱；适合快速捕捉耐药克隆。  
+- **组织再活检**：能做**病理学评估**（是否转化、是否混合组织学），并可在 ctDNA 阴性时提供信息。  
+临床往往二者结合：先 ctDNA，必要时补组织。
+**总结**：TKI 进展后最关键的是“找出耐药机制并对症下药”。广泛分子谱分析能把患者导向真正有效的靶向/联合/化疗或试验路径；相反，经验性换用另一种同类靶向药（如 Lazertinib）在多数耐药情境下命中率低，且可能延误更合适治疗，因此不被强调为优先策略。</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>临床并不是因为“再换一种 EGFR-TKI 也许有效”就贸然给药，而是要求在进展时先做组织（或血浆 ctDNA）再活检并行广泛分子谱分析，主要基于以下几方面的医学原理与循证依据。
+1. 抗性机制高度异质  
+   1) 靶点本身的继发突变  
+      ‑ EGFR T790M、C797S、L718Q、G724S 等。  
+   2) 靶点旁路的激活  
+      ‑ MET、HER2、FGFR2 扩增/融合，KRAS、BRAF、PIK3CA、ALK/RET/ROS1 融合等。  
+   3) 组织学转化  
+      ‑ 转化为小细胞肺癌 (SCLC)、鳞癌、EMT 等。  
+   对不同机制，最有效的治疗方式完全不同：  
+      • T790M → 三代 EGFR-TKI（如 osimertinib、lazertinib）  
+      • C797S（顺式/反式）→ 双靶向或四代 EGFR-TKI 临床试验  
+      • MET 扩增/融合 → MET 抑制剂（savolitinib、capmatinib + EGFR-TKI）  
+      • HER2 或 BRAF 变异 → 对应的 HER2 ADC 或 BRAF/MEK 抑制剂  
+      • 组织学转化 → 铂依赖化疗 ± 放疗 ± PARP 抑制剂  
+   “盲换”一款 EGFR-TKI 只能覆盖极少数情形，绝大多数情况下无效，耽误最佳时机。
+2. Lazertinib 并非“通杀”  
+   Lazertinib与 osimertinib 同属第三代 EGFR-TKI，作用靶点及耐药谱几乎相同。若患者已在第三代 TKI（如 osimertinib）后进展，再用 lazertinib 基本没有生物学依据。只有在“未用过第三代 TKI、组织/血液证实 T790M 阳性”时才有合理性。
+3. 避免无效治疗与耐药累加  
+   继续或随意更换 TKI 一旦无效，患者会迅速临床恶化，错失转用化疗、ADC、双靶向或免疫治疗的窗口，还可能促进新的耐药克隆出现。
+4. 指导临床试验及给药资格  
+   多数新一代靶向药物/联合方案（如 amivantamab、patritumab deruxtecan、CLN-081、BLU-945 等）的入组前提是“分子证据+进展时检测”。缺乏再活检报告，患者无法进入这些潜在获益更大的治疗。
+5. 指南与医保/监管要求  
+   NCCN、ESMO、CSCO 均建议：  
+      • 对所有 EGFR/ALK 等靶向治疗进展者，推荐组织或液体 NGS，以明确耐药机制。  
+      • 若怀疑小细胞转化，必须组织学确认。  
+   国内外药物准入/报销也多要求“靶点阳性”证明，盲目用药面临不上医保、自费高且易被拒付的风险。
+6. 组织或液体活检的可及性与安全性已明显改善  
+   • 影像引导下经皮/气管镜活检成功率高，严重并发症低。  
+   • 高灵敏度 ctDNA NGS 可在多数病人获得充足信息，避免侵袭性操作。  
+   • 二者联合可互补提升检出率和准确性。
+结论  
+非小细胞肺癌在 TKI 进展后的克隆演化千差万别，唯有通过再活检或血浆 NGS 获取全景式分子图谱，才能：  
+   1. 精确定义耐药机制；  
+   2. 匹配最有可能获益的下一线（或联合）治疗；  
+   3. 避免无效或重复用药；  
+   4. 为临床试验和医保审批提供依据；  
+   5. 改善预后并减少不必要的毒性和经济负担。  
+因此，经验性地直接更换为另一种靶向药（如 lazertinib）在多数情况下既缺乏科学依据，也可能延误更加有效、精准的治疗。</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -22530,6 +26567,45 @@
    - 出现3–4级AE时需暂停/减量，但多数可恢复（避免自行停药导致复发）。  
 &gt; **重要提醒**：随着研究深入，未来可能针对特定耐药机制（如NRAS突变）调整方案，但**当前一线标准仍是双靶点联合**。单药在真实世界中因“简化治疗”常被误用，但需严格遵循指南以避免患者预后受损。
 通过理解MAPK通路的复杂调控和临床数据的硬终点（OS、PFS），联合方案已成为该人群治疗的“基石”，而单药仅作为特殊场景的权宜之计。临床决策应始终以**指南更新**和**患者个体化评估**（如体能状态、合并症、基因谱）为基础。</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>在BRAF V600E 突变的非小细胞肺癌（NSCLC）中，临床更推荐 **BRAF抑制剂 + MEK抑制剂联用**，核心原因是：**更有效、更耐药更慢、毒性谱更可控**，且有直接临床证据支持优于单药。
+## 1) 机制上：单用BRAF抑制剂容易“通路再激活”，联用能更彻底阻断MAPK通路
+BRAF V600E 驱动的关键信号轴是 **RAS–RAF–MEK–ERK（MAPK通路）**。  
+- **BRAF抑制剂单药**虽然能抑制突变BRAF，但肿瘤细胞很常通过多种方式让下游 **MEK/ERK重新被激活**（例如上游受体酪氨酸激酶或RAS信号增强、RAF二聚/旁路激活、MEK获得性改变等），从而较快产生耐药。  
+- **加用MEK抑制剂**相当于在下游再加一道“闸门”，即使上游出现反馈/旁路，ERK输出也更难恢复，通常带来 **更深、更持久的抑制**与更长的疾病控制时间。
+## 2) 临床上：联用方案疗效更好，是指南推荐的标准靶向方案
+在临床研究与真实世界中，BRAF/MEK联合（典型如 **达拉非尼 + 曲美替尼**）在BRAF V600E NSCLC里显示出较高的客观缓解率与较有竞争力的无进展生存期，而BRAF抑制剂单药总体上 **缓解率较低、缓解持续时间更短**。因此各大指南/共识通常将 **BRAF+MEK联用**作为优选靶向策略。
+## 3) 安全性上：联用还能减少BRAF抑制剂相关的“反常MAPK激活”皮肤毒性
+BRAF抑制剂在某些BRAF野生型细胞中可导致 **“反常激活”MAPK通路**，与皮肤相关不良反应（如角化棘皮瘤/鳞癌样病变、皮疹等）有关。  
+- **联合MEK抑制剂**可抑制这种下游激活，临床上往往表现为 **部分皮肤相关不良反应减少**（当然联用也会引入MEK抑制剂特有不良反应，如心功能/眼部/肌酶升高等，需要监测与管理）。
+---
+总结：**BRAF抑制剂单药容易出现MAPK通路“绕路”和耐药**，而 **BRAF+MEK双重阻断**能提高抗肿瘤效应、延缓耐药，并在某些毒性（尤其皮肤反常增殖相关事件）上更有优势，所以临床实践更倾向推荐联合治疗。</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>临床上之所以把“BRAF抑制剂＋MEK抑制剂”作为携带 BRAF V600E 突变非小细胞肺癌（NSCLC）的标准方案，而不再主张单用 BRAF 抑制剂，主要基于以下几方面的生物学机制与临床证据：   
+1. 机制层面：单用 BRAF 抑制剂易出现 MAPK 通路再激活  
+   • BRAF-V600E 突变使 MAPK（RAS-RAF-MEK-ERK）级联持续活化。  
+   • 仅抑制 BRAF 后，细胞通过多种反馈环路迅速重新激活下游 MEK/ERK（如 EGFR 上调、RAS 活化、BRAF 剪接变体或 BRAF-CRAF 二聚化等）。  
+   • 这种“绕道”导致耐药在几周到几个月内出现，疗效短暂。  
+   • MEK 抑制剂作用于 BRAF 下游，可阻断上述再激活通路，从而延缓/克服耐药。
+2. 预防“悖论性激活”及减少毒性  
+   • 在 BRAF 野生型的正常组织中，单用 BRAF 抑制剂可使 RAF 二聚体被 RAS 激活，反而激活 ERK 通路，引起皮肤增生、鳞癌等不良反应（悖论性激活）。  
+   • 联合 MEK 抑制剂能阻断这种下游激活，临床上表现为皮肤毒性、二次肿瘤发生率明显下降。
+3. 临床疗效显著优于单药  
+   • BRF113928 II 期研究：  
+     ‑ 既往系统治疗后人群：  
+       ‑ Dabrafenib 单药 ORR≈33%，mPFS≈5.5 个月。  
+       ‑ Dabrafenib + Trametinib ORR≈64%，mPFS≈10.9 个月。  
+     ‑ 一线治疗队列亦显示 ORR≈68%，mPFS≈11.0 个月。  
+   • 同行研究均一致显示：联合方案在客观缓解率、无进展生存期、总体生存期方面明显优于 BRAF 抑制剂单用。
+4. 毒性谱更可控  
+   • 联合治疗可减少单用 BRAF 抑制剂特有的皮疹、光敏感、鳞癌等事件；常见不良反应（如发热、疲劳）虽增多，但大多可管理，整体获益-风险比更优。
+基于上述分子生物学原理及扎实的临床数据，国际及国内指南（NCCN、ESMO、CSCO 等）均推荐在 BRAF V600E 突变 NSCLC 中首选 Dabrafenib + Trametinib（或其他已获批的 BRAF/MEK 双靶组合），而不再推荐 BRAF 抑制剂单药治疗。</t>
         </is>
       </c>
     </row>
@@ -22877,6 +26953,48 @@
 通过理解CHIP的干扰机制并采取分层检测策略，可最大限度减少其对NSCLC个体化治疗的误导，确保患者获得基于真实肿瘤基因型的最优方案。</t>
         </is>
       </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>在非小细胞肺癌（NSCLC）的基因分型中，ctDNA液体活检测到的“突变”并不一定都来自肿瘤。**意义不明确的克隆性造血（CHIP）**指的是外周血造血干/祖细胞获得体细胞突变后发生克隆扩增；这些突变存在于**白细胞/血细胞系DNA**中。由于液体活检通常用外周血样本进行测序，CHIP会从多个环节干扰解读，造成与组织活检不一致：
+1) **血浆中的“肿瘤突变信号”可能其实来自血细胞（假阳性）**  
+血浆ctDNA检测检测的是循环游离DNA（cfDNA）的突变。cfDNA来源混杂：除肿瘤外，正常组织尤其是血细胞也会释放cfDNA。CHIP克隆的白细胞凋亡/坏死释放的DNA进入血浆后，会被误判为肿瘤来源ctDNA，从而把CHIP突变当成“肿瘤驱动/耐药突变”。
+2) **常见CHIP基因与肺癌相关基因有重叠，容易“对号入座”**  
+CHIP高频基因包括 **DNMT3A、TET2、ASXL1、PPM1D、TP53、JAK2、KRAS** 等；其中不少（如TP53、KRAS等）在肺癌中也常见。于是液体活检检出这些变异时，若没有配对白细胞（germline/外周血细胞）对照，很难仅凭一个结果判断它究竟是肿瘤突变还是CHIP突变。
+3) **导致与组织活检“不一致”的典型表现**  
+- **液体活检阳性、组织阴性**：组织样本里没有该突变（因为它根本不在肿瘤里），但血液里能检出（来源CHIP），从而出现不一致。  
+- **等位基因频率（VAF）模式误导**：CHIP突变的VAF有时相对稳定、与肿瘤负荷/疗效变化不同步；但在某些情况下仍可落在“看起来像ctDNA”的低频范围，增加误判。  
+- **治疗决策偏差**：把CHIP当成肿瘤耐药/驱动突变，可能导致不必要或错误的靶向/免疫相关判断。
+4) **样本与技术因素会放大这种干扰**  
+ctDNA检测通常不包含“白细胞对照”（matched WBC sequencing）时，算法难以区分血细胞来源的克隆性突变；再加上某些检测面板覆盖大量基因、检测灵敏度很高，就更容易把CHIP检出来并误归因于肿瘤。
+总结：**CHIP本质上是血液系统的克隆突变**，会进入cfDNA池并在ctDNA检测中被当作肿瘤突变，从而造成**液体活检假阳性**与**组织-血液结果不一致**。常见的应对方法是进行**配对白细胞测序/生物信息学过滤CHIP**并结合临床、影像与动态VAF变化综合判断。</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>在血浆中测到的 cfDNA 既包括真正来源于肿瘤的 ctDNA，也包括来自正常细胞的游离 DNA，其中白细胞是最重要的“背景噪声”之一。  
+所谓“意义不明确的克隆性造血”(clonal hematopoiesis of indeterminate potential，CHIP) 指的是血液造血干/祖细胞因为获得某些体细胞突变而发生克隆性扩增，突变克隆可长期稳定存在，并持续向血流中释放 DNA 片段。它会影响 ctDNA-检测并造成与组织活检结果的不一致，主要原因如下：
+1. 泊位竞争——同一管血里的两种 DNA 混在一起  
+   • ctDNA 只占 cfDNA 的一小部分，而 CHIP 克隆释放的 DNA 量往往更多。  
+   • NGS 检测到的低丰度变异可能来自 CHIP 而非肿瘤，导致假阳性。
+2. 基因位点高度重叠  
+   • CHIP 最常累及的基因（DNMT3A、TET2、ASXL1、TP53、JAK2、KRAS、BRAF 等）与肺癌驱动基因库部分重叠。  
+   • 因此在血浆里检出这些基因的突变时，很难通过“基因是否为肿瘤驱动基因”来区分来源。
+3. 变异等位基因频率(VAF)迷惑性强  
+   • CHIP 产生的突变 VAF 通常为 0.1%–30%，与早期或微小残余病灶释放的 ctDNA 的 VAF 区间重叠。  
+   • 仅凭 VAF 高低也无法可靠地区分肿瘤 DNA 还是造血细胞 DNA。
+4. 发病人群重叠  
+   • CHIP 与年龄、吸烟、放疗/化疗史等密切相关，而这些也是非小细胞肺癌患者常见特点，使 CHIP 更易出现。
+5. 结果与组织活检不一致的直接机制  
+   • 如某突变实际只存在于血液造血克隆中而不在肺癌组织中：  
+     ‑ ctDNA 检测阳性 → 误以为肿瘤携带该突变  
+     ‑ 组织活检阴性 → 出现“矛盾结果”  
+   • 反之，若肿瘤中存在突变但释放 ctDNA 极少，也可出现“组织阳性/血浆阴性”的不一致。
+6. 潜在临床后果  
+   • 误把 CHIP 突变当作肿瘤驱动基因，可能导致错误的靶向治疗选择或过度治疗。  
+   • 混入的 CHIP DNA 还会稀释真正 ctDNA，降低对真实肿瘤突变的检出率。
+因此，在解读基于 ctDNA 的液体活检结果时，应尽可能同时测序配对的外周血白细胞 DNA，或使用生物信息学、VAF 阈值及临床病理信息综合判读，以剔除 CHIP 的干扰，避免与组织活检出现不必要的不一致。</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -23204,6 +27322,51 @@
 5. Ciuleanu T, et al. Ann Oncol. 2009;20(6):987-94. (Long-term follow-up of 307)  
 6. Ciuleanu T, et al. J Thorac Oncol. 2019;14(1):108-119. (Real-world data in PS 2)  
 此回答严格基于当前国际指南和高质量证据，避免过度简化临床复杂性。实际诊疗请以主治医生结合患者具体情况为准。</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>在转移性**非鳞状NSCLC（以腺癌为主）且PS=2**的人群里，治疗目标通常更偏向“**尽可能维持疗效，同时把毒性和住院风险降到最低**”。在这一前提下，指南/共识更倾向于选 **卡铂 + 培美曲塞**，而不倾向 **卡铂/顺铂 + 长春瑞滨** 等方案，核心原因主要是下面几条（按重要性）：
+1) **同等或接近的抗肿瘤获益下，毒性谱更适合PS=2**
+- PS=2患者对化疗不良反应的耐受性明显更差，任何会显著增加**骨髓抑制、感染、发热性中性粒细胞减少（FN）**、住院和治疗中断风险的方案都会“得不偿失”。  
+- **培美曲塞**（在补充叶酸/维B12并合理预防用药前提下）总体上属于**相对温和、可预期且可管理**的非血液学毒性方案；血液学毒性也相对可控。  
+- 相比之下，**长春瑞滨 + 含铂**尤其在体能状态差的人群中更容易出现**较重的中性粒细胞减少/FN**，且长春瑞滨还可带来**神经毒性、静脉炎/外渗风险、便秘/肠麻痹**等问题，综合耐受性对PS=2不利。
+2) **非鳞状人群存在明确的“组织学选择优势”：培美曲塞更匹配腺癌**
+- 大量证据显示：**培美曲塞在非鳞状（腺癌/大细胞）中的疗效优于鳞状**，因此各指南长期把“培美曲塞+铂类”作为非鳞状的优选含铂双药之一。  
+- 长春瑞滨并不存在这种对“非鳞状”明确更优的组织学匹配优势。
+3) **顺铂方案在PS=2中通常因非血液学毒性和给药要求而更不友好**
+- **顺铂**更常见和更棘手的风险包括：**肾毒性、恶心呕吐、耳毒性、神经毒性**，且常需要更充分的补液、止吐方案和监测。  
+- PS=2患者往往合并营养差、脱水风险、肾功能边缘、合并症多，更难承受顺铂相关管理强度与毒性，因此顺铂联合长春瑞滨在这类人群里通常不如**卡铂+培美曲塞**“安全边际大”。
+4) **治疗连续性与生活质量：培美曲塞方案更容易按计划完成**
+- PS=2患者一旦出现严重骨髓抑制或感染，往往导致**延迟/减量/中止**，实际“剂量强度”下降，可能抵消理论疗效。  
+- 卡铂+培美曲塞在临床中更容易维持给药节奏，整体更符合PS=2“以可持续治疗换取净获益”的策略。
+5) **现实世界与指南倾向：PS=2更看重“低毒性优先”**
+- 多数指南在PS=2时会强调：若使用含铂双药，应优先选择**毒性更可控的方案**；在非鳞状中，卡铂+培美曲塞正好满足“组织学适配 + 可耐受性较好”的组合条件。  
+- 长春瑞滨含铂双药更常被认为适用于体能状态更好（PS 0–1）或特定情境下，而非PS=2的优先选项。
+如果你愿意，我也可以结合你提到的患者情况（年龄、肾功能、骨髓储备、是否可用免疫治疗/驱动基因状态、PS=2是肿瘤导致还是合并症导致）把“为什么选这个方案”进一步落实到具体用药与风险控制上。</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>临床实践中之所以在转移性非鳞状 NSCLC（腺癌为主）且 ECOG 体能状态（PS）=2 的患者中首选“卡铂＋培美曲塞”，而不再推荐诸如“卡铂＋长春瑞滨”或“顺铂＋长春瑞滨”等传统含铂双药方案，主要基于以下几点循证与临床考量：
+1. 组织学特异的疗效优势  
+   • 大量Ⅲ期及随后的荟萃分析显示，培美曲塞与铂类联合在非鳞状人群中的客观缓解率、PFS 和 OS 均优于以长春瑞滨、吉西他滨等为伴侣药物的传统方案（JMDB、JMEN、PARAMOUNT 等研究）。  
+   • 培美曲塞在鳞癌中因胸苷酸合成酶表达高而疗效差，但在腺癌／大细胞癌等非鳞状组织学中疗效明显更好，因而被各家指南（NCCN/ESMO/CSCO）列为“特异推荐（category 1）”。
+2. 毒性谱更适合 PS=2 患者  
+   • PS=2 患者 reserve 较差，更怕毒副反应。培美曲塞的主要不良反应为可控的骨髓抑制，几乎不产生明显的周围神经毒性、脱发、严重恶心呕吐或肾毒性。  
+   • 长春瑞滨类方案（无论顺铂或卡铂联合）3～4 级中性粒细胞减少、发热性粒缺、胃肠道反应显著增多，且需要 day1、day8 给药，医疗资源及患者耐受性均受影响。PS=2 患者使用时常因毒性增高而导致中断或死亡。多项研究（如 ECOG 1594 的 PS2 亚组、经典 vinorelbine/cisplatin 研究）显示，PS2 人群用强毒性双药并未带来生存获益，反而增加早期死亡与治疗相关并发症。
+3. 卡铂优于顺铂，培美曲塞优于长春瑞滨  
+   • PS=2 患者多伴营养、肾功能或合并症问题，顺铂需大量补液、肾毒性/胃肠毒性重，故多数指南建议 PS=2 首选卡铂。  
+   • 在卡铂背景下，与培美曲塞联合的数据（Calvert 公式 AUC=5, 4～6 周期）显示总体生存中位 9–11 个月，且不良反应轻；而“卡铂＋长春瑞滨”缺少同类证据，毒性显著，故被淘汰。
+4. 便于后续维持治疗  
+   • 完成 4–6 周期“卡铂＋培美曲塞”后，可直接进入单药培美曲塞持续维持，PARAMOUNT 研究证实能显著延长PFS/OS，且毒性轻。长春瑞滨则无此维持策略，亦难长期使用。
+5. 指南与专家共识的等级推荐  
+   • NCCN NSCLC V.2024、ESMO 2023 及 CSCO 2023 均把“卡铂＋培美曲塞（±免疫/贝伐珠单抗）”列为 PS 0–2 非鳞状首选（Category 1/Ⅱ级推荐）。  
+   • 同时明确指出：顺铂/卡铂＋长春瑞滨、顺铂/卡铂＋吉西他滨、卡铂＋紫杉类等常规双药仅建议于 PS 0–1；对 PS 2 不推荐，或仅在无法使用优选方案且有充分支持治疗时考虑。
+6. 临床实践经验  
+   • 真实世界数据显示，PS 2 患者若使用长春瑞滨类双药，剂量降低、延迟或化疗相关死亡的比例均显著高于培美曲塞方案。  
+   • 培美曲塞给药简便（Day1 Q3W），结合卡铂后仍具有可接受的骨髓抑制和生活质量优势，更符合 PS 2 患者“疗效与安全”平衡的核心原则。
+综上，卡铂联合培美曲塞凭借对非鳞状组织学的专属疗效、相对温和的毒性、便利的给药方式以及可衔接的维持治疗策略，是当前公认最适合 PS=2 腺癌患者的一线含铂方案；而毒性更高、疗效并无优势的长春瑞滨类含铂双药方案已不再被推荐。</t>
         </is>
       </c>
     </row>
@@ -23580,6 +27743,51 @@
    - 维持期间若出现进展，需重新评估分子分型（如RAS突变状态变化）或转换至其他方案（如从贝伐单抗转为TAS-102）。  
 &gt; **最后强调**：肿瘤治疗是“动态过程”，维持治疗不是“无限期用药”，而是**在特定窗口期提供“桥梁”作用**。贝伐珠单抗的独特地位源于其作用机制与微环境的深度互作，但必须严格筛选患者并监测毒性。临床决策需结合最新指南（如NCCN 2024.v1）、患者意愿及真实世界数据，**避免“一刀切”**。
 如需针对特定癌种（如卵巢癌、NSCLC）的细节，可进一步补充说明。</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>在“含贝伐珠单抗的诱导（初始）方案”后继续用贝伐珠单抗维持之所以更可能带来生存获益，而把多数细胞毒化疗药长期“拉长用”通常不显示同等优势，核心原因在于两类药物的**作用靶点、生物学逻辑、毒性谱与耐受/给药强度**完全不同。
+## 1) 作用机制决定了“维持”的合理性不同
+- **贝伐珠单抗（抗VEGF）**主要抑制肿瘤血管生成与血管通透性，本质上更像是在持续“掐住供血/微环境支持”。  
+  - 肿瘤生长与转移对VEGF通路的依赖往往是**持续存在**的；一旦停止抑制，血管生成可恢复，肿瘤可能重新获得营养与生长优势。因此，“持续压制”更符合其药理与肿瘤生物学。
+- **细胞毒药物**通过杀伤快速分裂细胞获得疗效，属于“打击波次”思路：  
+  - 当肿瘤负荷下降、进入相对缓慢增殖或残存微小病灶时，细胞毒药对这些细胞群的边际杀伤未必持续增加；同时肿瘤克隆选择与耐药更易出现，继续同一细胞毒方案常出现**收益递减**。
+## 2) 毒性与“可长期给到有效剂量”的差异
+- 维持治疗的前提是：**能长期用、患者能承受、且不显著削弱生活质量或导致停药**。
+- 贝伐珠单抗的主要不良反应（高血压、蛋白尿、出血/血栓风险、伤口愈合问题等）虽然需要监测，但在合适筛选与管理下，很多患者可以**较长期持续使用**，且通常**不累积骨髓抑制或神经毒性**。
+- 多数细胞毒药（如铂类、紫杉类、拓扑异构酶抑制剂等）存在明显的**累积毒性**：骨髓抑制、感染风险、周围神经病变、肾毒性、乏力等。  
+  - 结果往往是剂量被迫下调、间隔延长、或提前停药；即使“名义上继续”，也可能无法维持足够强度，最终难以转化为生存获益，反而增加并发症与治疗中断。
+## 3) “持续抑制微环境”比“持续加压细胞毒”更不容易被耐受性抵消
+- 抗血管生成治疗的靶点主要在**肿瘤相关内皮/微环境**，相比直接打肿瘤细胞，出现典型“靶点突变式耐药”的模式可能更复杂、也不一定在短期内完全失效；因此存在“长期控制”的窗口。
+- 细胞毒药长期使用则更容易通过克隆选择产生**多药耐药表型**（药物外排泵、DNA修复增强、细胞周期改变等），继续同药往往越用越“划不来”。
+## 4) 临床试验设计与证据链的差别
+- 贝伐珠单抗在多种肿瘤中常以“诱导联合→维持单药/联合”路径开发，很多研究把“持续使用直到进展”作为策略，因而更容易观察到**PFS/部分情况下OS**的改善信号（且停药后反弹也会放大差异）。
+- 细胞毒药的“无限期维持”在试验中常因毒性、交叉治疗、依从性等问题导致实际暴露不足；此外，长期细胞毒带来的死亡风险（感染、器官毒性）可能抵消潜在抗肿瘤收益，使OS更难改善。
+---
+如果你告诉我具体是哪种癌种与一线方案（例如非小细胞肺癌、卵巢癌、结直肠癌等），我可以结合该瘤种的关键试验与指南，更精确解释“哪些人群/哪些维持策略”最可能获益，以及何时不建议继续贝伐珠单抗。</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>造成两类药物在维持阶段“待遇”不同，主要与它们各自的药理学特点、耐受性及肿瘤生物学机制差异有关。
+1. 作用机制不同  
+   • 细胞毒药物: 直接杀伤分裂中的肿瘤细胞，属于“脉冲式”细胞毒作用。敏感细胞在前 4-6 个疗程已被大量消灭，之后继续给药主要面对的是对该药已耐受或休眠的细胞，杀伤效率迅速下降。  
+   • 贝伐珠单抗: 靶向 VEGF 抑制肿瘤血管生成，属于“抑制/稳控”性质的治疗。该作用对肿瘤而言是“可逆”的——药物一停用，VEGF 信号通路即可重新活跃，血管在数周内再生，肿瘤易出现“反跳性”生长。因此需要持续给药才能维持抑血管、抑瘤微环境的效果。
+2. 耐受性与累积毒性  
+   • 多数细胞毒药物存在明显的累积毒性（骨髓抑制、外周神经病变、脱发、黏膜炎等），长期给药患者难以耐受。  
+   • 贝伐珠单抗的主要不良反应（高血压、蛋白尿、出血/血栓风险等）总体上非累积性，且可通过监测和对症处理相对可控，因此长期维持更可行。
+3. 抗耐药特征  
+   • 传统细胞毒药侵袭的是高度基因不稳定、易产生耐药突变的肿瘤细胞，延长使用会迅速筛选出耐药克隆，疗效递减。  
+   • 贝伐珠单抗主要作用于宿主内皮细胞（基因相对稳定），从理论上说不易出现经典的基因突变型耐药；只要持续抑制 VEGF-A，血管生成就难以恢复，从而延迟肿瘤进展。
+4. 维持治疗的生物学逻辑  
+   • 抗血管生成药物是典型的“抑制性”疗法，必须“不断维持”才能发挥最大价值；停药即丧失抑瘤微环境。  
+   • 细胞毒药物在“最大耐受疗程”后再延长，往往只是增加毒性，而无法再明显提高细胞杀伤量。
+5. 临床证据的差异  
+   • 多项随机试验（E4599、AVAiL、AVAil-like、ML18147 等）显示：在含贝伐珠单抗的一线方案后继续单药贝伐珠单抗可显著延长 PFS，部分研究甚至观察到 OS 获益。  
+   • 而长期维持铂类、紫杉类等细胞毒药物的大部分研究未能证明生存优势，常因毒性增高而早期停药。
+总结  
+贝伐珠单抗作为抗血管生成药，需持续抑制 VEGF 才能维持对肿瘤微环境的“饥饿”和“正常化”效应；其毒性模式又允许长期使用，因此在初始联合化疗后继续单药维持有可能带来生存获益。反之，多数细胞毒药物既存在累积毒性，又在早期已完成主要的细胞杀伤，后续继续使用疗效递减且耐受性差，故未显示同样的维持治疗优势。</t>
         </is>
       </c>
     </row>
@@ -23944,6 +28152,65 @@
 不要因为看到“多种选择”就困惑或焦虑，这恰恰说明医学在进步，能更精细地匹配个体需求。关键是和医生一起，找到**最适合您**的那一个。</t>
         </is>
       </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>临床上之所以会在 ROS1 重排的晚期非小细胞肺癌（NSCLC）一线同时存在克唑替尼、恩曲替尼、（以及部分地区/指南逐步纳入的）新一代药物如瑞波替尼等多种选择，而不是只给出“唯一最优”，核心原因是：**“最优”高度依赖具体患者情境，而现有证据也难以在所有关键维度上把某一个药物压倒性地证明为全场景最佳**。主要体现在以下几类因素：
+1) **跨试验比较的局限：缺少统一头对头证据**
+- 多数 ROS1-TKI 的关键研究是**单臂研究**或与化疗时代背景不同的研究，入组人群、基线脑转移比例、随访时间、终点定义、影像评估频率等差异很大。  
+- 在缺乏充分的“**直接头对头随机对照试验**”时，指南更倾向于给出“推荐选项”而非排他性的唯一选择，因为**跨研究硬比 ORR/PFS 容易产生偏差**。
+2) **患者异质性：尤其是“是否有脑转移/脑转移风险”**
+- ROS1 阳性患者脑转移并不少见，“一线药物对中枢神经系统（CNS）的控制力”往往直接影响临床决策。  
+- 不同药物的 **血脑屏障穿透、颅内缓解率/颅内PFS** 表现并不完全相同：  
+  - 有的药物更偏“全身控制强但 CNS 相对弱”；  
+  - 有的药物以“CNS 活性更好”见长；  
+  - 新一代药物往往在 CNS 或某些耐药突变上更有优势。  
+因此指南通常会保留多个选项，让医生根据**是否有基线脑转移、既往放疗史、脑转移负荷、需要快速控脑**等做个体化选择。
+3) **毒性谱不同：同是靶向药，耐受性差异会决定“最适合”**
+- 克唑替尼、恩曲替尼、瑞波替尼等在不良反应上各有“画像”（例如胃肠道反应、肝酶异常、心电/心功能相关风险、神经系统相关反应、体重/水肿等侧重点不同）。  
+- 对合并症人群（心律失常风险、肝功能基础差、老年/体弱、合并用药多）而言，**“疗效差不多时，安全性与可持续用药”可能就是最优**。  
+所以不可能用一个药覆盖所有人的风险收益最优点。
+4) **耐药机制多样：不同药物对耐药突变覆盖不同**
+- ROS1 靶向治疗后会出现不同的耐药机制（包括不同位点突变、旁路激活等）。  
+- 一线选择时会考虑“**后续序贯治疗空间**”：有时医生会倾向于选一个药作为第一步，以便后续在出现特定耐药突变时仍有“有针对性的下一代药”可用；反之亦然。  
+- 新一代药物往往强调对部分常见耐药突变（例如某些 solvent-front 突变）更有效，但真实世界里耐药谱复杂，且并非所有患者都会走到同一种耐药路径，因此也很难宣布“唯一最优”。
+5) **证据更新速度快 + 监管/可及性差异**
+- 新药获批时间、适应证范围、各国指南更新节奏、医保/支付与药价、医院可获得性等差异，会让“推荐药物集合”在不同地区不同。  
+- 有些药在某地区是一线获批/可及，在另一地区可能只能二线或临床试验中使用。指南需要兼顾现实可实施性。
+6) **临床目标不同：快速缩瘤 vs 长期控病 vs 控脑优先**
+- 有的患者症状重、肿瘤负荷高，临床更看重“快速、强力的全身缓解”；  
+- 有的患者脑转移风险高或已有脑转移，更看重“颅内控制”；  
+- 有的患者希望尽量减少某类副作用以维持工作/生活质量。  
+这些目标不同，使得“最优解”不是单一维度。
+---
+### 总结
+ROS1 重排 NSCLC 的一线靶向药之所以不是只推荐单一药物，是因为**缺少足够的头对头证据来定义一个放之四海皆准的冠军**，同时患者在**脑转移状态、合并症与耐受性、耐药风险与后续序贯空间、药物可及性**等方面差异很大，导致“最优”必须个体化。
+如果你愿意提供：是否有脑转移/症状、年龄与合并症、所在地区可用药物与医保情况、是否担心某类不良反应等，我可以把这些因素整理成一个更具体的“一线选择思路清单”。</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>之所以在 ROS1 重排的晚期非小细胞肺癌（NSCLC）中同时列出多种一线靶向药物，而不是只“钦定”一个最佳方案，主要与以下几方面因素有关：
+1. 证据层级与研究设计的局限  
+   • 迄今所有 ROS1-TKI 的关键临床研究多为单臂 II 期或篮式研究（crizotinib PROFILE 1001、entrectinib STARTRK-2/1、repotrectinib TRIDENT-1 等），缺乏头对头随机对照试验。  
+   • 缺少直接比较，难以得出“谁一定更优”的结论，只能根据各自的客观缓解率（ORR）、无进展生存期（PFS）、中枢神经系统（CNS）控制率和安全性等横向对比。不同研究入组人群、基线特征、评价方式并不完全一致，进一步限制了直接排序的可行性。
+2. 药物特性各有优势，满足不同临床场景  
+   • 中枢神经系统透过率：entrectinib、repotrectinib 对脑转移控制更突出；crizotinib CNS 穿透差一些。若患者合并脑转移，临床更倾向选择 CNS 活性好的药物。  
+   • 抗击耐药突变：repotrectinib 对 crizotinib 后出现的常见耐药突变（如 ROS1 G2032R）有体外和早期临床活性，可用于需要“先天克服”或“后线补救”的患者。  
+   • 毒性谱与伴随疾病：crizotinib 以胃肠道不良反应、视力扰动为主；entrectinib 需注意体重增加、心脏毒性；repotrectinib 初期头晕较常见。医生可结合患者年龄、共病及耐受性个体化选择。  
+   • 用药便利性：crizotinib、repotrectinib 均为每日两次；entrectinib 一日一次。对依从性差的患者，给药方案也是考量之一。
+3. 人群异质性与精准医疗理念  
+   • ROS1 融合类型多样（CD74、EZR、SDC4 等），不同融合伴随的下游信号和耐药机制可能不同。尚缺乏确定哪一药物对所有融合形式完全一致更优的强证据。  
+   • 患者临床特征、合并症、既往治疗史、经济负担及个人意愿千差万别，“一刀切”推荐单药不符合精准治疗原则。
+4. 可及性与卫生经济学差异  
+   • 各国、各地区的药品上市速度、医保谈判进度、药价存在差异。指南往往以“可选方案”列出多种药物，便于医生根据当地可及性与报销政策进行决策。  
+   • 某些药物可能尚未在本地区获批或尚未纳入医保，替代药的保留可确保患者有治疗途径。
+5. 指南的动态性  
+   • ROS1 靶向治疗领域发展迅速，新药数据持续公布。指南更倾向给出“推荐等级相近的若干选项”，留出空间以便随时更新。  
+   • 当未来出现大规模头对头 III 期试验或真实世界证据明确显示某药物整体优效且安全，指南才可能把它提升为唯一或最强推荐。
+总结：
+ROS1 阳性 NSCLC 患者虽占比不高，但人群异质性、临床需求多样；现有药物各具长短，缺少直接比较；再加上药物可及性及安全性差异，因此临床指南通常将 crizotinib、entrectinib、repotrectinib（及其他陆续上市药物）都列为一线可选方案。医师需综合患者疾病状态（特别是有无脑转移）、耐药风险、并发症、药物不良反应、经济和可及性等因素，个体化制定最合适的初始靶向治疗策略。</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -24234,6 +28501,60 @@
 &gt; 2. **PD-L1检测**；  
 &gt; 3. **多学科讨论（MDT）** 制定个体化方案。  
 &gt; 切勿自行要求使用靶向药，以免影响后续治疗机会。</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>临床上通常把 KRAS G12C 抑制剂（Sotorasib、Adagrasib）放在含铂化疗和/或免疫治疗之后，核心原因不是“药不够好”，而是**证据等级、对照结果与指南/审批适应证**共同决定的。
+## 1) 监管批准与指南定位：主要是“经治后”适应证
+- **Sotorasib、Adagrasib获批时的关键研究**主要是既往接受过治疗（多为铂类化疗±免疫治疗）后的患者人群（如 CodeBreaK 100、KRYSTAL‑1 为单臂；后续也做了与多西他赛的二线对照）。
+- 因此多数国家/地区的**说明书适应证与指南推荐**天然把它们放在二线及以后；一线使用往往属于临床试验或特殊情境下的个体化选择。
+## 2) 头对头证据：二线对照研究未显示明确“生存优越”，且有毒性差异
+- 在既往治疗后的随机对照中（sotorasib 或 adagrasib vs 多西他赛），普遍观察到**无进展生存期（PFS）改善**，但**总生存期（OS）优势并不稳定/不明确**（受交叉治疗、后续治疗影响等因素干扰）。
+- 同时，KRAS G12C 抑制剂并非完全“低毒”：常见的**胃肠道不良反应**以及**转氨酶升高/肝毒性**需要管理；这使其在一线“替代”已确立的方案时，门槛更高。
+## 3) 一线治疗“标杆”已经确立：免疫±化疗在总体人群中有成熟的OS获益
+- 对于无 EGFR/ALK 等经典可靶向驱动的晚期 NSCLC，一线标准已由大量 III 期研究确立：  
+  - **PD‑1/PD‑L1 抑制剂单药**（适用于部分高 PD‑L1 表达等人群）或  
+  - **免疫联合含铂化疗**（适用范围更广）  
+  这些方案有**扎实、可重复的OS获益证据**与长期随访数据。
+- KRAS G12C 突变患者并不必然对免疫/化疗反应差，很多人同样能从一线免疫±化疗获益，因此在没有更强一线对照证据前，临床更倾向遵循“证据最强的先用”。
+## 4) 一线KRAS G12C抑制剂的随机III期数据尚不足以改变标准（截至目前）
+- 目前一线使用 KRAS G12C 抑制剂（无论单药还是联合）仍在**持续探索**，包括与免疫治疗/化疗的联合、以及不同序贯策略。
+- 在缺乏“明确优于免疫±化疗的一线III期结果（尤其OS）”之前，常规把它作为一线首选，证据支撑不够。
+## 5) 序贯与安全性现实：与免疫治疗的时间衔接可能增加肝毒性风险
+- 临床实践中观察到：**在近期接受过免疫治疗后再用 sotorasib/adagrasib**，出现**肝酶升高**等不良反应的风险可能更高，需要洗脱期与更密切监测。  
+- 这并不等同于“不能用”，但提示序贯策略需要谨慎；也促使医生倾向按现有更成熟的路径（先免疫±化疗，后靶向）来管理风险与疗效。
+---
+### 什么时候可能更倾向提前用KRAS G12C抑制剂？
+- 对免疫治疗不适合（自身免疫病、器官移植、严重免疫相关风险等）  
+- 不能耐受含铂化疗或需要“口服、快速缩瘤”的个体化场景  
+- 临床试验入组（尤其一线联合方案）
+如果你愿意，我也可以按“PD‑L1表达水平、合并突变（如STK11/KEAP1）、脑转移、有无免疫禁忌”等具体信息，给出更贴近实际的一线/二线用药路径建议与监测要点。</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>目前在晚期非小细胞肺癌（NSCLC）领域，携带 KRAS-G12C 突变的患者并未像 EGFR、ALK 等驱动基因那样把靶向药物直接放在一线治疗。Sotorasib、Adagrasib 等 KRAS-G12C 抑制剂通常被放置在含铂化疗 ± 免疫治疗之后，主要基于以下几方面的医学与循证依据：
+1. “循证等级”与监管批准的限制  
+   • Sotorasib（CodeBreaK 100）和 Adagrasib（KRYSTAL-1）获得 FDA/EMA/NMPA 批准的依据均为单臂 II 期研究，入组对象均是接受过 ≥1 线含铂治疗（多数还接受过免疫治疗）后进展的患者。  
+   • 尚无随机 III 期试验证实它们在一线具有优于“化疗±免疫治疗”或“免疫单药”的总体生存（OS）或无进展生存（PFS）获益。  
+   • 因此各大指南（NCCN、ESMO、CSCO）和监管机构目前仅把 KRAS-G12C 抑制剂定位在二线或后线。正在进行中的 CodeBreaK 201/First、KRYSTAL-10/12 等随机 III 期一线研究结果尚未公布。
+2. 现有一线标准方案疗效已比较成熟  
+   • 对 KRAS-G12C 患者，PD-L1 表达往往较高（≥50% 占比约 40%–45%），PD-1/PD-L1 抑制剂单药或联合含铂化疗疗效显著。例如：  
+     – KEYNOTE-024：PD-L1 ≥50% 人群中，pembrolizumab 一线 OS 中位 26.3 个月；  
+     – KEYNOTE-189/407：化免联合 ORR 48%–60%，PFS ~8-9 个月，OS 中位 22–26 个月。  
+   • 相比之下，现有 KRAS-G12C 抑制剂在二线的 ORR ~37%–45%，PFS 中位 6–7 个月，OS 中位 12–15 个月。尚无证据显示其一线能够超越或至少不劣于化免方案。
+3. 耐药与序贯治疗的考虑  
+   • KRAS-G12C 抑制剂起效迅速，但耐药中位时间仅半年左右，耐药机制复杂且后续可选治疗有限。  
+   • 先用化疗 ± 免疫治疗可为一部分患者带来更长期获益，同时保留 KRAS 靶向药作为有效后线，延长整体治疗序列。
+4. 安全性与联合策略未定  
+   • KRAS-G12C 抑制剂的主要不良反应（ALT/AST 升高、腹泻、恶心等）总体可控，但与 PD-1/PD-L1 抑制剂序贯或联合使用时，肝毒性等叠加风险仍在研究中。  
+   • 正在开展的联合/序贯临床试验需要阐明最优顺序和毒性管理策略。
+5. 转化研究与药物可及性  
+   • KRAS-G12C 患者对免疫治疗反应良好的生物学基础（TMB 较高、烟草相关新抗原负荷高）使得临床医生乐于首先使用已验证的免疫治疗。  
+   • 另外，医保覆盖、药价因素也使得“先标准化疗/免疫，后创新靶向”的路径更符合经济及政策现状。
+总结  
+在缺乏随机对照证据、现行指南与监管批准的背景下，含铂化疗联合或不联合免疫治疗仍是 KRAS-G12C 阳性晚期 NSCLC 的一线首选。而 Sotorasib、Adagrasib 等 KRAS-G12C 抑制剂根据现有临床证据被推荐用于含铂化疗 ± 免疫治疗失败后的二线/后线治疗。随着正在进行的一线随机 III 期试验结果公布及联合策略的优化，未来治疗路径可能会再次调整。</t>
         </is>
       </c>
     </row>
@@ -24542,6 +28863,60 @@
 &gt; - CSCO Non-Small Cell Lung Cancer Guidelines (2023)  
 &gt; - JCOG0804/WJOG4607L Study (J Clin Oncol 2015;33:3269-3275)  
 &gt; - American College of Chest Physicians (ACCP) Chest (2013;143(5_suppl):e326S-e350S)</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>对这类**0.6 cm 纯磨玻璃结节（GGO）+ 病理证实原位腺癌（AIS）+ 楔形切除切缘阴性 + 取第7组淋巴结阴性**的患者，当前主流证据与指南导向的处理是：
+## 结论：优先选择密切随访，一般不建议再做纵隔镜或EBUS补充分期
+理由要点如下：
+1. **AIS 的生物学行为决定了纵隔淋巴结隐匿转移概率极低**  
+   在严格定义的 AIS（无浸润）中，淋巴结转移几乎不发生；对这种**小、纯GGO、AIS**病灶，即使未做系统纵隔清扫，**“分期不充分”在临床上通常不改变管理**，因为真实发生N2/N1隐匿转移的先验概率接近于零。
+2. **术后再做侵入性纵隔评估的“收益/风险比”很低**  
+   纵隔镜或EBUS虽总体安全，但仍有麻醉、出血、感染、气道损伤等风险；而在 AIS + 小纯GGO 人群中，能“捞到”隐匿转移从而改变治疗决策（例如需要辅助治疗）的概率非常低，因此不被常规推荐。
+3. **即使假设存在极罕见的结节外病灶，管理通常仍以影像随访为核心**  
+   AIS（pTis）本身不需要辅助治疗；后续策略主要是通过随访胸部CT监测**多原发/同肺叶或对侧新发磨玻璃结节**，而不是通过纵隔分期来决定后续治疗。
+---
+## 什么时候才考虑追加EBUS/纵隔镜（少数例外）
+如果存在下列任何情况，才更有理由做进一步纵隔评估（或至少做增强CT/必要时PET-CT后再决定）：
+- 术前/术后影像出现**纵隔或肺门淋巴结肿大**（短径≥10 mm）或形态可疑  
+- PET-CT 显示纵隔/肺门淋巴结**异常摄取**（需注意炎症假阳性）  
+- 结节并非“纯GGO”，而是有**实性成分**，或最终病理出现**微浸润/浸润性腺癌**（从而转移风险上升）  
+- 病理存在提示更高风险的线索（例如报告并非严格AIS、切缘不确定、病灶测量/取材有限导致对“是否真正无浸润”有疑问）  
+- 临床上出现与分期不符的异常（持续不明原因纵隔淋巴结增大等）
+若以上都没有，**追加侵入性纵隔检查通常属于过度处理**。
+---
+## 随访建议（常用做法）
+在无高危因素前提下，多数中心会采用：
+- **术后3–6个月复查一次薄层胸部CT**作为基线  
+- 之后 **每年低剂量/薄层胸部CT**随访（持续5年或更久，取决于是否有多发GGO、家族史等）
+---
+如果你愿意，可以把：**术前/术后CT截图或报告（是否纯GGO、是否有淋巴结肿大）、病理报告全文（是否明确“无浸润”、切缘距离、是否多灶）**发我，我可以据此判断是否存在上述“例外情况”，从而更精确地回答是否有必要做EBUS/纵隔镜。</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>推荐首选“密切影像随访”，而不再进行纵隔镜或EBUS等侵袭性纵隔淋巴结评估，理由如下：
+1. 病理学特征决定转移风险极低  
+   • 患者病理确认为腺癌原位癌（AIS），肿瘤直径 0.6 cm，纯磨玻璃样。  
+   • AIS 的定义即“≤3 cm、纯 lepidic 生长、无基质浸润”，文献报告的淋巴结转移率几乎为 0（&lt;0.5%）。  
+   • 目前公认 AIS、MIA（微浸润腺癌）在完成 R0 切除后无需常规系统性淋巴结清扫。
+2. 现行指南共识  
+   • NCCN、ACCP、CSCO 等指南均指出：对于纯 GGO 或病理证实 AIS/MIA，术中可仅行取样；如已证实 N0，无需再行纵隔镜或EBUS。  
+   • 纵隔镜/EBUS主要针对影像提示可疑或病理为侵袭性癌（I 期以上）者。本例无影像学及病理学侵袭证据。
+3. 额外检查收益极低、风险/成本不成比例  
+   • 纵隔镜、EBUS 均属侵袭性或半侵袭性操作，存在麻醉、出血、损伤等并发症。  
+   • 在几乎 0% 的转移基础上再行检查，临床获益难以超过其潜在风险和经济负担。
+4. 合理的术后随访策略  
+   • 术后 6–12 个月行第一次胸部薄层 CT，此后每年 1 次，至少随访 5 年（可采用低剂量 CT）。  
+   • 若后续影像学出现：
+     – 任何纵隔/肺门淋巴结增大或 SUV↑  
+     – 新发或增大的实性成分病灶  
+     再考虑 EBUS/纵隔镜取活检，不迟于病变出现时介入。
+5. 何时需要例外考虑  
+   • 若最终病理提示任何浸润性成分（&gt;0.5 cm）、淋巴管/血管侵犯，或术前/术后影像出现可疑结节/淋巴结，则应补做系统分期。  
+   • 目前证据充分表明本例不符合上述情况。
+结论：对这类已 R0 切除、病理确认为 AIS 的 0.6 cm 纯 GGO 病灶患者，首选定期影像随访即可；不建议例行纵隔镜或 EBUS 进一步淋巴结分期。</t>
         </is>
       </c>
     </row>
@@ -25004,6 +29379,145 @@
 - “最终结果出来，我们一起定后续——可能只需每年拍张照，也可能稍密点，但绝不会过度检查。”  
 - “父亲肺癌提醒我们全家注意环境，但您不吸烟就安全得多。”  
 （注：所有建议需结合当地医疗资源和患者价值观调整；本回答不替代临床决策。）</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>在“术中冰冻=原位腺癌（AIS）”且结节2年稳定、已行楔形切除的背景下，**大方向应当把它当作“低复发风险、但需等待最终病理定分层”的病例**：先用一个“过渡期策略”覆盖不确定性，等最终病理一出来立刻把随访强度下调或上调，从而避免一上来就过度检查/过度治疗。
+下面给出一个可操作的个体化框架（适用于你描述的“缺乏最终病理细节”的阶段）。
+---
+## 1）先明确：哪些信息最能改变随访强度（等待最终病理要盯住的点）
+最终病理回报后，至少要把以下要点补齐（它们比“家族史”对复发风险分层更关键）：
+1. **最终诊断：AIS vs MIA vs 侵袭性腺癌（IAC）**  
+2. **肿瘤最大径 &amp; 侵袭成分大小（invasive size）**  
+3. **切缘距离与切缘状态**（是否R0；切缘距离是否充足）  
+4. **是否存在高危组织学成分**：微乳头/实性成分、黏液性、STAS（气腔播散）  
+5. **脉管侵犯（LVI）/胸膜侵犯（VPI）**  
+6. **淋巴结评估情况**（楔切很多时候未系统取结）  
+7. **分子信息（可选）**：对随访强度影响小，但对未来二次病灶治疗策略有用
+&gt; 过渡期策略的核心：**在这些“决定性要点”未明之前，用中等强度随访覆盖最坏但仍合理的情形；一旦证实为“纯AIS、切缘足够”，立即降级随访。**
+---
+## 2）过渡期（从现在到最终病理明确后的3–6个月）：建议的“中等强度”随访
+目的是：一方面确认基线、排除同期结节；另一方面不把AIS当成侵袭癌那样高频随访。
+- **术后3个月左右**：做一次**薄层低剂量胸部CT（LDCT，≤1 mm重建）**，作为新的术后基线（瘢痕、切除区改变稳定后更易判读）。  
+- 如果术前/术中未做过：可补一个**上腹部（肝/肾上腺）评估**通常不必常规做（AIS几乎不转移）；只有在最终病理提示侵袭或有症状/异常指标时再考虑进一步分期检查。  
+- **肿瘤标志物（如CEA）**：对AIS价值有限，不建议作为高频监测主手段；若医生已建立基线，可低频随访，但不要以此替代CT。
+&gt; 这个阶段不建议PET-CT作为常规：对磨玻璃/原位病变敏感性差，且易造成不必要焦虑与费用。
+---
+## 3）最终病理出来后的“分层随访路径”（把复发风险与过度治疗拉开）
+### A. 若最终病理确认：**纯AIS、R0切缘、无STAS/无高危成分**
+- 复发风险极低，主要风险转为“**第二原发肺癌/多灶磨玻璃**”而非原位复发。
+- 随访建议（可与医生协商选其一，取决于你对“家族史焦虑”和辐射顾虑的权衡）：
+  - **方案1（更保守、常用）**：术后基线CT（3–6个月）后，**每年1次LDCT，至少5年**；之后可继续年度或隔年体检式LDCT（尤其有家族史）。  
+  - **方案2（更低强度）**：基线CT后，**12个月复查一次**，此后每年或隔年；前提是：没有其他可疑结节、切缘足够、影像稳定。
+&gt; 对36岁且有家族史者，哪怕AIS治愈，仍可把年度LDCT当作“二次原发筛查”，但这属于筛查/健康管理层面，不等同于“癌症高复发随访”。
+### B. 若为 **MIA（微浸润）** 或 IAC但**以贴壁型为主、无高危因素、切缘充分**
+- 风险仍偏低，但已不是“几乎零复发”。
+- 随访可稍加强：  
+  - **术后6个月**胸部LDCT  
+  - 此后**每12个月1次**，持续至少5年  
+  - 若同时存在多发结节，则按“结节管理”加密（见第4部分）
+### C. 若出现以下任一“高危信号”（哪怕肿瘤不大）
+- **微乳头/实性成分明显、STAS阳性、LVI/VPI阳性、切缘近或疑阳、侵袭成分更大、未取淋巴结且病理提示侵袭**  
+建议把随访提升到更接近早期侵袭癌的路径，并评估是否需要补充治疗/再手术讨论：
+- **影像随访**：  
+  - 术后**3–6个月CT**（若已做过可顺延到6个月）  
+  - **此后每6个月1次，持续2年**  
+  - 之后**每年1次到5年**  
+- **手术策略再评估（关键）**：若是楔切且存在STAS/微乳头/切缘近等，需与胸外科讨论是否存在**补做解剖性肺段/肺叶切除 + 系统淋巴结评估**的必要性（是否值得“升级手术”取决于侵袭大小、切缘、肺功能、患者意愿等）。  
+- **辅助治疗**：对真正的AIS不需要；对极早期侵袭癌通常也不常规化疗，但若分期上升则另议。
+---
+## 4）把“复发监测”与“第二原发/残余结节管理”分开处理（避免过度治疗的关键）
+很多磨玻璃病例术后真正需要的是：**对其他肺内结节的长期管理**。建议你与医生在第一份术后CT时做一张“结节清单”，分别标注：
+- 是否存在**其他纯磨玻璃（pGGN）**、混合磨玻璃（mGGN）或实性结节  
+- 每个结节的大小、密度、位置  
+- 是否出现**实性成分增长**（这是最重要的进展信号之一）
+然后按结节性质走标准结节随访（例如更关注≥6 mm、混合磨玻璃、出现实性成分的结节；纯磨玻璃且多年稳定的可拉长间隔）。这样做能显著降低“因为担心复发而频繁全套检查”的倾向。
+---
+## 5）家族史如何纳入个体化：更多影响“筛查持续时间”，而非把AIS当高危复发
+父亲肺癌史提示你可能有更高的“终生发生肺癌风险”，但对一个已切除的**真正AIS**而言，家族史并不等同于“需要半年一次CT”。更合理的做法是：
+- **随访强度**按病理风险分层（第3部分）；  
+- **随访年限**可比一般人更长：例如5年后仍维持**年度或隔年LDCT筛查**；  
+- 同时强化可控因素：避免烟草/二手烟、厨房油烟通风、必要时评估职业暴露和室内氡。
+---
+## 6）你现在可以立刻向主刀/病理科确认的3个“最关键问题”
+在最终报告未出前，先把这三点问清楚，往往能提前决定是否需要“更紧的过渡期随访”：
+1. 冰冻提示AIS时，**切缘距离大概有多少**？（例如是否≥2 cm或≥肿瘤直径）  
+2. 术中/术后是否提到**STAS倾向、微乳头倾向**（即便冰冻不可靠也可能有提示）？  
+3. 本次手术**是否取了任何淋巴结/是否做了系统性评估**？
+---
+## 7）一个简化的“先定临时方案，再根据病理自动调整”的建议
+- **现在先定：术后3个月LDCT**（建立基线）。  
+- **最终病理若=纯AIS + R0切缘足够**：改为**每年1次LDCT（至少5年）**，之后可继续年度/隔年筛查。  
+- **若=MIA或低危IAC**：**6个月一次→然后年度**。  
+- **若出现高危因素或切缘/手术方式不理想**：转入**前2年每6个月CT**并讨论是否需要补手术/进一步分期。
+---
+如果你愿意，把以下信息补充给我，我可以把上述框架具体化成“一张你能直接带去门诊的随访表”：  
+- 结节大小、是否纯磨玻璃/混合、位置；  
+- 楔切的切缘距离（若知道）；  
+- 是否多发结节；  
+- 是否吸烟/二手烟暴露；  
+- 计划要不要再妊娠（影响CT频率安排）。</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>一、明确目标  
+在最终病理未回报前，我们只能基于现有信息（冰冻提示 AIS、影像学特征、患者个体危险因素）给出“临时-动态”随访方案，并在最终病理明确后再行调整。核心原则：  
+1. 充分警惕潜在高危组织学成分造成的复发／转移风险；  
+2. 尽量避免因随访过密、检查过多而带来的辐射、经济及心理负担；  
+3. 采用分层＋动态调整＋共享决策的策略。  
+二、现有信息的初步风险评估  
+1. 结节性质  
+   • 持续 2 年稳定的纯/GGO 或以 GGO 为主、直径&lt;2 cm，冰冻提示 AIS → 指向低度恶性；  
+   • 但冰冻切片对微乳头、实体、固实成分及 STAS 等高危因素的漏检率可达 15%–25%，存在漏诊风险。  
+2. 手术方式  
+   • 楔形切除：若最终病理为 AIS，则等同治愈；若存在侵袭成分，则边缘安全性、复发率高于肺段／叶切除。  
+3. 其他危险因素  
+   • 年龄 36 岁，预期寿命长；  
+   • 家族史（父亲肺癌）提示可能存在遗传易感；  
+   • 无吸烟史（假设），但年轻女性出现 GGO 或提示 EGFR 等驱动突变可能性↑。  
+三、“两阶段、三层级”随访框架  
+阶段 1：最终病理未回报（术后 0～4 周）——过渡期  
+目标：  
+• 及早建立术后影像基线；  
+• 等待病理结果，同时不遗漏早期并发症。  
+措施：  
+1) 术后 1 个月内（一般 4～6 周）行一次薄层低剂量胸 CT，作为术后基线。  
+2) 如病理结果延迟，可先预约 3 个月时的随访 CT，结果出来后再确认是否执行。
+阶段 2：病理结果回报后——正式随访  
+根据最终病理分三层级（可随后动态上调或下调）：  
+1. 低危组（AIS；或 MIA &lt;1 cm 无 STAS、无脉管/胸膜/神经侵犯，切缘&gt;2 mm）  
+   • 影像：术后 6 个月、12 个月各一次低剂量胸 CT，以后每年 1 次至 5 年，5 年后可酌情每 2～3 年 1 次。  
+   • 临床：每年门诊评估、症状询问、体检，可联合一年 1 次血肿瘤标志物（CEA、CYFRA21-1 等）做参考。  
+   • 不推荐常规 PET/CT 或脑 MRI。  
+2. 中危组（侵袭性腺癌以贴壁为主，侵袭灶≤1 cm，或 AIS/MIA 但切缘&lt;2 mm；无高危组织学如微乳头/实体/STAS）  
+   • 影像：术后 3、6、12 个月各一次低剂量胸 CT；第 2～3 年每 6 个月 1 次；第 4～5 年每年 1 次。  
+   • 可于术后 1 年行一次全身 CT 或 PET/CT 评估远处转移基线。  
+   • 术后若保留同侧残肺有多发 GGNs，可在 1 年时高分辨率 CT，比对进展与否。  
+3. 高危组（存在微乳头/实体/实性成分≥20%，STAS(+)，脉管/胸膜侵犯，EGFR L858R/T790M 伴高 Ki-67 等；或术式为楔切且侵袭灶&gt;1 cm；或切缘阳性）  
+   • MDT 评估是否须二次补充肺段/叶切或辅助治疗（EGFR-TKI、化放疗）。  
+   • 随访：术后 3、6、9、12、18、24 个月低剂量胸 CT；第 3 年开始每 6 个月，5 年后每年 1 次。  
+   • 术后 6～12 个月加做一次脑 MRI、上腹增强 CT 或 PET/CT；必要时 3 年内每年 1 次。  
+   • 建议至少每 6 个月抽血：CEA、CYFRA21-1、CA-125；可考虑循环肿瘤 DNA (ctDNA) 监测，用于超早期复发评估。  
+四、如何在最终病理前避免过度随访/治疗  
+1. 把随访节奏分步安排：先做好术后 4–6 周的基线 CT，其余计划待病理结果后再定。  
+2. 提前与患者沟通“三种可能”(低/中/高危对应的随访强度)，让患者有心理准备，不对号入座。  
+3. 强调病理结果对决策的关键性，必要时联系病理科加快出具完整分级报告，包括：  
+   • 各生长模式比例（贴壁、腺泡、乳头、微乳头、实体）；  
+   • STAS、有无脉管/胸膜侵犯；  
+   • 切缘及浸润深度；  
+   • 分子分型（EGFR、ALK、KRAS、HER2、BRAF 等）。  
+五、其他个体化考量  
+1. 年轻女性+家族史：可建议做胚系突变/多基因易感检测；如存在 EGFR-T790M 或其他高风险胚系变异，随访可适当上调。  
+2. 残留多发 GGNs：联合 AI-CAD 定量分析，6–12 个月复查，如出现实性成分或体积倍增，按 NCCN 指南处理。  
+3. 心理需求：提供肺癌康复门诊/线上随访平台，减少因影像检查间期造成的焦虑。  
+4. 辐射控制：全部使用 1 mm 薄层低剂量 CT（CTDIvol ≤2 mGy），如需纵膈/腹部评估可选增强磁共振或 PET/CT（≤1 次/年）。  
+六、总结  
+• “先基线、后分层、动态调整”是关键；  
+• 决策取决于最终病理，如确为 AIS，可迅速降级随访；如发现高危成分，则需密集监测并评估补充治疗；  
+• 家族史与年轻年龄提示应稍偏积极，但仍应避免“过度 CT、过度恐慌”；  
+• 全程采用多学科会诊与共享决策，提高依从性并优化资源利用。</t>
         </is>
       </c>
     </row>
@@ -26172,6 +30686,23 @@
 因为</t>
         </is>
       </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>对该患者（高危吸烟者、右上肺23 mm毛刺且进行性增大实性结节，强烈提示原发性肺癌），**下一步最关键的诊断与分期措施**是：
+**行全身PET‑CT（18F‑FDG）进行分期评估，并对纵隔/肺门淋巴结进行侵袭性取样（首选EBUS‑TBNA；如阴性但影像高度可疑则行纵隔镜）**。
+这样可在获取组织学依据的同时完成**最关键的N分期与远处转移（M分期）筛查**，直接决定是否可手术及手术方式。</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>对这枚呈进行性增大的 23 mm 右上肺实性毛刺结节，当前最能在一次检查中同时解决“是否恶性”判断并完成胸内及全身分期的关键措施是：
+• 进行 ¹⁸F-FDG PET/CT 全身显像。
+理由  
+1. 诊断价值：通过肿瘤的高代谢表现判断良恶性概率，并可提示其他可疑原发/转移病灶。  
+2. 分期价值：同期开展胸内（肺门、纵隔淋巴结）及远处器官（骨、肝上腹部等）转移评估，为 TNM 分期和治疗决策（手术、活检路径、放/化疗方案等）提供依据。  
+3. 指导取材：若 PET/CT 显示可疑淋巴结或远处病灶，可优先选择最易获取且代表性的部位行 EBUS-TBNA、经皮穿刺等组织学取材。</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -26469,6 +31000,51 @@
 - **临床试验参与**：若符合条件，可推荐入组新辅助/辅助治疗相关临床试验。
 ---
 **总结**：该患者下一步核心为多学科评估手术可行性。若可手术，优先行根治性切除并制定个体化辅助方案；若不可手术，则根据分期和分子特征选择放化疗或免疫巩固治疗。需结合患者体能状态、合并症及意愿综合决策。</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>在已完成免疫联合含铂紫杉类新辅助治疗、影像学提示肿瘤缩小且全身状况稳定的前提下，下一步策略以“**尽快评估可切除性并争取根治性手术**”为核心：
+1. **多学科（MDT）复评与术前再分期**
+   - 胸部增强CT（必要时+PET-CT）、脑MRI。
+   - 评估纵隔/肺门淋巴结（必要时EBUS-TBNA或纵隔镜）以明确N分期变化与切除范围。
+   - 完成手术耐受评估：肺功能（FEV1、DLCO等）、心脏评估、基础疾病控制。
+   - 对**胸腔积液性质**做确认（若仍存在）：胸腔穿刺细胞学/生化；如证实恶性胸水则分期变更并影响手术策略。
+2. **若经MDT判定可切除：实施根治性手术**
+   - 首选：**肺叶切除或必要时袖式/联合切除**（T4需根据侵犯结构决定范围）+ **系统性纵隔淋巴结清扫**。
+   - 手术时机：通常在完成新辅助后、患者恢复良好时尽快安排（具体以团队与患者恢复情况确定）。
+3. **术后根据病理结果决定辅助治疗**
+   - 依据pCR/MPR、pTNM分期、切缘（R0/R1）、淋巴结状态等：
+     - 多数情况下会考虑**继续免疫治疗作为辅助治疗**（是否继续及疗程由术后病理风险与既往用药方案综合决定）。
+     - 如存在高危因素（如N2/切缘阳性等）可评估**术后放疗（PORT）**的适应证。
+     - 是否补充辅助化疗取决于已完成的新辅助强度、术后病理风险与耐受情况。
+4. **若复评为不可切除或出现进展/胸水恶性：转为根治性同步放化疗 ± 免疫巩固**
+   - 对于不可切除IIIA，标准路径通常为**同步放化疗**，随后**免疫巩固治疗**（具体药物与方案依指南、既往免疫用药及可及性而定）。
+综上：**首要是MDT进行术前再分期和可切除性评估；若可切除则尽快行根治性手术；术后再按病理分层决定是否继续免疫/加放疗等辅助治疗。**</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>建议按 MDT（胸外科、呼吸肿瘤科、放射科、病理科、麻醉科等）再次评估肿瘤目前的可切除性及患者手术耐受情况，并据此制订后续方案。常规流程如下：
+1. 术前评估  
+   • 复查增强胸部‐上腹部 CT（或 PET-CT）、头颅 MRI、骨扫描/ECT 等，确认无远处转移。  
+   • 行全套肺功能、心脏彩超/心电图等麻醉风险评估。  
+   • 与病理及影像科共同判定 T、N 分期的变化——若 T4 病灶明显缩小且未再见纵隔三站以上淋巴结肿大，可视为达“可切除”标准。
+2. 若 MDT 认为已具备根治性手术机会  
+   • 首选左下叶（或更大范围的）解剖性切除 + 系统性肺门/纵隔淋巴结清扫；可采用视频胸腔镜（VATS）/机器人微创或开胸方式。  
+   • 因既往行 4 周期新辅助免疫-化疗，手术宜安排在最后一次给药后 4–6 周左右进行。  
+   • 术中注意与胸外科沟通可能的胸膜粘连及炎性反应。
+3. 术后辅助治疗（根据病理分期及疗效决定）：  
+   • 如达 pCR 或仅极小残存病灶（MPR），可直接进入免疫治疗单药维持 —— 继续替雷利珠单抗 240 mg q3w 或 200 mg q3w，治疗至 1 年，总疗程不超过 1 年；期间定期影像学随访。  
+   • 如仍为 pT≥1 或/和 pN+，建议 2 周期含铂辅助化疗（可沿用紫杉醇脂质体 + 顺铂、或其它含铂双药）后，再给予替雷利珠单抗至累积 1 年。  
+   • 若术后切缘阳性或出现不能耐受手术的残余病灶，可考虑术后（辅）放疗 ± 替雷利珠单抗。
+4. 若 MDT 仍判定不可切除或患者拒绝/不耐受手术  
+   • 建议采取根治剂量同步放化疗（60-66 Gy, 30-33 f）+ 含铂双药同步（如紫杉醇脂质体/长春瑞滨 + 顺铂/卡铂），治疗结束后若无进展继续序贯巩固免疫治疗（参照 PACIFIC 模式，替尼珠单抗/durvalumab 1 年）。
+5. 支持治疗与随访  
+   • 继续监测免疫相关不良反应（皮肤、内分泌、肺炎等），定期评估心肺功能。  
+   • 每 3 个月复查胸部增强 CT、肝肾功能、甲功；必要时行 PET-CT 或脑 MRI。  
+   • 开展戒烟、营养及运动康复指导，提高术后（或放化疗后）生活质量。
+简而言之：在既往新辅助免疫-化疗获得影像学缓解且患者一般状况良好的基础上，首选进行根治性手术切除；术后依据病理结果给予含铂化疗 ± 替雷利珠单抗巩固，使总免疫疗程达 1 年。如果因任何原因仍无法手术，则改行同步放化疗后序贯免疫治疗。</t>
         </is>
       </c>
     </row>
@@ -26809,6 +31385,63 @@
 综上，该方案的核心是**规范化的肺叶切除+淋巴结清扫**，辅以严密围手术期管理，可最大程度实现根治。患者需全程参与决策，并严格遵循随访计划以提高生存率。</t>
         </is>
       </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>对该患者（cT1cN0M0，IA3期、2 cm实性NSCLC、心肺功能良好、可耐受手术），**首选的根治性治疗**应为：
+## 最应推荐的方案
+**右上叶肺叶切除（lobectomy） + 系统性纵隔淋巴结清扫/系统性淋巴结取样（mediastinal lymph node dissection/sampling）**  
+可采用胸腔镜（VATS）或机器人辅助方式完成；如无解剖或肿瘤学禁忌，微创优先。
+&gt; 说明：对于2 cm实性结节（T1c）且可手术患者，标准根治手术仍以**肺叶切除+系统性淋巴结评估**为首选；单纯楔形/段切除通常要求更严格的适应证（如更小、磨玻璃成分为主、或因肺功能受限需缩小切除范围等）。
+---
+## 该方案必须包含的关键操作步骤（肿瘤学“底线”）
+1. **解剖性切除：右上叶肺叶切除**
+   - 依解剖结构处理右上叶**肺动脉分支、肺静脉上肺静脉分支、右上叶支气管**（分别离断/结扎/闭合）。
+   - **整块切除右上叶**，避免肿瘤挤压破裂与播散。
+2. **系统性淋巴结清扫或系统性取样（必须做）**
+   - 至少完成**肺门+纵隔**淋巴结的系统性评估，而不是“看见哪个取哪个”。
+   - 右侧手术通常需覆盖/清扫（或系统取样）：
+     - **肺门/叶间：10、11、12组**（至少肺门与叶间/段间结节）
+     - **纵隔：2R、4R、7组为核心**，并常规评估/清扫**8、9组**（依中心习惯与暴露情况）
+   - 目标是获得可靠的pN分期，降低漏分期与局部复发风险。
+3. **切缘管理（必须确认R0切除）**
+   - 确保**支气管切缘与血管切缘阴性**；如肿瘤位置或手术中判断接近切缘，应行**术中冰冻**评估，必要时扩大切除以达**R0**。
+   - 标本规范取出（保护套袋）并标记重要切缘/淋巴结分站，便于病理评估。
+4. **胸腔探查与胸膜评估（排除隐匿播散）**
+   - 进入胸腔后系统探查胸膜、肺裂、纵隔表面；如见可疑胸膜结节需取样/冰冻，避免“误做根治切除”。
+---
+如你希望我进一步把“系统性淋巴结清扫/取样”按指南口径细化到**最低分站数量、取样顺序、以及IA3术后是否需要辅助治疗的判定依据（如高危因素/EGFR等）**，我也可以继续补充。</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>最佳根治性方案  
+依据现行《CSCO/NCCN 早期非小细胞肺癌诊疗指南》，对心肺功能良好、临床分期 cT1c N0 M0（IA3 期）的患者，首选的根治性治疗是外科解剖切除并行系统性淋巴结清扫。  
+首推：胸腔镜（或开胸）右上肺叶切除术＋系统性肺门-纵隔淋巴结清扫。  
+（如术前评估提示肺功能储备不足或有其他原因不能耐受肺叶切除，可考虑解剖性段切除，但仍须系统性／系统化淋巴结清扫。）
+关键操作步骤  
+1. 术前准备  
+   • 详细影像学（胸部增强 CT、重建 3D 血管-支气管解剖）评估肿瘤位置、大小与切缘。  
+   • 双腔气管插管，健侧单肺通气；患侧健肺向上侧卧位固定。
+2. 建立手术通道  
+   • 胸腔镜 3-4 孔（或开胸后外侧切口），进入胸腔先行探查，排除胸膜种植及意外转移。
+3. 解剖性肺叶（或段）切除  
+   • 顺序处理血管、支气管（常用先静脉→动脉→支气管，亦可按习惯调整）。  
+   • 逐根显露、夹闭并切断右上肺静脉、动脉各分支（A¹+²b、A³ 等）及右上叶支气管。  
+   • 使用腔镜直线切割吻合器（或结扎、钛夹）完成离断；取出完整肺叶（或肺段），保证肿瘤切缘 ≥2 cm 或大于肿瘤最大径。
+4. 系统性淋巴结清扫  
+   • 肺门（10R、11R、12R）  
+   • 纵隔（2R、4R、7、8、9R）  
+   • 各站淋巴结分区送病理（可做冰冻）。
+5. 术中技术要点  
+   • 充分显露解剖结构，避免血管损伤；  
+   • 支气管断端漏气水封试验，必要时间断缝合加固；  
+   • 彻底止血、冲洗胸腔；  
+6. 结束步骤  
+   • 合理放置胸腔引流管；  
+   • 关闭切口并进行术后管理（呼吸功能锻炼、疼痛控制、拔管指征等）。
+仅当手术后病理提示高危因素（如切缘阳性、脉管/脉管侵犯、低分化等）或分子靶标阳性且符合适应证时，才考虑进一步辅助治疗。否则，单纯根治性外科手术即可满足 IA3 期非小细胞肺癌的治疗标准。</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -27149,6 +31782,73 @@
 希望这份详细分析能帮助您（作为医生）更专业、更全面地与患者沟通，做出最符合患者利益的决定！</t>
         </is>
       </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>从“治疗效果（根治率/长期生存）优先”的角度：**若肺部小结节高度怀疑早期肺癌且患者可耐受手术，首选仍是胸腔镜微创手术切除（楔形/段切除±系统淋巴结评估），而不是消融**。消融一般不作为年轻、可手术患者的首选根治方案。
+## 为什么不优先推荐消融（以疗效为核心）
+1. **根治性与证据强度**：对可切除的早期肺癌，手术切除（尤其是解剖性段切除或肺叶切除并做淋巴结评估）长期随访证据最充分，局部控制和生存数据更成熟。  
+2. **淋巴结分期**：手术可同时进行**淋巴结取样/清扫**，明确分期并指导后续治疗；消融通常**无法获得可靠的淋巴结病理分期**，可能漏分期、影响后续策略。  
+3. **病理诊断与切缘评估**：手术能完整取出病灶做病理（侵袭程度、亚型、脉管/胸膜侵犯等），并评估切缘；消融后病灶坏死，病理信息不完整，后续管理更被动。  
+4. **复发与补救**：消融后局部残留/复发概率相对更高，影像随访判读也更复杂；复发后再手术或再治疗往往更困难。
+## 什么时候才更倾向考虑消融
+一般是**“不能手术或不愿手术且充分知情”**时的替代方案，例如：
+- 心肺功能差、合并症多、麻醉/手术风险高；
+- 高龄或强烈拒绝手术；
+- 作为多发病灶/转移灶的局部控制手段等。  
+在这些情况下，消融（射频/微波/冷冻等）可以作为折中选择，但需要接受其在分期与长期证据方面的不足。
+## 针对患者“担心切口疼痛”的更优解
+如果病灶可切除，建议重点解释：  
+- **胸腔镜手术切口小、疼痛可控**（多模式镇痛、肋间神经阻滞/椎旁阻滞、术后镇痛泵等），多数患者疼痛可接受；  
+- 还可以讨论**单孔胸腔镜**、加速康复（ERAS）路径等，以减少疼痛与恢复时间。  
+也就是说：**用更好的镇痛与微创方式解决疼痛顾虑，而不是为了“少痛”选择可能牺牲根治性的方案。**
+## 实操建议（简要路径）
+- 先把结节风险分层：薄层CT特征（大小、磨玻璃/实性成分、毛刺/胸膜牵拉等）+ 增长情况 + 必要时PET-CT；  
+- 高度可疑且可手术：**优先胸腔镜切除（多为楔形/段切）+ 术中/术后病理与淋巴结评估**；  
+- 不确定者：可考虑**先随访或先穿刺/支气管镜活检**（取决于位置和可及性），再决定。
+如果你能提供：结节大小（mm）、类型（纯磨玻璃/混合/实性）、位置（肺叶/外周或中央）、是否增长、PET结果、有无吸烟史/家族史、肺功能与合并症，我可以把“手术 vs 随访 vs 活检 vs 消融”的推荐进一步具体化到更接近指南的策略。</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>临床建议要根据以下 3 个核心问题来权衡：  
+1. 这枚小结节目前是否已经达到必须处理的指征？  
+2. 如果要处理，哪一种方式最能兼顾“根治率+安全性+生活质量”？  
+3. 年轻患者最在意的“疼痛”“美观”问题能否通过更优化的围手术管理来解决？
+一、先明确“小结节”是否需要立即治疗  
+1) 直径＜5-6 mm，且影像学表现良性的，可先行 3–12 个月复查 CT，动态观察。  
+2) 直径≥6 mm 或随访中出现增长、磨玻璃结节实性成分增大、形态不规则等高危征象时，才考虑干预。  
+3) 年轻患者往往耐受性好，如有高度恶性可能，应尽早获得病理及根治性处理。
+二、可选技术的疗效比较  
+1. 微创胸腔镜楔形切除/肺段切除  
+   • 优点：  
+     - 一次性获得病理，确定良恶性及分期。  
+     - 同时完成根治性切除和必要的淋巴结取样，长期生存资料成熟。  
+     - 单孔或三孔胸腔镜切口仅 2–4 cm，可结合多模式镇痛（肋间神经阻滞+镇痛泵），疼痛可控，2–3 天多能下地活动。  
+   • 缺点：需全麻、住院 3–5 天，留胸腔引流管 1–2 天。
+2. 影像引导下消融（微波/射频/冷冻）  
+   • 适用：  
+     - 高龄或合并严重心肺疾病，不能耐受手术者；或同侧多发且手术会丧失过多肺功能者。  
+   • 局限性：  
+     - 无法获得系统性病理及淋巴分期；术中靠影像判断是否“烧全”，易有残存或复发。  
+     - 对于磨玻璃或靠近大血管、支气管的病灶，能量分布不均、完全消融难。  
+     - 长期随访复发率、总体生存率的循证证据不足。  
+三、结合年轻患者的情况—首选胸腔镜切除  
+1) 年轻、耐受力好，更追求长期治愈和明确病理。  
+2) 目前单孔/两孔胸腔镜技术切口小、疼痛轻，远比传统开胸友好；术中可做多模式镇痛（肌间沟阻滞、肋间神经阻滞、局麻泵）。  
+3) 切除范围可根据结节大小、位置采取楔形或精准肺段切除，对肺功能影响极小。  
+四、具体沟通要点  
+1) 解释：手术切口约 2–3 cm，通常沿腋前线或腋中线，不会留明显疤痕。  
+2) 镇痛：围术期“超前镇痛+多模式镇痛”，多数病人疼痛在 1 分以下（0–10 分制），术后 24–48 h 可下床活动。  
+3) 住院时间：一般 3–5 天即可出院。  
+4) 远期效果：术后 5 年生存率&gt;90%（早期腺癌可&gt;95%），远优于目前已知的消融数据。  
+五、给患者的综合建议  
+1) 先完善高分辨率 CT，必要时支气管镜或 PET-CT 评估恶性风险。  
+2) 若符合手术指征，建议首选胸腔镜微创切除，兼顾根治与病理诊断；术后疼痛可通过现代镇痛策略有效控制。  
+3) 消融可作为备选方案，但主要针对不能耐受手术或特殊部位病例，不作为年轻、可手术患者的首选治疗。  
+4) 若暂不符合手术指征，遵循随访推荐时间表定期复查 CT，动态评估变化。  
+通过充分的宣教与围手术疼痛管理，大多数年轻患者都能接受并顺利完成胸腔镜微创手术，从根本上解决病灶并获得明确病理学诊断，是当前公认的最佳策略。</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -27415,6 +32115,72 @@
 希望患者能顺利走完规范流程，获得最佳治疗！</t>
         </is>
       </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>不完全符合“直接手术”的常规指南路径；更符合指南推荐的是：**先完成组织学诊断与术前分期（尤其是纵隔分期），在高度可切除且无纵隔/远处转移证据时再行手术**。但在**强烈怀疑原发肺癌、可切除、且术中可行系统性淋巴结清扫/取样**的前提下，**“诊断性切除/直接手术”在部分情形也可被指南接受**（通常属于“可选择/条件性”而非“首选”）。
+下面按指南思路把关键点说清楚（不替代具体个案决策）：
+## 1) 这例影像分期大致是什么？为什么不能只看“纵隔不大”？
+- 肿瘤 4.1 cm：在TNM里通常对应 **T2b**（&gt;4–5 cm）。
+- PET-CT无远处转移：倾向 **M0**。
+- 纵隔淋巴结“不大”不等于“没有转移”。对 **&gt;3 cm 的肿瘤**，即使PET阴性、CT不大，仍存在一定概率的**隐匿N2**（纵隔微转移）。  
+  因此指南通常要求：**影像阴性也要评估是否需要侵入性纵隔分期**。
+## 2) 指南对“可手术NSCLC”的通用推荐（NCCN/ACCP/ESTS思路一致）
+对**计划根治手术**的患者，指南路径通常是：
+1. **获得病理诊断**（支气管镜、CT引导穿刺、EBUS-TBNA等；或在手术中楔形切除快速冰冻作为诊断）
+2. **完善分期**  
+   - 已做PET-CT：很好，是推荐检查。  
+   - 关键是“是否需要纵隔侵入性分期”：  
+     - 若**纵隔/肺门淋巴结影像阳性**（CT肿大或PET摄取），一般推荐 **EBUS/EUS或纵隔镜**证实。  
+     - 若影像阴性，但存在更高风险因素（常见包括：**肿瘤&gt;3 cm**、中央型、实性成分高、N1可疑等），很多指南**倾向推荐做EBUS为主的纵隔分期**，以减少“开胸后发现N2”的概率。
+3. **确认可切除与手术方式**  
+   - 对可切除NSCLC：推荐**肺叶切除 + 系统性纵隔淋巴结清扫/取样**（而不是单纯切肿块）。
+## 3) “直接手术”在什么情况下算“符合/可接受”？
+在**高度怀疑恶性且可切除**的肺结节/肿块，以下情形在不少指南中可被视为可接受策略：
+- 术前经支气管镜/穿刺**难以取得病理**或风险较大；
+- 影像学显示**临床早期**且**无N2/远处转移证据**；
+- 手术方案是：**先楔形/段切取得冰冻病理** → 若证实为NSCLC，再按规范行**肺叶切除 + 系统性淋巴结清扫**。
+但对你描述的情况（**4.1 cm**），很多指南会更强调：
+- **建议做侵入性纵隔分期（至少EBUS评估纵隔/肺门）**，即便PET-CT阴性。  
+因此，“完全不做任何术前病理/纵隔评估就直接肺叶切除”通常**不属于最标准推荐路径**，更多属于**在特定条件下的个体化选择**。
+## 4) 为什么建议术前做EBUS/取病理？（对患者最关键的收益）
+- 若发现 **N2**：治疗策略可能从“直接手术”变为“新辅助治疗后再手术/或同步放化疗”等，预后和方案差别很大。
+- 避免“开胸/切了肺叶才发现分期更高”，减少不必要手术或手术顺序不合理。
+## 5) 实操建议（和胸外科沟通的要点）
+你可以直接问手术团队这几句关键问题：
+1. 这例按指南是否建议**EBUS-TBNA**做纵隔分期？为什么做/不做？
+2. 术前是否能通过支气管镜或穿刺拿到病理？如果拿不到，是否计划**术中冰冻**？
+3. 计划的手术是否为**肺叶切除 + 系统性纵隔淋巴结清扫/取样**？
+4. 若术中/术后发现N2或驱动基因阳性，后续综合治疗路径是什么？
+---
+如果你能补充：肿瘤是否“中央型/外周型”、PET上肿瘤SUV及是否有肺门淋巴结轻度摄取、患者肺功能/合并症、以及拟采用VATS/机器人等方式，我可以更精确地对照“是否需要术前EBUS/是否可直接手术”的分层建议。</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>可以按下列几个步骤来分析“直接手术是否符合指南”这一问题。
+1. 临床分期  
+   • 肺上叶占位 4.1 cm → 按 8 版 TNM 属 T2b（&gt;4～≤5 cm）  
+   • 影像学无纵隔淋巴结肿大（CT、PET-CT 均阴性） → cN0  
+   • 未见远处转移 → M0  
+   → 临床分期 cT2bN0M0，属于 ⅡA 期（可切除期）。
+2. 现行主要指南的推荐  
+   (以下均为 2023 NCCN NSCLC、2022/2023 CSCO NSCLC 及 ACCP 指南要点)  
+   • 对于可手术耐受的 I～II 期（除 T3N2 之外）的 NSCLC，首选“手术切除＋系统性纵隔淋巴结清扫/取样”。  
+   • 对于影像学 cN0 的患者：  
+     – 如果肿瘤 &gt;3 cm 或位于中央型，可“考虑”术前行侵袭性纵隔分期（EBUS/EUS ± 纵隔镜），这一条为 NCCN 2A 级推荐；并非强制，但建议术者根据中心经验、影像可疑程度来决定。  
+     – 若 PET-CT 明确无可疑纵隔结节、肿瘤位于外周，直接行手术而在术中系统清扫也属可接受方案。  
+   • ⅡA 期（T2bN0）术后病理确诊后推荐辅助化疗（铂类方案）；EGFR 突变可再考虑奥希替尼辅助治疗，PD-L1 高表达可考虑辅助免疫治疗等。
+3. 其他围手术评估  
+   • 肺功能、心功能评估（FEV1、DLCO、心脏超声等）  
+   • 营养、共病状况评估  
+   • 多学科讨论（MDT）以决定是否加做 EBUS/纵隔镜
+4. 结论  
+   • 对于 cT2bN0M0、全身状况良好且强烈要求手术的患者，“直接行根治性肺叶切除＋系统性纵隔淋巴结清扫”符合 NCCN/CSCO/ACCP 指南的一级/强烈推荐。  
+   • 需强调：术前可与患者沟通是否加做 EBUS/EUS 或纵隔镜以进一步排除隐匿 N2 病灶；无论是否术前做，术中必须进行系统性或系统化淋巴结清扫。  
+   • 术后依据最终病理决定后续是否给予辅助化疗及分子分型/免疫治疗。
+因此，在完成常规术前评估且无手术禁忌的前提下，直接安排胸腔镜/开胸肺叶切除+系统性 LN 清扫，属于符合指南的合理做法。</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -27670,6 +32436,66 @@
   术前无法100%确定良恶性，**切勿因焦虑而扩大手术范围**。术后病理才是金标准，术中快速病理可作为辅助参考，但不应替代最终病理结果。
 建议与患者充分沟通后，签署知情同意书（明确告知可能的后续步骤），并制定个体化随访计划（如术后3个月、6个月、1年CT，之后每年1次，持续5年）。年轻患者需关注长期肺功能保护及戒烟（若吸烟）等生活方式干预。
 &gt; 注：以上建议基于当前指南及循证医学证据，具体决策需结合患者完整临床资料及多学科意见。</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>需要不要系统性淋巴结清扫，取决于**这个6 mm GGO最终是否为“纯磨玻璃/以贴壁生长为主（AIS/MIA）”**，以及术中冰冻和影像学是否提示有浸润成分。总体原则是：**纯GGO、极小、低侵袭风险时可不做系统清扫；一旦提示浸润或实性成分，则应至少做系统采样/分站采样，很多情况下要做系统清扫**。
+---
+## 1）如果是“纯GGO，6 mm”，高度怀疑 AIS/MIA
+- 这类病灶**淋巴结转移概率极低**（临床上接近可忽略）。
+- 仅做楔形切除时，通常建议：
+  - **至少做淋巴结采样/哨兵式取样（N1 + N2各取1–2站）**以保证分期可靠；  
+  - **可不做系统性纵隔清扫（SND）**，尤其是病灶满足“纯GGO、无胸膜牵拉/血管集束、无实性成分、无可疑结节”的情况下。
+很多中心做法是：**切除病灶 + 取至少一个纵隔站点（如右上叶常取2R/4R或7之一）+ 取肺门/叶间（10/11/12）**，作为最低限度的分期。
+---
+## 2）出现以下任何情况：建议“至少系统采样”，往往倾向“系统清扫”
+只要满足其一，就不应按“纯GGO低风险”处理：
+- CT上并非纯GGO：**有实性成分/混合GGO**，或**CTR（实性/总径）&gt;0**，尤其 &gt;0.25–0.5  
+- 术中冰冻提示：**浸润性腺癌（IAC）**，或 MIA 但浸润成分明确、边界/结构提示更高风险  
+- 肿瘤位置更深、楔形切除切缘受限，可能需要改行**段切/叶切**  
+- 影像/术中：**淋巴结可疑**（增大、质地硬、PET摄取等）  
+- 高危病理因素（若术中/最终病理出现）：**STAS、淋巴管/血管侵犯、胸膜侵犯**等
+在这些情况下，通常做法是：
+- **右侧至少取样/清扫 N2（2R/4R/7 中≥2站）+ N1（10/11/12）**；  
+- 若已决定行解剖性切除（段/叶），更常规是**系统性纵隔淋巴结清扫或系统性取样（符合指南的多站点）**。
+---
+## 3）结合你这个病例的“实际推荐路径”（更接近临床可执行）
+- **先按计划楔形切除 + 术中冰冻**。  
+- 若冰冻为 **AIS/MIA 且影像为纯GGO**：  
+  - 我会建议 **做淋巴结采样（至少N1+N2各1站），不必常规系统清扫**。  
+- 若冰冻为 **浸润性腺癌或提示更高风险**：  
+  - 建议**升级为解剖性切除（优先段切/必要时叶切）+ 系统性纵隔淋巴结清扫/多站系统取样**。
+---
+## 4）我需要你补充3个关键点，才能更“落地”地给出清扫范围建议
+1. 这枚结节是**纯GGO还是混合GGO**？CTR大概多少？  
+2. 是否做了PET-CT/增强CT？**淋巴结是否有可疑**？  
+3. 计划手术是纯楔形还是“楔形+视冰冻决定段切/叶切”？
+把这三点（尤其是“纯/混合GGO与CTR”）告诉我，我可以按右上叶的常用分站，给你一个更具体的“取样/清扫站点清单”。</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>临床思路可按“先判断分期-再决定手术范围-随后明确病理分型”三个层次来考虑。
+一、影像学分期  
+1. 仅 6 mm 的纯 GGO（无实性成分，CT-ratio≈0）：  
+   • 文献及指南（NCCN、JCOG、CSCO）均提示：  
+     ‑ 这种病灶 &gt;95 % 最终为 AIS/MIA，  
+     ‑ 淋巴结转移率 &lt;1 %，几乎可忽略。  
+二、手术策略  
+1. 楔形切除 + 快速冰冻：  
+   • 如果冰冻提示 AIS 或 MIA（无浸润或浸润 ≤5 mm）：  
+     ‑ 楔切即可满足根治性，  
+     ‑ 仅取同叶门/叶间的哨站淋巴结（10、11、12 站）做取样即可，  
+     ‑ 不需要系统性淋巴结清扫。  
+2. 若冰冻提示①浸润癌 (&gt;5 mm) 或②无法明确分型：  
+   • 建议追加解剖性切除（段切/叶切）+ 系统（或至少系统取样）淋巴结清扫  
+     ‑ 系统性清扫：同侧纵隔 ≥3 个站（含 7 站）+ 肺门/叶间全部可疑结节。  
+三、病理终期分型与随访  
+1. 最终病理若证实 AIS/MIA 且淋巴结阴性 → 手术已足够，常规随访。  
+2. 若为浸润性腺癌 → 按 pT 分期及病理因素进一步评估是否需要补充治疗。
+四、结论  
+对于 6 mm 的纯 GGO 病灶，术中冰冻若确认 AIS/MIA，可不做系统淋巴结清扫；仅取门-肺叶间哨节点作病理学取样以完成分期即可。如提示浸润癌，则需遵循常规肺癌手术原则行系统淋巴结清扫。</t>
         </is>
       </c>
     </row>
@@ -28064,6 +32890,116 @@
 患者应保持信心：pTis预后极佳，但多发结节需系统管理以确保全面安全。如有新症状或疑问，及时联系医疗团队。</t>
         </is>
       </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>### 1）左肺残留 pGGO（约8–10 mm）随访策略（术后已证实对侧为AIS）
+**首选：薄层低剂量胸部CT（LDCT，层厚≤1 mm）随访，而非胸片。**  
+该结节为**纯磨玻璃结节（pGGO）且≥6 mm**，并且患者属于**高危人群**（重度吸烟史、已发生肺腺癌/原位腺癌、存在多发结节），随访应较一般人群更“紧”。
+**推荐节奏：**
+- **术后首次复查：3–6个月**做一次薄层LDCT，作为左肺结节的“术后基线”（排除短期炎性改变、测量更准确）。
+- 若结节形态稳定、仍为纯GGO：
+  - **之后每6–12个月复查一次CT，连续2–3年**；
+  - 稳定后可改为**每年一次CT长期随访**（多数学会建议pGGO可随访至至少5年，但在“既往肺癌+多发GGO”情境下，临床上常倾向于长期年度随访）。
+**随访中任何一次出现以下“进展信号”应升级处理（考虑手术/消融或至少更密集随访）：**
+- 结节**直径增加**（通常以≥2 mm、或体积/密度持续上升为“真进展”更可信）；
+- **出现或增大实性成分**（由pGGO变为混合GGO，尤其是实性部分≥2–3 mm，或实性比例逐步上升）；
+- 边缘毛刺、分叶、胸膜牵拉加重等恶性征象；
+- 出现新的GGO/新的实性结节。
+**不建议常规做PET-CT来评估这种8–10 mm的pGGO**（敏感性有限、假阴性常见），除非出现实性成分或其他可疑结节需要分期评估。  
+**也不建议常规经支气管镜/经皮穿刺活检**（pGGO小、取材困难、假阴性和并发症风险较高），除非影像已明显进展且将影响治疗决策。
+**何时倾向主动处理左肺结节（而不是继续观察）**  
+满足其一通常即可进入“积极评估/干预”通道：  
+- 随访中**出现实性成分**或实性成分进行性增大；  
+- 纯GGO但**持续增大**或直径接近/超过**10–15 mm并继续增长**；  
+- 影像学高度提示浸润性腺癌；  
+- 患者强烈焦虑且具备手术耐受、结节位置适合行**亚肺叶切除（楔形或段切）**者。  
+（对“持续稳定的纯GGO”，通常仍以观察为主。）
+---
+### 2）多发肺结节的长期监测与管理方案（总体框架）
+建议把这类患者按“**肺癌术后 + 多发惰性腺癌谱系结节（GGO）**”来管理，而不是按一次性“筛查结节”管理。核心是：**建立基线、分层风险、确定主导结节、动态调整间隔、以CT长期监测为主，必要时分期分次处理。**
+#### A. 影像随访“技术标准”
+- **同一家医院/同一方案**做随访（便于可比性）。  
+- **薄层（≤1 mm）+ 低剂量**为主；记录结节的**最大径、体积（如可）、平均CT值/密度、是否实性成分及其大小**。  
+- 明确每个结节的**编号与定位**（肺叶/段、与胸膜距离），形成可追踪清单。
+#### B. 以“最可疑/进展最快”的结节作为主导结节
+- 多发结节随访频率通常由“**主导结节**”决定，而不是平均处理。  
+- 当前右中叶AIS已切除，**左上叶pGGO就是主导结节**；若后续出现新的混合结节/实性结节，则主导结节随时更换。
+#### C. 随访时间轴（结合“肺癌术后常规复查”一并整合）
+- 肺癌术后（AIS，pTisN0M0）一般也需要CT随访；可与GGO随访合并：  
+  - **术后3–6个月CT**（兼顾术后基线+对侧结节基线）  
+  - **之后每6–12个月CT**（前2–3年）  
+  - **稳定后每年CT长期随访**（尤其有残留GGO时）
+#### D. 触发“进一步检查/干预”的统一规则（便于长期执行）
+建议在病历里写成“触发条件”，每次CT按条款执行：
+1) **任何结节出现实性成分**或实性成分增大；  
+2) **直径增长≥2 mm**（连续两次更可靠）；  
+3) 由pGGO → mGGO（混合）或出现典型恶性形态；  
+4) 出现**新发实性结节**或可疑淋巴结/胸膜病灶。  
+触发后可选路径：短间隔CT（3个月）确认 → MDT评估 → 以**保留肺功能**为目标的局部治疗（优先考虑楔形/段切；不适合手术者可评估消融/放疗）。
+#### E. “分次处理”原则
+- 多发GGO常呈“多原发、低侵袭”的特点，处理策略通常是：  
+  - **先处理最危险的**（出现实性成分/增长快/直径大/位置可切）；  
+  - 其余**持续观察**，避免一次性扩大切除导致肺功能损失。  
+- 本例已做右中叶切除，未来若左上叶结节进展，更倾向**亚肺叶切除**以保留肺功能。
+#### F. 合并症与风险控制（会影响结节管理与能否再次手术）
+- **强烈建议戒烟**（降低第二原发肺癌风险、改善心肺并发症）。  
+- 新发现的**糖尿病/高血压**需要规范治疗与长期控制（不仅影响心脑血管风险，也影响再次手术/麻醉耐受）。  
+- 做一次**基础肺功能评估**（如尚未做），为未来可能的二次手术/消融做准备。
+---
+**落实到本患者的可执行方案（简版）：**
+1. 出院后安排**术后3–6个月薄层LDCT**：同时评估术后胸腔情况与左上叶pGGO作为基线。  
+2. 若左结节稳定且仍为纯GGO：**6–12个月复查CT**，前2–3年保持该频率；之后**年度CT长期随访**。  
+3. 任一复查出现：**增大≥2 mm**或**出现/增大实性成分** → **3个月短间隔CT + MDT讨论**，优先评估左上叶**亚肺叶切除**可行性（或不耐受时考虑消融/放疗）。  
+如你能提供：左上叶结节是否“纯磨玻璃”还是“混合磨玻璃”、有无胸膜牵拉/血管集束、以及既往CT时间点与大小变化，我可以把随访间隔和触发阈值进一步精确化到“下一次复查该定在几个月”。</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>一、左肺上叶残留 pGGO（8–10 mm）的随访策略  
+1. 基线复查  
+   • 术后 3 个月行一次薄层 HRCT（≤1 mm），作为术后随访的“0 点图像”。  
+2. 第 1 年内  
+   • 若 3 个月 CT 与术前相比大小、形态、密度均无明显变化，可在 6 个月、12 个月分别再做 CT。  
+   • 任何一次复查出现下列情况须立即 MDT 讨论并准备进一步处理：  
+     – 直径增加 ≥2 mm 或体积增加 ≥20 %；  
+     – 出现或增大实性成分（≥2 mm）；  
+     – CT 值明显升高，出现毛刺征、血管集束征等。  
+3. 第 2～5 年  
+   • 如第 1 年稳定 → 每 12 个月复查一次低剂量 HRCT，直至术后满 5 年。  
+   • 若始终保持纯磨玻璃、大小及密度稳定，可考虑将 CT 频率延长至 18～24 个月/次，但一般建议至少随访到 8～10 年。  
+4. 触发干预的指征  
+   • 任何一次复查出现上述进展表现；  
+   • 结节直径 ≥10–15 mm 或出现 &gt;50% 实性成分；  
+   • 体积倍增时间 &lt;400 日；  
+   • PET-CT 出现显著代谢增高（SUVmax&gt;2.5）。  
+   此时首选肺段/楔形切除（必要时扩大至肺叶切除），以保留肺功能；如手术风险增高，可考虑射频消融或立体定向放疗（SBRT）。
+二、多发肺结节的长期监测与综合管理  
+1. 随访周期  
+   • 术后第 2 年前： 3、6、12、18、24 个月各查一次 HRCT；  
+   • 术后 2～5 年： 每年一次；  
+   • &gt;5 年： 根据前期动态决定，建议 1–2 年/次低剂量 CT，直至 8–10 年。  
+2. 监测内容  
+   • 薄层 HRCT（1 mm）＋三维重建，重点观察：  
+     – 既往切除部位有无复发；  
+     – 其余肺叶是否出现新 GGOs/实性结节；  
+     – 纵隔、肺门及锁骨上淋巴结。  
+   • 必要时加做 PET-CT、增强 CT、MRI 或经皮/经支气管活检。  
+   • 肿瘤标志物（CEA、CYFRA21-1、NSE、Pro-GRP 等）每 6–12 个月一次，仅供趋势参考。  
+3. 并发症和慢病管理  
+   • 继续戒烟；  
+   • 严格控制血糖（HbA1c＜7%）、血压（＜130/80 mmHg）；  
+   • 每年一次肺功能、心电图，评估再次手术耐受性；  
+   • 接种肺炎球菌、流感疫苗。  
+4. MDT 随访平台  
+   • 影像科、胸外科、呼吸内科、肿瘤科、内分泌科、心血管科共同参与；  
+   • 由专人建立电子档案，记录每次 CT 图像与测量值，自动提示下一次随访日期。  
+5. 患者教育  
+   • 告知长期随访的重要性及警示症状（新发咳嗽、血痰、胸痛、体重下降等）；  
+   • 建议每 3–6 个月随诊时进行一次症状问诊及查体。
+总结  
+对左肺 8–10 mm 的纯磨玻璃结节，先行动态影像随访：术后 3 个月、6 个月、12 个月，再每年一次，直至 5 年以上；只要出现尺寸增大、出现实变成分或代谢增高，则转入积极治疗（优先肺段/楔形切除）。全肺多发结节患者需长期（至少 5–10 年）低剂量 HRCT 监测，并结合患者合并症、肺功能及生活质量个体化决定干预时机。</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -28304,6 +33240,43 @@
    - 启动支持治疗（止痛、营养、心理）；  
    - 7日内MDT会诊，制定个体化方案（含中医辨证施治）。  
 &gt; 注：本决策基于当前信息（无其他合并症描述），实际临床中需结合患者具体状况调整。若条件允许，优先在沟通后争取患者接受EBUS（若淋巴结可及且风险可控）或液体活检作为补充，但肿瘤标志物应作为**第一步**以避免延误关键时机。</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>下一步最关键的临床决策：**必须获得“可用于病理与分子检测的肿瘤组织/细胞学标本”，并据此完成分期与可靶向/可免疫治疗评估；在拒绝支气管镜的前提下，立即改走“替代取材路径”。**
+具体就是：**选择风险最低、收益最高的取材部位与方式**（优先顺序通常如下），目的是一次性拿到制定方案所必需的核心信息（病理类型 + 驱动基因/PD‑L1 + 分期依据）：
+1) **可及的转移灶取材（优先）**  
+   - CT已提示**骨质破坏**：若有安全可穿刺的骨/软组织转移灶，做**CT引导下穿刺活检**（骨病灶常需脱钙处理，需与病理科沟通“尽量保留分子检测质量”，必要时选软组织成分或淋巴结/胸壁外侵处）。
+   - 若有**浅表淋巴结**（锁骨上等），做**超声引导下穿刺/粗针活检**（往往最省事且分子检测质量好）。
+2) **纵隔淋巴结取材（不等同于支气管镜“看气道”）**  
+   - 若患者能接受经皮或食管途径：考虑**EBUS‑TBNA / EUS‑FNA**（严格说属内镜超声引导穿刺，但很多患者对“支气管镜进气道”抗拒，对“超声引导穿刺取样”相对更可接受；可与患者沟通这是“取样而非在气道内检查/治疗”，且多为镇静下完成）。
+3) **原发肺部肿块取材（备选）**  
+   - **CT引导下经皮肺穿刺活检**（中央型病灶气胸/出血风险相对更高，且“中央型+阻塞”并非最佳穿刺靶点，因此通常不作为首选，除非其他部位取不到）。
+与此同时，为了“能开治”的核心信息，建议把目标明确成三件事（取到标本后必须完成）：
+- **病理类型**：小细胞 vs 非小细胞；若非小细胞，进一步腺癌/鳞癌/其他。  
+- **分子与免疫标志**（决定一线方案是否能用靶向/免疫）：EGFR、ALK、ROS1、BRAF、MET、RET、KRAS、NTRK 等；以及 **PD‑L1**（必要时加TMB/NGS）。  
+- **分期证据**：至少用PET‑CT/增强CT+骨评估（或骨显像/全身MRI等）把“是否广泛转移”坐实，用于决定是全身治疗为主还是局部姑息等。
+如果患者在任何形式的有创取材上仍坚决拒绝：临床上可先做**血液ctDNA（液体活检）**尝试抓取可靶向突变（阳性可直接指导靶向治疗），但要明确：  
+- **液体活检阴性不能排除**突变；  
+- **无法替代病理确诊与PD‑L1评估**，也会限制免疫/化疗方案的规范性与医保/用药合规。
+一句话总结：**在拒绝支气管镜的情况下，最关键的决策不是“先用什么药”，而是“从哪里、用什么最低风险的方法取到足量标本做病理+分子+PD‑L1”，否则无法形成真正可执行且个体化的治疗方案（包括中西医结合中需要明确的肿瘤类型与病程分期）。**</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>最关键的临床决策： 一定要尽快取得肿瘤组织（或转移灶）进行病理及分子学检查。 
+理由  
+1. 是否为肺癌以及癌种分型（鳞癌、腺癌、小细胞癌等）必须靠病理确诊；  
+2. 分子分型（EGFR、ALK、ROS1、PD-L1 等）直接决定靶向/免疫治疗方案；  
+3. 中医辨证治疗也需明确病情分期、脏腑受累程度，离不开病理和影像学的综合判定。
+在患者拒绝支气管镜的前提下，应选择创伤最小、患者可接受、取材成功率最高的途径，如：  
+• 超声引导下锁骨上或颈部可及淋巴结粗针活检（若影像显示可行）；  
+• CT 引导经皮肺穿刺活检；  
+• CT/超声引导骨转移灶穿刺活检；  
+• EBUS-TBNA（透支气管针吸），创伤小，可不经支气管镜可视插管；  
+• 如患者再拒绝所有组织活检，可退而求其次做血液游离 DNA（ctDNA）检测，但须强调其不能完全替代组织学诊断。
+只有在获得病理及基因信息后，才能制订后续西医（手术、放疗、化疗、靶向、免疫）及中医综合干预方案。</t>
         </is>
       </c>
     </row>
@@ -28693,6 +33666,71 @@
 如果提供更多细节（如PD-L1结果、具体转移部位、ECOG评分、合并症），我可进一步优化建议。建议尽快与肿瘤专科医生详细讨论此方案。</t>
         </is>
       </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>基于目前信息（IV期鳞癌，已完成2周期“白紫+卡铂+信迪利单抗”，疗效评估为稳定病灶/未进展，毒性可耐受，一般状态良好），后续策略总体遵循“若无进展且可耐受→继续含免疫的一线方案至完成诱导，再进入维持”的思路，同时优先把贫血等可纠正因素处理好。
+## 1) 继续一线诱导治疗（优先选择）
+- **建议继续原方案再治疗2周期**（完成常规 **4周期** 含铂双药+PD-1 诱导），期间每周期前常规复查血常规/肝肾功能、电解质，按CTCAE分级处理不良反应。  
+- **影像复评**：一般在第4周期后复评；若出现症状变化可提前。
+&gt; 你目前仅做了2周期，且评估为“稳定且未进展”，通常不建议过早停掉化疗成分或更换方案。
+## 2) 诱导完成后的维持治疗（若第4周期后仍无进展）
+- **维持首选：信迪利单抗单药维持**（按说明书/方案给药间隔），直至疾病进展或不可耐受毒性。  
+- 鳞癌人群通常**不采用培美曲塞维持**；如后续出现不能继续免疫（如免疫相关不良反应），则改为最佳支持治疗或二线策略。
+## 3) 立即需要并行处理的关键问题：贫血（Hb 86 g/L）
+贫血会影响后续化疗耐受与剂量强度，建议在继续第3周期前完成评估并处理：
+- **查因**：铁代谢（铁蛋白、转铁蛋白饱和度）、维生素B12/叶酸、溶血指标、隐匿失血（消化道等）、肾功能/炎症状态；同时评估骨髓抑制程度。  
+- **纠正策略（按症状与风险）**：  
+  - 若有明显乏力/气促、心血管基础病或Hb继续下降，可考虑**输注红细胞**；  
+  - 明确缺铁则**补铁（静脉优先于口服，视情况）**；  
+  - 化疗相关贫血且预计仍需多周期治疗、无血栓高风险时，可在医生评估后考虑**促红细胞生成素类（ESA）**（需权衡血栓风险，并使Hb维持在“够用、不追求正常”的目标范围）。  
+- 下一周期化疗是否需要**延迟/减量**：依据Hb、血小板、中性粒细胞绝对值（你给的是比例，需补充ANC）及症状综合决定。
+## 4) 支持治疗与用药安全
+- 继续执行**G-CSF预防/治疗策略**（尤其若既往出现≥3级中性粒细胞减少或合并感染风险高）。  
+- 规范止吐、营养、镇痛、骨转移（若有）相关管理（如地诺单抗/唑来膦酸需结合肾功能与钙磷监测）。  
+- 免疫相关不良反应监测：皮疹、腹泻/结肠炎、肝炎、肺炎、甲状腺功能异常等，定期复查甲功、肝酶；出现可疑症状需尽早干预。
+## 5) 何时需要改变策略（触发“调整/二线/局部治疗”）
+- **影像或临床进展**：转入二线（如多西他赛±雷莫芦单抗、吉西他滨、单药紫杉类、临床试验等，取决于既往耐受和靶病灶/合并症）。  
+- **寡进展/局部进展但总体获益**：可考虑对进展灶行**放疗/消融**，同时继续免疫维持（需MDT评估）。  
+- **出现≥3级不可控毒性**：按指南暂停免疫/化疗并分级处理，必要时更换方案。
+---
+如果你能补充：①中性粒细胞**绝对值(ANC)**、血小板；②PD-L1表达（TPS）、是否做过NGS；③转移部位（骨/脑/肝等）及是否有症状；④是否有出血史或缺铁证据——我可以把“第3周期是否需要延迟/减量、是否需要G-CSF一级预防、贫血纠正优先级、维持方案细节”进一步具体化到可执行的处方级路径。</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>后续治疗决策的核心原则：  
+1) 充分完成推荐的诱导化免联合方案（4-6 个周期）；  
+2) 在获得疾病控制（CR/PR/SD）后进入以 PD-1 单药维持为主的阶段；  
+3) 同步做好支持治疗和不良反应处理；  
+4) 在每个阶段定期评估疗效并为下一线方案做准备。  
+结合患者目前的病情与疗效／毒副反应情况，可提出以下具体建议：  
+一、继续完成诱导化免联合治疗  
+1. 方案：白蛋白结合型紫杉醇（nab-paclitaxel）+ 卡铂 + 信迪利单抗 Q3W。  
+2. 疗程：再给予 2 个周期，完成共 4 个周期（如耐受良好可酌情做到 4-6 个周期，但≥4 个周期后边际获益有限，需权衡骨髓抑制等不良反应风险）。  
+3. 疗效评估：第 4 个周期结束后 4-6 周复查影像（CT ± 必要时 PET/MRI/骨扫描）及肿瘤标志物，判断 RECIST 1.1 评价。  
+二、维持治疗策略  
+1. 若评价为 CR/PR/SD → 改用信迪利单抗单药维持（200 mg Q3W 或 240 mg Q3W，或 200 mg Q4W，遵循说明书/医保支付要求），持续至疾病进展、不可耐受毒性或最长 2 年。  
+2. 维持期间密切观察免疫相关不良反应（irAEs），每 6-9 周重复影像学检查。  
+三、毒副反应与支持治疗  
+1. 贫血（Hb 86 g/L）：  
+   • 排除失血、溶血等原因；  
+   • 考虑促红素（rHuEPO）或静脉铁剂；  
+   • Hb&lt;80 g/L 或症状明显时给予 RBC 输血。  
+2. 中性粒细胞比例高：关注绝对中性粒细胞计数（ANC）；如有Ⅲ-Ⅳ度中性粒细胞减少，可加用 G-CSF 二级预防；并警惕感染。  
+3. 其他常规支持：营养、止痛、抗骨质破坏（如有骨转移可加用唑来膦酸/地舒单抗）、戒烟、康复运动等。  
+四、进展后的二线及临床试验准备  
+1. 若维持阶段或后续出现影像学 PD（真进展）：  
+   • 无可靶向突变：二线可选多西他赛 ± 雷莫芦单抗、伊立替康、吉西他滨、紫杉类再次应用、甚至局部治疗/放疗；  
+   • 建议再次行 NGS（扩大到 NTRK、BRAF、METex14 等罕见驱动），如有可及靶点按指南用药；  
+   • 积极考虑临床试验（新一代免疫/新型 ADC/双特异抗体等）。  
+2. 若出现寡进展，可评估局部治疗（调强放疗/SBRT/射频消融等）+ 继续系统维持。  
+五、随访与再评估  
+• 每 1 个治疗周期复查血常规、生化；  
+• 每 2-3 个周期（约 6-9 周）行影像学评估；  
+• 定期评估 ECOG PS、体重、症状评分，并动态调整治疗计划。  
+结论：根据现行 CSCO/NCCN 指南和患者当前 SD 状态，最佳策略是继续完成 4-6 个周期的“nab-紫杉醇+卡铂+信迪利单抗”诱导治疗；若获得疾病控制，则进入信迪利单抗维持；同时积极纠正贫血、监测骨髓抑制并整体管理 irAEs。如后续进展，再转入二线方案或临床研究。</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -29202,6 +34240,142 @@
 此流程符合NCCN/ESMO最新指南（2023），并兼顾中国人群特点（EGFR高发）。高龄患者需个体化减量，但规范检测是精准治疗的前提，切勿因等待结果而延误关键时机。</t>
         </is>
       </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>### 一、下一步分子检测：怎么做才“规范、一次到位”
+患者为IV期非小细胞肺癌（中央型、低分化、伴多发转移），**必须尽快完成“广谱驱动基因+PD‑L1”检测**，以决定后续是一线进入“靶向”还是继续“免疫联合化疗”，并避免无效治疗与潜在毒性（尤其是“先免疫、后靶向”在EGFR/ALK阳性时可能增加肺炎/肝炎风险）。
+#### 1）优先使用的检测策略（推荐）
+**A. 组织学+PD‑L1（IHC）**
+- 取材：优先用**原发灶/转移灶活检组织**（量足够、肿瘤细胞含量合格）。  
+- PD‑L1：用规范抗体平台（如22C3/28‑8/SP263等之一）报告**TPS%**。
+**B. 广谱NGS（组织为主，血浆为辅）**
+- 组织NGS：建议**≥DNA+RNA双平台NGS**（RNA用于融合基因更敏感，如ALK/ROS1/RET/NTRK）。  
+- 检测范围（至少应覆盖）：  
+  - **EGFR（含ex19del、L858R、T790M、ex20ins等）、ALK、ROS1、BRAF V600E、KRAS（含G12C）、MET（ex14跳跃/扩增）、RET、NTRK、HER2/ERBB2（突变/扩增）**  
+  - 同时建议报告：**TP53等共突变、TMB、MSI（如平台支持）**，便于评估免疫获益与预后。
+**C. 同步做血浆ctDNA（强烈建议“立刻加做”，不要等组织结果）**
+- 适用原因：IV期肿瘤负荷大，ctDNA阳性率较高；可**缩短等待时间**，尽快锁定可靶向突变。  
+- 关键点：  
+  - **ctDNA检出阳性=可直接指导用药**（尤其EGFR/ALK/ROS1/RET/MET等明确驱动）。  
+  - **ctDNA阴性≠排除**驱动基因（仍需组织NGS兜底）。
+#### 2）若组织量不足/取材困难
+- 选择：血浆ctDNA +（必要时）再次活检（或胸水/胸膜转移灶取材）。  
+- 胸腔积液（如有）：优先做**细胞块+PD‑L1+NGS**，往往比少量穿刺组织更充足。
+#### 3）病理层面需补充/确认
+- 明确：NSCLC具体亚型（腺癌/鳞癌/NSCLC‑NOS）。  
+- 必要时IHC：TTF‑1、p40、CK7等；因为**治疗方案与可选药物（如培美曲塞、抗血管生成）与组织学相关**。
+---
+### 二、后续系统治疗方案：按“驱动基因结果 + PD‑L1 + 组织学”分层决策
+患者已接受“白蛋白紫杉醇+洛铂+信迪利单抗”1周期并SD。**规范做法是：在等待分子结果的同时，可继续当前方案至完成2周期后复评，但一旦发现明确可靶向驱动，应尽快切换到靶向治疗**（通常靶向获益更确定）。
+下面按结果给出“可执行”的路径：
+---
+## 1）若检出明确可靶向驱动基因（优先走靶向）
+&gt; 原则：**驱动阳性→靶向为首选**，即使PD‑L1高表达也通常不优先免疫单药；且既往已用过PD‑1，更要注意序贯安全性。
+- **EGFR敏感突变（ex19del/L858R等）**：首选**奥希替尼**。  
+  - 注意：若已用PD‑1（信迪利单抗），改用EGFR‑TKI前建议与免疫治疗**拉开间隔**并严密监测（肺炎/肝炎风险），具体间隔以团队经验与患者风险综合评估。
+- **ALK融合**：首选**阿来替尼/布加替尼/劳拉替尼**之一（按可及性与风险选择）。  
+- **ROS1融合**：恩曲替尼/克唑替尼等。  
+- **RET融合**：塞普替尼/普拉替尼。  
+- **MET exon14跳跃**：替泊替尼/卡马替尼。  
+- **BRAF V600E**：达拉非尼+曲美替尼。  
+- **KRAS G12C**：可进入后线（索托拉西布/阿达格拉西布，依可及性与适应证）；一线仍多按免疫联合化疗或临床研究。  
+- **HER2突变**：后线可考虑T‑DXd等（依适应证与可及性）；一线通常仍按免疫联合化疗或研究。
+**提示**：如果驱动阳性，通常**停止PD‑1**更合适，避免“靶向+PD‑1”叠加毒性（除非临床试验）。
+---
+## 2）若无可靶向驱动基因（“全阴性/非靶向”）
+这时才以**免疫联合化疗**为主，方案根据组织学与PD‑L1决定。
+### （1）PD‑L1 TPS ≥50%
+- 可选：免疫联合化疗继续（已在用），或在体能允许且方案合适时向标准一线靠拢：  
+  - 非鳞：PD‑1/PD‑L1 + **铂类 + 培美曲塞**（更“标准化”）  
+  - 鳞：PD‑1/PD‑L1 + **铂类 + 紫杉类/吉西他滨**  
+- 是否改方案：需看病理亚型、耐受性与现用方案可及性。已SD可先**完成2–4周期后进入维持**。
+### （2）PD‑L1 1–49% 或 &lt;1%
+- 仍以**免疫联合化疗**为标准：  
+  - 非鳞：免疫 + 铂类 + 培美曲塞（±抗血管生成按风险评估）  
+  - 鳞：免疫 + 铂类 + 紫杉类/吉西他滨
+### （3）维持治疗怎么做
+- 通常：免疫药维持（如信迪利单抗维持）±（非鳞的）培美曲塞维持。  
+- 若持续SD/PR且耐受好：按指南疗程持续至进展或不可耐受。
+---
+### 三、与本病例强相关的“立刻要加”的综合治疗
+- **骨转移**：尽快启动骨保护治疗（地舒单抗或唑来膦酸，评估肾功能/低钙风险，补钙维D），疼痛或高风险部位可放疗评估。  
+- **胸膜转移/胸水**：若有症状性胸水，考虑胸水处理并争取胸水细胞块用于检测。  
+- **CEA/NSE/CA125升高**：提示肿瘤负荷与可能的混合表型风险；若NSE明显高且临床怀疑神经内分泌分化，建议病理补做相应标记物（Syn、CgA、INSM1等），以免治疗策略偏差。
+---
+### 四、建议你们现在就按这个“时间表”执行
+1. **立即送检：血浆ctDNA广谱NGS（DNA+RNA融合）**。  
+2. 同步：对既有活检组织做**PD‑L1（TPS）+组织NGS（DNA+RNA）**；若组织不足，安排再次取材或用胸水细胞块。  
+3. **第2周期**可继续原“白蛋白紫杉醇+洛铂+信迪利单抗”，但：  
+   - 一旦ctDNA/组织提示**EGFR/ALK/ROS1/RET/MET等明确驱动** → 尽快转入相应靶向，并对“免疫后序贯靶向”风险进行监测管理。  
+   - 若驱动阴性 → 按PD‑L1与组织学选择最标准的一线免疫联合化疗及维持策略。
+---
+如果你能补充两点信息，我可以把“后续方案”具体到可选药物组合与维持路径：  
+1）病理更具体亚型（腺/鳞/NSCLC‑NOS？是否提示神经内分泌分化）和是否有胸水；2）第1周期后血象、肝肾功能及不良反应情况（决定是否需要减量/改用培美曲塞等）。</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>一、病理及分子检测的规范化流程  
+1. 组织病理复核  
+   • 确认肿瘤学亚型（低分化腺癌？低分化鳞癌？或未分化癌），必要时补做TTF-1、p40 等免疫组化。  
+2. PD-L1 表达检测  
+   • 建议用 22C3 或 28-8 抗体，报告肿瘤比例分数（TPS）。结果对免疫治疗强度及维持方案有参考价值。  
+3. 驱动基因检测——以组织 NGS 为首选  
+   • 覆盖目前指南推荐的 8 个必检基因：EGFR、ALK、ROS1、BRAF、MET（含外显子14 跳跃）、RET、HER2、KRAS；  
+   • 同时检测 NTRK 融合、PD-L1（可同步），并计算 TMB、评估 MSI/dMMR（≥71 岁且肿瘤低分化，偶见高 MSI）。  
+4. 若组织量不足或取材困难  
+   • 同步或补充血浆 ctDNA NGS；  
+   • ALK/ROS1/RET 融合可用 IHC 或 FISH 快速筛查。  
+5. 出报告时间  
+   • 争取 10–14 天内出结果，以便在第二周期化疗前拿到，指导后续方案。  
+二、后续系统性治疗策略（基于分子结果分层）  
+（一）如发现可靶向的驱动基因突变/融合  
+1. EGFR 经典敏感突变 → 奥希替尼首选。  
+2. ALK 融合 → 阿雷替尼（或塞瑞替尼/劳拉替尼）。  
+3. ROS1 融合 → 克唑替尼或恩曲替尼。  
+4. BRAF V600E → 达拉非尼 + 曲美替尼。  
+5. METex14 跳跃 → 卡马替尼/替泊替尼/赛沃替尼。  
+6. RET 融合 → Selpercatinib / Pralsetinib。  
+7. NTRK 融合 → 拉罗替尼 / 恩曲替尼。  
+8. HER2 exon20 插入 → 曲妥珠单抗-德鲁西单抗（DS-8201）或帕托珠单抗联合方案。  
+• 已接受 1 次信迪利单抗，对后续 TKI 治疗的影响：  
+  – 需要与患者充分沟通免疫相关不良反应（irAEs）叠加风险，特别是肺毒性；  
+  – 建议第 2 次免疫给药前暂缓，等待 NGS 结果；若需改为 TKI，可在停用信迪利单抗 ≥3–4 周、确保无活动性 irAEs 后启动 TKI。  
+（二）若无可靶向驱动基因  
+1. PD-L1 TPS ≥50%  
+   • 可考虑化疗 + 信迪利单抗持续 2–4 周期后，根据疗效及耐受性，改为信迪利单抗单药维持；  
+   • 或直接停化疗，以 PD-1 单药维持。  
+2. PD-L1 TPS 1%–49%  
+   • 继续当前方案（白蛋白紫杉醇 + 洛铂 + 信迪利单抗）满 4–6 周期；  
+   • 随后维持：  
+     – 非鳞癌：信迪利单抗 ± 培美曲塞；  
+     – 鳞癌：信迪利单药维持。  
+3. PD-L1 TPS &lt;1%  
+   • 保持化疗 + PD-1 联合 4–6 周期 → 同上维持。  
+4. 疫苗或病毒载体等临床试验亦可考虑。  
+（三）疾病进展后的二/三线选择  
+• 既往无驱动基因突变：多西他赛 + 安罗替尼 / 雷莫芦单抗；安罗替尼或曲美替尼单药；化疗 (S-1、培美曲塞)；  
+• 考虑靶向耐药后再次 NGS/ctDNA 监测新突变；  
+• 参加创新药物或双特异/双免疫联合的临床研究。  
+三、伴随及支持治疗  
+1. 骨转移：优先使用唑来膦酸/地舒单抗，每 4 周一次，补钙+维生素 D，同步疼痛管理；必要时姑息放疗。  
+2. 肾上腺转移：目前无症状观察；如局限且显著增大，可考虑放疗或消融。  
+3. 胸膜转移/胸水：反复积液可行胸腔穿刺、胸腔热灌注或盐酸贝伐单抗胸腔注射。  
+4. 老年患者综合评估（CGA）：评估心肺功能、肝肾功能、营养及共病，调整药物剂量。  
+四、疗效与安全性监测  
+• 每 2 周一次血常规、生化、甲功、心电图；  
+• 每 6–8 周行胸腹盆 CT + 骨扫描或 PET/CT 评估；  
+• 动态监测CEA、NSE、CA125；  
+• 免疫相关不良事件（皮疹、内分泌、肺炎、肝炎）早期识别、分级处理。  
+五、小结  
+1. 尽快完成组织/血液 NGS + PD-L1 检测，覆盖全部推荐的可靶向基因。  
+2. 根据结果：  
+   • 有驱动基因 → 尽早停用免疫并换入对应 TKI；  
+   • 无驱动基因 → 继续化疗 + PD-1 联合 4–6 周期，后进入维持。  
+3. 全程做好骨、胸膜等转移病灶的局部及支持治疗，并动态评价疗效、毒性。  
+4. 如有合适的国内/国际临床试验，应及时推荐入组，以获取更多治疗机会。</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -29485,6 +34659,41 @@
 &gt; - CSCO NSCLC指南（2023）：4.1（免疫治疗每2-3个月评估，PD-L1≥50%者单药一线）。  
 &gt; - ESMO指南（2022）：9.2（一线免疫单药在PD-L1≥50%患者中，若6-8周无进展证据，可继续至2年）。  
 此决策平衡了证据充分性、患者年龄及治疗目标（延长生存 vs. 保证生活质量），避免过度治疗或延误关键干预。</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>在“无可靶向驱动基因突变 + PD‑L1 TPS 60% + 已一线使用帕博利珠单抗单药且耐受良好”的前提下，**下一步最恰当的决策是继续帕博利珠单抗单药维持治疗，并按期影像学评估疗效与监测免疫相关不良反应**；**不应仅因PD‑L1高表达而预防性加用化疗或更换方案**。
+依据要点（对应主流循证与指南共识）：
+- 对于晚期NSCLC、无EGFR/ALK等驱动基因、**PD‑L1 TPS ≥50%**患者，**帕博利珠单抗单药一线**是证据充分的标准方案（如KEYNOTE‑024等研究显示其较化疗改善OS/PFS）。
+- 若患者**正在治疗且耐受良好**，标准做法是**持续治疗至疾病进展、出现不可耐受毒性或达到既定治疗时长上限**（临床试验与指南常用上限约2年/35个周期），并进行规律随访评估（通常每6–12周影像评估一次，结合症状与实验室检查）。
+- 只有在**影像/临床提示进展**或出现**不可接受的免疫毒性**时，才进入下一步策略（如改为含铂双药化疗±继续免疫治疗的个体化选择，或进入临床试验；局部寡进展可考虑局部治疗后继续免疫）。
+因此：**继续帕博利珠单抗单药治疗（维持/续用）并定期评估**是当前最恰当的临床决策。</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>最佳的下一步临床策略：继续帕博利珠单抗单药治疗并按指南常规随访，直至出现疾病进展、不可耐受毒性或完成最长治疗时限（通常 2 年／35 个周期）。
+理由与依据  
+1. 证据基础  
+   • KEYNOTE-024、KEYNOTE-042 等 Ⅲ 期研究证实，在 PD-L1 TPS ≥50% 且无 EGFR/ALK 等可靶向突变的晚期 NSCLC 中，帕博利珠单药一线治疗显著改善 OS 和 PFS；NCCN、CSCO 均列为 1 级推荐。  
+   • 患者 TPS 为 60%，正符合上述人群；目前耐受性良好，未提示进展或不可接受毒性。  
+2. 不需要立即改变方案的理由  
+   • 没有疾病进展：缺乏证据表明在未进展时将单药改为免疫＋化疗或其它方案可进一步获益。  
+   • 安全性可接受：老年患者增加治疗强度（加化疗或双免）潜在毒性更大。  
+3. 治疗目标与监测  
+   • 继续帕博利珠单抗 q3w（200 mg）或按体重固定剂量 q6w（400 mg），直至：  
+     ‑ 影像学明确进展（RECIST 1.1）。  
+     ‑ 不可耐受毒性（≥3 级免疫相关 AEs）。  
+     ‑ 累计治疗 2 年（约 35 个周期），届时可考虑停药并随访。  
+   • 每 6–9 周复查影像，评估疗效；定期监测甲状腺功能、肝肾功能、血常规等。  
+   • 加强不良反应教育与管理（皮疹、内分泌、肺炎等免疫相关毒性）。  
+4. 进展后的后续方案（仅在真正进展时考虑）  
+   • 含铂双药化疗（如培美曲塞/卡铂），±贝伐珠单抗。  
+   • 临床试验或二线多西他赛±紫杉醇/雷莫芦单抗等。  
+   • 对症/姑息治疗及综合管理。
+结论  
+在当前疾病未进展且患者耐受良好的情况下，最合适的策略是维持现有帕博利珠单抗单药一线治疗，并按照指南进行定期评估与毒性监测，不需立即调整或强化治疗方案。</t>
         </is>
       </c>
     </row>
@@ -29936,6 +35145,99 @@
 - 肿瘤标志物在NSCLC中作用（NCCN 2.2023）：  
   &gt; “不推荐常规监测，但若基线升高，治疗后应动态监测；持续升高需警惕复发。”
 请根据患者具体条件（如经济状况、地域医疗资源）调整方案，优先保障安全性和可及性。</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>下一步要把“肿瘤标志物持续升高”当作**复发/进展的风险信号**来处理，但**不能仅凭标志物决定治疗更换**；应先做系统性复评，明确是否存在影像学可证实的残留/复发/远处转移，以及是否有非肿瘤原因导致升高。
+## 1）先做“可解释升高的原因”排查（1周内完成）
+- **复查一次同一实验室的标志物**：CYFRA21-1、SCC、NSE（避免批次/方法差异造成“假性上升”），同时看动态趋势（上升速度比单次数值更重要）。
+- **基础实验室**：血常规、肝肾功能、电解质、CRP/ESR、LDH。  
+  - CYFRA21-1、SCC可受炎症/感染、肝肾功能异常、吸烟、皮肤病等影响；NSE可受溶血、神经系统疾病等影响。
+- **评估是否存在感染或放化疗后炎症改变**（咳嗽、发热、影像炎症、痰培养等），必要时先处理炎症再判断标志物趋势。
+## 2）核心：按IIIC期“复发/进展高风险”做全身再分期评估（尽快，2–3周内）
+建议以“能指导下一步治疗”为目标选择检查组合：
+### 影像学
+- **增强胸部CT（含上腹部：肝/肾上腺）**：看局部复发、纵隔/锁骨上淋巴结、胸膜播散等。
+- **全身PET-CT**（优先）：对**不明原因标志物升高**、怀疑隐匿转移/复发时更敏感，可一次性完成系统评估。
+- **颅脑MRI增强**：IIIC期复发风险高，且NSE升高时更要排除脑转移或神经内分泌分化相关问题。
+- 如出现骨痛或PET不可及：骨显像/全身MRI按需。
+### 病理与分子（非常关键）
+若影像提示可疑新病灶/淋巴结：
+- **尽量获取组织/细胞学证据**（CT引导穿刺、EBUS-TBNA、锁骨上结节穿刺等），以确认是否复发/转移，避免把炎症当肿瘤处理。
+- 同时完善/补做：
+  - **PD-L1表达**（TPS）
+  - **NGS/驱动基因检测**（即使鳞癌也建议：EGFR、ALK、ROS1、BRAF、MET、RET、NTRK、HER2等；另可评估TMB/MSI如条件允许）
+  - 如NSE持续明显升高且影像/临床提示：考虑**复发灶是否出现神经内分泌分化/小细胞转化**，需以病理+免疫组化（Syn、CgA、CD56、Ki-67等）明确。
+## 3）根据再分期结果决定处理路径
+### A. 影像学明确进展/复发（最常见的需要处理情形）
+按“不可切除局部晚期/转移复发NSCLC”策略：
+- **若尚未接受放疗**且仍局限于胸部/区域淋巴结为主：  
+  - MDT评估是否可行**同步放化疗**（体能与肺功能允许时优先），随后**巩固免疫治疗（如度伐利尤单抗）**是标准路径（需结合实际是否符合适应证/既往治疗情况与毒性风险）。
+- **若出现远处转移**或不适合同步放化疗：  
+  - 以**系统治疗为主**：免疫治疗（单药或联合化疗）是鳞癌常用方案，具体取决于PD-L1水平、既往用药、复发间隔、器官功能等。  
+  - 若复发距离含铂方案结束时间较短（例如&lt;6个月），通常认为对该方案敏感性差，需要更换策略（如免疫为主或二线化疗方案等）。
+- **如证实小细胞转化/神经内分泌癌成分**：治疗策略会完全不同（倾向小细胞方案），必须以病理为依据。
+### B. 影像学无明确复发证据（“仅标志物升高”）
+- 不建议立即更换/启动强治疗；更合理的是：
+  - **4–6周内复查胸部CT或PET-CT（视首次检查结果与标志物趋势）**
+  - 标志物每3–4周复测一次，结合症状与影像动态
+  - 同时强化随访：体格检查、锁骨上/颈部超声（对N3相关区域有帮助）
+- 若标志物持续上升且幅度明显（并排除炎症/器官功能问题），可在MDT讨论下**提前缩短影像随访间隔**或选择更敏感的PET-CT/脑MRI。
+## 4）需要你补充的关键信息（会直接影响方案选择）
+1) 目前是否做过/计划做**放疗**？（IIIC很多患者需要放化疗+免疫巩固）  
+2) 手术方式与切缘/淋巴结清扫情况、术后病理是否R0？  
+3) 最近标志物的具体数值与上升速度；是否存在感染、溶血、肝肾功能异常？  
+4) ECOG体能状态、肺功能、既往免疫相关疾病史。  
+5) 是否已检测PD-L1/NGS？
+如果你能提供：最近一次胸部CT/全身影像结论、三项标志物的连续数值（含时间点）、以及是否做过放疗/PD-L1结果，我可以把“复评检查清单”和“可能的下一线治疗选项”进一步具体化到更可执行的步骤。</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>【下一步应做的评估】
+1. 复核肿瘤标志物  
+   • 采血及检测时间、实验室及检测方法一致性确认，排除实验室或方法学误差。  
+   • 复测 CYFRA21-1、SCC、NSE，并加入 CEA、CA19-9、Pro-GRP 等以作对照。  
+2. 影像学全面复查  
+   • 增强胸部 CT（必要时胸壁、纵隔软组织窗三维重建）。  
+   • 上腹部增强 CT 或腹部超声，评估肝上腹腔转移情况。  
+   • 颅脑 MRI（排除颅内微转移）。  
+   • 全身 18F-FDG PET/CT 或骨显像 + 胸/腹 CT 组合，寻找潜在复发/远处转移灶。  
+3. 组织学或细胞学重新取材（若影像提示可疑病灶）  
+   • 支气管镜+活检/刷检、CT 引导下穿刺或胸腔镜取材，明确是否为肿瘤复发或新病变。  
+4. 分子病理与免疫检查点评估  
+   • PD-L1 表达（TPS）  
+   • 常见可靶向基因：EGFR、ALK、ROS1、METex14、BRAF、NTRK、HER2、RET、KRAS(G12C) 等（虽为鳞癌，亦建议一次性 NGS 检查）。  
+   • TMB / MSI 状态（如具备条件）。  
+5. MDT 讨论  
+   • 肿瘤内科、胸外科、放疗科、影像科、病理科、介入科等共同制定后续策略。  
+【处理策略（根据评估结果分层）】
+A. 影像学明确局部残留或局域性复发（胸腔/纵隔可耐受放疗）  
+   1. 同步/序贯胸部放疗 60-66 Gy ± 铂类同步放化疗；  
+   2. 放疗结束后可考虑巩固/维持免疫治疗（如 durvalumab 1 年）。
+B. 影像学未见明确病灶，但标志物持续上升（生化复发可能）  
+   1. 4-6 周后复查肿瘤标志物与胸部/全身影像；  
+   2. 必要时 PET/CT+液体活检（ctDNA）提高微小病灶检出率；  
+   3. 对高风险患者（T4N3）可提前启动巩固免疫单药（如 pembrolizumab、sintilimab 等）或进入临床试验；  
+   4. 加强随访：每 6-8 周一次标志物，2-3 个月一次影像，持续 1 年。
+C. 明确远处或多灶转移  
+   1. 一线全身治疗  
+      • 免疫联合化疗（PD-1/PD-L1 抑制剂 + 紫杉类/吉西他滨/铂类），若 PD-L1 TPS≥50%，亦可单用 PD-1。  
+   2. 先前已用紫杉醇+奈达铂，可选  
+      • 吉西他滨/顺铂或吉西他滨/卡铂；  
+      • 多西他赛 ± 雷莫芦单抗；  
+      • 免疫治疗（nivolumab/pembrolizumab/sintilimab/camrelizumab/toripalimab）；  
+      • 临床试验（ADC、双抗、免疫联合方案等）。  
+   3. 若发现可靶向突变，则进入相应的靶向治疗通路。  
+D. 支持与随访  
+   • 戒烟、营养支持、康复锻炼、骨保护、心理及症状管理；  
+   • 每 3 个月常规随访（2 年内），包括体格检查、实验室及影像；2 年后可延长至 6 个月。  
+【要点总结】  
+1. 肿瘤标志物持续上升提示可能的生化复发或残留，首要任务是“找病灶+再取材”。  
+2. 完整影像学+病理复评是决定下一步治疗（放疗、系统治疗或观察）的前提。  
+3. IIIC 期鳞癌高复发风险，免疫治疗已是标准巩固/一线方案，应尽早规划。  
+4. 全程 MDT 管理、动态监测、个体化选择放疗、化疗、免疫及靶向/临床试验相结合，可最大化生存获益。</t>
         </is>
       </c>
     </row>
@@ -30289,6 +35591,82 @@
 - 长期：按指南调整随访频率，直至5年无复发。
 若随访中证据支持更高分期或复发，则升级至辅助治疗（但需严格筛选患者）。本例当前以低毒随访为最安全起点，符合NCCN/ESMO对“无法完成标准治疗且高危”的处理原则（初始观察而非积极干预）。
 &gt; **注**：实际临床中需结合完整病历（如新辅助前分期、分子结果、PS评分）细化决策。本分析基于问题提供信息，临床决策应以患者全面评估为准。</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>优先选择**密切随访（观察）**，一般**不常规加做辅助放疗或辅助全身治疗**来“弥补”楔形切除及纵隔分期不足；是否升级治疗应以**术后客观高危因素**和**耐受性**为前提，而不是仅因“清扫不充分”这一点就自动加治。
+---
+## 为什么以随访为主（更符合多数指南/证据逻辑）
+1. **病理分期已显示低负荷：ypT1cN0（肿瘤≤3 cm，未见淋巴结转移）**  
+   这类患者即使是标准解剖性切除后，常规也不推荐辅助放疗；辅助化疗/免疫也并非“必选项”，需结合风险与获益。
+2. **“纵隔清扫不足”≠“已证实N2风险很高”**  
+   清扫不足意味着存在“潜在漏分期”的不确定性，但目前并没有证据表明：对所有漏分期风险患者直接加做放疗或全身治疗能带来明确生存获益，反而可能增加肺毒性、食管炎、心肺并发症等，尤其本例本就氧合差、合并症多。
+3. **术后纵隔放疗（PORT）只有在明确pN2等特定情形才可能讨论**  
+   对**pN0/pN1**患者，PORT总体不推荐；对“未系统清扫/取样不足但N0”的情况，指南通常倾向于**补充分期评估+随访**，而不是经验性照射纵隔。
+4. **患者基础心肺储备差**  
+   新辅助已用化疗+免疫，继续加全身治疗或加放疗的边际获益不确定，但风险（免疫相关肺炎、放射性肺炎叠加、感染/心肺事件）相对更现实。
+---
+## 什么时候才考虑“加治”（而不是单纯随访）
+只有在出现以下任一情况时，才更倾向讨论辅助治疗或再次局部处理：
+1. **切缘问题**：切缘阳性/切缘过近、或STAS阳性且切缘不足（楔切更常见局部复发风险）  
+   - 若能耐受：优先考虑**补做解剖性切除（段/叶）或再切除**优于放疗。  
+   - 若不能再手术：才讨论**针对切缘/肿瘤床的放疗（或SBRT/补量）**作为替代局部控制手段。
+2. **客观高危病理因素**明显（如脉管/淋巴管/神经侵犯、胸膜侵犯PL1-2、肿瘤残存比例高、坏死少、等提示侵袭性强）  
+   这时才可能在“获益与耐受性”权衡后考虑辅助全身治疗，但证据仍有限，需个体化。
+3. **术后影像/随访提示纵隔或肺门可疑淋巴结**  
+   - 优先：**PET-CT + EBUS-TBNA**（或纵隔镜）明确分期。  
+   - 一旦证实N2/N1：再按明确分期进入相应的放化疗/免疫策略，而不是盲目经验性加治。
+---
+## 建议的“密切随访/补充分期”策略（更务实）
+1. **术后6–8周内做一次基线评估**：胸部增强CT（必要时含上腹）、必要时PET-CT作为新基线。  
+2. **如纵隔/肺门有可疑结节**：尽早做**EBUS-TBNA**补充分期。  
+3. **随访频率**（可参考多数NSCLC术后策略并适当加密）：  
+   - 前2年：每3–6个月胸部CT；  
+   - 3–5年：每6–12个月；  
+   - 同时严密监测呼吸症状，警惕免疫相关肺炎/慢性放射性改变（若后续接受放疗）。  
+4. **复发后优先“可挽救治疗”**：局部复发可考虑再切除/放疗（SBRT）；区域淋巴结复发可考虑根治性放化疗±免疫维持（取决于既往免疫方案与间隔）。
+---
+## 结论（本例更优先的选择）
+在目前信息下（ypT1cN0、楔切、纵隔清扫不足、且基础肺功能/氧合差、合并症多），**首选：密切随访 + 必要时补充分期（PET-CT/EBUS）**。  
+**不建议为“分期不完整”而常规经验性加做纵隔放疗或继续全身治疗**；只有在切缘/高危病理/影像学可疑或证实复发/转移时，再升级治疗更合理。
+如果你能补充：①切缘距离、②是否STAS/胸膜侵犯/脉管侵犯、③新辅助方案及疗程、④术后影像情况，我可以把“是否需要加治”的判断细化到更接近具体决策的层面。</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>临床决策时要先搞清楚两件事：  
+1. 目前的分期与预后基线。  
+2. 有没有足够证据支持“为了弥补清扫不足”而加治的获益大于风险。
+一、分期与风险判断  
+• 术后病理：ypT1c（肿瘤 2–3 cm）、N0；切缘阴性（R0）。  
+• 虽未系统清扫纵隔淋巴结，仍属于“临床 N0、病理 N0，结局不确定（Nx）”状态。  
+• 已完成含免疫的新辅助治疗，且取得显著病理缓解，不存在残余巨大病灶或影像学可疑淋巴结。  
+• NCCN、CSCO 及 ESMO 指南均认为，R0 的 IA 期（T1a-cN0M0）或 ypT0-2N0 患者，无论是否接受过新辅助治疗，术后常规不推荐进一步的任何辅助放化疗或免疫治疗。  
+• 对于尚未证实的 N 分期（Nx），目前也缺乏证据支持仅因“未清扫”就给予放疗或全身治疗。  
+• 该患者兼有 COPD、心血管疾病、基础低氧血症，进一步放疗或系统治疗可能带来肺毒性、心脏毒性和免疫相关不良反应，风险并不低。
+二、放疗价值评估  
+• PORT 对真正 N0 的 NSCLC 没有生存获益，反而可能增加肺、心毒性。  
+• 目前所有正向获益的 PORT 研究人群均为 pN2 或部分高危 N1，N0 患者未证实受益。  
+• 由于切缘已 R0，择期补放孤立的肺床或纵隔并无循证依据。
+三、系统治疗价值评估  
+• 早期（IA）NSCLC 的辅助化疗、辅助免疫治疗均无明确获益。  
+• CheckMate-816、IMpower010 等研究中亦未给 ypT0-2N0 组推荐额外治疗。  
+• 高危病理因素（高分级、血管侵犯、亚叶切除）可“讨论”辅化，但指南为 2B 类证据，且患者已完成足量铂类＋PD-1/PD-L1 治疗，不存在明显“欠疗程”问题。
+四、推荐策略  
+1. 优先选择严密随访  
+   • 术后 0-2 年：胸部增强 CT 每 3-6 个月；2-5 年每 6-12 个月；之后每年一次。  
+   • 必要时配合纵隔/肺 PET-CT 或支气管镜，以便早发现区域复发。  
+   • 若出现可定位的局灶复发，可行补救性放疗或再次手术/射频消融等。
+2. 不推荐立即行辅助放疗或系统治疗  
+   • 目前缺乏提升生存的高质量证据；  
+   • 预期绝对获益极低，而不良反应风险在该患者身上反而放大。
+3. 可讨论的个体化措施  
+   • 若术后病理发现微小残余病灶（比如气道旁残余或血管侵犯），可与多学科团队讨论是否行体位调强放疗（IMRT）局部加强；  
+   • 建议完善 PD-L1、NGS 等分子检测，供今后疾病进展时选择靶向/免疫药物参考；  
+   • 继续积极管理并发症（戒烟、肺康复、心血管风险控制），提高总体生存获益。
+结论  
+基于现有指南和循证医学证据，对于R0切除、ypT1cN0的NSCLC患者，即便因手术方式导致LN分期不完整，也不主张立即加做辅助放疗或系统治疗。首选方案是密切而规范的影像随访，一旦出现局部或远处复发再行个体化补救治疗。</t>
         </is>
       </c>
     </row>
@@ -30863,6 +36241,176 @@
 此方案为个体化实践，非绝对标准；最终以您所在中心MDT共识为准。如需进一步讨论具体检查细节或药物剂量，可补充信息。</t>
         </is>
       </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>下面给出一个“以治愈为目标优先、兼顾ILD安全与患者拒绝化疗意愿”的综合决策方案。核心思路是：**先把“是否存在手术治愈窗口”作为第一决策点**；在可争取切除的前提下，**用EGFR‑TKI做短程、严密监测的新辅助“试探性降期/增益”**，一旦达到可切除标准尽快手术；若ILD风险或肿瘤生物学行为提示不宜手术，则转入**根治性长期治疗路径**。
+---
+## 1) 关键问题拆解（决定“新辅助”还是“长期根治性治疗”）
+### A. 这类罕见EGFR复合突变对奥希替尼的敏感性
+- **G719X + S768I**：总体属于“相对敏感但不如经典突变（19del/L858R）稳定”的群体。临床上**阿法替尼**证据更集中，但**奥希替尼**也有一定活性、且中枢保护更好、毒性谱通常更温和。
+- 对于“希望避免化疗”的可切除/临界可切除病人：**EGFR‑TKI新辅助并非标准证据最强的路径**，但在患者强烈偏好与MDT认可“可切除窗口可能存在”的情况下，可作为**有条件的策略**：短程、可停药、以手术为终点。
+### B. ILD是最大安全变量（尤其在围手术期）
+- EGFR‑TKI（包括奥希替尼）均有**药物相关ILD/肺炎风险**；既往ILD患者属于高风险人群。虽然部分研究提示奥希替尼的ILD发生率不一定高于其他TKI，但**既往ILD仍显著抬高风险**。
+- 围手术期还叠加：麻醉、单肺通气、手术应激、术后感染/ARDS等风险。因此“新辅助TKI”要有**非常明确的停药窗口、影像/肺功能阈值与应急预案**。
+### C. “临界可切除”意味着：争取手术成功本身就是最强的“根治性治疗”
+- 该病例分期为 **cT3N1M0（IIIA）**，若最终能够达到**R0切除**，长期生存机会明显优于长期单药控制。
+- 因此除非ILD/手术风险过高或肿瘤生物学显示高度侵袭难以获得R0，否则应优先走**“争取手术治愈”路径**。
+---
+## 2) 治疗前的“风险分层与再分期”清单（先做，决定走哪条路）
+在启动任何TKI或做手术决策前，建议完成以下评估，把决策从“感觉”变成“可量化阈值”：
+### 2.1 肿瘤学再分期（避免漏分期导致“错把系统治疗当新辅助”）
+1. **PET‑CT**：确认纵隔、锁骨上、远处转移（尤其骨、肾上腺）。  
+2. **脑MRI增强**：EGFR突变人群脑转移风险更高；若有脑转移，则不再是“可切除治愈路径”。  
+3. **纵隔分期**：即便影像N1，仍建议**EBUS‑TBNA/纵隔镜**明确N2/N3；一旦证实N2，策略会显著变化。  
+4. **病理复核**：确认腺癌；评估淋巴管/血管侵犯、分化、气道播散（STAS）等风险线索（如已有活检材料可部分评估）。
+### 2.2 ILD“手术+TKI”双重风险评估（建议呼吸科共同出具可量化结论）
+1. **HRCT分型**：UIP/ probable UIP vs NSIP等；**UIP型通常风险更高**。  
+2. **基线肺功能**：FVC、FEV1、DLCO（DLCO尤其重要）；必要时6分钟步行。  
+3. **氧合与炎症指标**：静息/活动SpO2；CRP；必要时KL‑6/LDH（视当地可用性）。  
+4. **ILD稳定性**：近3–6个月影像是否稳定、是否有急性加重史、是否在用抗纤维化药（尼达尼布/吡非尼酮）及耐受情况。  
+5. **围手术期风险评分**：由胸外科+麻醉+呼吸综合评估“可接受/高危不可接受”。
+&gt; **“可接受进入新辅助/手术路径”的最低建议阈值（供MDT参考）**  
+&gt; - HRCT非UIP或UIP但范围轻、无近期加重  
+&gt; - DLCO不显著降低（例如≥50%预测值，具体以中心经验）  
+&gt; - 静息SpO2正常或轻度下降、可纠正  
+&gt; - 近3–6个月影像和症状稳定
+---
+## 3) 推荐主路径：以“争取R0切除”为目标的奥希替尼**短程新辅助试治**（非长期直接根治性单药）
+在再分期确认 **无远处转移、无N2/N3** 且ILD评估“可接受手术”的前提下，推荐：
+### 3.1 新辅助方案（奥希替尼单药，短程、强监测、以手术为终点）
+- **药物**：奥希替尼 80 mg qd（起始不建议随意加量）  
+- **疗程**：**6–8周**为一个关键评估窗（最多不超过12周，避免“拖成长期治疗”而错过手术窗口）  
+- **评估节点**：  
+  - 用药后**2–3周**：症状+SpO2+必要时低剂量CT/床旁评估（主要盯ILD信号）  
+  - **6–8周**：增强CT（最好对照同层面）+肿瘤标志物趋势；必要时重复PET部分评估  
+- **手术触发条件（达到即可尽快手术，不必“追求最大缓解”）**：  
+  - 肿块缩小/与血管支气管关系改善，预计可行**R0切除**  
+  - 肺门淋巴结明显缩小或代谢下降  
+  - ILD无进展、肺功能可接受
+### 3.2 围手术期关键点（降低ILD与并发症）
+- **停药窗口**：建议术前停奥希替尼 **约7–10天**（各中心略有差异；目标是降低围手术期肺炎/伤口并发症风险）。  
+- **麻醉与术后管理**：肺保护通气、限制液体、积极呼吸康复、早期下床、严密排除感染。  
+- **术后何时恢复奥希替尼**：在无活动性感染/肺炎、切口愈合良好、影像稳定情况下，通常 **术后2–4周**评估恢复（需个体化，ILD患者可更谨慎）。
+### 3.3 术后策略（依病理分期与耐受决定）
+- **首选目标**：若成功R0切除，后续讨论“辅助治疗”  
+  - 患者拒绝化疗：可讨论**奥希替尼辅助**（理念类似ADAURA，但该研究主要针对经典突变；对罕见复合突变属于证据外推，需要充分告知不确定性）。  
+  - 若病理提示高复发风险（pT3/pN1、脉管侵犯等），在患者仍拒绝化疗情况下，**辅助奥希替尼**可能是现实可行方案，但必须强化ILD监测。  
+- **放疗**：pN2或切缘问题时再讨论；ILD患者做胸部放疗需非常谨慎，放射性肺炎风险更高。
+---
+## 4) 备选路径A：若ILD风险高或评估后“不适合手术”，则把奥希替尼作为“长期根治意图的系统治疗”并明确边界
+适用情形：
+- HRCT提示UIP较重/既往急性加重史/ DLCO明显低下  
+- 再分期发现N2但患者坚决拒绝放化疗，或手术团队判断无法R0  
+- 患者明确拒绝任何手术相关风险
+策略要点：
+1. **奥希替尼长期用药**（80 mg qd）作为主治疗。  
+2. **明确“根治性”在此路径中的现实含义**：更多是“长期控制/延长生存”，而非高把握治愈；需与患者充分对齐预期。  
+3. **严格ILD监测**：前2–3个月尤其关键；出现新的呼吸困难、咳嗽加重、SpO2下降或影像磨玻璃改变，立即按“疑似TKI相关肺炎”处置（见第6节）。  
+4. **局部巩固**（选择性）：如果系统治疗后肿瘤显著缩小、局部残留局限，且ILD允许，可再评估  
+   - “延迟手术”或  
+   - “慎重小野放疗/消融”（但ILD风险仍需放首位）
+---
+## 5) 备选路径B：若奥希替尼效果不佳或不能耐受——如何避免“无路可走”
+### 5.1 主要备选药：阿法替尼（对G719X/S768I证据更集中）
+- 若奥希替尼2个评估窗内疗效不足（如稳定不缩小、N1不降、或早期进展），可考虑在可控ILD前提下转为**阿法替尼**（起始可低剂量如30 mg，视耐受上调）。  
+- 但阿法替尼皮疹/腹泻更常见，且任何EGFR‑TKI都需警惕肺炎风险。
+### 5.2 如果必须升级到“标准根治方案”但患者拒绝化疗
+- 对于IIIA（尤其若出现N2），标准通常涉及**放化疗±免疫**；但  
+  - 免疫检查点抑制剂在EGFR突变人群获益有限，且ILD/肺炎风险更复杂。  
+- 可作为“最后备选”讨论：**低强度含铂方案/短程化疗**只为争取切除或局部控制（强调这是“为治愈窗口让路”的短期代价），但尊重患者拒绝意愿。
+---
+## 6) ILD与药物相关肺炎的“预案”（必须事先写进方案）
+一旦出现以下任一情况：新发/加重呼吸困难、发热不明、咳嗽显著加重、SpO2下降、影像出现新磨玻璃/浸润影：
+1. **立即停用奥希替尼**。  
+2. 迅速鉴别：感染、心衰、肺栓塞、放射性肺炎（若做过放疗）、肿瘤进展等。  
+3. 高度疑似TKI相关肺炎时：按严重度给予**糖皮质激素**、氧疗/住院监护；必要时呼吸科介入。  
+4. **再挑战（复用）极慎重**：既往ILD患者一旦发生TKI相关肺炎，通常不建议轻易再用同类药；如必须尝试，需MDT与患者充分知情同意。
+---
+## 7) 将方案落到“MDT可执行的决策树”（简版）
+1. **先做PET‑CT + 脑MRI + EBUS分期 + ILD分型/肺功能**  
+2. 若 **M1或N2/N3明确** → 进入“长期系统治疗路径”（奥希替尼为主，或阿法替尼备选），不再以新辅助手术为首选  
+3. 若 **M0且N0‑1、ILD风险可接受、预计可R0** →  
+   - 奥希替尼 **6–8周新辅助试治** → 评估  
+   - 达到可切除阈值 → 停药7–10天 → 手术（优先R0） → 术后讨论辅助奥希替尼（证据外推，严密ILD监测）  
+   - 若无效/进展或ILD恶化 → 停止新辅助，转入备选路径（阿法替尼/系统治疗为主，或重新讨论标准放化疗/手术可行性）
+---
+## 结论（回答“新辅助还是长期治疗”）
+在“临界可切除 + 患者拒绝化疗 + 罕见EGFR复合突变 + 既往稳定轻度ILD”的组合下，更合理的总体策略是：
+- **优先选择奥希替尼单药作为“短程新辅助试治”以争取R0切除（治愈机会）**，前提是完成严格再分期且ILD与围手术期风险被MDT判定可接受，并设置清晰的疗程上限与手术触发条件；  
+- **不建议一开始就把奥希替尼定位为“直接长期根治性治疗”**，除非再分期/ILD风险评估显示无法安全或无法实现R0切除，此时才转入“长期控制为主”的路径。
+如果你愿意，我可以把上述决策树进一步细化为：你们医院常用的检查顺序、各节点的具体阈值（例如DLCO/HRCT-UIP判定、停药天数、复查频率），以及一份可直接用于病历记录的“知情同意要点清单”。</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>综合决策方案  
+患者：60 岁女性，cT3N1M0（IIIA 期）EGFR 复合突变（G719X＋S768I）肺腺癌，ECOG 1，既往轻度稳定性 ILD，强烈要求避免传统化疗，病灶 MDT 评估“临界可切除”。
+=================================================================
+一、关键信息与证据汇总  
+1. 临床分期与治疗目标  
+   1) IIIA 期、N1 阳性，根治性手术仍有长期生存可能，但需较好肿瘤缩小和 ILD 可控。  
+   2) 若不能 R0 切除，则转入根治性或姑息性系统/局部综合治疗。  
+2. EGFR 复合罕见突变  
+   • G719X＋S768I 在体外及临床回顾性资料中对二代 TKI（afatinib）敏感度最高；  
+   • 奥希替尼（osimertinib）对 G719X/S768I 也有活性（IC50 略高于常见 19del/L858R），临床小样本 ORR 40%–60%，但安全性（尤其 ILD 风险）优于 afatinib。  
+   • 目前新辅助 EGFR-TKI 证据正在积累（NeoADAURA、CHECKMATE 816 试验外展），IIIA 期新辅助奥希替尼 6–12 周显示 MPR≈30%–40%，R0 切除率 &gt;80%，围术期可控。  
+3. ILD 相关风险  
+   • 本身即为 EGFR-TKI 相关 ILD（特别是一、二代 TKI）及肺手术后急性加重（AE-ILD）的高危人群。  
+   • 奥希替尼总体 ILD 发生率 3%–4%，重度 &lt;1%；afatinib 约 5%–6%。  
+   • 手术后 30d 内 AE-ILD 发生率约 5%–10%，与术前 ILD 程度、术式范围相关。  
+=================================================================
+二、决策框架  
+1. 治疗目标排序  
+   一级：尽可能根治（长期无瘤生存）；  
+   二级：尽量避免（或推迟）含铂化疗；  
+   三级：控制/不加重 ILD，保证生活质量。  
+2. 可选路径与利弊  
+路径 A【首选】  
+“短程新辅助奥希替尼＋手术＋术后奥希替尼”  
+   • 目的：肿瘤降期→提高 R0 率；术后继续奥希替尼 3 年（参照 ADAURA），最大化根治机会。  
+   • 实施方案  
+     a) 治疗前基线评估：HRCT（ILD 分型、GAP 评分）、肺功能（FVC、DLCO）、心电/心超、肝肾功能。  
+     b) 奥希替尼 80 mg QD × 6–8 周；第 3–4 周临床/影像随访，6–8 周行 HRCT＋PET-CT 或增强 CT 评估。  
+     c) 评估结果  
+        ‑ PR 或稳定且 ILD 无进行性加重 → MDT 再次讨论并排程解剖性肺叶切除+系统性淋巴结清扫；术前停药 3–7 d，术后 14 d 内若无并发症即恢复奥希替尼，计划总疗程 3 年。  
+        ‑ PD 或仅轻微缩小导致仍难 R0 → 转路径 B 或 C。  
+   • 风险控制  
+     ‑ 每 2 周胸部 HRCT（低剂量即可）或超声听诊/血氧，发现早期药物性 ILD 及时停药并予大剂量糖皮质激素；  
+     ‑ 手术前呼吸康复训练；术式尽量 VATS/Lobectomy，避免过大肺实质切除。  
+路径 B【备选：非手术根治】  
+“奥希替尼 长期单药 ± 定位/同步放疗”  
+   適用情形：  
+   1) 新辅助阶段出现药物相关 ILD≥2 级；  
+   2) 患者拒绝/无法耐受手术；  
+   3) 影像学虽缓解但 MDT 认定 R0 概率极低。  
+   • 奥希替尼持续治疗，2–3 个月复查 CT；局部残余或寡进展可行立体定向放射治疗（SBRT）。  
+   • 预期 PFS ~12–15 个月（罕见突变数据有限）；后续进展再行二代 TKI（afatinib 30 mg 起始）或临床试验。  
+路径 C【若 TKI 无效 / 强烈禁忌】  
+“低剂量 afatinib or 抗血管生成方案 / 低剂量放化疗”  
+   • If osimertinib 无效/快速进展且 ILD 稳定，可试探性 afatinib 30 mg QD 缓冲至 40 mg；  
+   • 或考虑 EGFR-TKI＋贝伐珠单抗 / 雷莫芦单抗；  
+   • 化放疗（低剂量、分割缩小）+ durvalumab 维持作为最后根治尝试，需要与患者再次充分沟通。  
+=================================================================
+三、随访与监测  
+1. 毎 2 周：症状、SpO₂、CRP、LDH；如出现新发咳嗽/气促立即 HRCT。  
+2. 毎 6–8 周：胸部增强 CT（或 PET-CT 按需）、腹部＋颅脑 MRI（术前一次即可）。  
+3. 肺功能：新辅助开始前、术前、术后 3 个月各一次。  
+4. 术后用药期间，每 3 个月按 NCCN 标准随访（影像＋实验室）。  
+=================================================================
+四、患者沟通要点  
+1. 解释病情：IIIA 期处于“可治愈与不可治愈之间”的临界状态，手术若成功 R0，将显著提高治愈率。  
+2. 奥希替尼优势：口服、总体耐受性好、对罕见突变有活性、ILD 风险较低，且可作新辅助及术后延续。  
+3. 风险：  
+   • TKI 相关 ILD（≈3%–4%，但患者已有 ILD，高危）  
+   • 术后 ILD 急性加重（5%–10%）  
+   • 可能无足够肿瘤退缩导致无法手术  
+4. 备选方案：若药物无效或副反应不可控，可选择 afatinib、加抗血管药、或转化/同步放化疗＋免疫维持，但需承受更高的 ILD 恶化及毒性风险。  
+5. 动态决策：治疗 6 周后再做影像评估，根据疗效与肺部安全性决定是否手术；整个过程中 MDT 将持续评估并与患者共同决策。  
+=================================================================
+五、结论  
+基于目前证据、患者偏好及合并 ILD 风险，推荐“短程新辅助奥希替尼→评估→尽早 R0 手术→术后继续奥希替尼”作为首选策略；同时预先拟定 TKI 长期根治性维持（路径 B）及二/三线备选方案（路径 C），并强化多学科协作与密切监测，以最大化疗效、最小化毒性，努力实现治愈或长期无瘤生存。</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -31372,6 +36920,124 @@
 &gt; 4. NCCN Guidelines: Non-Small Cell Lung Cancer (v2.2024).  
 &gt; 5. 围手术期高血糖管理专家共识（2018）. 中华医学会糖尿病学分会.  
 请务必在临床实践中结合患者具体状况调整，并签署知情同意书。</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>应按“先把可逆的围手术期危险因素纠正到安全阈值，再择期手术”的思路处理。该患者问题核心是：**（1）疑似免疫相关或激素/应激相关严重高血糖，甚至可能新发糖尿病/酮症风险；（2）高血压控制不佳且用药不规范（利血平自行服用）；（3）接受PD-1治疗后围手术期免疫/内分泌不良反应需要系统筛查**。建议多学科（胸外科+麻醉+内分泌+心内/高血压专科+肿瘤）协作，按以下步骤优化。
+## 1）先排除“免疫相关糖尿病/酮症/高渗”并迅速控糖
+空腹血糖 17.58 mmol/L 已属明显高危，需优先评估是否存在急性代谢紊乱：
+**立即检查（建议入院快速完成）**
+- 指尖血糖动态监测（至少餐前、睡前，必要时夜间2–3点）。
+- 血酮（β-羟丁酸）/尿酮、血气分析（pH、HCO₃⁻、阴离子间隙）、电解质（尤其K⁺）、肾功能、血渗透压/渗透压间隙。
+- HbA1c（判断是既往未诊断糖尿病还是新近发生）。
+- 同时筛查PD-1相关内分泌：晨8点皮质醇+ACTH、TSH+FT4（必要时加FT3）、必要时胰岛自身抗体/C肽（判断胰岛功能，利于制定长期方案）。
+**处理原则**
+- 若有**酮症酸中毒/高渗**：按急诊流程（补液+静脉胰岛素泵+电解质纠正）稳定后再谈手术。
+- 若无酮症但血糖持续&gt;13.9 mmol/L：围手术期推荐**胰岛素为主**，不要指望口服药短期“压下来”。  
+  - 可选“基础+餐时+纠正”方案或短期胰岛素泵/静脉胰岛素（尤其若波动大或需更快达标）。
+  - 目标（常用围术期安全阈值）：**空腹/餐前 7.8–10 mmol/L，随机/餐后 &lt;10–11.1 mmol/L**，避免低血糖；住院期间多点监测以稳定至少24–48小时。
+- 若此前/近期使用过激素（抗过敏止吐等）需核实，用药会加重高血糖，尽量优化止吐/过敏预防方案。
+**达到何种控糖水平更适合择期手术**
+- 无酮症/无高渗、无显著电解质紊乱；
+- 血糖在上述目标范围内稳定（通常至少1–2天）；
+- 无活动性感染（高血糖常伴感染风险，需查血常规、CRP/降钙素原、尿常规、胸部情况等）。
+## 2）规范降压：停用自行利血平，建立可预测、可调整的方案
+“血压控制不佳+自行服药”本身就是围麻醉重大风险点。建议：
+**评估**
+- 住院后规范测量：静息坐位/卧位血压，必要时24小时动态血压以评估波动。
+- 查心电图、心肌酶/BNP（若有症状）、超声心动图（评估基础心功能）、肾功能、电解质。
+- 排除可逆诱因：疼痛、焦虑、睡眠差、感染、药物（含激素、NSAIDs等）。
+**处理**
+- **停止自行服用利血平**（不推荐自行调整/长期使用，且有抑郁、心动过缓等风险与麻醉相互作用不确定）。
+- 由心内/高血压专科制定标准方案，常见组合（举例，需个体化）：
+  - 长效钙拮抗剂（如氨氯地平）± ACEI/ARB（如缬沙坦/贝那普利等）± 噻嗪类/噻嗪样利尿剂（注意电解质）。
+  - 若合并心率快/冠心病，可加β受体阻滞剂（需评估心功能、传导）。
+- 目标（择期胸外科/全麻常用）：  
+  - **血压稳定 &lt;140/90 mmHg**（至少连续多次测量达标）；  
+  - 重大波动少，最好无&gt;180/110 mmHg的峰值；  
+  - 站立/麻醉诱导时不易发生明显低血压（因此用药需“长效、平稳、可预测”）。
+**手术当日用药原则（需与麻醉科统一）**
+- 多数情况下：**继续长效钙拮抗剂、β阻滞剂**。
+- ACEI/ARB：部分中心建议术晨停用以减少麻醉诱导低血压风险（具体按麻醉方案决定）。
+- 明确禁用/慎用不明来源“自备药”。
+## 3）PD-1新辅助后围术期“免疫相关不良反应（irAE）”系统筛查
+除了高血糖，PD-1可能造成隐匿但影响麻醉/手术安全的并发症，建议术前补齐：
+- **心肌炎筛查**：心电图、肌钙蛋白、BNP/NT-proBNP；有异常再做心脏彩超/心脏MRI并延后手术。
+- **肺毒性/肺炎**：复查胸部CT、氧饱和度/必要时肺功能；若存在免疫性肺炎需先治疗并推迟手术。
+- **肝肾功能**：转氨酶、胆红素、肌酐等。
+- **内分泌**：除糖代谢外，重点看甲状腺功能与肾上腺功能。若晨皮质醇低或疑垂体炎/肾上腺功能不全，需要先补充激素并制定围术期应激剂量方案（否则麻醉诱导可发生难治性低血压/休克）。
+## 4）手术时机与“达标清单”（便于团队统一）
+在完成上述纠正后，建议满足以下再安排择期手术：
+1. 血糖：无酮症/无高渗，电解质稳定；血糖稳定在7.8–10 mmol/L（或随机&lt;11.1）至少24–48小时。
+2. 血压：多数读数&lt;140/90，且无&gt;180/110波动；心率、心电稳定。
+3. 排除重要irAE：心肌炎/肺炎/重度肝炎/肾炎等；若存在则先按指南治疗并推迟手术。
+4. 麻醉评估通过：气道/肺功能/心功能风险可控，制定术中血糖（多点监测+胰岛素泵/静脉胰岛素）和血压管理方案。
+5. 感染风险控制：无明显感染证据或已治疗稳定。
+## 5）实操建议（流程化）
+- 建议**直接按“围术期优化住院”**处理：内分泌与心内会诊同日完成，24–72小时内把血糖、血压拉回安全窗口。
+- 术前一天麻醉科牵头召开短MDT：明确术晨降压药是否停用、胰岛素方案、应激激素是否需要、术中血糖目标（多采用8–10 mmol/L区间）、ICU/监护安排。
+如你能补充：是否既往糖尿病史/HbA1c、是否近期用过地塞米松等激素、当日血酮/血气结果、当前血压范围及是否有胸闷气促/心电肌钙蛋白情况，我可以把“达标阈值+具体胰岛素/降压用药策略（术前/术晨/术中）”进一步细化成可执行医嘱模板。</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>一、总体原则  
+1. 先把“可纠正危险因素”控制在安全范围，再安排择期手术。  
+2. 以多学科团队（MDT：胸外科-麻醉-内分泌-心血管-肿瘤科）共同制定方案。  
+3. 目标：  
+   • 空腹血糖(FPG) 6.0-8.0 mmol/L，随机血糖 &lt;10–11 mmol/L，术中血糖 6-10 mmol/L。  
+   • 血压 &lt;140/90 mmHg（合并糖尿病最好 &lt;130/80 mmHg）。  
+   • 停用影响麻醉/循环稳定的高风险药物（如利血平）。  
+   • 充分评估并处理免疫治疗可能引起的内分泌/心脏毒性。
+二、具体处理措施  
+（一）高血糖优化  
+1. 鉴别病因  
+   • 既往是否已知糖尿病？  
+   • PD-1（特瑞普利单抗）可能诱发1型糖尿病或胰腺炎——查HbA1c、空腹与随机C-肽、胰岛自抗体。  
+   • 同时排除感染、应用糖皮质激素等应激因素。  
+2. 建立胰岛素治疗  
+   • 首选住院期基础-餐时（basal-bolus）方案或胰岛素泵。  
+     – 起始剂量：0.4-0.6 IU/kg·d（视肾功能、年龄、BMI调整），50 %给予长效/中效，50 %分三顿餐前速效。  
+     – 术前3-5 d内至少 4-6 次/日血糖监测并实时调整。  
+   • 暂停/停止所有口服降糖药和GLP-1 受体激动剂，尤其是：  
+     – 二甲双胍：术前24-48 h停用，防乳酸酸中毒。  
+     – SGLT-2 抑制剂：术前≥3 d停用，防止酮症酸中毒。  
+3. 营养及教育  
+   • 25-30 kcal/kg·d，碳水化合物 40-50 %，蛋白 1.0-1.2 g/kg·d，分餐制。  
+   • 加强血糖自测与低血糖识别教育。  
+（二）血压控制  
+1. 评价：24 h 动态血压、心电图、超声心动图、肾功能、电解质。  
+2. 停用利血平  
+   • 逐渐撤药（因半衰期长，停用后 5-7 d才能基本失效），防止围术期顽固性低血压/心动过缓。  
+3. 建立规范降压治疗  
+   • 首选 ACEI/ARB（如贝那普利/缬沙坦） + 长效CCB（氨氯地平/非洛地平）；必要时加用噻嗪类/袢利尿剂。  
+   • 若需要β受体阻滞剂（美托洛尔）应在术前 ≥7 d开始，并调到静息心率 60-80 次/分。  
+4. 监测与目标  
+   • 早晚各测血压，≥3 d稳定达标后方可手术。  
+（三）评估免疫治疗及辅助化疗相关风险  
+1. PD-1 引起的心肌炎、甲状腺功能改变、肾炎等：  
+   • 查TnI/BNP、心电图、心超、甲功（TSH、FT4）、肾功能、电解质。  
+   • 若发现异常需先处理，至少控制至CTCAE ≤1级。  
+2. 建议距最后一次特瑞普利单抗给药≥3-4 周后手术（文献多采用21-28 d）。  
+（四）围术期药物及麻醉配合  
+1. 术晨（清晨）可给予 1/2-2/3 长效（中效）胰岛素，停餐时胰岛素；术中静脉胰岛素泵 + 5 %-10 %葡萄糖维持血糖 6-10 mmol/L。  
+2. 按既定降压方案继续口服/静脉用药；ACEI/ARB 术晨可按麻醉科建议停或减量。  
+3. 预防应激高血糖：术中/术后持续泵入胰岛素；PRN 使用短效β阻滞剂控制血压心率。  
+4. 充分评估呼吸功能（肺功能、弥散量、运动心肺）并进行术前呼吸康复训练。  
+（五）达到手术指征的判断  
+1. 连续3-5 d：FPG 6-8 mmol/L，餐后 &lt;10-11 mmol/L，无酮症酸中毒。  
+2. 血压稳定 &lt;140/90 mmHg（理想&lt;130/80），无明显体位性血压波动。  
+3. 心功能 NYHA Ⅰ-Ⅱ级，心肌生物标志物正常或稳定；心电图/心超无进行性改变。  
+4. 肝肾功能、血常规、凝血正常或可接受；无活动性感染。  
+5. 距 PD-1 最后一次用药≥21 d，未出现 ≥2级免疫相关不良反应。  
+（六）术后管理要点  
+1. 继续胰岛素泵或基础-校正方案；根据进食逐步过渡到口服/基础-餐时方案。  
+2. 加强血压监测，预防体位性低血压；逐步恢复原降压药。  
+3. 监测电解质、肾功能及免疫相关并发症；必要时早期应用糖皮质激素处理irAE。  
+4. 早期下床活动、肺康复，减少血栓与肺部并发症。  
+总结  
+通过内分泌与心血管专业的住院强化治疗，用胰岛素把血糖稳定在6-10 mmol/L，使用ACEI/ARB联合CCB等方案控制血压 &lt;140/90 mmHg，并停用利血平和其他不利于围术期的药物；同时完成PD-1相关心脏与内分泌毒性的排查和处理。上述指标稳定后即可安排择期肺叶切除+系统性淋巴结清扫，既保证手术安全，也为患者后续综合治疗赢得时机。</t>
         </is>
       </c>
     </row>
@@ -31757,6 +37423,113 @@
 **注**：以上建议基于有限信息，实际需结合完整临床资料。老年患者个体差异大，务必以MDT和患者意愿为核心。复发风险无法精确量化，但通过规范随访可最大限度平衡获益与风险。</t>
         </is>
       </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>在这位患者的情形里，**“未清扫2R/4R等上纵隔淋巴结”带来的风险评估，核心取决于：他已经是pN2（7组阳性）**。一旦确认为N2，临床上更重要的问题往往从“是否漏清扫导致分期低估”转为“是否存在**残余纵隔微小病灶**、以及在该患者身上**加做纵隔放疗的净获益是否超过毒性**”。
+下面按两部分回答：如何评估风险；以及随访还是辅助放疗。
+---
+## 1) 如何评估未清扫上纵隔淋巴结导致的区域复发风险？
+### (1) 基础事实：pN2本身就提示纵隔区域复发风险不低
+- 7组（隆突下）属于N2站，**已证实纵隔转移**。
+- 即使做了系统清扫，III期/N2患者的**纵隔区域复发并非罕见**；在“未做系统清扫/取样不足”的情况下，理论上**纵隔残留风险更高**。
+### (2) 右下叶肿瘤 + 7组阳性 ⇒ 上纵隔（2R/4R）隐匿转移概率“不能忽略”，但并非必然很高
+- 解剖引流上，右下叶常见纵隔转移站包括**7组、4R**等；出现7组阳性时，上纵隔进一步受累的概率会上升。
+- 但具体概率高度依赖：  
+  - 肿瘤大小（T分期）、是否有淋巴血管侵犯、胸膜侵犯  
+  - 取样/清扫淋巴结总数是否足够  
+  - 术前PET-CT/增强CT对2R/4R是否可疑（你未提供PET信息；如果术前2R/4R在影像学上阴性，风险会下调但仍不能排除微转移）。
+### (3) “有限清扫”带来的不确定性：属于分期与局控的不利因素
+- 只清扫/取样了9、10、11、7组，对右侧来说**2R/4R未评估**，属于纵隔分期不完整。  
+- 这会造成两类问题：  
+  1) **漏分期**：可能实际是多站N2甚至N3（概率未知）。  
+  2) **漏局控**：如果2R/4R存在微转移，术后仅靠随访将把风险留到复发后再处理。
+### (4) 但必须同时考虑：这位患者是“高毒性风险人群”
+- 重度肺气肿 + 术中低氧 → 术后**放疗相关肺炎/肺功能进一步下降**风险显著高于一般人群。  
+- 75岁 + COPD：即使是现代IMRT，纵隔照射仍可能引发临床上不可接受的呼吸储备下降。
+**总结：**  
+- 从肿瘤学角度：pN2 + 未评估2R/4R ⇒ 存在“上纵隔残留/复发风险上升”的合理担忧。  
+- 从个体化角度：患者肺功能边际很差 ⇒ 任何扩大照射野的策略都要非常谨慎，必须做“净获益”评估。
+---
+## 2) 下一步更应优先密切随访，还是考虑辅助放疗覆盖未清扫纵隔？
+### 关键结论（偏向性建议）
+在**没有明确影像学证据提示2R/4R受累**、且患者为**重度肺气肿/低氧高风险**的前提下，通常更倾向于：
+1) **优先完善分期与风险再评估（而不是直接做预防性纵隔放疗）**  
+2) 若无明确残留证据，则**以系统性治疗（若能耐受）+ 密切随访为主**  
+3) 仅在“证据支持纵隔残留风险显著且可在严格剂量约束下安全实施”时，才讨论**选择性纵隔放疗**；否则更可取的是“复发后救治策略”。
+理由是：对已切除N2的患者，**术后放疗（PORT）在现代技术下并非对所有人都常规推荐**；而对重度COPD人群，PORT的肺毒性可能抵消其局控获益。
+---
+## 3) 建议的实际操作路径（更符合“先评估再决策”）
+### (A) 先把“是否存在上纵隔残留/高风险”尽量量化
+1. **术后尽快做基线影像**：增强胸部CT（必要时加PET-CT）  
+   - 看2R/4R是否有形态学可疑结节/肿大或代谢异常。  
+2. **病理高危因素复核**：T分期、切缘、脉管/神经/胸膜侵犯、肿瘤大小、淋巴结取样总数、7组阳性的“淋巴结外侵犯（ENE）”有无。  
+   - 若存在ENE、多站N2、高T分期/大肿瘤等，会更支持考虑加强局部区域治疗。  
+3. **肺功能与放疗可行性评估**（决定“能不能安全照射”比“想不想照射”更关键）：  
+   - PFT（FEV1、DLCO）、静息/活动血氧、必要时6MWT  
+   - 放疗科评估：IMRT/VMAT计划下的肺V20、V5、mean lung dose、心脏剂量等能否达标；若达不到安全阈值，讨论PORT意义不大。
+### (B) 系统治疗优先级
+- 对pN2患者，若总体状态允许，通常**辅助系统治疗（以化疗±免疫为主，取决于PD-L1/驱动基因/指南适应证）**对生存获益更明确。  
+- 但这位患者75岁、COPD，是否耐受含铂化疗要个体化（可考虑减量、单药或不化疗；具体需结合PS评分、肾功能、听力等）。
+### (C) 关于PORT（覆盖未清扫纵隔）——更“选择性”而非“一刀切”
+更支持考虑PORT的情形（需同时满足“能做得安全”）：
+- 影像/术后PET提示2R/4R可疑残留；或  
+- 明确多站N2、ENE阳性、切缘近/阳性等导致局控风险非常高；且  
+- 放疗计划学可实现严格肺/心剂量约束。
+更支持“密切随访、不做预防性PORT”的情形（你这个病例更接近这一类）：
+- 仅单站N2（目前仅7组1/3），无明显ENE信息支持高侵袭；  
+- 术后影像2R/4R无可疑；  
+- 重度肺气肿/曾发生术中低氧，预计放疗肺毒性风险高。
+---
+## 4) 随访如何做才能“替代预防性放疗”的风险控制？
+如果最终选择随访优先，建议把随访做“更紧密、可干预”：
+- **术后前2年**：每3–4个月胸部增强CT（或低剂量CT结合纵隔窗评估）+症状评估；  
+- **2–5年**：每6个月；之后每年。  
+- 出现纵隔结节可疑时：尽早PET-CT + EBUS-TBNA/纵隔镜取样确认。  
+- 一旦证实纵隔复发：再评估**根治性同步放化疗/放疗**或**SBRT/IMRT救治**的可行性（有时“救治放疗”的剂量与范围反而可以更聚焦、更个体化）。
+---
+## 最终回答（你问的“优先选哪个”）
+- **评估未清扫上纵隔带来的区域复发风险**：pN2（7组阳性）提示纵隔复发风险客观存在，且未清扫2R/4R使“上纵隔隐匿转移/残留”不确定性上升；但在缺乏影像学可疑与缺乏更多高危病理信息时，无法仅因“未清扫”就推定必须预防性照射。  
+- **下一步优先策略**：更倾向**先完善术后基线影像 + 肺功能/放疗计划可行性评估**，在此基础上：  
+  - 若2R/4R无可疑且放疗毒性风险高：**密切随访（并优先考虑可耐受的系统治疗）**通常更合适；  
+  - 只有在证据提示上纵隔残留风险显著且能满足严格剂量约束时，才考虑**选择性PORT覆盖未清扫纵隔**。
+如果你能补充：肿瘤大小/T分期、是否ENE、是否脉管/胸膜侵犯、切缘情况、术前是否做过PET-CT以及PFT（FEV1、DLCO），我可以把“上纵隔复发风险”和“PORT净获益/毒性”判断再具体化到更接近可执行的方案。</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>一、如何估计未清扫 2R / 4R 结节组的残留及复发风险  
+1. 引流解剖学特点  
+   • 右下叶（背段）主要淋巴引流为 9、10、7 组，上纵隔（2R、4R）属二级引流，直接跳跃转移的发生率文献报道约 5 %–10 %。  
+2. 术前影像学线索  
+   • 若术前增强 CT 或 PET-CT 在 2R / 4R 未见肿大或高代谢，则这两站存在显性转移的可能性较低（阴性预测值 85 % 以上）。  
+3. 病理学因素  
+   • 仅 1/3 枚 7 组淋巴结阳性，提示为单站 N2；在已取出的其它站点（9、10、11）均阴性。单站 N2 而且转移结节数 ≤1 枚时，上纵隔再有隐匿病灶的概率小于多站 N2 病例。  
+4. 综合判断  
+   • 对 75 岁、COPD、中重度肺功能减退患者来说，2R / 4R 区域的残留率估计 5 %–15 %，并非 0，但也不是极高。  
+二、辅助放疗（PORT）获益与风险对比  
+1. 确定性证据不足  
+   • LungART、PORT-C 等现代随机研究显示：对完全切除的 pN2 NSCLC，常规 PORT 并未显著改善总生存或无病生存，仅降低纵隔复发率；而肺、心毒性增加。  
+2. 患者个体风险  
+   • 重度肺气肿、术中曾出现低氧血症 → 放疗诱发肺炎/肺纤维化风险显著升高。  
+   • 年龄 75 岁、合并脑萎缩 → 心肺并发症和整体耐受性更差。  
+3. 技术可行性  
+   • 即使采用 IMRT/VMAT，45–50 Gy 覆盖 2R/4R 也难完全避免对剩余肺组织的高剂量照射，V20、Mean Lung Dose 很可能超标。  
+三、建议的管理策略  
+1. 优先密切随访  
+   • 每 3 个月胸部低剂量 CT ± 上腹/脑评估，前 2 年最为关键；以后 6 个月一次，满 5 年后每年一次。  
+   • 每次随访同时评价呼吸功能、症状、体重等。  
+2. 辅助全身治疗（若全身状况允许，可讨论）  
+   • pN2 患者首先考虑 4 周期含铂化疗（如紫杉醇/卡铂，或吉西他滨/卡铂），可根据 ECOG、肺功能适当减量 2–3 周期。  
+   • 化疗结束后若 PD-L1 ≥1 %，可再讨论一年期阿替利珠单抗；若 &lt;1 % 或检测条件受限则密切观察。  
+3. 放疗的适应证  
+   • 仅当术前/术后影像出现 2R / 4R 结节可疑进展，或以后随访证实复发，可转为根治剂量放/化疗。  
+   • 若患者极度担心、并且剂量学评估符合 V20＜25 %、MLD＜15 Gy 的严格限制，可与患者充分沟通后行 45–50.4 Gy 适形放疗，但这不是首选。  
+四、结论  
+在现有资料下，该患者为“单站 N2、残留风险可接受”且伴严重 COPD。综合近期随机研究及患者个体耐受性，首选方案为：  
+1. 完成或酌情减量的含铂辅助化疗（若能耐受）→ 2. 严密影像随访。  
+常规补放 2R / 4R 上纵隔的辅助放疗收益有限，而肺毒性风险偏高，应不作为首选，仅在出现影像学或病理学证据时再行治疗。</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -32130,6 +37903,116 @@
 此方案在NCCN指南（v1.2024, Table 2）中也得到体现：对于接受新辅助治疗但未完成计划疗程的可手术IIIA期患者，若术后病理显示高危特征，辅助化疗是合理选择（证据等级2B）；而辅助免疫仅限PD-L1高表达且未接受新辅助免疫者（本例不适用）。
 **最后强调**：个体化是核心——若患者后续基因检测发现罕见驱动突变（如RET），则需调整；但当前驱动基因阴性，PD-L1 1%，故上述推荐为最优。如有任何新数据（如MRD阳性），需重新评估。建议与患者充分沟通，共享决策（Shared Decision-Making），并转诊至肺癌专科中心以获取最新支持。
 &gt; 注：本建议不替代临床决策，具体请以主治团队MDT意见为准。参考指南：NCCN NSCLC v1.2024, ESMO 2023, CSCO 2023。</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>在你给出的信息下（IIIA-N2腺癌，驱动阴性，PD‑L1 1%，新辅助“信迪利+培美+卡铂”仅2周期，PR后R0，术后MPR但非pCR，耐受好），**术后策略的核心矛盾**是：  
+- 她显然对含免疫的新辅助方案“有反应”（MPR）；  
+- 但仍是**N2人群**、且未pCR、且新辅助“疗程偏短”，复发风险依旧不低；  
+- 同时需要避免“堆砌治疗”导致毒性与经济负担不成比例。
+下面给出一个**更贴近现有高质量证据与风险分层**的方案框架（偏“可落地”），并说明何时可以减量。
+---
+## 1）先明确：目前最有证据的“围手术期免疫”模式是什么？
+现有更高等级证据支持的是**“新辅助免疫化疗 + 术后继续免疫至满1年左右”**的围手术期模式（多项III期研究已显示EFS获益），其共同点是：  
+- **术后免疫不是可有可无的加餐**，而是围手术期方案的“后半程”；  
+- 术后是否还要“再补化疗”并不是围手术期证据的必备要件，尤其在患者已完成含铂双药新辅助的前提下。
+你提到的“三明治”（术后再补化疗2次 + 免疫维持1年）之所以证据薄弱，关键是：**很难证明那“多出来的2次化疗”在已经完成新辅助含铂双药的情况下还能额外显著增加EFS**，却几乎必然增加骨髓抑制、神经毒性、肾功能/听力风险和费用。
+---
+## 2）推荐的“证据导向、风险收益更平衡”的首选方案
+### A. 术后以“免疫辅助”为主：继续PD‑1治疗至总疗程约1年
+- **建议**：术后恢复后（通常4–12周内，根据伤口与肺功能恢复）开始/继续原PD‑1（信迪利单抗）辅助治疗，目标总时长约1年（很多方案按固定次数/固定周期实施）。  
+- **理由**：  
+  1) 她是IIIA‑N2，且非pCR，复发风险仍高；  
+  2) MPR提示“对免疫敏感”，继续同一免疫药物更符合生物学逻辑；  
+  3) 相比加化疗，免疫单药辅助的边际毒性通常更可控，且更符合围手术期免疫研究的“后半程”设计。
+### B. 术后不常规“再补化疗2次”，除非存在明确的“化疗不足/高危病理”信号
+- **我更倾向**：**不把“术后再补2周期化疗”作为默认动作**。  
+- **但以下情况可考虑补足到总计4周期含铂双药（新辅+术后=4）**（属于“可选项”，需个体化）：  
+  - 术后病理提示**仍有大量残留（比如&gt;10%且伴明显脉管/胸膜侵犯）**、或多个N2站转移、或切缘/纵隔评估存在疑点；  
+  - 新辅助只做了2周期且“剂量强度不足/实际未足量”；  
+  - 患者非常在意“把传统4周期铂双药做满”的心理安全感，且骨髓储备好、肾功能好、愿意接受更高毒性/费用。  
+- **注意**：补化疗的“理论收益”主要来自“总化疗强度更接近传统标准”，但它对EFS的增益在围手术期免疫时代并没有被清晰证实；而毒性与经济负担则是确定的。
+---
+## 3）放疗（PORT）要不要？这是N2人群的另一个关键变量
+对IIIA‑N2术后是否做PORT，**需要看病理N2的具体形态与清扫质量**，不能一概而论。一般建议你们补齐以下信息后在胸外/放疗/肿瘤内科MDT讨论：  
+- pN2是**单站还是多站**、是否“跳跃性N2”、**淋巴结阳性数/清扫数**、是否有**包膜外侵犯（ECE）**；  
+- 手术清扫是否系统；  
+- 切缘是否绝对阴性；  
+- 术后肺功能与放疗风险。
+**经验性倾向**：  
+- 若是**多站N2、阳性结节负荷大、ECE阳性**，PORT更值得讨论（局部控制收益可能更大）；  
+- 若是**单站、负荷小、系统清扫充分**，PORT往往更谨慎（因为肺/食管/心脏毒性是现实问题）。  
+并且：如果要做PORT，需要与免疫治疗的时序和肺毒性风险协调（通常避免叠加造成免疫相关肺炎风险上升）。
+---
+## 4）如何在“最大化EFS”与“毒性/经济负担”之间做决策：给一个实用分层
+可以用一个简化的“决策表”帮助沟通：
+### 方案1（多数情况下的首选）：**术后免疫单药至1年**
+- **EFS潜在收益**：来自围手术期免疫“后半程”，对N2/非pCR人群更合理。  
+- **毒性/费用**：中等（免疫相关不良反应需监测，但通常可管理）。  
+- **适用**：她这种“已MPR、耐受好、PD‑L1低表达也不排除获益”的典型人群。
+### 方案2（更激进，毒性更高）：**补足化疗（1–2周期） + 免疫至1年**
+- **EFS潜在收益**：不确定的额外增益（证据不强），但“心理上更踏实”。  
+- **毒性/费用**：更高。  
+- **适用**：病理高危负荷明显、或新辅确实不足量、或患者强烈偏好“火力全开”。
+### 方案3（更保守，费用最低，但可能牺牲EFS）：**仅完成传统辅助化疗，不做术后免疫**
+- **不太推荐**：在她已从免疫中获益（MPR）的前提下，放弃术后免疫可能损失围手术期策略的核心价值。
+### 方案4（减量策略）：**免疫疗程缩短（如6个月）**
+- **证据不足**，但在经济压力非常大或出现低级别但持续免疫毒性时，可作为折中；需要充分告知不确定性。
+---
+## 5）我会给这位患者的“默认建议”（一句话版）
+**术后优先继续信迪利单抗辅助治疗，目标总疗程约1年；不常规再补2周期化疗，除非病理提示N2负荷大/多站/ECE等高危或新辅剂量不足；PORT依据pN2负荷与清扫质量MDT个体化。**
+---
+## 6）为了把方案“做得更准”，建议补齐的关键病理与围术期信息
+请你把以下信息补充出来（这些会直接改变辅助治疗强度与PORT决策）：
+1) 术后最终分期：ypT?N?（N2单站/多站？）  
+2) 阳性淋巴结站数、阳性数/清扫总数；是否ECE；  
+3) LVI（脉管侵犯）、VPI（胸膜侵犯）、STAS；  
+4) 切缘距离与支气管/血管切缘情况；  
+5) 术后并发症、肺功能；  
+6) 是否计划/已做术后ctDNA MRD（如果可及，可用于风险再分层与随访强度；但目前不应单独作为停免疫的充分依据）。
+如果你愿意提供这些病理细节，我可以把“是否补化疗、是否PORT、免疫时长与时序”进一步收敛到更具体的可执行路径（含随访与不良反应监测要点）。</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>1. 基本判断  
+• ⅢA-N2 属于高复发风险人群；尽管获得了 MPR（残留肿瘤 7%），仍有相当比例的患者 2-3 年内复发。  
+• 仅完成 2 周期新辅助治疗，总化疗剂量不足 4 周期。  
+• 目前尚无“新辅助免疫＋手术后仅随访”可以替代辅助治疗的高级别循证证据。
+2. 证据与指南梳理  
+1) 传统标准  
+   – ⅢA（N2）术后推荐 4 周期含铂双药化疗（IA 级）。  
+2) 纯辅助免疫  
+   – IMpower010：Ⅱ-ⅢA（R0+4 周期化疗后）Atezolizumab 1 年 vs 随访，PD-L1≥1% 组 DFS 获益（HR 0.66）；≥50% 获益最显著。  
+3) 围术期免疫（“三明治”/“peri-IO”）  
+   – NADIM Ⅰ/Ⅱ、CheckMate-77T、KEYNOTE-671、AEGEAN、GEMSTONE-303 等均采用“3 周期新辅助 IO＋化疗 → 手术 → 1 年辅助 IO”(有的先化后 IO)。这些研究 DFS/EFS 已显示趋势或显著受益，且安全性可控。当前指南（CSCO2023、NCCN2024）均认为可在临床实践中“借鉴”此模式，但强调需与患者充分沟通证据级别。
+3. 可选治疗策略与利弊分析  
+方案 A（推荐）：完成含铂＋培美曲塞 2 周期辅助化疗 ＋ 同步或序贯信迪利单抗至总 1 年  
+• 理由  
+  – 补足 4 周期含铂化疗是现有最高级别证据的标准。  
+  – 既往对信迪利单抗耐受良好，MPR 提示对药物敏感。  
+  – 我国Ⅱ期随机研究（信迪利单抗围术期）及国际多项Ⅲ期 peri-IO 结果均支持术后继续 ≥9 个月 PD-1/L1 抑制剂可明显改善 EFS。  
+  – 信迪利单抗已纳入医保，费用及依从性较可接受。  
+• 可能风险：免疫相关不良反应（irAE）≈ 10%–15% 3-4 级，需密切监测；经济成本约 3–4 万元/年（医保后）—需与患者充分讨论。
+方案 B：仅补足 2 周期辅助化疗，不再继续免疫，进入密切随访  
+• 理由  
+  – MPR 已是有利预后因素；CheckMate-816 术后多未常规给药；部分病例中 EFS 仍佳。  
+  – 可避免潜在 irAE 与额外开支。  
+• 缺点：缺少免疫巩固可能降低长期 EFS；对 N2 人群可能不足。
+方案 C：补足 2 周期化疗后改用 atezolizumab 1 年  
+• 利用 IMpower010 Ⅲ期高水平证据。  
+• 但患者已用/耐受信迪利单抗，无证据表明换药优于继续原药；且 atezolizumab 目前国内未纳入医保，经济负担大。
+4. 综合推荐（需和患者共享决策）  
+1) 完成 2 周期培美曲塞＋顺/卡铂辅助化疗（第 3、4 周期）。  
+2) 同步或序贯继续信迪利单抗至总治疗时间 1 年（若经济可承受、无禁忌）。  
+3) 若患者对费用或 irAE 担忧，可退而求其次仅做 2 周期化疗后随访；但务必说明潜在复发风险增高。  
+4) 鼓励如有条件进入正在进行的围术期免疫临床试验，以获取更多循证支持。  
+5) 全程监测：  
+   – irAE：肝功、甲功、肺炎等；  
+   – 影像：术后 3 个月一次，2 年内每 3-6 个月；  
+   – 经济评估：医保报销、慈善援助、患者意愿。
+这样既延续了目前已显疗效的药物，又符合“完成 4 周期含铂化疗＋1 年免疫巩固”的最新临床证据走向，在最大化 EFS 的同时对毒性和经济负担做了相对平衡。</t>
         </is>
       </c>
     </row>
@@ -32663,6 +38546,188 @@
 此方案平衡了根治性、时效性与老年患者耐受性，符合循证医学和个体化原则。执行中需动态评估，如有新证据及时修正。</t>
         </is>
       </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>下面给出一个“以根治为目标”的、可执行的分层决策方案（含风险评估与备选路径）。核心原则：**III期N2（隆突下融合）患者的治愈性治疗以“高质量局部治疗（手术或放化疗）+ 适当全身治疗”构成**；在**EGFR L858R**人群中，**免疫巩固获益不确定且毒性（尤其肺炎）风险更高**，且**免疫治疗与后续EGFR-TKI序贯可能出现严重肺毒性**，因此策略要更“谨慎免疫、强调局部根治与TKI衔接”。
+---
+## 1）先做“能否走手术根治路径”的再分期与风险评估（2周内完成）
+**目的**：判断是否有希望通过“新辅助治疗→手术→辅助治疗”实现R0切除；如果仍明显不可切除，则尽快转入根治性放化疗路径，避免因继续单药TKI拖延而错过局部控制窗口。
+### 1.1 影像与病理评估
+1) **PET-CT**：排除隐匿远处转移；评估隆突下/纵隔结节代谢是否明显下降。  
+2) **脑MRI（增强）**：III期EGFR突变建议常规做，避免漏诊脑转移。  
+3) **侵袭性纵隔再分期（强烈建议）**：  
+   - **EBUS-TBNA**优先（7组隆突下、4R/4L、2R/2L等），必要时**纵隔镜**。  
+   - 目标不是“影像PR”，而是确认**N2是否仍有活性肿瘤**、是否存在**多站N2**。  
+4) 评估“融合淋巴结”对手术的技术风险：与气管/主支气管、肺动脉、食管的界面；是否需要气管/支气管成形、血管重建等。
+### 1.2 全身与局部治疗耐受性评估
+- 肺功能（FEV1、DLCO）、心脏评估、营养/体能、合并症；  
+- 放疗相关风险：既往新冠肺炎残留改变、间质性改变、基础肺病会提高放射性肺炎风险；  
+- 阿美替尼不良反应与药物相关间质性肺病（ILD）风险筛查（症状、CT）。
+---
+## 2）基于再分期结果的三条主路径（优先级按“根治可行性”排序）
+# 路径A：**可转化为可切除**（优先考虑“手术根治”）
+**适用条件（满足越多越支持手术）**  
+- PET-CT无远处病灶；  
+- 纵隔再分期显示：**N2阴性**或**单站N2显著降期/低负荷**，技术上可实现**R0切除**；  
+- 外科评估认为融合结节虽存在但可在可控风险下清扫/切除（最好在高量中心）。
+**推荐策略（可执行）**
+1) **继续阿美替尼作为“转化/新辅助”到满3个月左右再评估**（你已经用了2个月，通常再给4–6周即可形成决策窗口），期间密切监测肺部毒性。  
+2) 达到手术窗口后：  
+   - 术前停阿美替尼一般建议**3–7天**（按中心经验/麻醉与外科习惯；关键是避免围手术期肺毒性与相互作用）。  
+   - 进行**肺叶切除+系统性纵隔淋巴结清扫**，追求R0。  
+3) **术后辅助治疗**（按病理决定）：  
+   - 若pN0–1且R0：以**辅助EGFR-TKI（奥希替尼证据最强；阿美替尼亦可按可及性/经验）**为主；  
+   - 若仍pN2或高危因素：在多学科讨论下考虑**术后放疗（PORT）**（需权衡肺炎风险与获益），并继续/切换至证据更成熟的辅助EGFR-TKI方案。  
+4) **不建议术后常规加免疫治疗**（EGFR突变获益不确定，且与后续TKI序贯肺炎风险更高）。
+**这条路径的关键风险**
+- 继续单药TKI时间过长导致“局部根治窗口”延误；  
+- 融合N2手术难度大、R1/R2风险；  
+- 围手术期并发症（气道/血管损伤、支气管胸膜瘘）；  
+- TKI相关肺毒性叠加术后恢复。
+**设置“止损点”**
+- 再给4–6周阿美替尼后若：  
+  - 纵隔仍明确多站阳性/融合无明显改善，或  
+  - 外科判断仍难以R0，  
+  → **立即转入路径B（根治性CCRT）**，不要继续“无限期”等手术机会。
+---
+# 路径B：**仍不可切除/不宜手术** → 以根治性放化疗为核心
+**适用条件**
+- 纵隔再分期显示持续明确N2（尤其多站）、融合侵犯明显，R0概率低；或患者肺功能/合并症不适合手术。
+**推荐策略（可执行）**
+1) **转为根治性同步放化疗（CCRT）**：  
+   - 放疗：60 Gy/30次（或等效方案），严格限制肺V20、平均肺剂量、心脏剂量；  
+   - 化疗：优选铂类双药（例如顺铂/依托泊苷 或 卡铂/紫杉醇周疗等，按中心方案与耐受性）。  
+2) **CCRT后“巩固治疗”的选择：倾向EGFR-TKI巩固，而非免疫巩固**  
+   - 传统标准是度伐利尤单抗巩固，但在EGFR突变人群总体获益不确定，且后续若再用EGFR-TKI，**免疫→TKI序贯ILD风险上升**。  
+   - 因此更可行的做法是：**CCRT后不接免疫巩固，改为EGFR-TKI巩固/维持（临床试验优先；无试验条件下可个体化采用）**。  
+3) 若团队仍考虑免疫巩固：  
+   - 必须进行严格肺炎风险评估（新冠后肺部残留、放疗计划肺剂量、既往ILD倾向）；  
+   - 明确“将来是否还要用TKI”的序贯计划与洗脱期；  
+   - 并告知患者：在EGFR突变背景下这不是最稳妥的路径。
+**这条路径的关键风险**
+- 放射性肺炎（新冠后肺损伤会增加风险）；  
+- 若使用免疫巩固：免疫相关肺炎 + 与后续TKI叠加的严重肺毒性；  
+- 同步化疗耐受性（69岁需评估肾功能、骨髓储备、听力、周围神经等）。
+---
+# 路径C：**“边界可切除/多学科意见分歧”** → 采用“短周期转化 + 明确分叉点”的联合策略
+当外科认为“也许能切，但风险/不确定性高”，可以用一个**时间受控**的策略提高局部根治概率，同时避免拖延：
+**可执行方案**
+1) **阿美替尼再用4–6周（总疗程约3个月）+ 同期完成EBUS再分期/PET-CT**；  
+2) 若N2仍阳性但较局限、且外科有把握R0：可考虑**新辅助放化疗或新辅助放疗（或序贯化疗/放疗）后手术**（需中心经验；对隆突下融合结节要谨慎，手术并发症可能上升）；  
+3) 若评估仍不理想：立刻切换至**根治性CCRT**，并按路径B选择巩固策略（优先TKI/试验）。
+---
+## 3）在你给定情境下的“推荐主方案”（更贴近现实落地）
+你描述的关键点是：**2个月阿美替尼后PR，但隆突下淋巴结仍融合、可切除性不明**。在这种情况下，最稳妥的做法不是“继续无限期等更好影像”，而是：
+### Step 1：立刻MDT + 再分期（PET-CT + 脑MRI + EBUS/纵隔镜）
+- 若EBUS证实N2阴性或明显降期且外科认为可R0 → **走路径A（尽快手术根治）**。  
+- 若EBUS仍阳性/多站/融合固定 → **走路径B（根治性CCRT）**。  
+### Step 2：给阿美替尼“最多再4–6周”的决策窗口
+- 你已经PR，继续一点时间可能让纵隔更“松动”；但必须设定止损点，避免把根治性放化疗窗口拖没。
+### Step 3：巩固治疗的倾向
+- 若走CCRT：**不优先推荐度伐利尤单抗巩固**；更倾向**CCRT后进入EGFR-TKI巩固/维持的临床试验**；无试验时再个体化选择TKI维持并严密随访肺毒性。  
+- 若走手术：术后以**辅助EGFR-TKI**为核心，是否加PORT由病理N2情况、切缘、复发风险与肺炎风险共同决定。
+---
+## 4）关键沟通点（给患者/家属的“选择代价”）
+- **继续阿美替尼争取手术**：可能把N2进一步降下来，提高R0机会；但“融合N2”未必能解开，且拖延局部根治风险存在。  
+- **转入CCRT**：是III期不可切除的标准根治路径；但新冠后肺部基础 + 放疗 +（若加免疫/TKI序贯）会让肺炎风险成为主要矛盾。  
+- **免疫巩固**：PD-L1阳性不等同于EGFR突变就一定受益；在EGFR突变人群获益不确定，且肺毒性与后续TKI冲突是现实问题。
+---
+如果你愿意，我可以把上述方案进一步“表格化/流程图化”，并根据：  
+1）是否单站N2还是多站N2，2）EBUS结果，3）PET SUV变化，4）肺功能与新冠后CT残留程度，  
+给出更具体的“放疗剂量约束要点、化疗方案选择、以及TKI/免疫的具体序贯与洗脱期建议”。</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>【决策原则】
+1. 以根治为最终目标；任何路径都应保证在“可切除/可根治放疗”与“全身病控制”之间取得最佳平衡。  
+2. 充分依赖 MDT（胸外科、放疗科、呼吸科/肿瘤内科、影像科、麻醉科）动态评估可切除性。  
+3. 对 EGFR 21 外显子 L858R 突变的 ⅢB 期患者，既往循证证据显示：  
+   • 免疫治疗（ICI）单独或与 CCRT 之后的巩固，对 EGFR 突变人群获益有限，且 ILD 风险增加。  
+   • EGFR-TKI 诱导后转化手术或与放疗序贯/同步联合，观察到较高的病理缓解率和长期生存率。  
+   • EGFR-TKI＋同步放疗（“TKI-RT”）的放射性肺炎风险高于分步进行。  
+   综上，“TKI 转化±手术”或“TKI 序贯 CCRT”比“CCRT+ICI”更符合当前循证医学与安全性要求。
+【当前状态】  
+• 诱导阿美替尼 2 个月：原发灶 PR，隆突下 N2 仍融合；可切除性未明。  
+• 年龄 69 岁，基础心肺功能可接受胸外科手术或 CCRT。  
+• 新冠已康复，无活动性感染。  
+• PD-L1 阳性，但并非优先决策因素。
+================================================================
+一、再分期与风险评估（第 0–2 周完成）
+================================================================
+1. 影像学  
+   PET-CT + 动态胸部增强 CT，明确残余肿瘤边界、淋巴结大小/代谢。  
+2. 介入评估  
+   EBUS-TBNA/纵隔镜活检：  
+   • 确认 N2 是否为单站、可清扫型？  
+   • 排除远处转移。  
+3. 生理储备  
+   心肺功能、营养评分、共病指数（CCI）、动态肺功能。  
+4. 药物相关不良反应  
+   记录皮疹、间质性肺病（ILD）征象、肝肾功能等。
+若经 MDT 认为“单站或寡融合，可行 R0 切除”，进入路径 A；  
+若“多站/广泛粘连或 R0 可能性低”，进入路径 B；  
+若合并重度共病或患者明确拒绝根治性局部治疗，进入路径 C。
+================================================================
+二、可执行治疗路径
+================================================================
+路径 A　继续转化 + 手术 ± 辅助治疗
+--------------------------------
+1. 继续阿美替尼 1–2 个周期（28 天/周期），每 4 周复查胸部增强 CT；  
+2. 手术适应证达成后：  
+   • 停用阿美替尼 ≥7 天；  
+   • 施行开胸或 VATS 肺叶/段切除 + 系统性淋巴结清扫；  
+3. 术后病理分期：  
+   • pN0-1：阿美替尼单药辅助 3 年；  
+   • pN2 或 R1：可考虑 4 周后顺铂-培美曲塞 × 2–4 周期，再接续阿美替尼 3 年。  
+4. 随访：每 3 个月影像学 + 肝肾功能，至少 2 年，之后每 6 个月。
+预期获益  
+• 病理学 R0 切除 + 长期 TKI，可获得&gt;5 年 DFS 的可能性。  
+主要风险与应对  
+• 术后并发症（支气管胸膜瘘、持续漏气）：术前心肺功能评估+ ERAS 管理。  
+• 长期 TKI 毒性：监测 ILD、QT 延长、皮疹。
+路径 B　序贯 CCRT → 阿美替尼巩固
+----------------------------
+1. 停用阿美替尼 7 天后开始 CCRT：  
+   • 放疗：60-66 Gy/30-33 f（IMRT）；  
+   • 同步化疗：顺铂 + 培美曲塞（老年患者也可选周程低剂量顺铂/长春瑞滨）。  
+2. CCRT 结束 2–4 周后，若评估无≥2 级放射性肺炎，可重启阿美替尼作为巩固/维持 ≥2 年。  
+   （注：不推荐 Durvalumab 巩固，因 EGFR 阳性人群疗效低、毒性高，可保留二线用途。）  
+3. 若放疗前后肿瘤进一步缩小并转可切除，可在放疗结束 6–8 周后讨论救援手术可能性。  
+预期获益  
+• IMAGE 及 RECEL 参数提示 EGFR 患者经 CCRT＋TKI 获得的 PFS 可达 20–30 个月。  
+主要风险与应对  
+• 放射性肺炎 + TKI 叠加：严格剂量限制 V20&lt;30%，V5&lt;60%；巩固 TKI 推迟至 ≥8 周或肺炎完全缓解后。  
+• 化疗毒性：老年患者给予剂量减量方案；积极营养与 G-CSF 支持。  
+路径 C　单纯阿美替尼长期治疗 + 立体定向放疗（SBRT）局部加强（保守策略）
+--------------------------------------------------
+适用于：  
+   • 合并严重心肺疾患、无法耐受 CCRT/手术；  
+   • 患者强烈拒绝手术或放化疗。  
+方案：  
+   • 阿美替尼持续；  
+   • 对残余原发灶或淋巴结行 SBRT 50 Gy/5 f 或 60 Gy/8 f；  
+   • 定期随访，如进展再行化疗或二/三线 TKI。  
+================================================================
+三、监测与转换原则
+================================================================
+1. 每 4–6 周评估不良反应；每 8–12 周影像学评估。  
+2. 出现以下情况需跨路径调整：  
+   • 肿瘤进展或丧失可切除机会 → 路径 B 或 C；  
+   • ≥3 级药物毒性或放射性肺炎 → 暂停/减量，必要时激素。  
+3. 明确同步/转移进展（CNS、骨等） → 立刻行全身及局部整合治疗（TKI 剂量调整 ± 局部放疗/手术）。
+================================================================
+四、小结与推荐
+================================================================
+基于患者初始不可切除 N2、TKI 诱导后已达 PR，可望进一步缩小或直接手术，建议：
+首选：路径 A  
+• 再分期 + MDT 评估，若判断有望 R0，则继续阿美替尼 1–2 月 → 手术 → 术后阿美替尼 3 年（±化疗）。  
+备选：路径 B  
+• 若仍多站 N2 或粘连严重，放弃手术机会 → CCRT（顺铂+培美+60 Gy） → 阿美替尼巩固。  
+不推荐常规采用 Durvalumab 等 ICI 巩固，除非后期出现 T790M 负、EGFR 阴性或获得充分证据支持。
+最后，保持患者充分知情并参与选择，定期 MDT 复审，确保在最小化毒性前提下争取最大治愈概率。</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -32910,6 +38975,28 @@
 5. **多学科会诊准备**（若后续发现异常或高危征象）。  
 ---
 **注意**：即使影像学显示“消失”，仍需警惕微转移或局部复发可能。严格随访是确保早期发现复发的关键，同时需关注患者生活质量及心理状态。</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>这属于**Pancoast（肺上沟）鳞癌**，已行**根治性序贯放化疗**后影像学达到**完全缓解（CT示肿物消失）**。此时的标准下一步处理一般是：
+1. **评估是否可手术切除（“放化疗后挽救/巩固手术”）**  
+   - 先做**全身再分期**：增强胸部CT/上胸入口区MRI（评估臂丛、椎管、血管）、**PET-CT**（或至少排除远处转移）、必要时纵隔分期（EBUS/纵隔镜）。  
+   - 若无远处转移、局部可切除、心肺功能允许：行**上肺叶切除 + 胸壁/受侵结构联合切除（如需）+ 系统性纵隔淋巴结清扫**。  
+   - 说明：即使影像学“消失”，仍可能存在显微残留，Pancoast瘤在“可切除人群”里通常倾向于争取R0切除。
+2. **若评估为不可切除或手术风险过高**  
+   - 进入**密切随访观察**为主（3–6个月复查影像等），出现局部复发再考虑**挽救手术/再放疗/系统治疗**等。  
+补充一点：**序贯放化疗后**一般**不按“同步放化疗后巩固durvalumab（度伐利尤单抗）”的经典路径**处理；是否用免疫巩固需结合是否为同步放化疗、放疗剂量/时序、指南与患者具体情况在MDT中个体化讨论。
+结论：**下一步应做再分期与可切除性评估，能切则行根治性手术切除（R0）+淋巴结清扫；不能切则随访/个体化挽救治疗。**</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>上沟瘤的标准治疗是“诱导（新辅助）放化疗＋手术切除”模式。  
+虽然根治性序贯放化疗后胸部 CT 已难以见到肿物，但影像学的完全缓解并不等同于病理学完全缓解，肿瘤仍可能有微小残存灶；若仅依靠放化疗而不手术，局部复发率较高。  
+因此，在排除远处转移、评估肺功能和手术耐受性后，下一步应：
+• 行根治性手术切除——通常为左上肺叶及受侵胸壁(第 1～3 肋)整块切除，并行系统性纵隔淋巴结清扫。  
+术后根据病理结果再决定是否需要进一步的辅助治疗。</t>
         </is>
       </c>
     </row>
@@ -33286,6 +39373,134 @@
 希望此分析对您临床决策有帮助。如需更具体场景讨论，请补充细节（如结节大小、实性成分比例、吸烟史）。</t>
         </is>
       </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>在石蜡最终病理未出、且本次手术属于“有限切除+切缘与分期信息不完整”的前提下，下一步的关键不是立刻给对侧结节“定性为多原发癌”，而是**先把本次已切除主结节的“最终诊断—切缘—浸润程度—分期完整性”补齐**，同时用影像学规则化地分层对侧结节风险，确定“需要尽快处理的结节是哪一个”。可按以下顺序评估与决策。
+---
+## 1）先用“最影响决策的缺口”来排序：石蜡病理与切缘优先级最高
+目前冰冻提示“慢性炎症伴局灶不典型增生，不除外原位癌”，这类结果对临床的意义是：**冰冻无法排除AIS/MIA/小浸润腺癌**；而不同结论会直接改变“是否需要补手术/补分期/补切缘”的策略。
+石蜡病理必须尽快明确至少以下要点（建议与病理科沟通加做/补做）：
+- 是否为：AAH / AIS / MIA / 侵润性腺癌（及浸润灶最大径，是否≤5 mm）
+- 组织学亚型（是否有微乳头/实性等高危成分）
+- 有无STAS（气腔播散）、脉管/胸膜侵犯
+- **切缘状态**：R0/R1；如果楔切标本方向性不清，建议病理科“重新取材评估最近切缘”，必要时补做墨染定位、追加切缘取材
+- 主结节“实性成分大小”（与影像对照：总径 vs 实性径）
+&gt; 你描述“3.0 cm切缘缺乏组织学证实”——临床口头距离不等于病理R0。对局部复发风险判断，**R0证实比距离数字更重要**。
+---
+## 2）如何评估“本次手术信息不完整导致的局部复发风险”
+可分成三档（以最终石蜡+影像对照为基础）：
+### A. 低局部复发风险（通常无需补切除）
+满足多数条件时可归为低风险：
+- 石蜡为 AAH / AIS，或 MIA 且浸润≤5 mm、无高危亚型、无STAS
+- **切缘R0明确**
+- 影像表现为纯GGO或以GGO为主、实性成分很小
+这类情况下，楔切/段切的局部控制通常较好，复发更常来自“其他结节进展”而非原灶复发。
+### B. 中等风险（需要MDT讨论“补手术的边界”）
+出现任一项需要提高警惕：
+- 病理为浸润性腺癌（尤其浸润灶&gt;5 mm）但仍小、以腺泡/贴壁为主
+- 切缘虽阴性但距离很近，或切缘评估不充分
+- 有可疑STAS或高危成分但证据不强
+此时通常要结合：肺功能、病灶位置、能否行解剖性切除（优先段切，其次叶切）以及患者意愿来决定是否“补解剖性切除+系统/选择性纵隔淋巴结采样/清扫”。
+### C. 高风险（倾向尽快补手术/补分期）
+任一项成立往往应倾向“补手术”：
+- 切缘阳性或无法确认R0（特别是若病理证实浸润性腺癌）
+- 明确STAS阳性且做的是楔形切除
+- 侵润性腺癌伴微乳头/实性成分、脉管/胸膜侵犯
+- 影像实性成分明显（例如CTR较高），而只做了楔切且未系统分期
+&gt; 由于你提到仅取2、4组，属于**不完整纵隔分期**；若最终是侵润癌，分期不足会增加“遗漏N2”的概率（尤其右上肺还应考虑2R/4R/7等，左侧则4L/5/6/7等，具体依肿瘤部位）。
+---
+## 3）如何评估“对侧多发GGO为多原发癌”的风险（先分层，再决定谁优先处理）
+对侧多发磨玻璃结节很常见两种路径：  
+- **多原发腺癌谱系病灶（AAH/AIS/MIA）**：多发、缓慢、以纯GGO/小混合GGO为主；  
+- 少数为转移/播散：更常见于已有明确浸润性癌、结节呈实性或快速增长、或出现淋巴结/远处转移证据。
+在目前“主灶尚未定性+分期不全”的情况下，建议用**影像学的“结节危险分层”**来评估对侧风险，而不是急于用“是否多原发”下结论：
+### 影像分层要点（越多越高危）
+- 结节类型：混合GGO &gt; 纯GGO；实性成分越大风险越高  
+- 实性成分增长（最重要）：实性部分增大比总径增大更提示浸润进展  
+- 结节直径：持续≥10 mm、尤其≥15–20 mm需提高警惕  
+- 边缘毛刺/分叶、胸膜牵拉、血管集束  
+- 既往片对比：6–12个月内明显生长或出现新实性成分  
+- PET-CT：对纯GGO敏感性有限；对“有实性成分的结节”更有帮助  
+- 是否出现纵隔/肺门淋巴结增大或远处病灶（若有则更像系统性疾病而非多原发惰性病灶）
+&gt; 多发、双肺、以纯GGO为主且长期稳定，更符合“多原发/多灶原位谱系”，其临床策略往往是“优先处理最可疑/进展最快的一个”，其余监测。
+---
+## 4）下一步“最优先”的临床处理策略（按时间顺序）
+### 第一步：尽快拿到并“补齐”石蜡病理关键信息（最高优先级）
+- 要求病理报告明确：AIS/MIA/侵润？浸润灶大小？STAS？切缘R0？  
+- 若切缘无法评价或可疑：与病理沟通追加取材；必要时请上级医院会诊病理切片。
+这是决定是否需要“二次手术（补切除/补分期）”的前提。
+### 第二步：做一次“标准化全胸评估”，把对侧结节分级并确定优先级
+- **薄层HRCT（≤1 mm）**：统一测量每个结节的总径、实性径、CTR，建立基线表格  
+- 若主灶最终证实为侵润癌或对侧存在明显混合/实性结节：可考虑**PET-CT**用于分期与选择“最该先处理的结节”（但对纯GGO意义有限）
+### 第三步：根据“石蜡结果+切缘/高危因素+患者肺功能”做MDT决策
+常见决策路径如下（便于你们对照）：
+1）**若石蜡为AIS/AAH，切缘R0**：  
+- 本次手术一般可视为“充分治疗”；  
+- 对侧结节按影像风险分层随访为主（优先关注混合GGO或有增长者）；  
+- 随访节奏常为3–6个月复查HRCT，稳定后延长间隔。
+2）**若为MIA，切缘R0、无STAS/高危成分**：  
+- 多数情况下也可不补手术；  
+- 对侧同上，监测为主，选择性处理“实性成分增大的结节”。
+3）**若为侵润性腺癌 或 STAS阳性 或 切缘不明/可疑R1**：  
+- **优先讨论同侧补做解剖性切除（优先解剖性段切，必要时叶切）+更规范的纵隔淋巴结评估**，因为这是影响局部控制与分期最直接、可逆的风险点；  
+- 在同侧问题未解决前，对侧除非存在明显高危/快速进展结节，一般不抢先做对侧手术，以免累积肺功能损失、且分期未明时治疗顺序可能错误。  
+- 若肺功能不足或不能再手术：再讨论局部治疗替代方案（如SBRT等）及严密随访。
+---
+## 5）你们目前这例患者，我会如何“落地执行”的优先清单
+1. **立刻**：病理科沟通石蜡出报告时间；提出明确问题清单（浸润大小、STAS、切缘R0、与影像实性径对照）。必要时申请病理会诊。  
+2. **同步**：整理全部结节的HRCT基线数据（每个结节：位置、总径、实性径、CTR、形态），标出“最高危的1–2个结节”。  
+3. **石蜡一出即MDT**（胸外+影像+病理+肿瘤/放疗）：  
+   - 若侵润/高危或切缘不清：优先解决同侧“补切除/补分期”问题；  
+   - 若AIS/MIA低危且R0：把重点转为对侧与其余结节的分层随访/择期处理策略。  
+---
+如果你愿意，把以下信息补充一下，我可以把“对侧结节多原发风险分层表 + 这次是否需要补手术的阈值”更精确地写成可执行的方案：  
+1）主结节CT：总径、实性径（或CTR）、位置（叶段、是否靠胸膜）、是否见胸膜牵拉/毛刺；  
+2）对侧每个结节：最大者总径/实性径、是否混合GGO、有无近期增长（有无既往片及间隔）；  
+3）患者肺功能（FEV1、DLCO）与合并症；  
+4）手术侧别与具体楔切部位、术中是否标记切缘方向。</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>一、对目前手术标本和双肺 GGNs 的再评估思路  
+1. 等待并催促石蜡病理最终报告  
+   • 明确病理学类型：AAH、AIS、MIA 还是 IAC（浸润性腺癌）。  
+   • 测量浸润成分大小、肿瘤-支气管腺样结构（STAS）等危险因素。  
+2. 重新确认切缘  
+   • 要求病理科对送检的 3.0 cm 切缘做追加包埋/多层切片，必要时在术后残余肺实质上行 CT-引导穿刺或 PET/CT 了解局部状况。  
+   • 若石蜡证实切缘阳性或切缘/肿瘤直径比＜1，可视为潜在残留。  
+3. 重新分期与“多原发”判断  
+   • 依据 IASLC/WHO 标准及 2023 NCCN 指南，多个以纯/混合 GGO 为主、位于不同肺叶且无淋巴结转移的病灶，＞80% 可能属于多原发早期腺癌序列 (AAH-AIS-MIA)。  
+   • 仅取 2、4 组淋巴结，缺乏系统性分期。除非石蜡提示 IAC + 明显浸润，否则发生肺内转移的可能性较小。  
+二、风险权衡  
+1. 对侧/同侧其他 GGN 进展为癌的风险  
+   • 文献提示 5 年内生长或实性成分增加率约 10%–25%，与病灶大小、实性部分出现密切相关。  
+   • 双肺多灶 GGN 患者终生出现 ≥2 个原发癌的累积风险可达 30%–40%。  
+2. 本次手术“局部复发/残留”的风险  
+   • 若最终为 AIS 或 MIA（侵润≤5 mm）：只要切缘阴性，局部复发率＜1%。  
+   • 若为 IAC 或 STAS(+)、切缘阳性或切缘不足，局部复发率可增至 10%–20%，且死亡风险升高。  
+   • 仅行选择性 2、4 组取样而未清扫，无法排除 N1、其他 N2 转移。  
+三、下一步最优先的临床策略（按时间先后）  
+1. 先获得并讨论石蜡病理最终结果  
+   a) 若为 AAH / AIS 或 MIA 且切缘阴性（&gt;肿瘤侵润径或≥1 cm），可暂不追加手术。  
+   b) 若为 IAC，或 MIA 但切缘不足 / 阳性 / STAS(+) ，或无法确认切缘阴性：  
+      ‑ 建议二期解剖性切除（段/叶切除，根据肺功能、残余病灶分布选择）＋系统性肺门-纵隔淋巴结清扫。  
+2. 影像学随访及对侧病灶处理  
+   • 1 个月内复查一次 HRCT 作为基线；随后 3~6 个月一次，连续 2 年后可延长至 6~12 个月。  
+   • 设定“监测指标”：直径增加 ≥2 mm、出现或增大实性成分、CT 值显著增高。  
+   • 对最可疑（≥10 mm 或有实性成分）的病灶，可计划分期手术或射频/冷冻消融；其余病灶监视。  
+3. 术后系统治疗的必要性  
+   • AIS/MIA 完全切除者无需辅助治疗。  
+   • IAC pT1a-cN0M0 也无需辅助治疗；若二期补充手术后病理升级到 ≥pT1cN1/N2，可行含铂辅助化疗；如存在 EGFR 突变可考虑奥司替尼 3 年。  
+4. 多学科 (MDT) 再讨论  
+   • 结合病理、影像、肺功能和患者意愿，决定是否行二期解剖切除还是先密切随访。  
+   • 同时制定对侧病灶阶梯式处理计划，优先保留肺功能。  
+四、小结  
+• 当前最紧迫的是取得石蜡病理并确认切缘状况，以便决定是否需要“补救性”解剖切除。  
+• 对侧及残余 GGNs 以“多原发癌高危”对待，采用定期 HRCT 监测，必要时分期微创局部治疗。  
+• 若补救手术指征成立，应优先行解剖性切除＋系统淋巴结清扫；否则进入密切影像随访通道。</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -33650,6 +39865,78 @@
 3. 仅当CT显示结节增大/恶性征象或出现新症状时，再考虑PET-CT或活检。  
 4. 全程多学科协作（胸外科、呼吸科、康复科）：若肺功能恢复不佳，启动肺康复计划；若结节性质不明，MDT讨论是否需活检（但7mm通常不首选）。
 此路径平衡了“避免漏诊”与“避免过度检查”，符合高龄患者以功能恢复和生活质量为核心的管理理念。</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>在“右下叶鳞癌已根治切除、病理为 pT2aN0M0（按现行 TNM 多数对应 **IB 期**；并非 IA2）+ 左上叶 7 mm 结节性质未明 + 显著肺气肿/弥散轻度下降”的组合下，通常**不把 PET‑CT 作为术后立刻的优先项**；更符合分期与结节管理原则的是：**先按小结节随访策略进行短间隔低剂量胸部CT复查（约3个月），同时完成术后肺功能/运动耐量评估与动态恢复观察**。PET‑CT可作为“随访中出现高危变化或需要决定二次治疗方案时”的升级检查。决策依据如下。
+---
+## 1) 分期管理与“术后是否需要立刻全身再分期”  
+- 右肺原发灶已切除、纵隔淋巴结术前增大但术后若证实 **N0**，则术后常规处理以**随访为主**；并不因为有一个 7 mm 结节就必须立即做 PET‑CT 来“再分期”。  
+- PET‑CT更适合：  
+  1) **术前分期**（评估纵隔/远处转移）；  
+  2) **术后怀疑复发或转移**（有症状或影像学进展时）；  
+  3) 需要决定是否进入进一步侵入性分期/二次治疗（再手术、SBRT等）时，用来提高把握度。  
+- 对一个**7 mm**的孤立结节，“术后立刻 PET‑CT”往往并不能改变管理路径，原因见下一条。
+---
+## 2) 7 mm 结节做 PET‑CT 的诊断收益有限（尺寸与假阳性问题）  
+对肺结节，PET‑CT的主要限制是：  
+- **空间分辨率**：7 mm结节接近或低于PET对小灶的可靠检测阈值，**假阴性**率明显升高；“PET阴性”并不能排除早期腺癌/原位癌/微浸润腺癌等。  
+- **术后炎症/肺气肿相关改变**：近期手术后胸内炎症、淋巴结反应性增大、瘢痕改变等会增加FDG摄取，导致**假阳性**，反而可能引发不必要的进一步检查或介入。  
+- 结节管理的核心仍是**形态学变化（增长、密度变化、毛刺/胸膜牵拉等）**，而这些更依赖**薄层CT的动态对比**。
+结论：对一个 7 mm 结节，PET‑CT在“当下”往往既不够敏感也不够特异，性价比不如先做短间隔薄层CT随访。
+---
+## 3) 合并显著肺气肿/弥散下降：任何“二次干预”的决策都要建立在功能储备评估之上  
+这位患者 75 岁且有显著肺气肿、DLCO下降，提示：  
+- 若左上叶结节未来需要楔形/段切/甚至叶切，**围手术期风险**、术后持续气漏、肺功能进一步下降的风险更高。  
+- 因此术后早期应优先做的是：  
+  - **术后肺功能（FEV1、DLCO）及预测术后值 ppoFEV1/ppoDLCO）**的再评估；  
+  - 必要时加做**6分钟步行/心肺运动试验（CPET）**来估计能否承受二次手术或是否更倾向SBRT/消融等方案。  
+换句话说，即便PET‑CT提示“可疑”，若患者功能储备不足，治疗策略也可能更偏向**观察/放疗/微创消融**；因此“先把功能与恢复情况看清楚”，对后续路径更关键。
+---
+## 4) 影像学风险收益比：不是“辐射”本身决定，而是“是否能改变管理”  
+- PET‑CT确有额外辐射，但对75岁患者，辐射致癌的绝对风险并非主要矛盾；真正的问题是：**这次检查能否在当下改变决策**。  
+- 以 7 mm 未明结节为例：  
+  - PET阳性：可能是假阳性（炎症/肉芽肿等），仍需CT随访或组织学证实；  
+  - PET阴性：仍不能排除恶性，仍需CT随访。  
+  → 因此“立刻PET‑CT”对决策增量有限。  
+- 相比之下，**短间隔低剂量薄层CT**辐射更低，且最能回答“是否在长大/是否出现高危影像学演变”，更直接影响后续是否需要进一步检查或治疗。
+---
+## 推荐的更优先策略（常见可执行路径）
+1) **术后恢复期**完成肺功能/运动耐量评估与优化（支扩、戒烟、康复训练等）。  
+2) 对左上叶 7 mm 结节：  
+   - **3个月左右复查薄层低剂量胸部CT**（或按放射科/结节门诊的高危结节随访方案）；  
+   - 若出现增长（如直径增大、体积倍增时间缩短）、实性成分增加、毛刺/胸膜牵拉等高危变化，或结节增至 ≥8 mm：再考虑 **PET‑CT + 进一步取材/治疗评估**。  
+3) 若术后病理/临床提示复发风险或出现可疑症状，则不拘泥于时间点，可提前升级检查。
+---
+## 何时反而应更倾向“尽快PET‑CT”
+如果左上叶结节在术前/术后CT上具备很强恶性征象（明显毛刺、分叶、胸膜牵拉、短期增长、伴可疑淋巴结/骨痛等），或已经 ≥8–10 mm，且临床上需要尽快决定是否进行二次局部治疗，那么PET‑CT的价值会上升。
+---
+**综合判断**：在“右肺已根治切除、N0、左肺仅7 mm结节、且术后早期存在肺气肿与弥散下降”的前提下，**优先短间隔薄层CT随访 + 肺功能动态评估**通常更符合指南式的风险收益逻辑；PET‑CT更适合作为随访出现进展或需要做二次治疗决策时的升级工具。</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>首选方案：暂不立即做 PET-CT，而是按常规术后流程进行肺功能动态监测和康复，同时按照指南在 3~6 个月时复查一次薄层胸部 CT（或 LDCT）随访左肺 7 mm 结节是否有生长变化；当病灶 ≥8 mm 或出现生长/形态学可疑改变时，再考虑行 PET-CT 或经气管镜／经皮穿刺活检。
+决策依据
+1. 结节大小与 PET-CT 诊断价值  
+   • PET-CT 对 ≤8 mm 结节的空间分辨率和代谢灵敏度有限，假阴性率高，阳性预测价值低。  
+   • 左肺结节仅 7 mm，立即行 PET-CT 可能得不到可靠结果，徒增 20~25 mSv 辐射及费用。  
+   • 根据 NCCN、Fleischner 及 ACCP 指南，＜8 mm 的孤立性实性结节首选高分辨率 CT 随访而非 PET-CT。
+2. 术后分期与随访策略  
+   • 病理分期 pT2aN0M0（IA2 期） ⇒ 已行根治性切除后无常规推荐辅助治疗，但须行严密影像随访：  
+     – NCCN：术后第 3~6 个月行一次对比增强或薄层 CT，之后前 2 年每 6~12 个月一次。  
+   • 左肺结节的随访可并入该常规 CT 计划，无需额外加做 PET-CT。
+3. 心肺功能储备及术后管理  
+   • 75 岁、高度肺气肿、弥散功能（DLCO）轻度降低，手术切除后呼吸储备进一步下降。  
+   • 术后早期应评估 FEV1、DLCO 的实际下降幅度，并开展呼吸康复、戒烟及肺功能锻炼，以指导日常活动量、氧疗及预防并发症。  
+   • 动态肺功能监测对预判远期生活质量、再次手术或放疗耐受性更具实际意义。
+4. 风险－收益权衡  
+   • PET-CT 的辐射剂量是常规低剂量 CT 的 4~5 倍以上，对 75 岁但有 COPD 的患者仍应避免不必要暴露。  
+   • 由于当前病灶太小而难以获得确切代谢信息，PET-CT 的受益明显低于其成本/风险。  
+   • 如果后续 CT 显示结节生长至 ≥8 mm 或表现为分叶、毛刺、空泡征等高危影像特征，再行 PET-CT 或组织学诊断，其收益更高。
+结论  
+基于现行肺癌分期随访指南、小结节影像学策略及患者术后心肺功能评估需求，现阶段不宜立即安排 PET-CT；应先进行肺功能动态监测并在 3~6 个月复查胸部 CT，以低辐射、循证且符合随访规范的方式观察左肺结节及评估术后恢复。若结节进展或增大，再行 PET-CT/活检以明确性质。</t>
         </is>
       </c>
     </row>
@@ -33962,6 +40249,37 @@
 &gt; **注**：以上基于当前信息，实际决策需结合完整病历（如吸烟史、既往史、基因检测结果等）。建议在石蜡报告前避免任何激进措施，以循证医学为原则。</t>
         </is>
       </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>应按“疑似浸润性腺癌且楔切切缘距离不足”的情形处理：**建议二次追加根治性切除**，优选在同次手术中（若还在台上）或尽快二期完成。
+要点如下：
+1. **先判断目前楔形切除是否“够根治”**
+   - 该结节为混合磨玻璃，**实性成分 1.5 cm**（对应临床上更接近浸润性病变的风险较高）。
+   - 楔形切除的**肿瘤至钉线/切缘仅 0.5 cm**，对浸润癌来说通常偏小，局部复发风险增高。
+   - 冰冻提示贴壁生长癌（多为腺癌谱系），虽待石蜡定浸润，但结合影像实性成分，**按“可能浸润癌”更安全**。
+2. **推荐的下一步手术处理**
+   - **追加右上叶肺叶切除（解剖性切除）+ 系统性纵隔/肺门淋巴结清扫或系统取样**：是最稳妥的标准根治方案。
+   - 若患者肺功能差、合并症多，确实不能耐受肺叶切除：至少应**追加解剖性肺段切除（右上叶相应肺段）+ 系统淋巴结清扫/取样**，并确保获得足够切缘。
+3. **为什么不建议仅观察或仅再“补一刀楔切”**
+   - 对疑似/可能浸润癌，**仅观察**存在漏治风险。
+   - 单纯再楔切往往仍难保证充分切缘，也不能完成规范的淋巴结分期/清扫。
+结论：**应追加解剖性根治切除（首选右上叶肺叶切除）并行系统淋巴结处理**；若不能耐受肺叶切除，则退而求其次为**肺段切除+系统淋巴结处理**，同时把切缘做够。</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>依照现有的影像、冰冻及切缘情况，可得出几点要点：
+1. 结节为混合磨玻璃结节，最大径 2 cm，其中实性成分 1.5 cm，提示高度可能为浸润性腺癌。  
+2. 目前仅行楔形切除，切缘仅 0.5 cm（＜推荐的“肿瘤直径或≥2 cm”安全切缘），且冰冻报告“贴壁生长的癌”，高度提示仍有浸润灶存在。  
+3. 按 NCCN、CSCO 等指南：  
+   • 对于 T1a～T1b 实性或混合密度病灶，如果可耐受肺切除，应行叶切除或至少解剖性段切除，并行系统性（或系统采样式）淋巴结清扫。  
+   • 单纯楔形切除仅适用于纯 GGO 或 ≤2 cm、无/微小实性成分、且取得充分切缘者。  
+因此在术中已证实“癌”而切缘不足的情况下，应立即（同一次麻醉下）补行解剖性切除——首选右上肺叶切除＋系统（或系统采样式）淋巴结清扫；如肺功能受限，也至少需行相应段切除（S¹＋S²＋S³复合段）并清扫淋巴结。
+要点回答：
+• 立即追加手术，改行右肺上叶叶切除（或段切除）＋系统性淋巴结清扫；  
+• 以确保足够切缘及完成肿瘤根治性切除，满足病理分期及后续治疗决策需要。</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
